--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390598</v>
+        <v>0.204288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391838</v>
+        <v>0.187788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.381916</v>
+        <v>0.189206</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381104</v>
+        <v>0.19442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.384279</v>
+        <v>0.186501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.374985</v>
+        <v>0.189628</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373773</v>
+        <v>0.187999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377648</v>
+        <v>0.188187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369305</v>
+        <v>0.188832</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367573</v>
+        <v>0.183702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372181</v>
+        <v>0.187985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364746</v>
+        <v>0.188728</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361369</v>
+        <v>0.177518</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368035</v>
+        <v>0.188004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361455</v>
+        <v>0.189916</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35695</v>
+        <v>0.171776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36463</v>
+        <v>0.188763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359377</v>
+        <v>0.190389</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353834</v>
+        <v>0.163307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.362779</v>
+        <v>0.187293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359505</v>
+        <v>0.18966</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352256</v>
+        <v>0.152699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362667</v>
+        <v>0.186718</v>
       </c>
       <c r="D9" t="n">
-        <v>0.469557</v>
+        <v>0.204135</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465987</v>
+        <v>0.235719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484106</v>
+        <v>0.205493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.463844</v>
+        <v>0.205146</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.454668</v>
+        <v>0.232749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471688</v>
+        <v>0.20465</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452686</v>
+        <v>0.204486</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444121</v>
+        <v>0.228385</v>
       </c>
       <c r="C12" t="n">
-        <v>0.461116</v>
+        <v>0.203331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.442743</v>
+        <v>0.20354</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.433987</v>
+        <v>0.222208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.450536</v>
+        <v>0.202318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.432509</v>
+        <v>0.203591</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424306</v>
+        <v>0.216689</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440365</v>
+        <v>0.200257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423319</v>
+        <v>0.202589</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415078</v>
+        <v>0.212032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.430978</v>
+        <v>0.199789</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415246</v>
+        <v>0.201627</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406454</v>
+        <v>0.20617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.421931</v>
+        <v>0.19898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406734</v>
+        <v>0.201327</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398045</v>
+        <v>0.201752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413974</v>
+        <v>0.198243</v>
       </c>
       <c r="D17" t="n">
-        <v>0.399965</v>
+        <v>0.20026</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390602</v>
+        <v>0.195483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406658</v>
+        <v>0.197143</v>
       </c>
       <c r="D18" t="n">
-        <v>0.392807</v>
+        <v>0.199744</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383637</v>
+        <v>0.189832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.399495</v>
+        <v>0.196928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387179</v>
+        <v>0.198556</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377291</v>
+        <v>0.183811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393467</v>
+        <v>0.195321</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382059</v>
+        <v>0.197618</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.372144</v>
+        <v>0.178623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.389003</v>
+        <v>0.195472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3789</v>
+        <v>0.197531</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.36804</v>
+        <v>0.172033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.384316</v>
+        <v>0.194724</v>
       </c>
       <c r="D22" t="n">
-        <v>0.376322</v>
+        <v>0.196747</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36599</v>
+        <v>0.163599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383284</v>
+        <v>0.19369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.492339</v>
+        <v>0.212155</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48154</v>
+        <v>0.239505</v>
       </c>
       <c r="C24" t="n">
-        <v>0.454932</v>
+        <v>0.209049</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439652</v>
+        <v>0.210565</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470635</v>
+        <v>0.233888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.445437</v>
+        <v>0.207532</v>
       </c>
       <c r="D25" t="n">
-        <v>0.430722</v>
+        <v>0.209558</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459778</v>
+        <v>0.230343</v>
       </c>
       <c r="C26" t="n">
-        <v>0.436793</v>
+        <v>0.206127</v>
       </c>
       <c r="D26" t="n">
-        <v>0.423005</v>
+        <v>0.208259</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449396</v>
+        <v>0.224573</v>
       </c>
       <c r="C27" t="n">
-        <v>0.428574</v>
+        <v>0.204557</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41422</v>
+        <v>0.20714</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439722</v>
+        <v>0.218914</v>
       </c>
       <c r="C28" t="n">
-        <v>0.421483</v>
+        <v>0.203222</v>
       </c>
       <c r="D28" t="n">
-        <v>0.407055</v>
+        <v>0.205962</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430228</v>
+        <v>0.215601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414393</v>
+        <v>0.201978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398596</v>
+        <v>0.204634</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.42147</v>
+        <v>0.208658</v>
       </c>
       <c r="C30" t="n">
-        <v>0.405221</v>
+        <v>0.200627</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392823</v>
+        <v>0.203488</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413041</v>
+        <v>0.204626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.399301</v>
+        <v>0.199732</v>
       </c>
       <c r="D31" t="n">
-        <v>0.387497</v>
+        <v>0.202825</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405469</v>
+        <v>0.199956</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392247</v>
+        <v>0.19892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.382447</v>
+        <v>0.20213</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398071</v>
+        <v>0.197262</v>
       </c>
       <c r="C33" t="n">
-        <v>0.387416</v>
+        <v>0.198063</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376472</v>
+        <v>0.201275</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391588</v>
+        <v>0.188346</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381539</v>
+        <v>0.197677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.371855</v>
+        <v>0.20064</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386182</v>
+        <v>0.182658</v>
       </c>
       <c r="C35" t="n">
-        <v>0.376954</v>
+        <v>0.196461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368828</v>
+        <v>0.19972</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381951</v>
+        <v>0.181077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374599</v>
+        <v>0.195004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36768</v>
+        <v>0.19851</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379427</v>
+        <v>0.173516</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373648</v>
+        <v>0.194434</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510122</v>
+        <v>0.215015</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.49564</v>
+        <v>0.241963</v>
       </c>
       <c r="C38" t="n">
-        <v>0.470941</v>
+        <v>0.20979</v>
       </c>
       <c r="D38" t="n">
-        <v>0.453577</v>
+        <v>0.213259</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485377</v>
+        <v>0.238452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.460709</v>
+        <v>0.208269</v>
       </c>
       <c r="D39" t="n">
-        <v>0.445211</v>
+        <v>0.211969</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474729</v>
+        <v>0.234278</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452233</v>
+        <v>0.207035</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437182</v>
+        <v>0.210644</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464377</v>
+        <v>0.229805</v>
       </c>
       <c r="C41" t="n">
-        <v>0.444172</v>
+        <v>0.205775</v>
       </c>
       <c r="D41" t="n">
-        <v>0.429657</v>
+        <v>0.209465</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454864</v>
+        <v>0.224733</v>
       </c>
       <c r="C42" t="n">
-        <v>0.436123</v>
+        <v>0.204888</v>
       </c>
       <c r="D42" t="n">
-        <v>0.421964</v>
+        <v>0.208467</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.44562</v>
+        <v>0.220315</v>
       </c>
       <c r="C43" t="n">
-        <v>0.427935</v>
+        <v>0.203576</v>
       </c>
       <c r="D43" t="n">
-        <v>0.413898</v>
+        <v>0.207193</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436818</v>
+        <v>0.21506</v>
       </c>
       <c r="C44" t="n">
-        <v>0.421519</v>
+        <v>0.202627</v>
       </c>
       <c r="D44" t="n">
-        <v>0.407271</v>
+        <v>0.206043</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428783</v>
+        <v>0.209559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4147</v>
+        <v>0.201346</v>
       </c>
       <c r="D45" t="n">
-        <v>0.402332</v>
+        <v>0.204902</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.421117</v>
+        <v>0.204334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40932</v>
+        <v>0.200287</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397514</v>
+        <v>0.203766</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.414225</v>
+        <v>0.199916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.403936</v>
+        <v>0.199501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391542</v>
+        <v>0.202938</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407597</v>
+        <v>0.195282</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40121</v>
+        <v>0.198633</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388801</v>
+        <v>0.202014</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402573</v>
+        <v>0.189481</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39671</v>
+        <v>0.197358</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385042</v>
+        <v>0.200665</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398004</v>
+        <v>0.183272</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392695</v>
+        <v>0.196467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.383689</v>
+        <v>0.200004</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394744</v>
+        <v>0.176701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391237</v>
+        <v>0.195645</v>
       </c>
       <c r="D51" t="n">
-        <v>0.530651</v>
+        <v>0.217018</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.366171</v>
+        <v>0.168145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390944</v>
+        <v>0.194658</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5197040000000001</v>
+        <v>0.215188</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503107</v>
+        <v>0.240661</v>
       </c>
       <c r="C53" t="n">
-        <v>0.481739</v>
+        <v>0.209692</v>
       </c>
       <c r="D53" t="n">
-        <v>0.461765</v>
+        <v>0.21345</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.49292</v>
+        <v>0.236419</v>
       </c>
       <c r="C54" t="n">
-        <v>0.474355</v>
+        <v>0.208269</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456295</v>
+        <v>0.212229</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482811</v>
+        <v>0.232684</v>
       </c>
       <c r="C55" t="n">
-        <v>0.465581</v>
+        <v>0.207072</v>
       </c>
       <c r="D55" t="n">
-        <v>0.448806</v>
+        <v>0.210887</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.473547</v>
+        <v>0.227344</v>
       </c>
       <c r="C56" t="n">
-        <v>0.456559</v>
+        <v>0.205401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.441124</v>
+        <v>0.20921</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.464414</v>
+        <v>0.221784</v>
       </c>
       <c r="C57" t="n">
-        <v>0.450507</v>
+        <v>0.20426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.435297</v>
+        <v>0.208077</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.45594</v>
+        <v>0.216792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.443566</v>
+        <v>0.20329</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427664</v>
+        <v>0.207036</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.447017</v>
+        <v>0.211658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.437999</v>
+        <v>0.202296</v>
       </c>
       <c r="D59" t="n">
-        <v>0.422882</v>
+        <v>0.20576</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4406</v>
+        <v>0.206551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.432596</v>
+        <v>0.20107</v>
       </c>
       <c r="D60" t="n">
-        <v>0.41769</v>
+        <v>0.204824</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.434002</v>
+        <v>0.20174</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425902</v>
+        <v>0.200475</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413106</v>
+        <v>0.203753</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.427622</v>
+        <v>0.196262</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420371</v>
+        <v>0.199308</v>
       </c>
       <c r="D62" t="n">
-        <v>0.408361</v>
+        <v>0.202552</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.422316</v>
+        <v>0.190963</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416796</v>
+        <v>0.198012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.40576</v>
+        <v>0.201499</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.41795</v>
+        <v>0.184661</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414779</v>
+        <v>0.197031</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405586</v>
+        <v>0.200473</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.41434</v>
+        <v>0.178803</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413906</v>
+        <v>0.196106</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405955</v>
+        <v>0.199679</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.412846</v>
+        <v>0.17051</v>
       </c>
       <c r="C66" t="n">
-        <v>0.414413</v>
+        <v>0.19521</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5398770000000001</v>
+        <v>0.216096</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.526357</v>
+        <v>0.242938</v>
       </c>
       <c r="C67" t="n">
-        <v>0.502997</v>
+        <v>0.211038</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483686</v>
+        <v>0.214596</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.515536</v>
+        <v>0.238263</v>
       </c>
       <c r="C68" t="n">
-        <v>0.493912</v>
+        <v>0.209497</v>
       </c>
       <c r="D68" t="n">
-        <v>0.476084</v>
+        <v>0.213184</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505605</v>
+        <v>0.233828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.486152</v>
+        <v>0.207555</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468403</v>
+        <v>0.211444</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496228</v>
+        <v>0.228553</v>
       </c>
       <c r="C70" t="n">
-        <v>0.477959</v>
+        <v>0.206337</v>
       </c>
       <c r="D70" t="n">
-        <v>0.462048</v>
+        <v>0.210063</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.490323</v>
+        <v>0.223209</v>
       </c>
       <c r="C71" t="n">
-        <v>0.472331</v>
+        <v>0.204753</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457469</v>
+        <v>0.208676</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.480856</v>
+        <v>0.218078</v>
       </c>
       <c r="C72" t="n">
-        <v>0.463424</v>
+        <v>0.203835</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448901</v>
+        <v>0.207298</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.473196</v>
+        <v>0.212445</v>
       </c>
       <c r="C73" t="n">
-        <v>0.459866</v>
+        <v>0.202517</v>
       </c>
       <c r="D73" t="n">
-        <v>0.444235</v>
+        <v>0.205932</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.465126</v>
+        <v>0.20771</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451017</v>
+        <v>0.201415</v>
       </c>
       <c r="D74" t="n">
-        <v>0.438082</v>
+        <v>0.204831</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.457666</v>
+        <v>0.202499</v>
       </c>
       <c r="C75" t="n">
-        <v>0.446777</v>
+        <v>0.200408</v>
       </c>
       <c r="D75" t="n">
-        <v>0.434365</v>
+        <v>0.203807</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.449317</v>
+        <v>0.197622</v>
       </c>
       <c r="C76" t="n">
-        <v>0.440988</v>
+        <v>0.199486</v>
       </c>
       <c r="D76" t="n">
-        <v>0.430019</v>
+        <v>0.202646</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.442965</v>
+        <v>0.191849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437614</v>
+        <v>0.198389</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426796</v>
+        <v>0.20173</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439619</v>
+        <v>0.186441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.43406</v>
+        <v>0.197358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.424742</v>
+        <v>0.200812</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.436967</v>
+        <v>0.180338</v>
       </c>
       <c r="C79" t="n">
-        <v>0.432849</v>
+        <v>0.196362</v>
       </c>
       <c r="D79" t="n">
-        <v>0.426526</v>
+        <v>0.200028</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.434422</v>
+        <v>0.172901</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435389</v>
+        <v>0.195436</v>
       </c>
       <c r="D80" t="n">
-        <v>0.575447</v>
+        <v>0.216696</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.565968</v>
+        <v>0.243893</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5327499999999999</v>
+        <v>0.211271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.51314</v>
+        <v>0.215114</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.560478</v>
+        <v>0.237924</v>
       </c>
       <c r="C82" t="n">
-        <v>0.528497</v>
+        <v>0.209914</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506592</v>
+        <v>0.213669</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552724</v>
+        <v>0.233136</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51949</v>
+        <v>0.208353</v>
       </c>
       <c r="D83" t="n">
-        <v>0.499072</v>
+        <v>0.212053</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544741</v>
+        <v>0.228112</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5124339999999999</v>
+        <v>0.207477</v>
       </c>
       <c r="D84" t="n">
-        <v>0.492137</v>
+        <v>0.210642</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.537546</v>
+        <v>0.222597</v>
       </c>
       <c r="C85" t="n">
-        <v>0.506908</v>
+        <v>0.205956</v>
       </c>
       <c r="D85" t="n">
-        <v>0.486941</v>
+        <v>0.209374</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.530534</v>
+        <v>0.217119</v>
       </c>
       <c r="C86" t="n">
-        <v>0.496651</v>
+        <v>0.204661</v>
       </c>
       <c r="D86" t="n">
-        <v>0.47795</v>
+        <v>0.207986</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5214490000000001</v>
+        <v>0.211811</v>
       </c>
       <c r="C87" t="n">
-        <v>0.489099</v>
+        <v>0.203489</v>
       </c>
       <c r="D87" t="n">
-        <v>0.470991</v>
+        <v>0.206741</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.513958</v>
+        <v>0.206128</v>
       </c>
       <c r="C88" t="n">
-        <v>0.482817</v>
+        <v>0.202249</v>
       </c>
       <c r="D88" t="n">
-        <v>0.466507</v>
+        <v>0.205468</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.504652</v>
+        <v>0.200721</v>
       </c>
       <c r="C89" t="n">
-        <v>0.477962</v>
+        <v>0.201072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.462838</v>
+        <v>0.204273</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.498914</v>
+        <v>0.19501</v>
       </c>
       <c r="C90" t="n">
-        <v>0.468684</v>
+        <v>0.200053</v>
       </c>
       <c r="D90" t="n">
-        <v>0.453128</v>
+        <v>0.20318</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.48933</v>
+        <v>0.189449</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468871</v>
+        <v>0.198798</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455563</v>
+        <v>0.201996</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.48491</v>
+        <v>0.183148</v>
       </c>
       <c r="C92" t="n">
-        <v>0.463585</v>
+        <v>0.197924</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452075</v>
+        <v>0.201026</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.479149</v>
+        <v>0.176318</v>
       </c>
       <c r="C93" t="n">
-        <v>0.462024</v>
+        <v>0.196753</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452057</v>
+        <v>0.200159</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477014</v>
+        <v>0.168124</v>
       </c>
       <c r="C94" t="n">
-        <v>0.459445</v>
+        <v>0.195651</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625212</v>
+        <v>0.217094</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.615771</v>
+        <v>0.244806</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5791770000000001</v>
+        <v>0.213844</v>
       </c>
       <c r="D95" t="n">
-        <v>0.580606</v>
+        <v>0.215405</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.625183</v>
+        <v>0.240933</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584118</v>
+        <v>0.211561</v>
       </c>
       <c r="D96" t="n">
-        <v>0.573974</v>
+        <v>0.214009</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.627619</v>
+        <v>0.236613</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583971</v>
+        <v>0.210325</v>
       </c>
       <c r="D97" t="n">
-        <v>0.570699</v>
+        <v>0.212469</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.628699</v>
+        <v>0.232219</v>
       </c>
       <c r="C98" t="n">
-        <v>0.581881</v>
+        <v>0.2093</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566167</v>
+        <v>0.210989</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6248359999999999</v>
+        <v>0.226766</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582977</v>
+        <v>0.207879</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5646640000000001</v>
+        <v>0.209834</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.618434</v>
+        <v>0.22163</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5866400000000001</v>
+        <v>0.206137</v>
       </c>
       <c r="D100" t="n">
-        <v>0.568642</v>
+        <v>0.208204</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.614816</v>
+        <v>0.216049</v>
       </c>
       <c r="C101" t="n">
-        <v>0.574329</v>
+        <v>0.204602</v>
       </c>
       <c r="D101" t="n">
-        <v>0.555435</v>
+        <v>0.206961</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.609684</v>
+        <v>0.210901</v>
       </c>
       <c r="C102" t="n">
-        <v>0.581054</v>
+        <v>0.203162</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561219</v>
+        <v>0.20591</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.607858</v>
+        <v>0.205491</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580578</v>
+        <v>0.20178</v>
       </c>
       <c r="D103" t="n">
-        <v>0.561532</v>
+        <v>0.204589</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601651</v>
+        <v>0.200459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.575932</v>
+        <v>0.200823</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554651</v>
+        <v>0.203542</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.594377</v>
+        <v>0.195301</v>
       </c>
       <c r="C105" t="n">
-        <v>0.575098</v>
+        <v>0.200032</v>
       </c>
       <c r="D105" t="n">
-        <v>0.551903</v>
+        <v>0.202492</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.591632</v>
+        <v>0.190072</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572231</v>
+        <v>0.198945</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551675</v>
+        <v>0.201522</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592825</v>
+        <v>0.183759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.574908</v>
+        <v>0.197806</v>
       </c>
       <c r="D107" t="n">
-        <v>0.555581</v>
+        <v>0.200552</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.593493</v>
+        <v>0.176649</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553569</v>
+        <v>0.196595</v>
       </c>
       <c r="D108" t="n">
-        <v>0.712404</v>
+        <v>0.217869</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.561189</v>
+        <v>0.167755</v>
       </c>
       <c r="C109" t="n">
-        <v>0.575809</v>
+        <v>0.194905</v>
       </c>
       <c r="D109" t="n">
-        <v>0.717092</v>
+        <v>0.215983</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.713542</v>
+        <v>0.241044</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72849</v>
+        <v>0.210872</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7317129999999999</v>
+        <v>0.214176</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.712306</v>
+        <v>0.235785</v>
       </c>
       <c r="C111" t="n">
-        <v>0.731681</v>
+        <v>0.20907</v>
       </c>
       <c r="D111" t="n">
-        <v>0.723956</v>
+        <v>0.212739</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.721266</v>
+        <v>0.230922</v>
       </c>
       <c r="C112" t="n">
-        <v>0.736511</v>
+        <v>0.207718</v>
       </c>
       <c r="D112" t="n">
-        <v>0.740908</v>
+        <v>0.211362</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.72642</v>
+        <v>0.225733</v>
       </c>
       <c r="C113" t="n">
-        <v>0.738642</v>
+        <v>0.207102</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738827</v>
+        <v>0.209898</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.734469</v>
+        <v>0.219878</v>
       </c>
       <c r="C114" t="n">
-        <v>0.746316</v>
+        <v>0.206784</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7529670000000001</v>
+        <v>0.208599</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.738177</v>
+        <v>0.214459</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7499440000000001</v>
+        <v>0.205695</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7543800000000001</v>
+        <v>0.207391</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.737669</v>
+        <v>0.20895</v>
       </c>
       <c r="C116" t="n">
-        <v>0.75287</v>
+        <v>0.20456</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7607660000000001</v>
+        <v>0.20611</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.747733</v>
+        <v>0.203289</v>
       </c>
       <c r="C117" t="n">
-        <v>0.760428</v>
+        <v>0.203375</v>
       </c>
       <c r="D117" t="n">
-        <v>0.747818</v>
+        <v>0.204952</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.750954</v>
+        <v>0.197496</v>
       </c>
       <c r="C118" t="n">
-        <v>0.763644</v>
+        <v>0.201652</v>
       </c>
       <c r="D118" t="n">
-        <v>0.764697</v>
+        <v>0.203891</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.756479</v>
+        <v>0.191773</v>
       </c>
       <c r="C119" t="n">
-        <v>0.768473</v>
+        <v>0.199538</v>
       </c>
       <c r="D119" t="n">
-        <v>0.767522</v>
+        <v>0.202877</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.758042</v>
+        <v>0.185972</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7714299999999999</v>
+        <v>0.198548</v>
       </c>
       <c r="D120" t="n">
-        <v>0.769669</v>
+        <v>0.201742</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76302</v>
+        <v>0.179337</v>
       </c>
       <c r="C121" t="n">
-        <v>0.777766</v>
+        <v>0.198399</v>
       </c>
       <c r="D121" t="n">
-        <v>0.771825</v>
+        <v>0.200857</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7667040000000001</v>
+        <v>0.171864</v>
       </c>
       <c r="C122" t="n">
-        <v>0.773653</v>
+        <v>0.197788</v>
       </c>
       <c r="D122" t="n">
-        <v>0.776632</v>
+        <v>0.199882</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7703140000000001</v>
+        <v>0.163087</v>
       </c>
       <c r="C123" t="n">
-        <v>0.782984</v>
+        <v>0.196565</v>
       </c>
       <c r="D123" t="n">
-        <v>0.926185</v>
+        <v>0.216063</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.929902</v>
+        <v>0.240168</v>
       </c>
       <c r="C124" t="n">
-        <v>0.942107</v>
+        <v>0.211103</v>
       </c>
       <c r="D124" t="n">
-        <v>0.935725</v>
+        <v>0.214729</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9384400000000001</v>
+        <v>0.236365</v>
       </c>
       <c r="C125" t="n">
-        <v>0.94681</v>
+        <v>0.209804</v>
       </c>
       <c r="D125" t="n">
-        <v>0.935107</v>
+        <v>0.213195</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.946881</v>
+        <v>0.231752</v>
       </c>
       <c r="C126" t="n">
-        <v>0.959792</v>
+        <v>0.208435</v>
       </c>
       <c r="D126" t="n">
-        <v>0.933244</v>
+        <v>0.211711</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9514629999999999</v>
+        <v>0.226514</v>
       </c>
       <c r="C127" t="n">
-        <v>0.963234</v>
+        <v>0.206849</v>
       </c>
       <c r="D127" t="n">
-        <v>0.958448</v>
+        <v>0.210362</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.954074</v>
+        <v>0.221245</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972394</v>
+        <v>0.205586</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9522929999999999</v>
+        <v>0.209168</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.961182</v>
+        <v>0.215316</v>
       </c>
       <c r="C129" t="n">
-        <v>0.978176</v>
+        <v>0.205583</v>
       </c>
       <c r="D129" t="n">
-        <v>0.959046</v>
+        <v>0.207869</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9697750000000001</v>
+        <v>0.209973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.984114</v>
+        <v>0.204704</v>
       </c>
       <c r="D130" t="n">
-        <v>0.97964</v>
+        <v>0.206252</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.978108</v>
+        <v>0.20465</v>
       </c>
       <c r="C131" t="n">
-        <v>0.992324</v>
+        <v>0.203456</v>
       </c>
       <c r="D131" t="n">
-        <v>0.986726</v>
+        <v>0.205165</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.984422</v>
+        <v>0.198829</v>
       </c>
       <c r="C132" t="n">
-        <v>0.996776</v>
+        <v>0.201841</v>
       </c>
       <c r="D132" t="n">
-        <v>0.994061</v>
+        <v>0.203738</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.990686</v>
+        <v>0.193233</v>
       </c>
       <c r="C133" t="n">
-        <v>1.0071</v>
+        <v>0.201044</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0007</v>
+        <v>0.202487</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.988071</v>
+        <v>0.18731</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01323</v>
+        <v>0.198442</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00412</v>
+        <v>0.201824</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00471</v>
+        <v>0.180802</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02516</v>
+        <v>0.199362</v>
       </c>
       <c r="D135" t="n">
-        <v>1.01228</v>
+        <v>0.2008</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.00814</v>
+        <v>0.173737</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03297</v>
+        <v>0.197446</v>
       </c>
       <c r="D136" t="n">
-        <v>1.01166</v>
+        <v>0.19999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.01527</v>
+        <v>0.164841</v>
       </c>
       <c r="C137" t="n">
-        <v>1.03436</v>
+        <v>0.196455</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15916</v>
+        <v>0.216545</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.16752</v>
+        <v>0.240876</v>
       </c>
       <c r="C138" t="n">
-        <v>1.18539</v>
+        <v>0.211468</v>
       </c>
       <c r="D138" t="n">
-        <v>1.16666</v>
+        <v>0.214966</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.17321</v>
+        <v>0.236923</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19203</v>
+        <v>0.210023</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17526</v>
+        <v>0.213203</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.17953</v>
+        <v>0.232511</v>
       </c>
       <c r="C140" t="n">
-        <v>1.20047</v>
+        <v>0.208863</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18371</v>
+        <v>0.212099</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.18701</v>
+        <v>0.227622</v>
       </c>
       <c r="C141" t="n">
-        <v>1.20575</v>
+        <v>0.207975</v>
       </c>
       <c r="D141" t="n">
-        <v>1.19078</v>
+        <v>0.210338</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19324</v>
+        <v>0.222417</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21395</v>
+        <v>0.207083</v>
       </c>
       <c r="D142" t="n">
-        <v>1.19804</v>
+        <v>0.209133</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.19787</v>
+        <v>0.216895</v>
       </c>
       <c r="C143" t="n">
-        <v>1.22161</v>
+        <v>0.206227</v>
       </c>
       <c r="D143" t="n">
-        <v>1.20537</v>
+        <v>0.208123</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206835</v>
+        <v>0.207232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187365</v>
+        <v>0.188994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18918</v>
+        <v>0.196669</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194804</v>
+        <v>0.199264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187462</v>
+        <v>0.187896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.189725</v>
+        <v>0.197341</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189357</v>
+        <v>0.193754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188233</v>
+        <v>0.188574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.188788</v>
+        <v>0.196722</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182859</v>
+        <v>0.187991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187981</v>
+        <v>0.187459</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189095</v>
+        <v>0.196067</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176708</v>
+        <v>0.183959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188241</v>
+        <v>0.18816</v>
       </c>
       <c r="D6" t="n">
-        <v>0.190023</v>
+        <v>0.196258</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16995</v>
+        <v>0.171547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188508</v>
+        <v>0.188234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.190727</v>
+        <v>0.195651</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163176</v>
+        <v>0.161472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187253</v>
+        <v>0.187318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.189909</v>
+        <v>0.194786</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152685</v>
+        <v>0.151772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187162</v>
+        <v>0.187055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.204579</v>
+        <v>0.212693</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236451</v>
+        <v>0.237232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205653</v>
+        <v>0.205811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.205028</v>
+        <v>0.212141</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234816</v>
+        <v>0.232902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204798</v>
+        <v>0.205695</v>
       </c>
       <c r="D11" t="n">
-        <v>0.205279</v>
+        <v>0.211651</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225206</v>
+        <v>0.227308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203668</v>
+        <v>0.203983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20403</v>
+        <v>0.210019</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221152</v>
+        <v>0.221336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201966</v>
+        <v>0.202292</v>
       </c>
       <c r="D13" t="n">
-        <v>0.203607</v>
+        <v>0.209094</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216423</v>
+        <v>0.216243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200546</v>
+        <v>0.201551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.202887</v>
+        <v>0.207525</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212322</v>
+        <v>0.211082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199829</v>
+        <v>0.201181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.201793</v>
+        <v>0.206316</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205847</v>
+        <v>0.205664</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198651</v>
+        <v>0.200011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201459</v>
+        <v>0.205357</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204713</v>
+        <v>0.200918</v>
       </c>
       <c r="C17" t="n">
-        <v>0.197923</v>
+        <v>0.199067</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20031</v>
+        <v>0.20428</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198982</v>
+        <v>0.195595</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197231</v>
+        <v>0.198292</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199588</v>
+        <v>0.203509</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193511</v>
+        <v>0.189289</v>
       </c>
       <c r="C19" t="n">
-        <v>0.196317</v>
+        <v>0.197064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.198471</v>
+        <v>0.202518</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18831</v>
+        <v>0.183493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195011</v>
+        <v>0.195803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197487</v>
+        <v>0.201303</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183223</v>
+        <v>0.178487</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194773</v>
+        <v>0.195029</v>
       </c>
       <c r="D21" t="n">
-        <v>0.197463</v>
+        <v>0.200834</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176887</v>
+        <v>0.17189</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194622</v>
+        <v>0.194405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.196527</v>
+        <v>0.199972</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169287</v>
+        <v>0.16284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194075</v>
+        <v>0.193946</v>
       </c>
       <c r="D23" t="n">
-        <v>0.211956</v>
+        <v>0.216715</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239735</v>
+        <v>0.239033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.20879</v>
+        <v>0.210485</v>
       </c>
       <c r="D24" t="n">
-        <v>0.210641</v>
+        <v>0.215333</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236009</v>
+        <v>0.234621</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207501</v>
+        <v>0.208675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.209571</v>
+        <v>0.213647</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231165</v>
+        <v>0.229964</v>
       </c>
       <c r="C26" t="n">
-        <v>0.20596</v>
+        <v>0.207531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20795</v>
+        <v>0.21184</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225155</v>
+        <v>0.225053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204495</v>
+        <v>0.205607</v>
       </c>
       <c r="D27" t="n">
-        <v>0.206968</v>
+        <v>0.210422</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219075</v>
+        <v>0.220712</v>
       </c>
       <c r="C28" t="n">
-        <v>0.203155</v>
+        <v>0.203981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20582</v>
+        <v>0.209267</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214301</v>
+        <v>0.215053</v>
       </c>
       <c r="C29" t="n">
-        <v>0.201843</v>
+        <v>0.20286</v>
       </c>
       <c r="D29" t="n">
-        <v>0.20485</v>
+        <v>0.207727</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20854</v>
+        <v>0.209119</v>
       </c>
       <c r="C30" t="n">
-        <v>0.200643</v>
+        <v>0.20207</v>
       </c>
       <c r="D30" t="n">
-        <v>0.203727</v>
+        <v>0.206774</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203639</v>
+        <v>0.203519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.199588</v>
+        <v>0.200925</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202635</v>
+        <v>0.205292</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20209</v>
+        <v>0.198499</v>
       </c>
       <c r="C32" t="n">
-        <v>0.198935</v>
+        <v>0.199867</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202138</v>
+        <v>0.204565</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19755</v>
+        <v>0.194902</v>
       </c>
       <c r="C33" t="n">
-        <v>0.198055</v>
+        <v>0.198993</v>
       </c>
       <c r="D33" t="n">
-        <v>0.201321</v>
+        <v>0.203513</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192603</v>
+        <v>0.192156</v>
       </c>
       <c r="C34" t="n">
-        <v>0.197218</v>
+        <v>0.198456</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200555</v>
+        <v>0.202799</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186985</v>
+        <v>0.187211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196386</v>
+        <v>0.197318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.199769</v>
+        <v>0.201883</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180701</v>
+        <v>0.18033</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194842</v>
+        <v>0.195643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198549</v>
+        <v>0.200474</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173443</v>
+        <v>0.1731</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194223</v>
+        <v>0.194634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214758</v>
+        <v>0.21775</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241379</v>
+        <v>0.242616</v>
       </c>
       <c r="C38" t="n">
-        <v>0.209957</v>
+        <v>0.211645</v>
       </c>
       <c r="D38" t="n">
-        <v>0.213314</v>
+        <v>0.215899</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238924</v>
+        <v>0.239327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208194</v>
+        <v>0.210064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211843</v>
+        <v>0.214319</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234244</v>
+        <v>0.235293</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206917</v>
+        <v>0.208353</v>
       </c>
       <c r="D40" t="n">
-        <v>0.210542</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229467</v>
+        <v>0.229608</v>
       </c>
       <c r="C41" t="n">
-        <v>0.205773</v>
+        <v>0.20739</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209296</v>
+        <v>0.211524</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225301</v>
+        <v>0.225172</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20475</v>
+        <v>0.206237</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20842</v>
+        <v>0.210193</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220468</v>
+        <v>0.220581</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20367</v>
+        <v>0.205151</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207037</v>
+        <v>0.209152</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214902</v>
+        <v>0.21548</v>
       </c>
       <c r="C44" t="n">
-        <v>0.202452</v>
+        <v>0.203942</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206033</v>
+        <v>0.208255</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20927</v>
+        <v>0.20977</v>
       </c>
       <c r="C45" t="n">
-        <v>0.201242</v>
+        <v>0.202917</v>
       </c>
       <c r="D45" t="n">
-        <v>0.20487</v>
+        <v>0.20694</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204712</v>
+        <v>0.20407</v>
       </c>
       <c r="C46" t="n">
-        <v>0.200204</v>
+        <v>0.201527</v>
       </c>
       <c r="D46" t="n">
-        <v>0.203796</v>
+        <v>0.20558</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199905</v>
+        <v>0.199434</v>
       </c>
       <c r="C47" t="n">
-        <v>0.199536</v>
+        <v>0.200705</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20295</v>
+        <v>0.204728</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194816</v>
+        <v>0.194767</v>
       </c>
       <c r="C48" t="n">
-        <v>0.198455</v>
+        <v>0.199465</v>
       </c>
       <c r="D48" t="n">
-        <v>0.201981</v>
+        <v>0.203549</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189055</v>
+        <v>0.188797</v>
       </c>
       <c r="C49" t="n">
-        <v>0.197083</v>
+        <v>0.198198</v>
       </c>
       <c r="D49" t="n">
-        <v>0.200812</v>
+        <v>0.202374</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18284</v>
+        <v>0.183213</v>
       </c>
       <c r="C50" t="n">
-        <v>0.196315</v>
+        <v>0.197406</v>
       </c>
       <c r="D50" t="n">
-        <v>0.200121</v>
+        <v>0.201663</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176681</v>
+        <v>0.176355</v>
       </c>
       <c r="C51" t="n">
-        <v>0.195653</v>
+        <v>0.196446</v>
       </c>
       <c r="D51" t="n">
-        <v>0.216923</v>
+        <v>0.219335</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167822</v>
+        <v>0.167881</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194639</v>
+        <v>0.195163</v>
       </c>
       <c r="D52" t="n">
-        <v>0.215079</v>
+        <v>0.217336</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240957</v>
+        <v>0.240727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.209541</v>
+        <v>0.211668</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213344</v>
+        <v>0.215794</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23648</v>
+        <v>0.236721</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2081</v>
+        <v>0.210071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212086</v>
+        <v>0.214249</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231957</v>
+        <v>0.231883</v>
       </c>
       <c r="C55" t="n">
-        <v>0.206954</v>
+        <v>0.208778</v>
       </c>
       <c r="D55" t="n">
-        <v>0.210871</v>
+        <v>0.212869</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227185</v>
+        <v>0.226872</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20538</v>
+        <v>0.207136</v>
       </c>
       <c r="D56" t="n">
-        <v>0.209068</v>
+        <v>0.211207</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221722</v>
+        <v>0.222135</v>
       </c>
       <c r="C57" t="n">
-        <v>0.204161</v>
+        <v>0.206126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.207936</v>
+        <v>0.210046</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217435</v>
+        <v>0.216955</v>
       </c>
       <c r="C58" t="n">
-        <v>0.203162</v>
+        <v>0.204914</v>
       </c>
       <c r="D58" t="n">
-        <v>0.206926</v>
+        <v>0.208752</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211607</v>
+        <v>0.211311</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202161</v>
+        <v>0.203555</v>
       </c>
       <c r="D59" t="n">
-        <v>0.205592</v>
+        <v>0.207459</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206999</v>
+        <v>0.206759</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20104</v>
+        <v>0.202562</v>
       </c>
       <c r="D60" t="n">
-        <v>0.204603</v>
+        <v>0.206371</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201783</v>
+        <v>0.201283</v>
       </c>
       <c r="C61" t="n">
-        <v>0.200156</v>
+        <v>0.20176</v>
       </c>
       <c r="D61" t="n">
-        <v>0.203685</v>
+        <v>0.205378</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19659</v>
+        <v>0.195886</v>
       </c>
       <c r="C62" t="n">
-        <v>0.199108</v>
+        <v>0.200376</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202489</v>
+        <v>0.20424</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190913</v>
+        <v>0.190781</v>
       </c>
       <c r="C63" t="n">
-        <v>0.197892</v>
+        <v>0.199044</v>
       </c>
       <c r="D63" t="n">
-        <v>0.201476</v>
+        <v>0.202882</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184714</v>
+        <v>0.184434</v>
       </c>
       <c r="C64" t="n">
-        <v>0.196913</v>
+        <v>0.197892</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200446</v>
+        <v>0.202166</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178658</v>
+        <v>0.178464</v>
       </c>
       <c r="C65" t="n">
-        <v>0.195767</v>
+        <v>0.196807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199646</v>
+        <v>0.201244</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170601</v>
+        <v>0.170446</v>
       </c>
       <c r="C66" t="n">
-        <v>0.194826</v>
+        <v>0.195525</v>
       </c>
       <c r="D66" t="n">
-        <v>0.215887</v>
+        <v>0.217792</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242697</v>
+        <v>0.242883</v>
       </c>
       <c r="C67" t="n">
-        <v>0.210635</v>
+        <v>0.212694</v>
       </c>
       <c r="D67" t="n">
-        <v>0.214396</v>
+        <v>0.216588</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.23847</v>
+        <v>0.238405</v>
       </c>
       <c r="C68" t="n">
-        <v>0.208862</v>
+        <v>0.211099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212993</v>
+        <v>0.214885</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233779</v>
+        <v>0.233331</v>
       </c>
       <c r="C69" t="n">
-        <v>0.207313</v>
+        <v>0.209416</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211238</v>
+        <v>0.21309</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2284</v>
+        <v>0.228727</v>
       </c>
       <c r="C70" t="n">
-        <v>0.206038</v>
+        <v>0.207918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209875</v>
+        <v>0.211698</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223245</v>
+        <v>0.220846</v>
       </c>
       <c r="C71" t="n">
-        <v>0.204833</v>
+        <v>0.206511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.208405</v>
+        <v>0.210316</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21824</v>
+        <v>0.215778</v>
       </c>
       <c r="C72" t="n">
-        <v>0.203661</v>
+        <v>0.205262</v>
       </c>
       <c r="D72" t="n">
-        <v>0.207195</v>
+        <v>0.209027</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212333</v>
+        <v>0.209822</v>
       </c>
       <c r="C73" t="n">
-        <v>0.202214</v>
+        <v>0.203936</v>
       </c>
       <c r="D73" t="n">
-        <v>0.205856</v>
+        <v>0.207565</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207725</v>
+        <v>0.20447</v>
       </c>
       <c r="C74" t="n">
-        <v>0.201195</v>
+        <v>0.202683</v>
       </c>
       <c r="D74" t="n">
-        <v>0.20469</v>
+        <v>0.206654</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198638</v>
+        <v>0.198973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.200169</v>
+        <v>0.20152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.203664</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193468</v>
+        <v>0.19318</v>
       </c>
       <c r="C76" t="n">
-        <v>0.199305</v>
+        <v>0.200431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.202595</v>
+        <v>0.204549</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187449</v>
+        <v>0.187577</v>
       </c>
       <c r="C77" t="n">
-        <v>0.198124</v>
+        <v>0.19933</v>
       </c>
       <c r="D77" t="n">
-        <v>0.201616</v>
+        <v>0.203516</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1812</v>
+        <v>0.181433</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197171</v>
+        <v>0.198235</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20076</v>
+        <v>0.202689</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174584</v>
+        <v>0.174501</v>
       </c>
       <c r="C79" t="n">
-        <v>0.196202</v>
+        <v>0.197242</v>
       </c>
       <c r="D79" t="n">
-        <v>0.19997</v>
+        <v>0.201825</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166678</v>
+        <v>0.16658</v>
       </c>
       <c r="C80" t="n">
-        <v>0.195268</v>
+        <v>0.196075</v>
       </c>
       <c r="D80" t="n">
-        <v>0.21665</v>
+        <v>0.218625</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243717</v>
+        <v>0.243785</v>
       </c>
       <c r="C81" t="n">
-        <v>0.211273</v>
+        <v>0.21325</v>
       </c>
       <c r="D81" t="n">
-        <v>0.214987</v>
+        <v>0.216872</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239996</v>
+        <v>0.239858</v>
       </c>
       <c r="C82" t="n">
-        <v>0.209702</v>
+        <v>0.211935</v>
       </c>
       <c r="D82" t="n">
-        <v>0.213497</v>
+        <v>0.215548</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232937</v>
+        <v>0.235101</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208149</v>
+        <v>0.210292</v>
       </c>
       <c r="D83" t="n">
-        <v>0.211898</v>
+        <v>0.213737</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228016</v>
+        <v>0.228921</v>
       </c>
       <c r="C84" t="n">
-        <v>0.207001</v>
+        <v>0.208792</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210515</v>
+        <v>0.21232</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222496</v>
+        <v>0.223307</v>
       </c>
       <c r="C85" t="n">
-        <v>0.205866</v>
+        <v>0.207488</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209196</v>
+        <v>0.211127</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217258</v>
+        <v>0.217181</v>
       </c>
       <c r="C86" t="n">
-        <v>0.204475</v>
+        <v>0.206416</v>
       </c>
       <c r="D86" t="n">
-        <v>0.207887</v>
+        <v>0.209877</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211715</v>
+        <v>0.211826</v>
       </c>
       <c r="C87" t="n">
-        <v>0.203341</v>
+        <v>0.205139</v>
       </c>
       <c r="D87" t="n">
-        <v>0.20659</v>
+        <v>0.208528</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206093</v>
+        <v>0.206034</v>
       </c>
       <c r="C88" t="n">
-        <v>0.202293</v>
+        <v>0.20381</v>
       </c>
       <c r="D88" t="n">
-        <v>0.205343</v>
+        <v>0.207361</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200317</v>
+        <v>0.200459</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201023</v>
+        <v>0.202395</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20418</v>
+        <v>0.206164</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194672</v>
+        <v>0.194761</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199821</v>
+        <v>0.201335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.203082</v>
+        <v>0.205131</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189067</v>
+        <v>0.189216</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1988</v>
+        <v>0.200114</v>
       </c>
       <c r="D91" t="n">
-        <v>0.201993</v>
+        <v>0.203919</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182983</v>
+        <v>0.182865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197768</v>
+        <v>0.198877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.200989</v>
+        <v>0.203029</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176316</v>
+        <v>0.176222</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196709</v>
+        <v>0.197607</v>
       </c>
       <c r="D93" t="n">
-        <v>0.200024</v>
+        <v>0.201735</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168098</v>
+        <v>0.168106</v>
       </c>
       <c r="C94" t="n">
-        <v>0.195603</v>
+        <v>0.196534</v>
       </c>
       <c r="D94" t="n">
-        <v>0.216958</v>
+        <v>0.218885</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244581</v>
+        <v>0.244586</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213561</v>
+        <v>0.215266</v>
       </c>
       <c r="D95" t="n">
-        <v>0.215342</v>
+        <v>0.217113</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238329</v>
+        <v>0.240561</v>
       </c>
       <c r="C96" t="n">
-        <v>0.211374</v>
+        <v>0.214074</v>
       </c>
       <c r="D96" t="n">
-        <v>0.213945</v>
+        <v>0.215677</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234553</v>
+        <v>0.236456</v>
       </c>
       <c r="C97" t="n">
-        <v>0.210535</v>
+        <v>0.211891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.212347</v>
+        <v>0.214165</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229804</v>
+        <v>0.232209</v>
       </c>
       <c r="C98" t="n">
-        <v>0.20842</v>
+        <v>0.210582</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210858</v>
+        <v>0.212858</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22463</v>
+        <v>0.226826</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207358</v>
+        <v>0.208943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.209694</v>
+        <v>0.211427</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219371</v>
+        <v>0.219449</v>
       </c>
       <c r="C100" t="n">
-        <v>0.205615</v>
+        <v>0.207594</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208071</v>
+        <v>0.21016</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213527</v>
+        <v>0.213729</v>
       </c>
       <c r="C101" t="n">
-        <v>0.204376</v>
+        <v>0.206108</v>
       </c>
       <c r="D101" t="n">
-        <v>0.206774</v>
+        <v>0.209038</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207814</v>
+        <v>0.208263</v>
       </c>
       <c r="C102" t="n">
-        <v>0.203117</v>
+        <v>0.204977</v>
       </c>
       <c r="D102" t="n">
-        <v>0.205614</v>
+        <v>0.207917</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202259</v>
+        <v>0.202388</v>
       </c>
       <c r="C103" t="n">
-        <v>0.201937</v>
+        <v>0.203355</v>
       </c>
       <c r="D103" t="n">
-        <v>0.204486</v>
+        <v>0.206472</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196478</v>
+        <v>0.196689</v>
       </c>
       <c r="C104" t="n">
-        <v>0.200956</v>
+        <v>0.201953</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203328</v>
+        <v>0.205575</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191022</v>
+        <v>0.190974</v>
       </c>
       <c r="C105" t="n">
-        <v>0.199774</v>
+        <v>0.201021</v>
       </c>
       <c r="D105" t="n">
-        <v>0.202374</v>
+        <v>0.204471</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185236</v>
+        <v>0.184996</v>
       </c>
       <c r="C106" t="n">
-        <v>0.198726</v>
+        <v>0.199683</v>
       </c>
       <c r="D106" t="n">
-        <v>0.201379</v>
+        <v>0.203163</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178441</v>
+        <v>0.17846</v>
       </c>
       <c r="C107" t="n">
-        <v>0.197446</v>
+        <v>0.198327</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200453</v>
+        <v>0.202284</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170696</v>
+        <v>0.170694</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196463</v>
+        <v>0.197189</v>
       </c>
       <c r="D108" t="n">
-        <v>0.217747</v>
+        <v>0.219828</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161148</v>
+        <v>0.161068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195227</v>
+        <v>0.195945</v>
       </c>
       <c r="D109" t="n">
-        <v>0.215751</v>
+        <v>0.218122</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239609</v>
+        <v>0.239556</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210869</v>
+        <v>0.212328</v>
       </c>
       <c r="D110" t="n">
-        <v>0.214136</v>
+        <v>0.216629</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235629</v>
+        <v>0.235466</v>
       </c>
       <c r="C111" t="n">
-        <v>0.209582</v>
+        <v>0.210838</v>
       </c>
       <c r="D111" t="n">
-        <v>0.212603</v>
+        <v>0.215127</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230822</v>
+        <v>0.230934</v>
       </c>
       <c r="C112" t="n">
-        <v>0.208366</v>
+        <v>0.210595</v>
       </c>
       <c r="D112" t="n">
-        <v>0.211207</v>
+        <v>0.213965</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225546</v>
+        <v>0.225978</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207328</v>
+        <v>0.209537</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209877</v>
+        <v>0.212593</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219878</v>
+        <v>0.220221</v>
       </c>
       <c r="C114" t="n">
-        <v>0.206352</v>
+        <v>0.208157</v>
       </c>
       <c r="D114" t="n">
-        <v>0.20836</v>
+        <v>0.21123</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21447</v>
+        <v>0.214597</v>
       </c>
       <c r="C115" t="n">
-        <v>0.20531</v>
+        <v>0.206753</v>
       </c>
       <c r="D115" t="n">
-        <v>0.207064</v>
+        <v>0.210013</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208872</v>
+        <v>0.209057</v>
       </c>
       <c r="C116" t="n">
-        <v>0.204432</v>
+        <v>0.205604</v>
       </c>
       <c r="D116" t="n">
-        <v>0.205944</v>
+        <v>0.208763</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.202946</v>
+        <v>0.203309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.201593</v>
+        <v>0.203194</v>
       </c>
       <c r="D117" t="n">
-        <v>0.204684</v>
+        <v>0.207531</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197387</v>
+        <v>0.19728</v>
       </c>
       <c r="C118" t="n">
-        <v>0.201904</v>
+        <v>0.203484</v>
       </c>
       <c r="D118" t="n">
-        <v>0.203542</v>
+        <v>0.206297</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191739</v>
+        <v>0.191692</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201014</v>
+        <v>0.202308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202681</v>
+        <v>0.204805</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.18579</v>
+        <v>0.185814</v>
       </c>
       <c r="C120" t="n">
-        <v>0.199028</v>
+        <v>0.201009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.201671</v>
+        <v>0.203926</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179532</v>
+        <v>0.179335</v>
       </c>
       <c r="C121" t="n">
-        <v>0.198939</v>
+        <v>0.19965</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200668</v>
+        <v>0.202928</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.172051</v>
+        <v>0.172038</v>
       </c>
       <c r="C122" t="n">
-        <v>0.197631</v>
+        <v>0.198478</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199742</v>
+        <v>0.201699</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1633</v>
+        <v>0.163015</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196385</v>
+        <v>0.196897</v>
       </c>
       <c r="D123" t="n">
-        <v>0.216239</v>
+        <v>0.218609</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240342</v>
+        <v>0.240338</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210816</v>
+        <v>0.212994</v>
       </c>
       <c r="D124" t="n">
-        <v>0.214667</v>
+        <v>0.217031</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236428</v>
+        <v>0.236505</v>
       </c>
       <c r="C125" t="n">
-        <v>0.209566</v>
+        <v>0.211853</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213148</v>
+        <v>0.215501</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23179</v>
+        <v>0.231721</v>
       </c>
       <c r="C126" t="n">
-        <v>0.208718</v>
+        <v>0.210645</v>
       </c>
       <c r="D126" t="n">
-        <v>0.211719</v>
+        <v>0.214075</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226663</v>
+        <v>0.226626</v>
       </c>
       <c r="C127" t="n">
-        <v>0.207432</v>
+        <v>0.209488</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21032</v>
+        <v>0.212599</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221178</v>
+        <v>0.221136</v>
       </c>
       <c r="C128" t="n">
-        <v>0.206809</v>
+        <v>0.207945</v>
       </c>
       <c r="D128" t="n">
-        <v>0.208884</v>
+        <v>0.210822</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215565</v>
+        <v>0.215422</v>
       </c>
       <c r="C129" t="n">
-        <v>0.204608</v>
+        <v>0.207304</v>
       </c>
       <c r="D129" t="n">
-        <v>0.207486</v>
+        <v>0.209996</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209973</v>
+        <v>0.20983</v>
       </c>
       <c r="C130" t="n">
-        <v>0.204634</v>
+        <v>0.205211</v>
       </c>
       <c r="D130" t="n">
-        <v>0.206238</v>
+        <v>0.208818</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20468</v>
+        <v>0.204467</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202195</v>
+        <v>0.205181</v>
       </c>
       <c r="D131" t="n">
-        <v>0.205111</v>
+        <v>0.207837</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199168</v>
+        <v>0.198638</v>
       </c>
       <c r="C132" t="n">
-        <v>0.202468</v>
+        <v>0.203429</v>
       </c>
       <c r="D132" t="n">
-        <v>0.203977</v>
+        <v>0.206584</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193274</v>
+        <v>0.192944</v>
       </c>
       <c r="C133" t="n">
-        <v>0.20126</v>
+        <v>0.202448</v>
       </c>
       <c r="D133" t="n">
-        <v>0.202509</v>
+        <v>0.20517</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187607</v>
+        <v>0.187106</v>
       </c>
       <c r="C134" t="n">
-        <v>0.199934</v>
+        <v>0.201227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.201887</v>
+        <v>0.204082</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.181001</v>
+        <v>0.180837</v>
       </c>
       <c r="C135" t="n">
-        <v>0.199218</v>
+        <v>0.199386</v>
       </c>
       <c r="D135" t="n">
-        <v>0.200946</v>
+        <v>0.202612</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173801</v>
+        <v>0.17364</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198035</v>
+        <v>0.197768</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20007</v>
+        <v>0.20197</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165225</v>
+        <v>0.164984</v>
       </c>
       <c r="C137" t="n">
-        <v>0.196271</v>
+        <v>0.197234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.216571</v>
+        <v>0.218629</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241108</v>
+        <v>0.240904</v>
       </c>
       <c r="C138" t="n">
-        <v>0.211366</v>
+        <v>0.213264</v>
       </c>
       <c r="D138" t="n">
-        <v>0.215086</v>
+        <v>0.217191</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237001</v>
+        <v>0.237113</v>
       </c>
       <c r="C139" t="n">
-        <v>0.210228</v>
+        <v>0.21176</v>
       </c>
       <c r="D139" t="n">
-        <v>0.213554</v>
+        <v>0.215809</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232658</v>
+        <v>0.232547</v>
       </c>
       <c r="C140" t="n">
-        <v>0.208918</v>
+        <v>0.209975</v>
       </c>
       <c r="D140" t="n">
-        <v>0.212215</v>
+        <v>0.214219</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22773</v>
+        <v>0.227527</v>
       </c>
       <c r="C141" t="n">
-        <v>0.207931</v>
+        <v>0.209892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210834</v>
+        <v>0.212754</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222238</v>
+        <v>0.222339</v>
       </c>
       <c r="C142" t="n">
-        <v>0.207056</v>
+        <v>0.207409</v>
       </c>
       <c r="D142" t="n">
-        <v>0.209448</v>
+        <v>0.21171</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216684</v>
+        <v>0.216717</v>
       </c>
       <c r="C143" t="n">
-        <v>0.206153</v>
+        <v>0.207709</v>
       </c>
       <c r="D143" t="n">
-        <v>0.208182</v>
+        <v>0.210343</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207232</v>
+        <v>0.202148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188994</v>
+        <v>0.188274</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196669</v>
+        <v>0.197251</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.199264</v>
+        <v>0.197492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187896</v>
+        <v>0.188331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197341</v>
+        <v>0.197401</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193754</v>
+        <v>0.18803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188574</v>
+        <v>0.187853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196722</v>
+        <v>0.196819</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187991</v>
+        <v>0.181977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187459</v>
+        <v>0.187718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196067</v>
+        <v>0.196745</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183959</v>
+        <v>0.176434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18816</v>
+        <v>0.188406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196258</v>
+        <v>0.196372</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171547</v>
+        <v>0.16866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188234</v>
+        <v>0.188306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195651</v>
+        <v>0.195934</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161472</v>
+        <v>0.160551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187318</v>
+        <v>0.18727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194786</v>
+        <v>0.195028</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151772</v>
+        <v>0.151453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187055</v>
+        <v>0.186615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212693</v>
+        <v>0.212959</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237232</v>
+        <v>0.237483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205811</v>
+        <v>0.206044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212141</v>
+        <v>0.211996</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232902</v>
+        <v>0.232529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.205695</v>
+        <v>0.206203</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211651</v>
+        <v>0.211507</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227308</v>
+        <v>0.227161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203983</v>
+        <v>0.204458</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210019</v>
+        <v>0.210021</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221336</v>
+        <v>0.222432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202292</v>
+        <v>0.202658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209094</v>
+        <v>0.209327</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216243</v>
+        <v>0.215795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201551</v>
+        <v>0.201503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207525</v>
+        <v>0.207222</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211082</v>
+        <v>0.211389</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201181</v>
+        <v>0.200865</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206316</v>
+        <v>0.206556</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205664</v>
+        <v>0.204888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200011</v>
+        <v>0.199761</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205357</v>
+        <v>0.205697</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200918</v>
+        <v>0.200864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199067</v>
+        <v>0.19936</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20428</v>
+        <v>0.204452</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195595</v>
+        <v>0.196209</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198292</v>
+        <v>0.198627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203509</v>
+        <v>0.203894</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189289</v>
+        <v>0.188976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197064</v>
+        <v>0.197472</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202518</v>
+        <v>0.202777</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183493</v>
+        <v>0.18356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195803</v>
+        <v>0.195872</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201303</v>
+        <v>0.201351</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178487</v>
+        <v>0.178109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195029</v>
+        <v>0.195278</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200834</v>
+        <v>0.200791</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17189</v>
+        <v>0.171312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194405</v>
+        <v>0.194575</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199972</v>
+        <v>0.200054</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16284</v>
+        <v>0.163081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193946</v>
+        <v>0.193846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216715</v>
+        <v>0.216619</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239033</v>
+        <v>0.238964</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210485</v>
+        <v>0.210437</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215333</v>
+        <v>0.215446</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234621</v>
+        <v>0.234251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208675</v>
+        <v>0.208664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213647</v>
+        <v>0.213637</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229964</v>
+        <v>0.229492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207531</v>
+        <v>0.207293</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21184</v>
+        <v>0.211898</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225053</v>
+        <v>0.225626</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205607</v>
+        <v>0.205456</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210422</v>
+        <v>0.210429</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220712</v>
+        <v>0.219245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.203981</v>
+        <v>0.204127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209267</v>
+        <v>0.209193</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215053</v>
+        <v>0.214455</v>
       </c>
       <c r="C29" t="n">
-        <v>0.20286</v>
+        <v>0.202976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207727</v>
+        <v>0.207974</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209119</v>
+        <v>0.208956</v>
       </c>
       <c r="C30" t="n">
-        <v>0.20207</v>
+        <v>0.202273</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206774</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203519</v>
+        <v>0.204135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200925</v>
+        <v>0.200888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205292</v>
+        <v>0.205623</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198499</v>
+        <v>0.202156</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199867</v>
+        <v>0.200083</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204565</v>
+        <v>0.204873</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.194902</v>
+        <v>0.197498</v>
       </c>
       <c r="C33" t="n">
-        <v>0.198993</v>
+        <v>0.199006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203513</v>
+        <v>0.203825</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192156</v>
+        <v>0.192857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198456</v>
+        <v>0.198211</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202799</v>
+        <v>0.203124</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187211</v>
+        <v>0.186861</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197318</v>
+        <v>0.197189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.201883</v>
+        <v>0.202228</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18033</v>
+        <v>0.180428</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195643</v>
+        <v>0.195668</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200474</v>
+        <v>0.200787</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1731</v>
+        <v>0.173739</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194634</v>
+        <v>0.194574</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21775</v>
+        <v>0.217702</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242616</v>
+        <v>0.241996</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211645</v>
+        <v>0.21169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215899</v>
+        <v>0.21586</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239327</v>
+        <v>0.239394</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210064</v>
+        <v>0.21003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214319</v>
+        <v>0.214239</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235293</v>
+        <v>0.234557</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208353</v>
+        <v>0.208472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212941</v>
+        <v>0.213006</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229608</v>
+        <v>0.229781</v>
       </c>
       <c r="C41" t="n">
-        <v>0.20739</v>
+        <v>0.207271</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211524</v>
+        <v>0.211644</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225172</v>
+        <v>0.224404</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206237</v>
+        <v>0.20617</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210193</v>
+        <v>0.210415</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220581</v>
+        <v>0.220135</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205151</v>
+        <v>0.204987</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209152</v>
+        <v>0.209205</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21548</v>
+        <v>0.215168</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203942</v>
+        <v>0.204018</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208255</v>
+        <v>0.207864</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20977</v>
+        <v>0.209927</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202917</v>
+        <v>0.202792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.20694</v>
+        <v>0.206805</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20407</v>
+        <v>0.204766</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201527</v>
+        <v>0.201541</v>
       </c>
       <c r="D46" t="n">
-        <v>0.20558</v>
+        <v>0.205774</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199434</v>
+        <v>0.199107</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200705</v>
+        <v>0.200594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204728</v>
+        <v>0.204906</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194767</v>
+        <v>0.19433</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199465</v>
+        <v>0.199409</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203549</v>
+        <v>0.203813</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188797</v>
+        <v>0.188828</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198198</v>
+        <v>0.198094</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202374</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183213</v>
+        <v>0.182933</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197406</v>
+        <v>0.197216</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201663</v>
+        <v>0.201812</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176355</v>
+        <v>0.176266</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196446</v>
+        <v>0.196237</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219335</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167881</v>
+        <v>0.167785</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195163</v>
+        <v>0.195038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217336</v>
+        <v>0.217463</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240727</v>
+        <v>0.240662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211668</v>
+        <v>0.211604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215794</v>
+        <v>0.215804</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236721</v>
+        <v>0.236331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210071</v>
+        <v>0.210182</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214249</v>
+        <v>0.214242</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231883</v>
+        <v>0.231665</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208778</v>
+        <v>0.208781</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212869</v>
+        <v>0.213013</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226872</v>
+        <v>0.226793</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207136</v>
+        <v>0.207216</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211207</v>
+        <v>0.211319</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222135</v>
+        <v>0.221802</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206126</v>
+        <v>0.206026</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210046</v>
+        <v>0.210106</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216955</v>
+        <v>0.21589</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204914</v>
+        <v>0.205047</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208752</v>
+        <v>0.208964</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211311</v>
+        <v>0.211415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203555</v>
+        <v>0.203681</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207459</v>
+        <v>0.207427</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206759</v>
+        <v>0.206148</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202562</v>
+        <v>0.202793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206371</v>
+        <v>0.206427</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201283</v>
+        <v>0.201736</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20176</v>
+        <v>0.20161</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205378</v>
+        <v>0.205477</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195886</v>
+        <v>0.195806</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200376</v>
+        <v>0.200266</v>
       </c>
       <c r="D62" t="n">
-        <v>0.20424</v>
+        <v>0.204303</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190781</v>
+        <v>0.190638</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199044</v>
+        <v>0.199063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.202882</v>
+        <v>0.203249</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184434</v>
+        <v>0.184441</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197892</v>
+        <v>0.197831</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202166</v>
+        <v>0.202171</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178464</v>
+        <v>0.178062</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196807</v>
+        <v>0.196792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201244</v>
+        <v>0.201415</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170446</v>
+        <v>0.17037</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195525</v>
+        <v>0.195562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217792</v>
+        <v>0.217947</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242883</v>
+        <v>0.242431</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212694</v>
+        <v>0.21252</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216588</v>
+        <v>0.216519</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238405</v>
+        <v>0.236264</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211099</v>
+        <v>0.211024</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214885</v>
+        <v>0.214718</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233331</v>
+        <v>0.232052</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209416</v>
+        <v>0.209348</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21309</v>
+        <v>0.213193</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228727</v>
+        <v>0.226486</v>
       </c>
       <c r="C70" t="n">
-        <v>0.207918</v>
+        <v>0.208035</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211698</v>
+        <v>0.211667</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.220846</v>
+        <v>0.220918</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206511</v>
+        <v>0.206618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210316</v>
+        <v>0.210129</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215778</v>
+        <v>0.216133</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205262</v>
+        <v>0.205302</v>
       </c>
       <c r="D72" t="n">
-        <v>0.209027</v>
+        <v>0.208953</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209822</v>
+        <v>0.209834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203936</v>
+        <v>0.20392</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207565</v>
+        <v>0.207705</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20447</v>
+        <v>0.204475</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202683</v>
+        <v>0.202878</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206654</v>
+        <v>0.206544</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198973</v>
+        <v>0.198742</v>
       </c>
       <c r="C75" t="n">
-        <v>0.20152</v>
+        <v>0.201484</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2055</v>
+        <v>0.205558</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19318</v>
+        <v>0.193134</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200431</v>
+        <v>0.200471</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204549</v>
+        <v>0.204486</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187577</v>
+        <v>0.187531</v>
       </c>
       <c r="C77" t="n">
-        <v>0.19933</v>
+        <v>0.199338</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203516</v>
+        <v>0.203667</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181433</v>
+        <v>0.181265</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198235</v>
+        <v>0.198216</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202689</v>
+        <v>0.202406</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174501</v>
+        <v>0.174875</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197242</v>
+        <v>0.197181</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201825</v>
+        <v>0.201636</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16658</v>
+        <v>0.166448</v>
       </c>
       <c r="C80" t="n">
-        <v>0.196075</v>
+        <v>0.195967</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218625</v>
+        <v>0.218524</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243785</v>
+        <v>0.243576</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21325</v>
+        <v>0.213283</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216872</v>
+        <v>0.21703</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239858</v>
+        <v>0.239681</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211935</v>
+        <v>0.211945</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215548</v>
+        <v>0.215431</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235101</v>
+        <v>0.232787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210292</v>
+        <v>0.210324</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213737</v>
+        <v>0.213883</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228921</v>
+        <v>0.228313</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208792</v>
+        <v>0.208786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21232</v>
+        <v>0.212522</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223307</v>
+        <v>0.222825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207488</v>
+        <v>0.207499</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211127</v>
+        <v>0.211131</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217181</v>
+        <v>0.217014</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206416</v>
+        <v>0.206421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209877</v>
+        <v>0.209978</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211826</v>
+        <v>0.211793</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205139</v>
+        <v>0.205157</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208528</v>
+        <v>0.208581</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206034</v>
+        <v>0.206361</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20381</v>
+        <v>0.203931</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207361</v>
+        <v>0.207302</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200459</v>
+        <v>0.200443</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202395</v>
+        <v>0.202525</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206164</v>
+        <v>0.206172</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194761</v>
+        <v>0.194687</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201335</v>
+        <v>0.201216</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205131</v>
+        <v>0.205127</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189216</v>
+        <v>0.18909</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200114</v>
+        <v>0.200036</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203919</v>
+        <v>0.203944</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182865</v>
+        <v>0.183044</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198877</v>
+        <v>0.198743</v>
       </c>
       <c r="D92" t="n">
-        <v>0.203029</v>
+        <v>0.203034</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176222</v>
+        <v>0.176079</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197607</v>
+        <v>0.197519</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201735</v>
+        <v>0.202042</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168106</v>
+        <v>0.168101</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196534</v>
+        <v>0.196453</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218885</v>
+        <v>0.218983</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244586</v>
+        <v>0.244573</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215266</v>
+        <v>0.215619</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217113</v>
+        <v>0.21733</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240561</v>
+        <v>0.240682</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214074</v>
+        <v>0.21403</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215677</v>
+        <v>0.215911</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236456</v>
+        <v>0.234487</v>
       </c>
       <c r="C97" t="n">
-        <v>0.211891</v>
+        <v>0.212199</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214165</v>
+        <v>0.21447</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232209</v>
+        <v>0.229719</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210582</v>
+        <v>0.210708</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212858</v>
+        <v>0.212892</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226826</v>
+        <v>0.224609</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208943</v>
+        <v>0.208882</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211427</v>
+        <v>0.211655</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219449</v>
+        <v>0.219458</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207594</v>
+        <v>0.207673</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21016</v>
+        <v>0.210278</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213729</v>
+        <v>0.213285</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206108</v>
+        <v>0.206442</v>
       </c>
       <c r="D101" t="n">
-        <v>0.209038</v>
+        <v>0.209022</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208263</v>
+        <v>0.207681</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204977</v>
+        <v>0.204779</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207917</v>
+        <v>0.207806</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202388</v>
+        <v>0.202213</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203355</v>
+        <v>0.203334</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206472</v>
+        <v>0.206731</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196689</v>
+        <v>0.196443</v>
       </c>
       <c r="C104" t="n">
-        <v>0.201953</v>
+        <v>0.202284</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205575</v>
+        <v>0.205603</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190974</v>
+        <v>0.190849</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201021</v>
+        <v>0.201124</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204471</v>
+        <v>0.204485</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184996</v>
+        <v>0.185106</v>
       </c>
       <c r="C106" t="n">
         <v>0.199683</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203163</v>
+        <v>0.203323</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.17846</v>
+        <v>0.17819</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198327</v>
+        <v>0.198466</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202284</v>
+        <v>0.202528</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170694</v>
+        <v>0.170554</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197189</v>
+        <v>0.197232</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219828</v>
+        <v>0.219802</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161068</v>
+        <v>0.160871</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195945</v>
+        <v>0.195876</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218122</v>
+        <v>0.217813</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239556</v>
+        <v>0.239658</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212328</v>
+        <v>0.212739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216629</v>
+        <v>0.216277</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235466</v>
+        <v>0.235777</v>
       </c>
       <c r="C111" t="n">
-        <v>0.210838</v>
+        <v>0.211524</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215127</v>
+        <v>0.214784</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230934</v>
+        <v>0.23089</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210595</v>
+        <v>0.210407</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213965</v>
+        <v>0.213372</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225978</v>
+        <v>0.22607</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209537</v>
+        <v>0.209459</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212593</v>
+        <v>0.212054</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220221</v>
+        <v>0.220026</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208157</v>
+        <v>0.207613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21123</v>
+        <v>0.210799</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214597</v>
+        <v>0.214464</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206753</v>
+        <v>0.206242</v>
       </c>
       <c r="D115" t="n">
-        <v>0.210013</v>
+        <v>0.209143</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209057</v>
+        <v>0.208797</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205604</v>
+        <v>0.205806</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208763</v>
+        <v>0.208181</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203309</v>
+        <v>0.203094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.203194</v>
+        <v>0.204844</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207531</v>
+        <v>0.207029</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19728</v>
+        <v>0.197348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203484</v>
+        <v>0.20365</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206297</v>
+        <v>0.205841</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191692</v>
+        <v>0.191743</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202308</v>
+        <v>0.20222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204805</v>
+        <v>0.204552</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185814</v>
+        <v>0.185795</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201009</v>
+        <v>0.200202</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203926</v>
+        <v>0.203608</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179335</v>
+        <v>0.179313</v>
       </c>
       <c r="C121" t="n">
-        <v>0.19965</v>
+        <v>0.19967</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202928</v>
+        <v>0.202547</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.172038</v>
+        <v>0.17207</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198478</v>
+        <v>0.198364</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201699</v>
+        <v>0.201471</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163015</v>
+        <v>0.162971</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196897</v>
+        <v>0.196802</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218609</v>
+        <v>0.218566</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240338</v>
+        <v>0.240283</v>
       </c>
       <c r="C124" t="n">
-        <v>0.212994</v>
+        <v>0.213024</v>
       </c>
       <c r="D124" t="n">
-        <v>0.217031</v>
+        <v>0.216939</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236505</v>
+        <v>0.236272</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211853</v>
+        <v>0.211693</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215501</v>
+        <v>0.215411</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231721</v>
+        <v>0.231608</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210645</v>
+        <v>0.209952</v>
       </c>
       <c r="D126" t="n">
-        <v>0.214075</v>
+        <v>0.214091</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226626</v>
+        <v>0.226375</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209488</v>
+        <v>0.209474</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212599</v>
+        <v>0.212779</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221136</v>
+        <v>0.221133</v>
       </c>
       <c r="C128" t="n">
-        <v>0.207945</v>
+        <v>0.208058</v>
       </c>
       <c r="D128" t="n">
-        <v>0.210822</v>
+        <v>0.211371</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215422</v>
+        <v>0.215259</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207304</v>
+        <v>0.20587</v>
       </c>
       <c r="D129" t="n">
-        <v>0.209996</v>
+        <v>0.210301</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20983</v>
+        <v>0.209852</v>
       </c>
       <c r="C130" t="n">
-        <v>0.205211</v>
+        <v>0.206258</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208818</v>
+        <v>0.208619</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204467</v>
+        <v>0.204346</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205181</v>
+        <v>0.205076</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207837</v>
+        <v>0.207242</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198638</v>
+        <v>0.198631</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203429</v>
+        <v>0.20382</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206584</v>
+        <v>0.206445</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.192944</v>
+        <v>0.193018</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202448</v>
+        <v>0.202537</v>
       </c>
       <c r="D133" t="n">
-        <v>0.20517</v>
+        <v>0.204464</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187106</v>
+        <v>0.187083</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201227</v>
+        <v>0.201166</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204082</v>
+        <v>0.20439</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180837</v>
+        <v>0.180823</v>
       </c>
       <c r="C135" t="n">
-        <v>0.199386</v>
+        <v>0.199725</v>
       </c>
       <c r="D135" t="n">
-        <v>0.202612</v>
+        <v>0.203365</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17364</v>
+        <v>0.173659</v>
       </c>
       <c r="C136" t="n">
-        <v>0.197768</v>
+        <v>0.198546</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20197</v>
+        <v>0.202074</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164984</v>
+        <v>0.16481</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197234</v>
+        <v>0.196104</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218629</v>
+        <v>0.218956</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240904</v>
+        <v>0.240893</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213264</v>
+        <v>0.21344</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217191</v>
+        <v>0.217398</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237113</v>
+        <v>0.237057</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21176</v>
+        <v>0.212066</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215809</v>
+        <v>0.215797</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232547</v>
+        <v>0.232498</v>
       </c>
       <c r="C140" t="n">
-        <v>0.209975</v>
+        <v>0.210853</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214219</v>
+        <v>0.214461</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227527</v>
+        <v>0.227365</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209892</v>
+        <v>0.209044</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212754</v>
+        <v>0.213102</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222339</v>
+        <v>0.222185</v>
       </c>
       <c r="C142" t="n">
-        <v>0.207409</v>
+        <v>0.2088</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21171</v>
+        <v>0.211818</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216717</v>
+        <v>0.216673</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207709</v>
+        <v>0.207955</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210343</v>
+        <v>0.210489</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202148</v>
+        <v>0.208157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188274</v>
+        <v>0.188758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197251</v>
+        <v>0.197259</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197492</v>
+        <v>0.19472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188331</v>
+        <v>0.188545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197401</v>
+        <v>0.19763</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18803</v>
+        <v>0.189244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187853</v>
+        <v>0.188475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196819</v>
+        <v>0.196903</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181977</v>
+        <v>0.183261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187718</v>
+        <v>0.188364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196745</v>
+        <v>0.19665</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176434</v>
+        <v>0.176158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188406</v>
+        <v>0.188996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196372</v>
+        <v>0.196453</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16866</v>
+        <v>0.17112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188306</v>
+        <v>0.188234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195934</v>
+        <v>0.196156</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160551</v>
+        <v>0.161885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18727</v>
+        <v>0.187558</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195028</v>
+        <v>0.195263</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151453</v>
+        <v>0.152583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186615</v>
+        <v>0.186824</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212959</v>
+        <v>0.213199</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237483</v>
+        <v>0.236618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206044</v>
+        <v>0.206502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.211996</v>
+        <v>0.212092</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232529</v>
+        <v>0.233197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206203</v>
+        <v>0.206408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211507</v>
+        <v>0.211667</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227161</v>
+        <v>0.226286</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204458</v>
+        <v>0.204516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210021</v>
+        <v>0.210287</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222432</v>
+        <v>0.221641</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202658</v>
+        <v>0.202986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209327</v>
+        <v>0.209253</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215795</v>
+        <v>0.216309</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201503</v>
+        <v>0.202223</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207222</v>
+        <v>0.207731</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211389</v>
+        <v>0.211674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200865</v>
+        <v>0.201307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206556</v>
+        <v>0.206875</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204888</v>
+        <v>0.206186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.199761</v>
+        <v>0.200476</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205697</v>
+        <v>0.205853</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200864</v>
+        <v>0.200586</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19936</v>
+        <v>0.198988</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204452</v>
+        <v>0.204716</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196209</v>
+        <v>0.195294</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198627</v>
+        <v>0.198632</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203894</v>
+        <v>0.204071</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188976</v>
+        <v>0.189398</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197472</v>
+        <v>0.19746</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202777</v>
+        <v>0.202997</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18356</v>
+        <v>0.183801</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195872</v>
+        <v>0.196075</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201351</v>
+        <v>0.201725</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178109</v>
+        <v>0.178084</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195278</v>
+        <v>0.195433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200791</v>
+        <v>0.200961</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171312</v>
+        <v>0.171792</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194575</v>
+        <v>0.194669</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200054</v>
+        <v>0.200366</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163081</v>
+        <v>0.162961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193846</v>
+        <v>0.194119</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216619</v>
+        <v>0.217004</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238964</v>
+        <v>0.238901</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210437</v>
+        <v>0.210979</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215446</v>
+        <v>0.215495</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234251</v>
+        <v>0.234526</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208664</v>
+        <v>0.208743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213637</v>
+        <v>0.213565</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229492</v>
+        <v>0.230059</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207293</v>
+        <v>0.207451</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211898</v>
+        <v>0.212123</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225626</v>
+        <v>0.225885</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205456</v>
+        <v>0.206547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210429</v>
+        <v>0.210345</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219245</v>
+        <v>0.220222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204127</v>
+        <v>0.204395</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209193</v>
+        <v>0.209477</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214455</v>
+        <v>0.21614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.202976</v>
+        <v>0.203161</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207974</v>
+        <v>0.208267</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208956</v>
+        <v>0.209873</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202273</v>
+        <v>0.201962</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2068</v>
+        <v>0.206706</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204135</v>
+        <v>0.204139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200888</v>
+        <v>0.20111</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205623</v>
+        <v>0.205645</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202156</v>
+        <v>0.198853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.200083</v>
+        <v>0.200138</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204873</v>
+        <v>0.204847</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197498</v>
+        <v>0.19317</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199006</v>
+        <v>0.199436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203825</v>
+        <v>0.203745</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192857</v>
+        <v>0.192071</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198211</v>
+        <v>0.198566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203124</v>
+        <v>0.203221</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186861</v>
+        <v>0.186985</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197189</v>
+        <v>0.197406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202228</v>
+        <v>0.20213</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180428</v>
+        <v>0.180741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195668</v>
+        <v>0.195667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200787</v>
+        <v>0.200799</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173739</v>
+        <v>0.173476</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194574</v>
+        <v>0.194754</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217702</v>
+        <v>0.218012</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241996</v>
+        <v>0.242709</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21169</v>
+        <v>0.21201</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21586</v>
+        <v>0.216045</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239394</v>
+        <v>0.239976</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21003</v>
+        <v>0.210327</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214239</v>
+        <v>0.214484</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234557</v>
+        <v>0.235337</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208472</v>
+        <v>0.208687</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213006</v>
+        <v>0.21319</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229781</v>
+        <v>0.2305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207271</v>
+        <v>0.207491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211644</v>
+        <v>0.211799</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224404</v>
+        <v>0.225189</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20617</v>
+        <v>0.206591</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210415</v>
+        <v>0.210578</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220135</v>
+        <v>0.220482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.204987</v>
+        <v>0.205204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209205</v>
+        <v>0.209414</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215168</v>
+        <v>0.215601</v>
       </c>
       <c r="C44" t="n">
-        <v>0.204018</v>
+        <v>0.204216</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207864</v>
+        <v>0.208446</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209927</v>
+        <v>0.209614</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202792</v>
+        <v>0.203173</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206805</v>
+        <v>0.207098</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204766</v>
+        <v>0.204578</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201541</v>
+        <v>0.2021</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205774</v>
+        <v>0.205903</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199107</v>
+        <v>0.19946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200594</v>
+        <v>0.200959</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204906</v>
+        <v>0.205087</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19433</v>
+        <v>0.194519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199409</v>
+        <v>0.199711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203813</v>
+        <v>0.204053</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188828</v>
+        <v>0.18873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198094</v>
+        <v>0.198399</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2026</v>
+        <v>0.202778</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182933</v>
+        <v>0.183445</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197216</v>
+        <v>0.197437</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201812</v>
+        <v>0.202066</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176266</v>
+        <v>0.175976</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196237</v>
+        <v>0.196633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2192</v>
+        <v>0.219418</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167785</v>
+        <v>0.168211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195038</v>
+        <v>0.195312</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217463</v>
+        <v>0.217553</v>
       </c>
     </row>
     <row r="53">
@@ -3963,10 +3963,10 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240662</v>
+        <v>0.241243</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211604</v>
+        <v>0.211826</v>
       </c>
       <c r="D53" t="n">
         <v>0.215804</v>
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236331</v>
+        <v>0.236642</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210182</v>
+        <v>0.210337</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214242</v>
+        <v>0.214537</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231665</v>
+        <v>0.232389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208781</v>
+        <v>0.20905</v>
       </c>
       <c r="D55" t="n">
-        <v>0.213013</v>
+        <v>0.213248</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226793</v>
+        <v>0.227199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207216</v>
+        <v>0.207421</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211319</v>
+        <v>0.211542</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221802</v>
+        <v>0.221984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206026</v>
+        <v>0.206459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210106</v>
+        <v>0.210261</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21589</v>
+        <v>0.217583</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205047</v>
+        <v>0.205159</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208964</v>
+        <v>0.209218</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211415</v>
+        <v>0.212255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203681</v>
+        <v>0.203868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207427</v>
+        <v>0.207869</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206148</v>
+        <v>0.206712</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202793</v>
+        <v>0.202932</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206427</v>
+        <v>0.206904</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201736</v>
+        <v>0.201983</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20161</v>
+        <v>0.201813</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205477</v>
+        <v>0.2058</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195806</v>
+        <v>0.195998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200266</v>
+        <v>0.200541</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204303</v>
+        <v>0.20462</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190638</v>
+        <v>0.191068</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199063</v>
+        <v>0.19927</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203249</v>
+        <v>0.20357</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184441</v>
+        <v>0.184799</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197831</v>
+        <v>0.198109</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202171</v>
+        <v>0.202356</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178062</v>
+        <v>0.178478</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196792</v>
+        <v>0.197026</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201415</v>
+        <v>0.201704</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.17037</v>
+        <v>0.170781</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195562</v>
+        <v>0.195865</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217947</v>
+        <v>0.218104</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242431</v>
+        <v>0.242973</v>
       </c>
       <c r="C67" t="n">
-        <v>0.21252</v>
+        <v>0.21322</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216519</v>
+        <v>0.216665</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236264</v>
+        <v>0.236463</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211024</v>
+        <v>0.211302</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214718</v>
+        <v>0.215008</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232052</v>
+        <v>0.232074</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209348</v>
+        <v>0.209681</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213193</v>
+        <v>0.213512</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226486</v>
+        <v>0.226673</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208035</v>
+        <v>0.208113</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211667</v>
+        <v>0.21171</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.220918</v>
+        <v>0.221225</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206618</v>
+        <v>0.206682</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210129</v>
+        <v>0.210343</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216133</v>
+        <v>0.215941</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205302</v>
+        <v>0.205433</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208953</v>
+        <v>0.208956</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209834</v>
+        <v>0.210096</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20392</v>
+        <v>0.204104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207705</v>
+        <v>0.207674</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204475</v>
+        <v>0.204773</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202878</v>
+        <v>0.202947</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206544</v>
+        <v>0.206632</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198742</v>
+        <v>0.198819</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201484</v>
+        <v>0.201689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205558</v>
+        <v>0.205524</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193134</v>
+        <v>0.193325</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200471</v>
+        <v>0.200534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204486</v>
+        <v>0.204515</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187531</v>
+        <v>0.187549</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199338</v>
+        <v>0.199505</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203667</v>
+        <v>0.203584</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181265</v>
+        <v>0.181461</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198216</v>
+        <v>0.198449</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202406</v>
+        <v>0.202644</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174875</v>
+        <v>0.174554</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197181</v>
+        <v>0.197427</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201636</v>
+        <v>0.202023</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166448</v>
+        <v>0.16649</v>
       </c>
       <c r="C80" t="n">
-        <v>0.195967</v>
+        <v>0.196099</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218524</v>
+        <v>0.218677</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243576</v>
+        <v>0.243707</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213283</v>
+        <v>0.213658</v>
       </c>
       <c r="D81" t="n">
-        <v>0.21703</v>
+        <v>0.217173</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239681</v>
+        <v>0.237717</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211945</v>
+        <v>0.212207</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215431</v>
+        <v>0.215637</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232787</v>
+        <v>0.23283</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210324</v>
+        <v>0.210624</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213883</v>
+        <v>0.214035</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228313</v>
+        <v>0.228253</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208786</v>
+        <v>0.209013</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212522</v>
+        <v>0.21267</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222825</v>
+        <v>0.222927</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207499</v>
+        <v>0.207709</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211131</v>
+        <v>0.211159</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217014</v>
+        <v>0.217411</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206421</v>
+        <v>0.206463</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209978</v>
+        <v>0.210003</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211793</v>
+        <v>0.211819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205157</v>
+        <v>0.205151</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208581</v>
+        <v>0.208777</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206361</v>
+        <v>0.206176</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203931</v>
+        <v>0.203838</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207302</v>
+        <v>0.207445</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200443</v>
+        <v>0.200504</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202525</v>
+        <v>0.202514</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206172</v>
+        <v>0.20641</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194687</v>
+        <v>0.19476</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201216</v>
+        <v>0.201438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205127</v>
+        <v>0.205337</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18909</v>
+        <v>0.18911</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200036</v>
+        <v>0.200326</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203944</v>
+        <v>0.203921</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183044</v>
+        <v>0.182915</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198743</v>
+        <v>0.198851</v>
       </c>
       <c r="D92" t="n">
-        <v>0.203034</v>
+        <v>0.203107</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176079</v>
+        <v>0.17661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197519</v>
+        <v>0.197694</v>
       </c>
       <c r="D93" t="n">
-        <v>0.202042</v>
+        <v>0.202125</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168101</v>
+        <v>0.16822</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196453</v>
+        <v>0.196619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218983</v>
+        <v>0.218968</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244573</v>
+        <v>0.245013</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215619</v>
+        <v>0.21606</v>
       </c>
       <c r="D95" t="n">
-        <v>0.21733</v>
+        <v>0.217457</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240682</v>
+        <v>0.240821</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21403</v>
+        <v>0.214136</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215911</v>
+        <v>0.215901</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234487</v>
+        <v>0.23655</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212199</v>
+        <v>0.212529</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21447</v>
+        <v>0.214587</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229719</v>
+        <v>0.232132</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210708</v>
+        <v>0.210618</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212892</v>
+        <v>0.213049</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224609</v>
+        <v>0.226972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208882</v>
+        <v>0.209295</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211655</v>
+        <v>0.211801</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219458</v>
+        <v>0.219868</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207673</v>
+        <v>0.207736</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210278</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213285</v>
+        <v>0.213821</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206442</v>
+        <v>0.206827</v>
       </c>
       <c r="D101" t="n">
-        <v>0.209022</v>
+        <v>0.20922</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207681</v>
+        <v>0.208165</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204779</v>
+        <v>0.205184</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207806</v>
+        <v>0.207963</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202213</v>
+        <v>0.202658</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203334</v>
+        <v>0.203914</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206731</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196443</v>
+        <v>0.196667</v>
       </c>
       <c r="C104" t="n">
-        <v>0.202284</v>
+        <v>0.202555</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205603</v>
+        <v>0.205719</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190849</v>
+        <v>0.191139</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201124</v>
+        <v>0.20139</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204485</v>
+        <v>0.204692</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185106</v>
+        <v>0.185265</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199683</v>
+        <v>0.199888</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203323</v>
+        <v>0.203594</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.17819</v>
+        <v>0.178593</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198466</v>
+        <v>0.198763</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202528</v>
+        <v>0.202563</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170554</v>
+        <v>0.170949</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197232</v>
+        <v>0.197419</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219802</v>
+        <v>0.21978</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.160871</v>
+        <v>0.161598</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195876</v>
+        <v>0.196139</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217813</v>
+        <v>0.217971</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239658</v>
+        <v>0.24002</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212739</v>
+        <v>0.213434</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216277</v>
+        <v>0.216643</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235777</v>
+        <v>0.235811</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211524</v>
+        <v>0.21205</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214784</v>
+        <v>0.215414</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23089</v>
+        <v>0.231348</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210407</v>
+        <v>0.210971</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213372</v>
+        <v>0.214134</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22607</v>
+        <v>0.226171</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209459</v>
+        <v>0.210092</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212054</v>
+        <v>0.212735</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220026</v>
+        <v>0.220155</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207613</v>
+        <v>0.208877</v>
       </c>
       <c r="D114" t="n">
-        <v>0.210799</v>
+        <v>0.211435</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214464</v>
+        <v>0.214671</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206242</v>
+        <v>0.2077</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209143</v>
+        <v>0.210072</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208797</v>
+        <v>0.208932</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205806</v>
+        <v>0.205155</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208181</v>
+        <v>0.208965</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203094</v>
+        <v>0.203302</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204844</v>
+        <v>0.205587</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207029</v>
+        <v>0.207842</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197348</v>
+        <v>0.197756</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20365</v>
+        <v>0.202939</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205841</v>
+        <v>0.206297</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191743</v>
+        <v>0.191961</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20222</v>
+        <v>0.202611</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204552</v>
+        <v>0.205046</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185795</v>
+        <v>0.186077</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200202</v>
+        <v>0.201534</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203608</v>
+        <v>0.203946</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179313</v>
+        <v>0.179494</v>
       </c>
       <c r="C121" t="n">
-        <v>0.19967</v>
+        <v>0.199793</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202547</v>
+        <v>0.202987</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17207</v>
+        <v>0.172099</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198364</v>
+        <v>0.197817</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201471</v>
+        <v>0.201915</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162971</v>
+        <v>0.162885</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196802</v>
+        <v>0.197269</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218566</v>
+        <v>0.218785</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240283</v>
+        <v>0.240441</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213024</v>
+        <v>0.213313</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216939</v>
+        <v>0.217125</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236272</v>
+        <v>0.236642</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211693</v>
+        <v>0.211858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215411</v>
+        <v>0.215626</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231608</v>
+        <v>0.231937</v>
       </c>
       <c r="C126" t="n">
-        <v>0.209952</v>
+        <v>0.210972</v>
       </c>
       <c r="D126" t="n">
-        <v>0.214091</v>
+        <v>0.214407</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226375</v>
+        <v>0.2269</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209474</v>
+        <v>0.2099</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212779</v>
+        <v>0.212485</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221133</v>
+        <v>0.221411</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208058</v>
+        <v>0.208275</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211371</v>
+        <v>0.211646</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215259</v>
+        <v>0.215614</v>
       </c>
       <c r="C129" t="n">
-        <v>0.20587</v>
+        <v>0.206488</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210301</v>
+        <v>0.210445</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209852</v>
+        <v>0.210308</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206258</v>
+        <v>0.206691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208619</v>
+        <v>0.208777</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204346</v>
+        <v>0.204713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205076</v>
+        <v>0.205465</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207242</v>
+        <v>0.208094</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198631</v>
+        <v>0.198916</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20382</v>
+        <v>0.203795</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206445</v>
+        <v>0.206295</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193018</v>
+        <v>0.193308</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202537</v>
+        <v>0.202825</v>
       </c>
       <c r="D133" t="n">
-        <v>0.204464</v>
+        <v>0.20535</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187083</v>
+        <v>0.18749</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201166</v>
+        <v>0.201489</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20439</v>
+        <v>0.20446</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180823</v>
+        <v>0.181058</v>
       </c>
       <c r="C135" t="n">
-        <v>0.199725</v>
+        <v>0.198882</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203365</v>
+        <v>0.203231</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173659</v>
+        <v>0.173832</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198546</v>
+        <v>0.199076</v>
       </c>
       <c r="D136" t="n">
-        <v>0.202074</v>
+        <v>0.202029</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16481</v>
+        <v>0.165109</v>
       </c>
       <c r="C137" t="n">
-        <v>0.196104</v>
+        <v>0.197647</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218956</v>
+        <v>0.219106</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240893</v>
+        <v>0.241137</v>
       </c>
       <c r="C138" t="n">
-        <v>0.21344</v>
+        <v>0.213491</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217398</v>
+        <v>0.217505</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237057</v>
+        <v>0.237322</v>
       </c>
       <c r="C139" t="n">
-        <v>0.212066</v>
+        <v>0.212235</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215797</v>
+        <v>0.215967</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232498</v>
+        <v>0.232717</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210853</v>
+        <v>0.211216</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214461</v>
+        <v>0.214495</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227365</v>
+        <v>0.227858</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209044</v>
+        <v>0.209686</v>
       </c>
       <c r="D141" t="n">
-        <v>0.213102</v>
+        <v>0.213305</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222185</v>
+        <v>0.222591</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2088</v>
+        <v>0.209154</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211818</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216673</v>
+        <v>0.217073</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207955</v>
+        <v>0.20821</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210489</v>
+        <v>0.210576</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.208157</v>
+        <v>0.203741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188758</v>
+        <v>0.188718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197259</v>
+        <v>0.197337</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19472</v>
+        <v>0.197715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188545</v>
+        <v>0.188521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19763</v>
+        <v>0.197302</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189244</v>
+        <v>0.189013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188475</v>
+        <v>0.188601</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196903</v>
+        <v>0.196829</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183261</v>
+        <v>0.183278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188364</v>
+        <v>0.187787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19665</v>
+        <v>0.196222</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176158</v>
+        <v>0.17724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188996</v>
+        <v>0.189115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196453</v>
+        <v>0.196263</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17112</v>
+        <v>0.17161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188234</v>
+        <v>0.188516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.196156</v>
+        <v>0.195815</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161885</v>
+        <v>0.161643</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187558</v>
+        <v>0.187429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195263</v>
+        <v>0.195031</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152583</v>
+        <v>0.152456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186824</v>
+        <v>0.187073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213199</v>
+        <v>0.212914</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236618</v>
+        <v>0.236797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206502</v>
+        <v>0.206073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212092</v>
+        <v>0.212215</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233197</v>
+        <v>0.232109</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206408</v>
+        <v>0.205998</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211667</v>
+        <v>0.211568</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226286</v>
+        <v>0.225734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204516</v>
+        <v>0.204506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210287</v>
+        <v>0.21006</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221641</v>
+        <v>0.221001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202986</v>
+        <v>0.202586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209253</v>
+        <v>0.208982</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216309</v>
+        <v>0.21556</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202223</v>
+        <v>0.201546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207731</v>
+        <v>0.207286</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211674</v>
+        <v>0.210941</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201307</v>
+        <v>0.201113</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206875</v>
+        <v>0.206891</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206186</v>
+        <v>0.204896</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200476</v>
+        <v>0.200078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205853</v>
+        <v>0.20553</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200586</v>
+        <v>0.200291</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198988</v>
+        <v>0.199043</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204716</v>
+        <v>0.20434</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195294</v>
+        <v>0.195315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198632</v>
+        <v>0.198575</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204071</v>
+        <v>0.204022</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189398</v>
+        <v>0.188994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19746</v>
+        <v>0.197602</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202997</v>
+        <v>0.202894</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183801</v>
+        <v>0.183467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196075</v>
+        <v>0.196047</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201725</v>
+        <v>0.201584</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178084</v>
+        <v>0.178148</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195433</v>
+        <v>0.195474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200961</v>
+        <v>0.201036</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171792</v>
+        <v>0.17145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194669</v>
+        <v>0.194636</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200366</v>
+        <v>0.20033</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162961</v>
+        <v>0.162982</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194119</v>
+        <v>0.194046</v>
       </c>
       <c r="D23" t="n">
-        <v>0.217004</v>
+        <v>0.216664</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238901</v>
+        <v>0.238517</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210979</v>
+        <v>0.210201</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215495</v>
+        <v>0.214992</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234526</v>
+        <v>0.233994</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208743</v>
+        <v>0.208641</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213565</v>
+        <v>0.21378</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230059</v>
+        <v>0.229888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207451</v>
+        <v>0.207222</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212123</v>
+        <v>0.211884</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225885</v>
+        <v>0.224967</v>
       </c>
       <c r="C27" t="n">
-        <v>0.206547</v>
+        <v>0.205269</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210345</v>
+        <v>0.21055</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220222</v>
+        <v>0.21973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204395</v>
+        <v>0.204085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209477</v>
+        <v>0.209451</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21614</v>
+        <v>0.216332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203161</v>
+        <v>0.203062</v>
       </c>
       <c r="D29" t="n">
-        <v>0.208267</v>
+        <v>0.207644</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209873</v>
+        <v>0.208471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201962</v>
+        <v>0.201872</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206706</v>
+        <v>0.206845</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204139</v>
+        <v>0.20343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20111</v>
+        <v>0.200938</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205645</v>
+        <v>0.205659</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198853</v>
+        <v>0.198083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.200138</v>
+        <v>0.199927</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204847</v>
+        <v>0.204886</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19317</v>
+        <v>0.196957</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199436</v>
+        <v>0.199198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203745</v>
+        <v>0.203962</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192071</v>
+        <v>0.191852</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198566</v>
+        <v>0.198321</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203221</v>
+        <v>0.203304</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186985</v>
+        <v>0.186852</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197406</v>
+        <v>0.197184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.20213</v>
+        <v>0.202403</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180741</v>
+        <v>0.180624</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195667</v>
+        <v>0.19558</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200799</v>
+        <v>0.201043</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173476</v>
+        <v>0.172911</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194754</v>
+        <v>0.194664</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218012</v>
+        <v>0.217747</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242709</v>
+        <v>0.24152</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21201</v>
+        <v>0.211648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216045</v>
+        <v>0.215929</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239976</v>
+        <v>0.23845</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210327</v>
+        <v>0.209964</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214484</v>
+        <v>0.214217</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235337</v>
+        <v>0.234356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208687</v>
+        <v>0.208375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21319</v>
+        <v>0.212959</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2305</v>
+        <v>0.229822</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207491</v>
+        <v>0.207273</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211799</v>
+        <v>0.211646</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225189</v>
+        <v>0.224305</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206591</v>
+        <v>0.206328</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210578</v>
+        <v>0.210626</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220482</v>
+        <v>0.219877</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205204</v>
+        <v>0.20502</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209414</v>
+        <v>0.209243</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215601</v>
+        <v>0.214576</v>
       </c>
       <c r="C44" t="n">
-        <v>0.204216</v>
+        <v>0.203957</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208446</v>
+        <v>0.208125</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209614</v>
+        <v>0.210512</v>
       </c>
       <c r="C45" t="n">
-        <v>0.203173</v>
+        <v>0.202697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207098</v>
+        <v>0.207042</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204578</v>
+        <v>0.204467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2021</v>
+        <v>0.201642</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205903</v>
+        <v>0.205815</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.19946</v>
+        <v>0.199259</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200959</v>
+        <v>0.200696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.205087</v>
+        <v>0.204978</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194519</v>
+        <v>0.195137</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199711</v>
+        <v>0.199619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.204053</v>
+        <v>0.203888</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18873</v>
+        <v>0.18847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198399</v>
+        <v>0.198175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202778</v>
+        <v>0.202712</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183445</v>
+        <v>0.182517</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197437</v>
+        <v>0.197237</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202066</v>
+        <v>0.202087</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175976</v>
+        <v>0.175938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196633</v>
+        <v>0.196357</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219418</v>
+        <v>0.21916</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168211</v>
+        <v>0.1677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195312</v>
+        <v>0.195078</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217553</v>
+        <v>0.217342</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241243</v>
+        <v>0.240588</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211826</v>
+        <v>0.211596</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215804</v>
+        <v>0.21551</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236642</v>
+        <v>0.236134</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210337</v>
+        <v>0.209998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214537</v>
+        <v>0.214253</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232389</v>
+        <v>0.231994</v>
       </c>
       <c r="C55" t="n">
-        <v>0.20905</v>
+        <v>0.208792</v>
       </c>
       <c r="D55" t="n">
-        <v>0.213248</v>
+        <v>0.212961</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227199</v>
+        <v>0.226613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207421</v>
+        <v>0.207274</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211542</v>
+        <v>0.211509</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221984</v>
+        <v>0.221728</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206459</v>
+        <v>0.206149</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210261</v>
+        <v>0.210088</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217583</v>
+        <v>0.216233</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205159</v>
+        <v>0.204984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.209218</v>
+        <v>0.208892</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212255</v>
+        <v>0.210799</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203868</v>
+        <v>0.203681</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207869</v>
+        <v>0.207836</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206712</v>
+        <v>0.206353</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202932</v>
+        <v>0.20271</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206904</v>
+        <v>0.206796</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201983</v>
+        <v>0.201221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201813</v>
+        <v>0.20166</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2058</v>
+        <v>0.205759</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195998</v>
+        <v>0.19629</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200541</v>
+        <v>0.200307</v>
       </c>
       <c r="D62" t="n">
-        <v>0.20462</v>
+        <v>0.20473</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191068</v>
+        <v>0.190567</v>
       </c>
       <c r="C63" t="n">
-        <v>0.19927</v>
+        <v>0.199038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.20357</v>
+        <v>0.203442</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184799</v>
+        <v>0.184325</v>
       </c>
       <c r="C64" t="n">
-        <v>0.198109</v>
+        <v>0.197921</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202356</v>
+        <v>0.202427</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178478</v>
+        <v>0.178237</v>
       </c>
       <c r="C65" t="n">
-        <v>0.197026</v>
+        <v>0.196812</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201704</v>
+        <v>0.201685</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170781</v>
+        <v>0.170349</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195865</v>
+        <v>0.195575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.218104</v>
+        <v>0.217769</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242973</v>
+        <v>0.242537</v>
       </c>
       <c r="C67" t="n">
-        <v>0.21322</v>
+        <v>0.212758</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216665</v>
+        <v>0.216478</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236463</v>
+        <v>0.238422</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211302</v>
+        <v>0.21114</v>
       </c>
       <c r="D68" t="n">
-        <v>0.215008</v>
+        <v>0.214891</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232074</v>
+        <v>0.231336</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209681</v>
+        <v>0.209407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213512</v>
+        <v>0.213123</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226673</v>
+        <v>0.226475</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208113</v>
+        <v>0.208032</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21171</v>
+        <v>0.211764</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221225</v>
+        <v>0.221186</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206682</v>
+        <v>0.206533</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210343</v>
+        <v>0.210272</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215941</v>
+        <v>0.215348</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205433</v>
+        <v>0.205265</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208956</v>
+        <v>0.208938</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210096</v>
+        <v>0.209675</v>
       </c>
       <c r="C73" t="n">
-        <v>0.204104</v>
+        <v>0.203929</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207674</v>
+        <v>0.207787</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204773</v>
+        <v>0.204459</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202947</v>
+        <v>0.202824</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206632</v>
+        <v>0.206758</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198819</v>
+        <v>0.198442</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201689</v>
+        <v>0.201582</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205524</v>
+        <v>0.20569</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193325</v>
+        <v>0.19298</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200534</v>
+        <v>0.200469</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204515</v>
+        <v>0.204755</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187549</v>
+        <v>0.187294</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199505</v>
+        <v>0.199341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203584</v>
+        <v>0.203495</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181461</v>
+        <v>0.182743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198449</v>
+        <v>0.198249</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202644</v>
+        <v>0.202728</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174554</v>
+        <v>0.179999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197427</v>
+        <v>0.197173</v>
       </c>
       <c r="D79" t="n">
-        <v>0.202023</v>
+        <v>0.201626</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16649</v>
+        <v>0.166356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.196099</v>
+        <v>0.196027</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218677</v>
+        <v>0.218636</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243707</v>
+        <v>0.243135</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213658</v>
+        <v>0.213267</v>
       </c>
       <c r="D81" t="n">
-        <v>0.217173</v>
+        <v>0.217013</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237717</v>
+        <v>0.237782</v>
       </c>
       <c r="C82" t="n">
-        <v>0.212207</v>
+        <v>0.21203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215637</v>
+        <v>0.215585</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23283</v>
+        <v>0.232685</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210624</v>
+        <v>0.210381</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214035</v>
+        <v>0.213867</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228253</v>
+        <v>0.227925</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209013</v>
+        <v>0.208959</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21267</v>
+        <v>0.212428</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222927</v>
+        <v>0.222613</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207709</v>
+        <v>0.207592</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211159</v>
+        <v>0.211131</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217411</v>
+        <v>0.217225</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206463</v>
+        <v>0.206527</v>
       </c>
       <c r="D86" t="n">
-        <v>0.210003</v>
+        <v>0.209901</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211819</v>
+        <v>0.211688</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205151</v>
+        <v>0.205198</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208777</v>
+        <v>0.208727</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206176</v>
+        <v>0.20586</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203838</v>
+        <v>0.203884</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207445</v>
+        <v>0.207289</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200504</v>
+        <v>0.200096</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202514</v>
+        <v>0.202548</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20641</v>
+        <v>0.206167</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19476</v>
+        <v>0.194752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201438</v>
+        <v>0.201369</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205337</v>
+        <v>0.205055</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18911</v>
+        <v>0.189009</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200326</v>
+        <v>0.200137</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203921</v>
+        <v>0.203805</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182915</v>
+        <v>0.182899</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198851</v>
+        <v>0.198823</v>
       </c>
       <c r="D92" t="n">
-        <v>0.203107</v>
+        <v>0.20285</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.17661</v>
+        <v>0.176074</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197694</v>
+        <v>0.197615</v>
       </c>
       <c r="D93" t="n">
-        <v>0.202125</v>
+        <v>0.201856</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16822</v>
+        <v>0.168169</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196619</v>
+        <v>0.196556</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218968</v>
+        <v>0.218985</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245013</v>
+        <v>0.244383</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21606</v>
+        <v>0.215664</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217457</v>
+        <v>0.217228</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240821</v>
+        <v>0.240481</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214136</v>
+        <v>0.214046</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215901</v>
+        <v>0.215826</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.23655</v>
+        <v>0.234751</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212529</v>
+        <v>0.212319</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214587</v>
+        <v>0.214359</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232132</v>
+        <v>0.229944</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210618</v>
+        <v>0.210739</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213049</v>
+        <v>0.212967</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226972</v>
+        <v>0.224655</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209295</v>
+        <v>0.209237</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211801</v>
+        <v>0.211657</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219868</v>
+        <v>0.21912</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207736</v>
+        <v>0.207662</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2105</v>
+        <v>0.210104</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213821</v>
+        <v>0.21351</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206827</v>
+        <v>0.206068</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20922</v>
+        <v>0.209058</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208165</v>
+        <v>0.207644</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205184</v>
+        <v>0.204867</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207963</v>
+        <v>0.207759</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202658</v>
+        <v>0.201965</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203914</v>
+        <v>0.203693</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2068</v>
+        <v>0.206453</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196667</v>
+        <v>0.196352</v>
       </c>
       <c r="C104" t="n">
-        <v>0.202555</v>
+        <v>0.202178</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205719</v>
+        <v>0.205603</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191139</v>
+        <v>0.190991</v>
       </c>
       <c r="C105" t="n">
-        <v>0.20139</v>
+        <v>0.201033</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204692</v>
+        <v>0.204403</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185265</v>
+        <v>0.184918</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199888</v>
+        <v>0.199742</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203594</v>
+        <v>0.203177</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178593</v>
+        <v>0.178654</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198763</v>
+        <v>0.198373</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202563</v>
+        <v>0.202212</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170949</v>
+        <v>0.170749</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197419</v>
+        <v>0.197273</v>
       </c>
       <c r="D108" t="n">
-        <v>0.21978</v>
+        <v>0.219668</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161598</v>
+        <v>0.161421</v>
       </c>
       <c r="C109" t="n">
-        <v>0.196139</v>
+        <v>0.195703</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217971</v>
+        <v>0.217995</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24002</v>
+        <v>0.239718</v>
       </c>
       <c r="C110" t="n">
-        <v>0.213434</v>
+        <v>0.212302</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216643</v>
+        <v>0.216329</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235811</v>
+        <v>0.235743</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21205</v>
+        <v>0.210613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215414</v>
+        <v>0.214823</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.231348</v>
+        <v>0.230808</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210971</v>
+        <v>0.210413</v>
       </c>
       <c r="D112" t="n">
-        <v>0.214134</v>
+        <v>0.213353</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226171</v>
+        <v>0.22602</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210092</v>
+        <v>0.209058</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212735</v>
+        <v>0.211972</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220155</v>
+        <v>0.220092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208877</v>
+        <v>0.207596</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211435</v>
+        <v>0.21092</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214671</v>
+        <v>0.214465</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2077</v>
+        <v>0.206823</v>
       </c>
       <c r="D115" t="n">
-        <v>0.210072</v>
+        <v>0.209085</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208932</v>
+        <v>0.208621</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205155</v>
+        <v>0.205823</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208965</v>
+        <v>0.208117</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203302</v>
+        <v>0.203177</v>
       </c>
       <c r="C117" t="n">
-        <v>0.205587</v>
+        <v>0.204612</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207842</v>
+        <v>0.207017</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197756</v>
+        <v>0.197473</v>
       </c>
       <c r="C118" t="n">
-        <v>0.202939</v>
+        <v>0.203339</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206297</v>
+        <v>0.205712</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191961</v>
+        <v>0.191746</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202611</v>
+        <v>0.20188</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205046</v>
+        <v>0.204633</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.186077</v>
+        <v>0.18582</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201534</v>
+        <v>0.201095</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203946</v>
+        <v>0.203626</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179494</v>
+        <v>0.179333</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199793</v>
+        <v>0.199379</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202987</v>
+        <v>0.202517</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.172099</v>
+        <v>0.171978</v>
       </c>
       <c r="C122" t="n">
-        <v>0.197817</v>
+        <v>0.19804</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201915</v>
+        <v>0.201506</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162885</v>
+        <v>0.162813</v>
       </c>
       <c r="C123" t="n">
-        <v>0.197269</v>
+        <v>0.196736</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218785</v>
+        <v>0.21854</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240441</v>
+        <v>0.240211</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213313</v>
+        <v>0.21256</v>
       </c>
       <c r="D124" t="n">
-        <v>0.217125</v>
+        <v>0.21695</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236642</v>
+        <v>0.236326</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211858</v>
+        <v>0.211644</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215626</v>
+        <v>0.215069</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231937</v>
+        <v>0.231668</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210972</v>
+        <v>0.210608</v>
       </c>
       <c r="D126" t="n">
-        <v>0.214407</v>
+        <v>0.213615</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2269</v>
+        <v>0.226472</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2099</v>
+        <v>0.209308</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212485</v>
+        <v>0.212711</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221411</v>
+        <v>0.221185</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208275</v>
+        <v>0.207891</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211646</v>
+        <v>0.211473</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215614</v>
+        <v>0.215357</v>
       </c>
       <c r="C129" t="n">
-        <v>0.206488</v>
+        <v>0.205853</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210445</v>
+        <v>0.210165</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210308</v>
+        <v>0.209803</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206691</v>
+        <v>0.206082</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208777</v>
+        <v>0.208756</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204713</v>
+        <v>0.204361</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205465</v>
+        <v>0.204914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.208094</v>
+        <v>0.207191</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198916</v>
+        <v>0.198611</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203795</v>
+        <v>0.203492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206295</v>
+        <v>0.206555</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193308</v>
+        <v>0.193099</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202825</v>
+        <v>0.202477</v>
       </c>
       <c r="D133" t="n">
-        <v>0.20535</v>
+        <v>0.205097</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18749</v>
+        <v>0.187224</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201489</v>
+        <v>0.200591</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20446</v>
+        <v>0.204055</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.181058</v>
+        <v>0.180829</v>
       </c>
       <c r="C135" t="n">
-        <v>0.198882</v>
+        <v>0.199906</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203231</v>
+        <v>0.203109</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173832</v>
+        <v>0.173729</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199076</v>
+        <v>0.197769</v>
       </c>
       <c r="D136" t="n">
-        <v>0.202029</v>
+        <v>0.201791</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165109</v>
+        <v>0.164975</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197647</v>
+        <v>0.197202</v>
       </c>
       <c r="D137" t="n">
-        <v>0.219106</v>
+        <v>0.218859</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241137</v>
+        <v>0.240868</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213491</v>
+        <v>0.212897</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217505</v>
+        <v>0.21718</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237322</v>
+        <v>0.236986</v>
       </c>
       <c r="C139" t="n">
-        <v>0.212235</v>
+        <v>0.212021</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215967</v>
+        <v>0.215841</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232717</v>
+        <v>0.232234</v>
       </c>
       <c r="C140" t="n">
-        <v>0.211216</v>
+        <v>0.210282</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214495</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227858</v>
+        <v>0.227381</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209686</v>
+        <v>0.209309</v>
       </c>
       <c r="D141" t="n">
-        <v>0.213305</v>
+        <v>0.212867</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222591</v>
+        <v>0.222145</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209154</v>
+        <v>0.208822</v>
       </c>
       <c r="D142" t="n">
-        <v>0.212006</v>
+        <v>0.211759</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.217073</v>
+        <v>0.216562</v>
       </c>
       <c r="C143" t="n">
-        <v>0.20821</v>
+        <v>0.206416</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210576</v>
+        <v>0.210603</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203741</v>
+        <v>0.207872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188718</v>
+        <v>0.188402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197337</v>
+        <v>0.197464</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197715</v>
+        <v>0.195305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188521</v>
+        <v>0.188344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197302</v>
+        <v>0.197688</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189013</v>
+        <v>0.188873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188601</v>
+        <v>0.188361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196829</v>
+        <v>0.196813</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183278</v>
+        <v>0.18279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187787</v>
+        <v>0.188264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196222</v>
+        <v>0.196753</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17724</v>
+        <v>0.17838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189115</v>
+        <v>0.188673</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196263</v>
+        <v>0.196395</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17161</v>
+        <v>0.169461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188516</v>
+        <v>0.188689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195815</v>
+        <v>0.195952</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161643</v>
+        <v>0.162943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187429</v>
+        <v>0.187265</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195031</v>
+        <v>0.194903</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152456</v>
+        <v>0.152817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187073</v>
+        <v>0.186817</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212914</v>
+        <v>0.212728</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236797</v>
+        <v>0.236435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206073</v>
+        <v>0.206064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212215</v>
+        <v>0.212196</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232109</v>
+        <v>0.233515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.205998</v>
+        <v>0.206008</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211568</v>
+        <v>0.211545</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225734</v>
+        <v>0.22742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204506</v>
+        <v>0.204088</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21006</v>
+        <v>0.210086</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221001</v>
+        <v>0.221896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202586</v>
+        <v>0.202412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208982</v>
+        <v>0.208948</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21556</v>
+        <v>0.216639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201546</v>
+        <v>0.201274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207286</v>
+        <v>0.207206</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210941</v>
+        <v>0.213686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201113</v>
+        <v>0.201137</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206891</v>
+        <v>0.206333</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204896</v>
+        <v>0.208558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200078</v>
+        <v>0.200065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20553</v>
+        <v>0.205318</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200291</v>
+        <v>0.203532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199043</v>
+        <v>0.199272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20434</v>
+        <v>0.204293</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195315</v>
+        <v>0.19561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198575</v>
+        <v>0.198572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204022</v>
+        <v>0.20353</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188994</v>
+        <v>0.188587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197602</v>
+        <v>0.197114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202894</v>
+        <v>0.202465</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183467</v>
+        <v>0.183645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196047</v>
+        <v>0.195818</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201584</v>
+        <v>0.201228</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178148</v>
+        <v>0.178666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195474</v>
+        <v>0.195103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201036</v>
+        <v>0.200582</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17145</v>
+        <v>0.171079</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194636</v>
+        <v>0.194524</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20033</v>
+        <v>0.199992</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162982</v>
+        <v>0.16262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194046</v>
+        <v>0.193748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216664</v>
+        <v>0.216733</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238517</v>
+        <v>0.238963</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210201</v>
+        <v>0.210162</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214992</v>
+        <v>0.215386</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233994</v>
+        <v>0.235041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208641</v>
+        <v>0.208605</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21378</v>
+        <v>0.213234</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229888</v>
+        <v>0.230378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207222</v>
+        <v>0.207336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211884</v>
+        <v>0.211785</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224967</v>
+        <v>0.225559</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205269</v>
+        <v>0.205465</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21055</v>
+        <v>0.210592</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21973</v>
+        <v>0.219633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204085</v>
+        <v>0.204313</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209451</v>
+        <v>0.209193</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216332</v>
+        <v>0.214933</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203062</v>
+        <v>0.202678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207644</v>
+        <v>0.208012</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208471</v>
+        <v>0.208959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201872</v>
+        <v>0.201707</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206845</v>
+        <v>0.206896</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.20343</v>
+        <v>0.20371</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200938</v>
+        <v>0.200853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205659</v>
+        <v>0.205706</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198083</v>
+        <v>0.197998</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199927</v>
+        <v>0.200218</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204886</v>
+        <v>0.204919</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196957</v>
+        <v>0.196707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199198</v>
+        <v>0.199193</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203962</v>
+        <v>0.203499</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191852</v>
+        <v>0.192658</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198321</v>
+        <v>0.19817</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203304</v>
+        <v>0.202961</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186852</v>
+        <v>0.187184</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197184</v>
+        <v>0.197365</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202403</v>
+        <v>0.202045</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180624</v>
+        <v>0.180144</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19558</v>
+        <v>0.195559</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201043</v>
+        <v>0.200536</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172911</v>
+        <v>0.17306</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194664</v>
+        <v>0.194605</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217747</v>
+        <v>0.217701</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24152</v>
+        <v>0.242082</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211648</v>
+        <v>0.211777</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215929</v>
+        <v>0.215752</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23845</v>
+        <v>0.239185</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209964</v>
+        <v>0.210124</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214217</v>
+        <v>0.214174</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234356</v>
+        <v>0.23557</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208375</v>
+        <v>0.208432</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212959</v>
+        <v>0.212957</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229822</v>
+        <v>0.229976</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207273</v>
+        <v>0.207258</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211646</v>
+        <v>0.211698</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224305</v>
+        <v>0.22501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206328</v>
+        <v>0.206207</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210626</v>
+        <v>0.210314</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219877</v>
+        <v>0.219398</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20502</v>
+        <v>0.205104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209243</v>
+        <v>0.209236</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214576</v>
+        <v>0.215596</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203957</v>
+        <v>0.203938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208125</v>
+        <v>0.208199</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210512</v>
+        <v>0.209167</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202697</v>
+        <v>0.202832</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207042</v>
+        <v>0.206876</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204467</v>
+        <v>0.204118</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201642</v>
+        <v>0.201646</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205815</v>
+        <v>0.205599</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199259</v>
+        <v>0.199513</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200696</v>
+        <v>0.20069</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204978</v>
+        <v>0.204703</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.195137</v>
+        <v>0.194638</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199619</v>
+        <v>0.199576</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203888</v>
+        <v>0.20359</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18847</v>
+        <v>0.188852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198175</v>
+        <v>0.198234</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202712</v>
+        <v>0.202192</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182517</v>
+        <v>0.182932</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197237</v>
+        <v>0.197219</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202087</v>
+        <v>0.201684</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175938</v>
+        <v>0.176139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196357</v>
+        <v>0.196369</v>
       </c>
       <c r="D51" t="n">
-        <v>0.21916</v>
+        <v>0.219268</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1677</v>
+        <v>0.167828</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195078</v>
+        <v>0.195145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217342</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240588</v>
+        <v>0.241101</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211596</v>
+        <v>0.211723</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21551</v>
+        <v>0.215801</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236134</v>
+        <v>0.237154</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209998</v>
+        <v>0.210064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214253</v>
+        <v>0.214254</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231994</v>
+        <v>0.23235</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208792</v>
+        <v>0.208887</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212961</v>
+        <v>0.2129</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226613</v>
+        <v>0.226846</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207274</v>
+        <v>0.207078</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211509</v>
+        <v>0.211462</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221728</v>
+        <v>0.221829</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206149</v>
+        <v>0.206023</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210088</v>
+        <v>0.209927</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216233</v>
+        <v>0.216408</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204984</v>
+        <v>0.205021</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208892</v>
+        <v>0.208728</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.210799</v>
+        <v>0.211355</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203681</v>
+        <v>0.203882</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207836</v>
+        <v>0.207426</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206353</v>
+        <v>0.206391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20271</v>
+        <v>0.202666</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206796</v>
+        <v>0.206482</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201221</v>
+        <v>0.201427</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20166</v>
+        <v>0.201599</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205759</v>
+        <v>0.205498</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19629</v>
+        <v>0.196388</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200307</v>
+        <v>0.20037</v>
       </c>
       <c r="D62" t="n">
-        <v>0.20473</v>
+        <v>0.204272</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190567</v>
+        <v>0.190472</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199038</v>
+        <v>0.199098</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203442</v>
+        <v>0.203155</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184325</v>
+        <v>0.184653</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197921</v>
+        <v>0.197913</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202427</v>
+        <v>0.202155</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178237</v>
+        <v>0.17842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196812</v>
+        <v>0.196807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201685</v>
+        <v>0.201335</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170349</v>
+        <v>0.170595</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195575</v>
+        <v>0.195602</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217769</v>
+        <v>0.217867</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242537</v>
+        <v>0.242622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212758</v>
+        <v>0.212786</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216478</v>
+        <v>0.21644</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238422</v>
+        <v>0.238592</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21114</v>
+        <v>0.21102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214891</v>
+        <v>0.214765</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231336</v>
+        <v>0.233964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209407</v>
+        <v>0.209435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213123</v>
+        <v>0.213196</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226475</v>
+        <v>0.228702</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208032</v>
+        <v>0.208103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211764</v>
+        <v>0.211608</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221186</v>
+        <v>0.223223</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206533</v>
+        <v>0.206559</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210272</v>
+        <v>0.210192</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215348</v>
+        <v>0.218367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205265</v>
+        <v>0.205407</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208938</v>
+        <v>0.209076</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209675</v>
+        <v>0.212524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203929</v>
+        <v>0.203972</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207787</v>
+        <v>0.207523</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204459</v>
+        <v>0.207563</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202824</v>
+        <v>0.202867</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206758</v>
+        <v>0.206671</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198442</v>
+        <v>0.198916</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201582</v>
+        <v>0.201603</v>
       </c>
       <c r="D75" t="n">
-        <v>0.20569</v>
+        <v>0.205565</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19298</v>
+        <v>0.193517</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200469</v>
+        <v>0.200423</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204755</v>
+        <v>0.204385</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187294</v>
+        <v>0.187543</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199341</v>
+        <v>0.199377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203495</v>
+        <v>0.203372</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182743</v>
+        <v>0.18143</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198249</v>
+        <v>0.198325</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202728</v>
+        <v>0.202558</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179999</v>
+        <v>0.174782</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197173</v>
+        <v>0.197192</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201626</v>
+        <v>0.201661</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166356</v>
+        <v>0.166714</v>
       </c>
       <c r="C80" t="n">
-        <v>0.196027</v>
+        <v>0.19595</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218636</v>
+        <v>0.218536</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243135</v>
+        <v>0.243874</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213267</v>
+        <v>0.213253</v>
       </c>
       <c r="D81" t="n">
-        <v>0.217013</v>
+        <v>0.216952</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237782</v>
+        <v>0.23981</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21203</v>
+        <v>0.211982</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215585</v>
+        <v>0.215646</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232685</v>
+        <v>0.234841</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210381</v>
+        <v>0.210389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213867</v>
+        <v>0.21387</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227925</v>
+        <v>0.230185</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208959</v>
+        <v>0.20895</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212428</v>
+        <v>0.212556</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222613</v>
+        <v>0.222869</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207592</v>
+        <v>0.207458</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211131</v>
+        <v>0.211129</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217225</v>
+        <v>0.217075</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206527</v>
+        <v>0.206389</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209901</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211688</v>
+        <v>0.211673</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205198</v>
+        <v>0.205183</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208727</v>
+        <v>0.208629</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20586</v>
+        <v>0.206318</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203884</v>
+        <v>0.203866</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207289</v>
+        <v>0.207368</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200096</v>
+        <v>0.20087</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202548</v>
+        <v>0.202413</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206167</v>
+        <v>0.206211</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194752</v>
+        <v>0.194922</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201369</v>
+        <v>0.201432</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205055</v>
+        <v>0.205202</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189009</v>
+        <v>0.18915</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200137</v>
+        <v>0.200125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203805</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182899</v>
+        <v>0.183245</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198823</v>
+        <v>0.198882</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20285</v>
+        <v>0.202905</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176074</v>
+        <v>0.176302</v>
       </c>
       <c r="C93" t="n">
         <v>0.197615</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201856</v>
+        <v>0.201864</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168169</v>
+        <v>0.168475</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196556</v>
+        <v>0.196444</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218985</v>
+        <v>0.218868</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244383</v>
+        <v>0.244729</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215664</v>
+        <v>0.215592</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217228</v>
+        <v>0.217274</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240481</v>
+        <v>0.238782</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214046</v>
+        <v>0.214031</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215826</v>
+        <v>0.215842</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234751</v>
+        <v>0.234998</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212319</v>
+        <v>0.212471</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214359</v>
+        <v>0.214427</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229944</v>
+        <v>0.230239</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210739</v>
+        <v>0.210531</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212967</v>
+        <v>0.212789</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224655</v>
+        <v>0.225128</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209237</v>
+        <v>0.208981</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211657</v>
+        <v>0.211639</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21912</v>
+        <v>0.219465</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207662</v>
+        <v>0.207645</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210104</v>
+        <v>0.210107</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.21351</v>
+        <v>0.213783</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206068</v>
+        <v>0.206195</v>
       </c>
       <c r="D101" t="n">
-        <v>0.209058</v>
+        <v>0.20899</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207644</v>
+        <v>0.207993</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204867</v>
+        <v>0.204888</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207759</v>
+        <v>0.207856</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.201965</v>
+        <v>0.202387</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203693</v>
+        <v>0.203322</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206453</v>
+        <v>0.206635</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196352</v>
+        <v>0.196841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.202178</v>
+        <v>0.2023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205603</v>
+        <v>0.205627</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190991</v>
+        <v>0.190921</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201033</v>
+        <v>0.201063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204403</v>
+        <v>0.204421</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184918</v>
+        <v>0.185234</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199742</v>
+        <v>0.19982</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203177</v>
+        <v>0.203464</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178654</v>
+        <v>0.178466</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198373</v>
+        <v>0.198505</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202212</v>
+        <v>0.202326</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170749</v>
+        <v>0.170838</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197273</v>
+        <v>0.197411</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219668</v>
+        <v>0.219799</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161421</v>
+        <v>0.161444</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195703</v>
+        <v>0.195859</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217995</v>
+        <v>0.218027</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239718</v>
+        <v>0.239676</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212302</v>
+        <v>0.212272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216329</v>
+        <v>0.216597</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235743</v>
+        <v>0.23587</v>
       </c>
       <c r="C111" t="n">
-        <v>0.210613</v>
+        <v>0.211596</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214823</v>
+        <v>0.215146</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230808</v>
+        <v>0.230984</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210413</v>
+        <v>0.210517</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213353</v>
+        <v>0.213586</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22602</v>
+        <v>0.225987</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209058</v>
+        <v>0.2094</v>
       </c>
       <c r="D113" t="n">
-        <v>0.211972</v>
+        <v>0.212733</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220092</v>
+        <v>0.220073</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207596</v>
+        <v>0.207181</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21092</v>
+        <v>0.211094</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214465</v>
+        <v>0.214588</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206823</v>
+        <v>0.206249</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209085</v>
+        <v>0.209514</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208621</v>
+        <v>0.208828</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205823</v>
+        <v>0.205316</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208117</v>
+        <v>0.20826</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203177</v>
+        <v>0.20316</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204612</v>
+        <v>0.20461</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207017</v>
+        <v>0.207111</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197473</v>
+        <v>0.197655</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203339</v>
+        <v>0.203523</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205712</v>
+        <v>0.205954</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191746</v>
+        <v>0.191795</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20188</v>
+        <v>0.201833</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204633</v>
+        <v>0.204722</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.18582</v>
+        <v>0.185842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201095</v>
+        <v>0.200369</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203626</v>
+        <v>0.203758</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179333</v>
+        <v>0.179431</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199379</v>
+        <v>0.199732</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202517</v>
+        <v>0.202664</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171978</v>
+        <v>0.171971</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19804</v>
+        <v>0.197115</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201506</v>
+        <v>0.201683</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162813</v>
+        <v>0.162951</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196736</v>
+        <v>0.196795</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21854</v>
+        <v>0.218704</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240211</v>
+        <v>0.2404</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21256</v>
+        <v>0.212581</v>
       </c>
       <c r="D124" t="n">
-        <v>0.21695</v>
+        <v>0.216975</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236326</v>
+        <v>0.236542</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211644</v>
+        <v>0.2117</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215069</v>
+        <v>0.215236</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231668</v>
+        <v>0.231754</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210608</v>
+        <v>0.210492</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213615</v>
+        <v>0.214146</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226472</v>
+        <v>0.226636</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209308</v>
+        <v>0.209325</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212711</v>
+        <v>0.21277</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221185</v>
+        <v>0.22129</v>
       </c>
       <c r="C128" t="n">
-        <v>0.207891</v>
+        <v>0.208038</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211473</v>
+        <v>0.211231</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215357</v>
+        <v>0.215502</v>
       </c>
       <c r="C129" t="n">
-        <v>0.205853</v>
+        <v>0.206838</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210165</v>
+        <v>0.210299</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209803</v>
+        <v>0.210027</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206082</v>
+        <v>0.206064</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208756</v>
+        <v>0.208746</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204361</v>
+        <v>0.204527</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204914</v>
+        <v>0.203342</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207191</v>
+        <v>0.207616</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198611</v>
+        <v>0.198764</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203492</v>
+        <v>0.203558</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206555</v>
+        <v>0.206523</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193099</v>
+        <v>0.193156</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202477</v>
+        <v>0.202438</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205097</v>
+        <v>0.204776</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187224</v>
+        <v>0.18726</v>
       </c>
       <c r="C134" t="n">
-        <v>0.200591</v>
+        <v>0.201185</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204055</v>
+        <v>0.204078</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180829</v>
+        <v>0.180997</v>
       </c>
       <c r="C135" t="n">
-        <v>0.199906</v>
+        <v>0.198494</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203109</v>
+        <v>0.203092</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173729</v>
+        <v>0.173752</v>
       </c>
       <c r="C136" t="n">
-        <v>0.197769</v>
+        <v>0.198525</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201791</v>
+        <v>0.201687</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164975</v>
+        <v>0.165053</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197202</v>
+        <v>0.196605</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218859</v>
+        <v>0.218797</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240868</v>
+        <v>0.240838</v>
       </c>
       <c r="C138" t="n">
-        <v>0.212897</v>
+        <v>0.213021</v>
       </c>
       <c r="D138" t="n">
-        <v>0.21718</v>
+        <v>0.217298</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236986</v>
+        <v>0.236712</v>
       </c>
       <c r="C139" t="n">
-        <v>0.212021</v>
+        <v>0.211916</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215841</v>
+        <v>0.215472</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232234</v>
+        <v>0.232392</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210282</v>
+        <v>0.210329</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2143</v>
+        <v>0.214306</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227381</v>
+        <v>0.227508</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209309</v>
+        <v>0.209287</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212867</v>
+        <v>0.21306</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222145</v>
+        <v>0.222106</v>
       </c>
       <c r="C142" t="n">
-        <v>0.208822</v>
+        <v>0.208713</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211759</v>
+        <v>0.211704</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216562</v>
+        <v>0.216661</v>
       </c>
       <c r="C143" t="n">
-        <v>0.206416</v>
+        <v>0.207565</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210603</v>
+        <v>0.210068</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207872</v>
+        <v>0.198072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188402</v>
+        <v>0.18827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197464</v>
+        <v>0.197865</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195305</v>
+        <v>0.194697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188344</v>
+        <v>0.188445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197688</v>
+        <v>0.19769</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188873</v>
+        <v>0.188718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188361</v>
+        <v>0.187869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196813</v>
+        <v>0.196986</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18279</v>
+        <v>0.181662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188264</v>
+        <v>0.187795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196753</v>
+        <v>0.196366</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17838</v>
+        <v>0.176125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188673</v>
+        <v>0.188525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196395</v>
+        <v>0.196309</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169461</v>
+        <v>0.168886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188689</v>
+        <v>0.188234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195952</v>
+        <v>0.19574</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162943</v>
+        <v>0.161919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187265</v>
+        <v>0.187886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194903</v>
+        <v>0.194949</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152817</v>
+        <v>0.151131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186817</v>
+        <v>0.18672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212728</v>
+        <v>0.212615</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236435</v>
+        <v>0.236395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206064</v>
+        <v>0.205993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212196</v>
+        <v>0.212251</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233515</v>
+        <v>0.233397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206008</v>
+        <v>0.206375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211545</v>
+        <v>0.211829</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22742</v>
+        <v>0.227007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204088</v>
+        <v>0.204539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210086</v>
+        <v>0.209981</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221896</v>
+        <v>0.2215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202412</v>
+        <v>0.202968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208948</v>
+        <v>0.209125</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216639</v>
+        <v>0.216038</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201274</v>
+        <v>0.201794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207206</v>
+        <v>0.207335</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213686</v>
+        <v>0.211678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201137</v>
+        <v>0.201311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206333</v>
+        <v>0.20647</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208558</v>
+        <v>0.206154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200065</v>
+        <v>0.200552</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205318</v>
+        <v>0.205699</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203532</v>
+        <v>0.201044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199272</v>
+        <v>0.199032</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204293</v>
+        <v>0.204615</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19561</v>
+        <v>0.196064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198572</v>
+        <v>0.198158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20353</v>
+        <v>0.203668</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188587</v>
+        <v>0.189254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197114</v>
+        <v>0.19737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202465</v>
+        <v>0.202803</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183645</v>
+        <v>0.18404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195818</v>
+        <v>0.196289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201228</v>
+        <v>0.201567</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178666</v>
+        <v>0.178229</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195103</v>
+        <v>0.195378</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200582</v>
+        <v>0.200688</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171079</v>
+        <v>0.171252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194524</v>
+        <v>0.194506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199992</v>
+        <v>0.200079</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16262</v>
+        <v>0.163007</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193748</v>
+        <v>0.193692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216733</v>
+        <v>0.216523</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238963</v>
+        <v>0.238761</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210162</v>
+        <v>0.210515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215386</v>
+        <v>0.21527</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235041</v>
+        <v>0.234423</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208605</v>
+        <v>0.208612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213234</v>
+        <v>0.213683</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230378</v>
+        <v>0.231278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207336</v>
+        <v>0.206901</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211785</v>
+        <v>0.211843</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225559</v>
+        <v>0.225326</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205465</v>
+        <v>0.205381</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210592</v>
+        <v>0.21061</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219633</v>
+        <v>0.219472</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204313</v>
+        <v>0.204249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209193</v>
+        <v>0.209303</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214933</v>
+        <v>0.214906</v>
       </c>
       <c r="C29" t="n">
-        <v>0.202678</v>
+        <v>0.202779</v>
       </c>
       <c r="D29" t="n">
-        <v>0.208012</v>
+        <v>0.208087</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208959</v>
+        <v>0.209137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201707</v>
+        <v>0.202009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206896</v>
+        <v>0.206762</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.20371</v>
+        <v>0.203694</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200853</v>
+        <v>0.201019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205706</v>
+        <v>0.205736</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.197998</v>
+        <v>0.201231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.200218</v>
+        <v>0.199971</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204919</v>
+        <v>0.20494</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196707</v>
+        <v>0.197329</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199193</v>
+        <v>0.198893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203499</v>
+        <v>0.203933</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192658</v>
+        <v>0.192551</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19817</v>
+        <v>0.198216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202961</v>
+        <v>0.203191</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187184</v>
+        <v>0.187443</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197365</v>
+        <v>0.197389</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202045</v>
+        <v>0.202294</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180144</v>
+        <v>0.181216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195559</v>
+        <v>0.195528</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200536</v>
+        <v>0.200953</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17306</v>
+        <v>0.17312</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194605</v>
+        <v>0.19459</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217701</v>
+        <v>0.217714</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242082</v>
+        <v>0.241748</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211777</v>
+        <v>0.211824</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215752</v>
+        <v>0.215929</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239185</v>
+        <v>0.237942</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210124</v>
+        <v>0.210034</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214174</v>
+        <v>0.214331</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23557</v>
+        <v>0.235007</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208432</v>
+        <v>0.208464</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212957</v>
+        <v>0.212827</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229976</v>
+        <v>0.229635</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207258</v>
+        <v>0.20722</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211698</v>
+        <v>0.211646</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22501</v>
+        <v>0.224936</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206207</v>
+        <v>0.206234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210314</v>
+        <v>0.210412</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219398</v>
+        <v>0.220241</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205104</v>
+        <v>0.204966</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209236</v>
+        <v>0.209042</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215596</v>
+        <v>0.214869</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203938</v>
+        <v>0.203905</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208199</v>
+        <v>0.208077</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209167</v>
+        <v>0.209416</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202832</v>
+        <v>0.202803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206876</v>
+        <v>0.207089</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204118</v>
+        <v>0.204447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201646</v>
+        <v>0.201584</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205599</v>
+        <v>0.205725</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199513</v>
+        <v>0.199342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.20069</v>
+        <v>0.200577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204703</v>
+        <v>0.204952</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194638</v>
+        <v>0.194463</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199576</v>
+        <v>0.199543</v>
       </c>
       <c r="D48" t="n">
-        <v>0.20359</v>
+        <v>0.203601</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188852</v>
+        <v>0.188675</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198234</v>
+        <v>0.198162</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202192</v>
+        <v>0.202652</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182932</v>
+        <v>0.183309</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197219</v>
+        <v>0.197176</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201684</v>
+        <v>0.201726</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176139</v>
+        <v>0.17591</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196369</v>
+        <v>0.196319</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219268</v>
+        <v>0.219278</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167828</v>
+        <v>0.168105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195145</v>
+        <v>0.19508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2174</v>
+        <v>0.217456</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241101</v>
+        <v>0.240974</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211723</v>
+        <v>0.211572</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215801</v>
+        <v>0.215642</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237154</v>
+        <v>0.236407</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210064</v>
+        <v>0.210177</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214254</v>
+        <v>0.214245</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23235</v>
+        <v>0.231889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208887</v>
+        <v>0.208743</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2129</v>
+        <v>0.21295</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226846</v>
+        <v>0.227149</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207078</v>
+        <v>0.207222</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211462</v>
+        <v>0.211283</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221829</v>
+        <v>0.222392</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206023</v>
+        <v>0.206045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209927</v>
+        <v>0.210111</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216408</v>
+        <v>0.216416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205021</v>
+        <v>0.204981</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208728</v>
+        <v>0.208994</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211355</v>
+        <v>0.211078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203882</v>
+        <v>0.20361</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207426</v>
+        <v>0.207648</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206391</v>
+        <v>0.20616</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202666</v>
+        <v>0.202474</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206482</v>
+        <v>0.206756</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201427</v>
+        <v>0.20139</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201599</v>
+        <v>0.201642</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205498</v>
+        <v>0.205641</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196388</v>
+        <v>0.196076</v>
       </c>
       <c r="C62" t="n">
-        <v>0.20037</v>
+        <v>0.200509</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204272</v>
+        <v>0.204469</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190472</v>
+        <v>0.190622</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199098</v>
+        <v>0.198972</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203155</v>
+        <v>0.203498</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184653</v>
+        <v>0.184391</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197913</v>
+        <v>0.197916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202155</v>
+        <v>0.202402</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17842</v>
+        <v>0.178168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196807</v>
+        <v>0.1968</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201335</v>
+        <v>0.201592</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170595</v>
+        <v>0.170325</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195602</v>
+        <v>0.195595</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217867</v>
+        <v>0.217988</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242622</v>
+        <v>0.242433</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212786</v>
+        <v>0.212568</v>
       </c>
       <c r="D67" t="n">
-        <v>0.21644</v>
+        <v>0.216244</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238592</v>
+        <v>0.238225</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21102</v>
+        <v>0.211117</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214765</v>
+        <v>0.214813</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233964</v>
+        <v>0.232147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209435</v>
+        <v>0.209301</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213196</v>
+        <v>0.213108</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228702</v>
+        <v>0.226634</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208103</v>
+        <v>0.207944</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211608</v>
+        <v>0.211696</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223223</v>
+        <v>0.221109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206559</v>
+        <v>0.206484</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210192</v>
+        <v>0.21036</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218367</v>
+        <v>0.215658</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205407</v>
+        <v>0.205191</v>
       </c>
       <c r="D72" t="n">
-        <v>0.209076</v>
+        <v>0.209052</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212524</v>
+        <v>0.209762</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203972</v>
+        <v>0.203909</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207523</v>
+        <v>0.207744</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207563</v>
+        <v>0.204698</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202867</v>
+        <v>0.202846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206671</v>
+        <v>0.206487</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198916</v>
+        <v>0.198811</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201603</v>
+        <v>0.201545</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205565</v>
+        <v>0.205538</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193517</v>
+        <v>0.193292</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200423</v>
+        <v>0.200433</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204385</v>
+        <v>0.204542</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187543</v>
+        <v>0.187493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199377</v>
+        <v>0.199432</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203372</v>
+        <v>0.203491</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18143</v>
+        <v>0.181225</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198325</v>
+        <v>0.198248</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202558</v>
+        <v>0.202709</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174782</v>
+        <v>0.17461</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197192</v>
+        <v>0.197239</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201661</v>
+        <v>0.201823</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166714</v>
+        <v>0.166488</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19595</v>
+        <v>0.195971</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218536</v>
+        <v>0.218549</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243874</v>
+        <v>0.243398</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213253</v>
+        <v>0.21317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216952</v>
+        <v>0.216903</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.23981</v>
+        <v>0.237401</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211982</v>
+        <v>0.21179</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215646</v>
+        <v>0.215514</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234841</v>
+        <v>0.232529</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210389</v>
+        <v>0.210265</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21387</v>
+        <v>0.213734</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230185</v>
+        <v>0.228149</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20895</v>
+        <v>0.208887</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212556</v>
+        <v>0.212371</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222869</v>
+        <v>0.222752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207458</v>
+        <v>0.207574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211129</v>
+        <v>0.211191</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217075</v>
+        <v>0.217311</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206389</v>
+        <v>0.206405</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2099</v>
+        <v>0.20982</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211673</v>
+        <v>0.211714</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205183</v>
+        <v>0.205118</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208629</v>
+        <v>0.208665</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206318</v>
+        <v>0.20625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203866</v>
+        <v>0.20376</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207368</v>
+        <v>0.207327</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20087</v>
+        <v>0.200468</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202413</v>
+        <v>0.202358</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206211</v>
+        <v>0.20622</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194922</v>
+        <v>0.194906</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201432</v>
+        <v>0.201272</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205202</v>
+        <v>0.204946</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18915</v>
+        <v>0.189163</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200125</v>
+        <v>0.199993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2039</v>
+        <v>0.203948</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183245</v>
+        <v>0.182939</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198882</v>
+        <v>0.198682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.202905</v>
+        <v>0.202929</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176302</v>
+        <v>0.176188</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197615</v>
+        <v>0.19766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201864</v>
+        <v>0.20196</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168475</v>
+        <v>0.168257</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196444</v>
+        <v>0.196408</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218868</v>
+        <v>0.218927</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244729</v>
+        <v>0.244627</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215592</v>
+        <v>0.215546</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217274</v>
+        <v>0.217273</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238782</v>
+        <v>0.238551</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214031</v>
+        <v>0.214056</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215842</v>
+        <v>0.215805</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234998</v>
+        <v>0.234388</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212471</v>
+        <v>0.212049</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214427</v>
+        <v>0.214467</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230239</v>
+        <v>0.229766</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210531</v>
+        <v>0.210716</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212789</v>
+        <v>0.212859</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225128</v>
+        <v>0.224674</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208981</v>
+        <v>0.208866</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211639</v>
+        <v>0.21161</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219465</v>
+        <v>0.219188</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207645</v>
+        <v>0.207215</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210107</v>
+        <v>0.210279</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213783</v>
+        <v>0.213314</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206195</v>
+        <v>0.205771</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20899</v>
+        <v>0.208911</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207993</v>
+        <v>0.207908</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204888</v>
+        <v>0.204536</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207856</v>
+        <v>0.20773</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202387</v>
+        <v>0.202208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203322</v>
+        <v>0.20352</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206635</v>
+        <v>0.206668</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196841</v>
+        <v>0.196485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2023</v>
+        <v>0.201818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205627</v>
+        <v>0.205483</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190921</v>
+        <v>0.190985</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201063</v>
+        <v>0.200597</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204421</v>
+        <v>0.204427</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185234</v>
+        <v>0.184845</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19982</v>
+        <v>0.199452</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203464</v>
+        <v>0.203497</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178466</v>
+        <v>0.178277</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198505</v>
+        <v>0.198499</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202326</v>
+        <v>0.202355</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170838</v>
+        <v>0.170525</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197411</v>
+        <v>0.19716</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219799</v>
+        <v>0.219727</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161444</v>
+        <v>0.161463</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195859</v>
+        <v>0.195647</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218027</v>
+        <v>0.218063</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239676</v>
+        <v>0.239431</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212272</v>
+        <v>0.212567</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216597</v>
+        <v>0.216755</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23587</v>
+        <v>0.235646</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211596</v>
+        <v>0.211422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215146</v>
+        <v>0.215134</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230984</v>
+        <v>0.230812</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210517</v>
+        <v>0.2105</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213586</v>
+        <v>0.214081</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225987</v>
+        <v>0.225663</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2094</v>
+        <v>0.209085</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212733</v>
+        <v>0.212701</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220073</v>
+        <v>0.219947</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207181</v>
+        <v>0.207959</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211094</v>
+        <v>0.211436</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214588</v>
+        <v>0.214661</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206249</v>
+        <v>0.20659</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209514</v>
+        <v>0.209783</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208828</v>
+        <v>0.209073</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205316</v>
+        <v>0.205669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20826</v>
+        <v>0.208623</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20316</v>
+        <v>0.203153</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20461</v>
+        <v>0.204841</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207111</v>
+        <v>0.207629</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197655</v>
+        <v>0.197488</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203523</v>
+        <v>0.203083</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205954</v>
+        <v>0.206221</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191795</v>
+        <v>0.19194</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201833</v>
+        <v>0.201738</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204722</v>
+        <v>0.204966</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185842</v>
+        <v>0.185985</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200369</v>
+        <v>0.200823</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203758</v>
+        <v>0.204031</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179431</v>
+        <v>0.17942</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199732</v>
+        <v>0.199404</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202664</v>
+        <v>0.202915</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171971</v>
+        <v>0.171957</v>
       </c>
       <c r="C122" t="n">
-        <v>0.197115</v>
+        <v>0.198088</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201683</v>
+        <v>0.201905</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162951</v>
+        <v>0.163105</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196795</v>
+        <v>0.196566</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218704</v>
+        <v>0.218452</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2404</v>
+        <v>0.239746</v>
       </c>
       <c r="C124" t="n">
-        <v>0.212581</v>
+        <v>0.213127</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216975</v>
+        <v>0.216911</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236542</v>
+        <v>0.235805</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2117</v>
+        <v>0.21167</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215236</v>
+        <v>0.215366</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231754</v>
+        <v>0.231212</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210492</v>
+        <v>0.210665</v>
       </c>
       <c r="D126" t="n">
-        <v>0.214146</v>
+        <v>0.213814</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226636</v>
+        <v>0.226275</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209325</v>
+        <v>0.209466</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21277</v>
+        <v>0.21263</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.22129</v>
+        <v>0.220949</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208038</v>
+        <v>0.207967</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211231</v>
+        <v>0.211244</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215502</v>
+        <v>0.215232</v>
       </c>
       <c r="C129" t="n">
-        <v>0.206838</v>
+        <v>0.206659</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210299</v>
+        <v>0.209986</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210027</v>
+        <v>0.209655</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206064</v>
+        <v>0.205843</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208746</v>
+        <v>0.208558</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204527</v>
+        <v>0.204412</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203342</v>
+        <v>0.204812</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207616</v>
+        <v>0.207711</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198764</v>
+        <v>0.198813</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203558</v>
+        <v>0.203471</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206523</v>
+        <v>0.206548</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193156</v>
+        <v>0.193082</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202438</v>
+        <v>0.202168</v>
       </c>
       <c r="D133" t="n">
-        <v>0.204776</v>
+        <v>0.205152</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18726</v>
+        <v>0.187136</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201185</v>
+        <v>0.200564</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204078</v>
+        <v>0.204065</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180997</v>
+        <v>0.180745</v>
       </c>
       <c r="C135" t="n">
-        <v>0.198494</v>
+        <v>0.199454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203092</v>
+        <v>0.203026</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173752</v>
+        <v>0.173555</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198525</v>
+        <v>0.198128</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201687</v>
+        <v>0.201948</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165053</v>
+        <v>0.164864</v>
       </c>
       <c r="C137" t="n">
-        <v>0.196605</v>
+        <v>0.197088</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218797</v>
+        <v>0.218824</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240838</v>
+        <v>0.240856</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213021</v>
+        <v>0.213263</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217298</v>
+        <v>0.217191</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236712</v>
+        <v>0.236948</v>
       </c>
       <c r="C139" t="n">
-        <v>0.211916</v>
+        <v>0.211928</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215472</v>
+        <v>0.215757</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232392</v>
+        <v>0.232411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210329</v>
+        <v>0.210631</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214306</v>
+        <v>0.214275</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227508</v>
+        <v>0.227485</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209287</v>
+        <v>0.209804</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21306</v>
+        <v>0.212995</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222106</v>
+        <v>0.222049</v>
       </c>
       <c r="C142" t="n">
-        <v>0.208713</v>
+        <v>0.208625</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211704</v>
+        <v>0.211461</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216661</v>
+        <v>0.216568</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207565</v>
+        <v>0.207202</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210068</v>
+        <v>0.210391</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198072</v>
+        <v>0.202784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18827</v>
+        <v>0.189404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197865</v>
+        <v>0.197201</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194697</v>
+        <v>0.198073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188445</v>
+        <v>0.18838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19769</v>
+        <v>0.197574</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188718</v>
+        <v>0.188732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187869</v>
+        <v>0.188208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196986</v>
+        <v>0.196893</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.181662</v>
+        <v>0.182367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187795</v>
+        <v>0.187775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196366</v>
+        <v>0.196126</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176125</v>
+        <v>0.178014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188525</v>
+        <v>0.1888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196309</v>
+        <v>0.196361</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168886</v>
+        <v>0.172096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188234</v>
+        <v>0.188738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19574</v>
+        <v>0.195802</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161919</v>
+        <v>0.162036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187886</v>
+        <v>0.187358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194949</v>
+        <v>0.194859</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151131</v>
+        <v>0.152194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.18672</v>
+        <v>0.186724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212615</v>
+        <v>0.212686</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236395</v>
+        <v>0.236471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205993</v>
+        <v>0.206091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212251</v>
+        <v>0.212107</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233397</v>
+        <v>0.232846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206375</v>
+        <v>0.206286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211829</v>
+        <v>0.211774</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227007</v>
+        <v>0.226384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204539</v>
+        <v>0.204324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209981</v>
+        <v>0.21006</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2215</v>
+        <v>0.222078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202968</v>
+        <v>0.202178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209125</v>
+        <v>0.208771</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216038</v>
+        <v>0.215448</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201794</v>
+        <v>0.201766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207335</v>
+        <v>0.207035</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211678</v>
+        <v>0.211386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201311</v>
+        <v>0.200998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.20647</v>
+        <v>0.206405</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206154</v>
+        <v>0.205768</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200552</v>
+        <v>0.200361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205699</v>
+        <v>0.205421</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201044</v>
+        <v>0.200618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199032</v>
+        <v>0.19932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204615</v>
+        <v>0.204251</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196064</v>
+        <v>0.195502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198158</v>
+        <v>0.198688</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203668</v>
+        <v>0.203616</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189254</v>
+        <v>0.188853</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19737</v>
+        <v>0.197486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202803</v>
+        <v>0.202549</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18404</v>
+        <v>0.18379</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196289</v>
+        <v>0.195693</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201567</v>
+        <v>0.201487</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178229</v>
+        <v>0.178228</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195378</v>
+        <v>0.195053</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200688</v>
+        <v>0.200891</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171252</v>
+        <v>0.17114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194506</v>
+        <v>0.194423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200079</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163007</v>
+        <v>0.162949</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193692</v>
+        <v>0.193811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216523</v>
+        <v>0.216314</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238761</v>
+        <v>0.238716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210515</v>
+        <v>0.210414</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21527</v>
+        <v>0.214998</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234423</v>
+        <v>0.234462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208612</v>
+        <v>0.208527</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213683</v>
+        <v>0.21357</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231278</v>
+        <v>0.229986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.206901</v>
+        <v>0.207365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211843</v>
+        <v>0.211702</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225326</v>
+        <v>0.224896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205381</v>
+        <v>0.205593</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21061</v>
+        <v>0.210458</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219472</v>
+        <v>0.219364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204249</v>
+        <v>0.204011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209303</v>
+        <v>0.209158</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214906</v>
+        <v>0.215386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.202779</v>
+        <v>0.203123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.208087</v>
+        <v>0.207549</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209137</v>
+        <v>0.209187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202009</v>
+        <v>0.201935</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206762</v>
+        <v>0.206422</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203694</v>
+        <v>0.203672</v>
       </c>
       <c r="C31" t="n">
-        <v>0.201019</v>
+        <v>0.200685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205736</v>
+        <v>0.205331</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201231</v>
+        <v>0.198828</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199971</v>
+        <v>0.200149</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20494</v>
+        <v>0.204594</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197329</v>
+        <v>0.197155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.198893</v>
+        <v>0.199231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203933</v>
+        <v>0.203612</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192551</v>
+        <v>0.192398</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198216</v>
+        <v>0.198142</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203191</v>
+        <v>0.202819</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187443</v>
+        <v>0.186987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197389</v>
+        <v>0.197219</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202294</v>
+        <v>0.20188</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181216</v>
+        <v>0.181039</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195528</v>
+        <v>0.19571</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200953</v>
+        <v>0.200416</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17312</v>
+        <v>0.173022</v>
       </c>
       <c r="C37" t="n">
-        <v>0.19459</v>
+        <v>0.194666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217714</v>
+        <v>0.217493</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241748</v>
+        <v>0.242187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211824</v>
+        <v>0.211679</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215929</v>
+        <v>0.215873</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237942</v>
+        <v>0.238443</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210034</v>
+        <v>0.210095</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214331</v>
+        <v>0.21407</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235007</v>
+        <v>0.23469</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208464</v>
+        <v>0.208207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212827</v>
+        <v>0.212806</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229635</v>
+        <v>0.229766</v>
       </c>
       <c r="C41" t="n">
-        <v>0.20722</v>
+        <v>0.207443</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211646</v>
+        <v>0.211447</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224936</v>
+        <v>0.225021</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206234</v>
+        <v>0.206424</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210412</v>
+        <v>0.210312</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220241</v>
+        <v>0.220165</v>
       </c>
       <c r="C43" t="n">
-        <v>0.204966</v>
+        <v>0.205174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209042</v>
+        <v>0.208969</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214869</v>
+        <v>0.214482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203905</v>
+        <v>0.204006</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208077</v>
+        <v>0.207836</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209416</v>
+        <v>0.21031</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202803</v>
+        <v>0.202797</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207089</v>
+        <v>0.206745</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204447</v>
+        <v>0.204358</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201584</v>
+        <v>0.201673</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205725</v>
+        <v>0.205592</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199342</v>
+        <v>0.199639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200577</v>
+        <v>0.200723</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204952</v>
+        <v>0.204683</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194463</v>
+        <v>0.194378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199543</v>
+        <v>0.19947</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203601</v>
+        <v>0.203531</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188675</v>
+        <v>0.1886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198162</v>
+        <v>0.198282</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202652</v>
+        <v>0.202372</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183309</v>
+        <v>0.182929</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197176</v>
+        <v>0.197298</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201726</v>
+        <v>0.201717</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17591</v>
+        <v>0.176284</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196319</v>
+        <v>0.196382</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219278</v>
+        <v>0.219089</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168105</v>
+        <v>0.167859</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19508</v>
+        <v>0.195105</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217456</v>
+        <v>0.217125</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240974</v>
+        <v>0.240951</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211572</v>
+        <v>0.211777</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215642</v>
+        <v>0.215566</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236407</v>
+        <v>0.23691</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210177</v>
+        <v>0.21011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214245</v>
+        <v>0.213877</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231889</v>
+        <v>0.232168</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208743</v>
+        <v>0.208854</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21295</v>
+        <v>0.212692</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227149</v>
+        <v>0.227145</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207222</v>
+        <v>0.207309</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211283</v>
+        <v>0.210904</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222392</v>
+        <v>0.221933</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206045</v>
+        <v>0.206012</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210111</v>
+        <v>0.209774</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216416</v>
+        <v>0.217173</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204981</v>
+        <v>0.204941</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208994</v>
+        <v>0.208709</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211078</v>
+        <v>0.211537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.20361</v>
+        <v>0.203815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207648</v>
+        <v>0.20743</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.20616</v>
+        <v>0.20684</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202474</v>
+        <v>0.202672</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206756</v>
+        <v>0.206425</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20139</v>
+        <v>0.201841</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201642</v>
+        <v>0.201658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205641</v>
+        <v>0.205459</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196076</v>
+        <v>0.195988</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200509</v>
+        <v>0.200204</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204469</v>
+        <v>0.204313</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190622</v>
+        <v>0.19111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.198972</v>
+        <v>0.198952</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203498</v>
+        <v>0.203077</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184391</v>
+        <v>0.184918</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197916</v>
+        <v>0.19788</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202402</v>
+        <v>0.20212</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178168</v>
+        <v>0.178196</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1968</v>
+        <v>0.196695</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201592</v>
+        <v>0.201343</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170325</v>
+        <v>0.170696</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195595</v>
+        <v>0.195556</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217988</v>
+        <v>0.21783</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242433</v>
+        <v>0.242735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212568</v>
+        <v>0.212563</v>
       </c>
       <c r="D67" t="n">
-        <v>0.216244</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238225</v>
+        <v>0.238538</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211117</v>
+        <v>0.210937</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214813</v>
+        <v>0.214736</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232147</v>
+        <v>0.231692</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209301</v>
+        <v>0.209421</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213108</v>
+        <v>0.213011</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226634</v>
+        <v>0.226823</v>
       </c>
       <c r="C70" t="n">
-        <v>0.207944</v>
+        <v>0.207966</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211696</v>
+        <v>0.211624</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221109</v>
+        <v>0.22109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206484</v>
+        <v>0.206449</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21036</v>
+        <v>0.210234</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215658</v>
+        <v>0.215997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205191</v>
+        <v>0.20532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.209052</v>
+        <v>0.208887</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209762</v>
+        <v>0.210006</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203909</v>
+        <v>0.204017</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207744</v>
+        <v>0.207541</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204698</v>
+        <v>0.204963</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202846</v>
+        <v>0.202863</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206487</v>
+        <v>0.206466</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198811</v>
+        <v>0.199148</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201545</v>
+        <v>0.201597</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205538</v>
+        <v>0.205429</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193292</v>
+        <v>0.19377</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200433</v>
+        <v>0.200494</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204542</v>
+        <v>0.204419</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187493</v>
+        <v>0.18763</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199432</v>
+        <v>0.199347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203491</v>
+        <v>0.203382</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181225</v>
+        <v>0.181354</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198248</v>
+        <v>0.198286</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202709</v>
+        <v>0.202473</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17461</v>
+        <v>0.174876</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197239</v>
+        <v>0.197187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201823</v>
+        <v>0.201561</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166488</v>
+        <v>0.16633</v>
       </c>
       <c r="C80" t="n">
-        <v>0.195971</v>
+        <v>0.195995</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218549</v>
+        <v>0.218513</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243398</v>
+        <v>0.243725</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21317</v>
+        <v>0.213131</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216903</v>
+        <v>0.216776</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237401</v>
+        <v>0.237497</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21179</v>
+        <v>0.211865</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215514</v>
+        <v>0.215324</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232529</v>
+        <v>0.232855</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210265</v>
+        <v>0.210331</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213734</v>
+        <v>0.21366</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228149</v>
+        <v>0.228034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208887</v>
+        <v>0.208865</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212371</v>
+        <v>0.212343</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222752</v>
+        <v>0.222615</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207574</v>
+        <v>0.207435</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211191</v>
+        <v>0.210988</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217311</v>
+        <v>0.217258</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206405</v>
+        <v>0.206469</v>
       </c>
       <c r="D86" t="n">
-        <v>0.20982</v>
+        <v>0.209685</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211714</v>
+        <v>0.211934</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205118</v>
+        <v>0.204983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208665</v>
+        <v>0.208335</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20625</v>
+        <v>0.206089</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20376</v>
+        <v>0.203869</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207327</v>
+        <v>0.207077</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200468</v>
+        <v>0.200526</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202358</v>
+        <v>0.202508</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20622</v>
+        <v>0.205872</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194906</v>
+        <v>0.19497</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201272</v>
+        <v>0.201318</v>
       </c>
       <c r="D90" t="n">
-        <v>0.204946</v>
+        <v>0.204807</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189163</v>
+        <v>0.18911</v>
       </c>
       <c r="C91" t="n">
-        <v>0.199993</v>
+        <v>0.200027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203948</v>
+        <v>0.203703</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182939</v>
+        <v>0.182912</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198682</v>
+        <v>0.198818</v>
       </c>
       <c r="D92" t="n">
-        <v>0.202929</v>
+        <v>0.202626</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176188</v>
+        <v>0.17614</v>
       </c>
       <c r="C93" t="n">
-        <v>0.19766</v>
+        <v>0.197539</v>
       </c>
       <c r="D93" t="n">
-        <v>0.20196</v>
+        <v>0.20176</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168257</v>
+        <v>0.16808</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196408</v>
+        <v>0.196592</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218927</v>
+        <v>0.21897</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244627</v>
+        <v>0.24456</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215546</v>
+        <v>0.215398</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217273</v>
+        <v>0.217205</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238551</v>
+        <v>0.238732</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214056</v>
+        <v>0.213911</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215805</v>
+        <v>0.215645</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234388</v>
+        <v>0.234858</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212049</v>
+        <v>0.212407</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214467</v>
+        <v>0.214275</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229766</v>
+        <v>0.229971</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210716</v>
+        <v>0.210897</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212859</v>
+        <v>0.212844</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224674</v>
+        <v>0.224911</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208866</v>
+        <v>0.209221</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21161</v>
+        <v>0.211531</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219188</v>
+        <v>0.219237</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207215</v>
+        <v>0.207738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210279</v>
+        <v>0.210067</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213314</v>
+        <v>0.213493</v>
       </c>
       <c r="C101" t="n">
-        <v>0.205771</v>
+        <v>0.206269</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208911</v>
+        <v>0.208833</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207908</v>
+        <v>0.20788</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204536</v>
+        <v>0.204958</v>
       </c>
       <c r="D102" t="n">
-        <v>0.20773</v>
+        <v>0.207678</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202208</v>
+        <v>0.202123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.20352</v>
+        <v>0.203367</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206668</v>
+        <v>0.206487</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196485</v>
+        <v>0.19649</v>
       </c>
       <c r="C104" t="n">
-        <v>0.201818</v>
+        <v>0.202159</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205483</v>
+        <v>0.205359</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190985</v>
+        <v>0.190822</v>
       </c>
       <c r="C105" t="n">
-        <v>0.200597</v>
+        <v>0.201022</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204427</v>
+        <v>0.204284</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184845</v>
+        <v>0.18498</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199452</v>
+        <v>0.199649</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203497</v>
+        <v>0.203151</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178277</v>
+        <v>0.178342</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198499</v>
+        <v>0.198461</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202355</v>
+        <v>0.202164</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170525</v>
+        <v>0.170597</v>
       </c>
       <c r="C108" t="n">
-        <v>0.19716</v>
+        <v>0.197194</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219727</v>
+        <v>0.219694</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161463</v>
+        <v>0.161108</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195647</v>
+        <v>0.195778</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218063</v>
+        <v>0.217905</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239431</v>
+        <v>0.239726</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212567</v>
+        <v>0.212515</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216755</v>
+        <v>0.216505</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235646</v>
+        <v>0.235575</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211422</v>
+        <v>0.211676</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215134</v>
+        <v>0.214906</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230812</v>
+        <v>0.230925</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2105</v>
+        <v>0.210434</v>
       </c>
       <c r="D112" t="n">
-        <v>0.214081</v>
+        <v>0.213848</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225663</v>
+        <v>0.225852</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209085</v>
+        <v>0.20935</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212701</v>
+        <v>0.212478</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219947</v>
+        <v>0.219942</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207959</v>
+        <v>0.207971</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211436</v>
+        <v>0.211077</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214661</v>
+        <v>0.214586</v>
       </c>
       <c r="C115" t="n">
-        <v>0.20659</v>
+        <v>0.206958</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209783</v>
+        <v>0.209701</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209073</v>
+        <v>0.208826</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205669</v>
+        <v>0.205464</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208623</v>
+        <v>0.208561</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203153</v>
+        <v>0.203297</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204841</v>
+        <v>0.204765</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207629</v>
+        <v>0.207479</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197488</v>
+        <v>0.197508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203083</v>
+        <v>0.203424</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206221</v>
+        <v>0.206339</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19194</v>
+        <v>0.191854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201738</v>
+        <v>0.202293</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204966</v>
+        <v>0.204953</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185985</v>
+        <v>0.185762</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200823</v>
+        <v>0.200836</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204031</v>
+        <v>0.203841</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.17942</v>
+        <v>0.179284</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199404</v>
+        <v>0.19964</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202915</v>
+        <v>0.202894</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171957</v>
+        <v>0.171967</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198088</v>
+        <v>0.198472</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201905</v>
+        <v>0.201813</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163105</v>
+        <v>0.162838</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196566</v>
+        <v>0.196955</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218452</v>
+        <v>0.218386</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239746</v>
+        <v>0.240321</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213127</v>
+        <v>0.213026</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216911</v>
+        <v>0.216653</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.235805</v>
+        <v>0.236366</v>
       </c>
       <c r="C125" t="n">
-        <v>0.21167</v>
+        <v>0.211669</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215366</v>
+        <v>0.215478</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231212</v>
+        <v>0.231728</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210665</v>
+        <v>0.210662</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213814</v>
+        <v>0.213882</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226275</v>
+        <v>0.226677</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209466</v>
+        <v>0.209501</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21263</v>
+        <v>0.21245</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.220949</v>
+        <v>0.221233</v>
       </c>
       <c r="C128" t="n">
-        <v>0.207967</v>
+        <v>0.208134</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211244</v>
+        <v>0.211113</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215232</v>
+        <v>0.215433</v>
       </c>
       <c r="C129" t="n">
-        <v>0.206659</v>
+        <v>0.206911</v>
       </c>
       <c r="D129" t="n">
-        <v>0.209986</v>
+        <v>0.210145</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209655</v>
+        <v>0.209901</v>
       </c>
       <c r="C130" t="n">
-        <v>0.205843</v>
+        <v>0.205575</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208558</v>
+        <v>0.208687</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204412</v>
+        <v>0.20442</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204812</v>
+        <v>0.204833</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207711</v>
+        <v>0.207571</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198813</v>
+        <v>0.198675</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203471</v>
+        <v>0.203077</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206548</v>
+        <v>0.206556</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193082</v>
+        <v>0.192922</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202168</v>
+        <v>0.202104</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205152</v>
+        <v>0.205035</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187136</v>
+        <v>0.18729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.200564</v>
+        <v>0.200909</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204065</v>
+        <v>0.204121</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180745</v>
+        <v>0.180835</v>
       </c>
       <c r="C135" t="n">
-        <v>0.199454</v>
+        <v>0.19975</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203026</v>
+        <v>0.203049</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173555</v>
+        <v>0.173629</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198128</v>
+        <v>0.198225</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201948</v>
+        <v>0.201986</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164864</v>
+        <v>0.164857</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197088</v>
+        <v>0.197134</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218824</v>
+        <v>0.218773</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240856</v>
+        <v>0.24075</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213263</v>
+        <v>0.21312</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217191</v>
+        <v>0.217182</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236948</v>
+        <v>0.236906</v>
       </c>
       <c r="C139" t="n">
-        <v>0.211928</v>
+        <v>0.211542</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215757</v>
+        <v>0.215692</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232411</v>
+        <v>0.232467</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210631</v>
+        <v>0.210843</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214275</v>
+        <v>0.214199</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227485</v>
+        <v>0.227532</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209804</v>
+        <v>0.209105</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212995</v>
+        <v>0.21306</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222049</v>
+        <v>0.222184</v>
       </c>
       <c r="C142" t="n">
-        <v>0.208625</v>
+        <v>0.208537</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211461</v>
+        <v>0.211715</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216568</v>
+        <v>0.21671</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207202</v>
+        <v>0.207698</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210391</v>
+        <v>0.210088</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202784</v>
+        <v>0.206528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189404</v>
+        <v>0.188202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197201</v>
+        <v>0.196887</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198073</v>
+        <v>0.197767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18838</v>
+        <v>0.188564</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197574</v>
+        <v>0.197501</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188732</v>
+        <v>0.191626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188208</v>
+        <v>0.187953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196893</v>
+        <v>0.19696</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182367</v>
+        <v>0.186467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187775</v>
+        <v>0.187614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196126</v>
+        <v>0.196299</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178014</v>
+        <v>0.18179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1888</v>
+        <v>0.18825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196361</v>
+        <v>0.196375</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.172096</v>
+        <v>0.174335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188738</v>
+        <v>0.18847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195802</v>
+        <v>0.195856</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162036</v>
+        <v>0.167211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187358</v>
+        <v>0.187565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194859</v>
+        <v>0.195102</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152194</v>
+        <v>0.158471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186724</v>
+        <v>0.186832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212686</v>
+        <v>0.21286</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236471</v>
+        <v>0.236832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206091</v>
+        <v>0.205816</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212107</v>
+        <v>0.212263</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232846</v>
+        <v>0.232268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206286</v>
+        <v>0.206037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211774</v>
+        <v>0.211695</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226384</v>
+        <v>0.226651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204324</v>
+        <v>0.204243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21006</v>
+        <v>0.209972</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222078</v>
+        <v>0.220879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202178</v>
+        <v>0.202723</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208771</v>
+        <v>0.208857</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215448</v>
+        <v>0.21716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201766</v>
+        <v>0.201728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207035</v>
+        <v>0.207313</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211386</v>
+        <v>0.214951</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200998</v>
+        <v>0.200827</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206405</v>
+        <v>0.206563</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205768</v>
+        <v>0.208953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200361</v>
+        <v>0.200259</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205421</v>
+        <v>0.20565</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200618</v>
+        <v>0.203079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19932</v>
+        <v>0.199514</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204251</v>
+        <v>0.204499</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195502</v>
+        <v>0.199343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198688</v>
+        <v>0.19904</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203616</v>
+        <v>0.203748</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188853</v>
+        <v>0.189516</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197486</v>
+        <v>0.19735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202549</v>
+        <v>0.202697</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18379</v>
+        <v>0.184706</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195693</v>
+        <v>0.196015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201487</v>
+        <v>0.201485</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178228</v>
+        <v>0.178625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195053</v>
+        <v>0.195388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200891</v>
+        <v>0.200856</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17114</v>
+        <v>0.171279</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194423</v>
+        <v>0.194641</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200053</v>
+        <v>0.200274</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162949</v>
+        <v>0.163007</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193811</v>
+        <v>0.193832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216314</v>
+        <v>0.216741</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238716</v>
+        <v>0.239349</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210414</v>
+        <v>0.210284</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214998</v>
+        <v>0.215277</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234462</v>
+        <v>0.234042</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208527</v>
+        <v>0.208655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21357</v>
+        <v>0.213627</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229986</v>
+        <v>0.230247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207365</v>
+        <v>0.207114</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211702</v>
+        <v>0.211789</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224896</v>
+        <v>0.224523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205593</v>
+        <v>0.205313</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210458</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219364</v>
+        <v>0.219475</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204011</v>
+        <v>0.204412</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209158</v>
+        <v>0.209087</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215386</v>
+        <v>0.214824</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203123</v>
+        <v>0.202956</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207549</v>
+        <v>0.208014</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209187</v>
+        <v>0.209261</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201935</v>
+        <v>0.201987</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206422</v>
+        <v>0.206671</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203672</v>
+        <v>0.203625</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200685</v>
+        <v>0.200894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205331</v>
+        <v>0.205523</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198828</v>
+        <v>0.198788</v>
       </c>
       <c r="C32" t="n">
-        <v>0.200149</v>
+        <v>0.199976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204594</v>
+        <v>0.204941</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197155</v>
+        <v>0.196649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199231</v>
+        <v>0.199326</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203612</v>
+        <v>0.203846</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192398</v>
+        <v>0.192114</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198142</v>
+        <v>0.198339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202819</v>
+        <v>0.203178</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186987</v>
+        <v>0.187011</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197219</v>
+        <v>0.197384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.20188</v>
+        <v>0.202331</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181039</v>
+        <v>0.180718</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19571</v>
+        <v>0.195675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.200416</v>
+        <v>0.2009</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173022</v>
+        <v>0.173553</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194666</v>
+        <v>0.194661</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217493</v>
+        <v>0.217754</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242187</v>
+        <v>0.242319</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211679</v>
+        <v>0.211764</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215873</v>
+        <v>0.215772</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238443</v>
+        <v>0.239323</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210095</v>
+        <v>0.209985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21407</v>
+        <v>0.214167</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23469</v>
+        <v>0.234373</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208207</v>
+        <v>0.20841</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212806</v>
+        <v>0.212965</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229766</v>
+        <v>0.230027</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207443</v>
+        <v>0.207396</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211447</v>
+        <v>0.211716</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225021</v>
+        <v>0.224998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206424</v>
+        <v>0.206251</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210312</v>
+        <v>0.210473</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220165</v>
+        <v>0.219668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205174</v>
+        <v>0.205164</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208969</v>
+        <v>0.209191</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214482</v>
+        <v>0.214856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.204006</v>
+        <v>0.20405</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207836</v>
+        <v>0.208232</v>
       </c>
     </row>
     <row r="45">
@@ -3851,10 +3851,10 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21031</v>
+        <v>0.209057</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202797</v>
+        <v>0.20298</v>
       </c>
       <c r="D45" t="n">
         <v>0.206745</v>
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204358</v>
+        <v>0.203729</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201673</v>
+        <v>0.201627</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205592</v>
+        <v>0.205732</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199639</v>
+        <v>0.199119</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200723</v>
+        <v>0.200811</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204683</v>
+        <v>0.204904</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194378</v>
+        <v>0.194017</v>
       </c>
       <c r="C48" t="n">
-        <v>0.19947</v>
+        <v>0.199651</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203531</v>
+        <v>0.203731</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1886</v>
+        <v>0.188675</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198282</v>
+        <v>0.198163</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202372</v>
+        <v>0.202542</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182929</v>
+        <v>0.182688</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197298</v>
+        <v>0.197405</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201717</v>
+        <v>0.201988</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176284</v>
+        <v>0.175931</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196382</v>
+        <v>0.196451</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219089</v>
+        <v>0.219123</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167859</v>
+        <v>0.167837</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195105</v>
+        <v>0.195212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217125</v>
+        <v>0.217412</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240951</v>
+        <v>0.240722</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211777</v>
+        <v>0.21156</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215566</v>
+        <v>0.215616</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23691</v>
+        <v>0.236458</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21011</v>
+        <v>0.209959</v>
       </c>
       <c r="D54" t="n">
-        <v>0.213877</v>
+        <v>0.214037</v>
       </c>
     </row>
     <row r="55">
@@ -3994,10 +3994,10 @@
         <v>0.232168</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208854</v>
+        <v>0.20892</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212692</v>
+        <v>0.212873</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227145</v>
+        <v>0.226854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207309</v>
+        <v>0.207081</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210904</v>
+        <v>0.211241</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221933</v>
+        <v>0.222592</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206012</v>
+        <v>0.205951</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209774</v>
+        <v>0.210072</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217173</v>
+        <v>0.216603</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204941</v>
+        <v>0.204922</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208709</v>
+        <v>0.208931</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211537</v>
+        <v>0.211688</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203815</v>
+        <v>0.203728</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20743</v>
+        <v>0.207508</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.20684</v>
+        <v>0.206538</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202672</v>
+        <v>0.202731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206425</v>
+        <v>0.206424</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201841</v>
+        <v>0.201416</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201658</v>
+        <v>0.201856</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205459</v>
+        <v>0.20549</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195988</v>
+        <v>0.196466</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200204</v>
+        <v>0.200521</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204313</v>
+        <v>0.204342</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19111</v>
+        <v>0.190902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.198952</v>
+        <v>0.199238</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203077</v>
+        <v>0.203249</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184918</v>
+        <v>0.184444</v>
       </c>
       <c r="C64" t="n">
-        <v>0.19788</v>
+        <v>0.198006</v>
       </c>
       <c r="D64" t="n">
-        <v>0.20212</v>
+        <v>0.202129</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178196</v>
+        <v>0.178282</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196695</v>
+        <v>0.196951</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201343</v>
+        <v>0.20138</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170696</v>
+        <v>0.170768</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195556</v>
+        <v>0.195849</v>
       </c>
       <c r="D66" t="n">
-        <v>0.21783</v>
+        <v>0.217868</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242735</v>
+        <v>0.242615</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212563</v>
+        <v>0.212702</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2163</v>
+        <v>0.21646</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238538</v>
+        <v>0.238094</v>
       </c>
       <c r="C68" t="n">
-        <v>0.210937</v>
+        <v>0.211025</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214736</v>
+        <v>0.214851</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231692</v>
+        <v>0.231762</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209421</v>
+        <v>0.209398</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213011</v>
+        <v>0.213195</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226823</v>
+        <v>0.226381</v>
       </c>
       <c r="C70" t="n">
-        <v>0.207966</v>
+        <v>0.208096</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211624</v>
+        <v>0.211782</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22109</v>
+        <v>0.221188</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206449</v>
+        <v>0.206441</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210234</v>
+        <v>0.21024</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215997</v>
+        <v>0.215769</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20532</v>
+        <v>0.205392</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208887</v>
+        <v>0.208904</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210006</v>
+        <v>0.209784</v>
       </c>
       <c r="C73" t="n">
-        <v>0.204017</v>
+        <v>0.20402</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207541</v>
+        <v>0.207626</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204963</v>
+        <v>0.20459</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202863</v>
+        <v>0.202904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206466</v>
+        <v>0.206411</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199148</v>
+        <v>0.198628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.201597</v>
+        <v>0.2017</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205429</v>
+        <v>0.205353</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19377</v>
+        <v>0.193521</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200494</v>
+        <v>0.200597</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204419</v>
+        <v>0.20443</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18763</v>
+        <v>0.187427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199347</v>
+        <v>0.19943</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203382</v>
+        <v>0.203658</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181354</v>
+        <v>0.181207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198286</v>
+        <v>0.198442</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202473</v>
+        <v>0.202729</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174876</v>
+        <v>0.174632</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197187</v>
+        <v>0.197269</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201561</v>
+        <v>0.201837</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16633</v>
+        <v>0.166304</v>
       </c>
       <c r="C80" t="n">
-        <v>0.195995</v>
+        <v>0.196282</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218513</v>
+        <v>0.218714</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243725</v>
+        <v>0.243362</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213131</v>
+        <v>0.21332</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216776</v>
+        <v>0.216956</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237497</v>
+        <v>0.239346</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211865</v>
+        <v>0.211855</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215324</v>
+        <v>0.215484</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232855</v>
+        <v>0.234605</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210331</v>
+        <v>0.210384</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21366</v>
+        <v>0.213885</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228034</v>
+        <v>0.229753</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208865</v>
+        <v>0.208905</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212343</v>
+        <v>0.212366</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222615</v>
+        <v>0.224656</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207435</v>
+        <v>0.207647</v>
       </c>
       <c r="D85" t="n">
-        <v>0.210988</v>
+        <v>0.21101</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217258</v>
+        <v>0.219607</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206469</v>
+        <v>0.206429</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209685</v>
+        <v>0.209812</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211934</v>
+        <v>0.211662</v>
       </c>
       <c r="C87" t="n">
-        <v>0.204983</v>
+        <v>0.20509</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208335</v>
+        <v>0.208531</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206089</v>
+        <v>0.20598</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203869</v>
+        <v>0.203912</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207077</v>
+        <v>0.20725</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200526</v>
+        <v>0.200262</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202508</v>
+        <v>0.202523</v>
       </c>
       <c r="D89" t="n">
-        <v>0.205872</v>
+        <v>0.206153</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19497</v>
+        <v>0.1947</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201318</v>
+        <v>0.201329</v>
       </c>
       <c r="D90" t="n">
-        <v>0.204807</v>
+        <v>0.205085</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18911</v>
+        <v>0.189009</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200027</v>
+        <v>0.200099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203703</v>
+        <v>0.203847</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182912</v>
+        <v>0.182741</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198818</v>
+        <v>0.198906</v>
       </c>
       <c r="D92" t="n">
-        <v>0.202626</v>
+        <v>0.20278</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.17614</v>
+        <v>0.176405</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197539</v>
+        <v>0.19769</v>
       </c>
       <c r="D93" t="n">
-        <v>0.20176</v>
+        <v>0.201875</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16808</v>
+        <v>0.168158</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196592</v>
+        <v>0.19655</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21897</v>
+        <v>0.218963</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24456</v>
+        <v>0.244335</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215398</v>
+        <v>0.215364</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217205</v>
+        <v>0.217326</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238732</v>
+        <v>0.240577</v>
       </c>
       <c r="C96" t="n">
-        <v>0.213911</v>
+        <v>0.214173</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215645</v>
+        <v>0.215951</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234858</v>
+        <v>0.234747</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212407</v>
+        <v>0.212433</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214275</v>
+        <v>0.214475</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229971</v>
+        <v>0.229789</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210897</v>
+        <v>0.210627</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212844</v>
+        <v>0.212921</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224911</v>
+        <v>0.224949</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209221</v>
+        <v>0.208559</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211531</v>
+        <v>0.211495</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219237</v>
+        <v>0.219523</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207738</v>
+        <v>0.207685</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210067</v>
+        <v>0.210177</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213493</v>
+        <v>0.213494</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206269</v>
+        <v>0.206532</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208833</v>
+        <v>0.208872</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20788</v>
+        <v>0.207672</v>
       </c>
       <c r="C102" t="n">
-        <v>0.204958</v>
+        <v>0.20488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207678</v>
+        <v>0.207759</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202123</v>
+        <v>0.202111</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203367</v>
+        <v>0.203311</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206487</v>
+        <v>0.206549</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.19649</v>
+        <v>0.196288</v>
       </c>
       <c r="C104" t="n">
-        <v>0.202159</v>
+        <v>0.202193</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205359</v>
+        <v>0.20538</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190822</v>
+        <v>0.190987</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201022</v>
+        <v>0.201087</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204284</v>
+        <v>0.204335</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18498</v>
+        <v>0.185094</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199649</v>
+        <v>0.199735</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203151</v>
+        <v>0.203238</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178342</v>
+        <v>0.178222</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198461</v>
+        <v>0.198539</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202164</v>
+        <v>0.20238</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170597</v>
+        <v>0.170453</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197194</v>
+        <v>0.197266</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219694</v>
+        <v>0.219765</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161108</v>
+        <v>0.160821</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195778</v>
+        <v>0.195864</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217905</v>
+        <v>0.217923</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239726</v>
+        <v>0.239585</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212515</v>
+        <v>0.212524</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216505</v>
+        <v>0.216555</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235575</v>
+        <v>0.235415</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211676</v>
+        <v>0.211464</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214906</v>
+        <v>0.214984</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230925</v>
+        <v>0.230736</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210434</v>
+        <v>0.210498</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213848</v>
+        <v>0.213858</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225852</v>
+        <v>0.225831</v>
       </c>
       <c r="C113" t="n">
-        <v>0.20935</v>
+        <v>0.209288</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212478</v>
+        <v>0.212445</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219942</v>
+        <v>0.219947</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207971</v>
+        <v>0.207642</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211077</v>
+        <v>0.211096</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214586</v>
+        <v>0.214486</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206958</v>
+        <v>0.206872</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209701</v>
+        <v>0.209749</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208826</v>
+        <v>0.208741</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205464</v>
+        <v>0.205486</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208561</v>
+        <v>0.20834</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203297</v>
+        <v>0.203014</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204765</v>
+        <v>0.204659</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207479</v>
+        <v>0.20761</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197508</v>
+        <v>0.19733</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203424</v>
+        <v>0.203448</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206339</v>
+        <v>0.206208</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191854</v>
+        <v>0.191797</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202293</v>
+        <v>0.202355</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204953</v>
+        <v>0.204664</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185762</v>
+        <v>0.185756</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200836</v>
+        <v>0.200785</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203841</v>
+        <v>0.203785</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179284</v>
+        <v>0.179291</v>
       </c>
       <c r="C121" t="n">
-        <v>0.19964</v>
+        <v>0.199577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202894</v>
+        <v>0.202602</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171967</v>
+        <v>0.171987</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198472</v>
+        <v>0.198341</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201813</v>
+        <v>0.201702</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162838</v>
+        <v>0.162896</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196955</v>
+        <v>0.196738</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218386</v>
+        <v>0.218411</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240321</v>
+        <v>0.239615</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213026</v>
+        <v>0.212986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216653</v>
+        <v>0.216722</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236366</v>
+        <v>0.235798</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211669</v>
+        <v>0.211687</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215478</v>
+        <v>0.215343</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231728</v>
+        <v>0.231276</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210662</v>
+        <v>0.210697</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213882</v>
+        <v>0.213933</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226677</v>
+        <v>0.226198</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209501</v>
+        <v>0.20942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21245</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221233</v>
+        <v>0.221002</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208134</v>
+        <v>0.208153</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211113</v>
+        <v>0.211261</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215433</v>
+        <v>0.215293</v>
       </c>
       <c r="C129" t="n">
-        <v>0.206911</v>
+        <v>0.207167</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210145</v>
+        <v>0.209906</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209901</v>
+        <v>0.209608</v>
       </c>
       <c r="C130" t="n">
-        <v>0.205575</v>
+        <v>0.205989</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208687</v>
+        <v>0.208503</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20442</v>
+        <v>0.204422</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204833</v>
+        <v>0.204832</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207571</v>
+        <v>0.207593</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198675</v>
+        <v>0.198689</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203077</v>
+        <v>0.203491</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206556</v>
+        <v>0.206351</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.192922</v>
+        <v>0.193027</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202104</v>
+        <v>0.202327</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205035</v>
+        <v>0.205219</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18729</v>
+        <v>0.187168</v>
       </c>
       <c r="C134" t="n">
-        <v>0.200909</v>
+        <v>0.201123</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204121</v>
+        <v>0.204035</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180835</v>
+        <v>0.180869</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19975</v>
+        <v>0.19999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203049</v>
+        <v>0.203134</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173629</v>
+        <v>0.173717</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198225</v>
+        <v>0.198535</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201986</v>
+        <v>0.201998</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164857</v>
+        <v>0.164919</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197134</v>
+        <v>0.197265</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218773</v>
+        <v>0.218699</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24075</v>
+        <v>0.240717</v>
       </c>
       <c r="C138" t="n">
-        <v>0.21312</v>
+        <v>0.213175</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217182</v>
+        <v>0.217159</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236906</v>
+        <v>0.236926</v>
       </c>
       <c r="C139" t="n">
-        <v>0.211542</v>
+        <v>0.211668</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215692</v>
+        <v>0.215678</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232467</v>
+        <v>0.232438</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210843</v>
+        <v>0.210559</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214199</v>
+        <v>0.214279</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227532</v>
+        <v>0.227427</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209105</v>
+        <v>0.209759</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21306</v>
+        <v>0.212971</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222184</v>
+        <v>0.222167</v>
       </c>
       <c r="C142" t="n">
-        <v>0.208537</v>
+        <v>0.20853</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211715</v>
+        <v>0.211667</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.21671</v>
+        <v>0.216769</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207698</v>
+        <v>0.207468</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210088</v>
+        <v>0.210375</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.206528</v>
+        <v>0.207558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188202</v>
+        <v>0.193751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196887</v>
+        <v>0.19582</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197767</v>
+        <v>0.194411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188564</v>
+        <v>0.194677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197501</v>
+        <v>0.196344</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191626</v>
+        <v>0.190924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187953</v>
+        <v>0.193515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19696</v>
+        <v>0.196264</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186467</v>
+        <v>0.182534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187614</v>
+        <v>0.19333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196299</v>
+        <v>0.195341</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18179</v>
+        <v>0.17722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18825</v>
+        <v>0.19345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196375</v>
+        <v>0.196189</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.174335</v>
+        <v>0.170618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18847</v>
+        <v>0.192401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.195856</v>
+        <v>0.194927</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167211</v>
+        <v>0.1634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187565</v>
+        <v>0.191472</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195102</v>
+        <v>0.195157</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158471</v>
+        <v>0.152633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186832</v>
+        <v>0.191758</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21286</v>
+        <v>0.212145</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236832</v>
+        <v>0.236615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205816</v>
+        <v>0.21124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.212263</v>
+        <v>0.211209</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232268</v>
+        <v>0.234366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206037</v>
+        <v>0.211239</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211695</v>
+        <v>0.211509</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226651</v>
+        <v>0.227134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204243</v>
+        <v>0.209613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209972</v>
+        <v>0.209436</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220879</v>
+        <v>0.221713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202723</v>
+        <v>0.208242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208857</v>
+        <v>0.208439</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21716</v>
+        <v>0.215692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201728</v>
+        <v>0.206463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207313</v>
+        <v>0.207227</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214951</v>
+        <v>0.211482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200827</v>
+        <v>0.20509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206563</v>
+        <v>0.206201</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208953</v>
+        <v>0.206514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200259</v>
+        <v>0.204271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20565</v>
+        <v>0.205193</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203079</v>
+        <v>0.201551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199514</v>
+        <v>0.203058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204499</v>
+        <v>0.203753</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199343</v>
+        <v>0.19562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19904</v>
+        <v>0.202125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203748</v>
+        <v>0.203483</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189516</v>
+        <v>0.189258</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19735</v>
+        <v>0.201077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202697</v>
+        <v>0.202259</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.184706</v>
+        <v>0.183401</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196015</v>
+        <v>0.19923</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201485</v>
+        <v>0.20137</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178625</v>
+        <v>0.17835</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195388</v>
+        <v>0.199225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200856</v>
+        <v>0.200752</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171279</v>
+        <v>0.171466</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194641</v>
+        <v>0.198092</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200274</v>
+        <v>0.199772</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163007</v>
+        <v>0.163016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193832</v>
+        <v>0.197283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216741</v>
+        <v>0.215658</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239349</v>
+        <v>0.238428</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210284</v>
+        <v>0.214271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215277</v>
+        <v>0.214181</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234042</v>
+        <v>0.234163</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208655</v>
+        <v>0.21275</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213627</v>
+        <v>0.212701</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230247</v>
+        <v>0.230048</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207114</v>
+        <v>0.210872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211789</v>
+        <v>0.211191</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224523</v>
+        <v>0.225288</v>
       </c>
       <c r="C27" t="n">
-        <v>0.205313</v>
+        <v>0.209107</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2103</v>
+        <v>0.209869</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219475</v>
+        <v>0.219727</v>
       </c>
       <c r="C28" t="n">
-        <v>0.204412</v>
+        <v>0.207572</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209087</v>
+        <v>0.208361</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214824</v>
+        <v>0.215666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.202956</v>
+        <v>0.206323</v>
       </c>
       <c r="D29" t="n">
-        <v>0.208014</v>
+        <v>0.207088</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209261</v>
+        <v>0.209095</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201987</v>
+        <v>0.20498</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206671</v>
+        <v>0.206017</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203625</v>
+        <v>0.203708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200894</v>
+        <v>0.204049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205523</v>
+        <v>0.204985</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198788</v>
+        <v>0.198468</v>
       </c>
       <c r="C32" t="n">
-        <v>0.199976</v>
+        <v>0.203299</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204941</v>
+        <v>0.204021</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196649</v>
+        <v>0.196216</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199326</v>
+        <v>0.2022</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203846</v>
+        <v>0.203411</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192114</v>
+        <v>0.192009</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198339</v>
+        <v>0.20172</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203178</v>
+        <v>0.20233</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187011</v>
+        <v>0.187016</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197384</v>
+        <v>0.200496</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202331</v>
+        <v>0.201548</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180718</v>
+        <v>0.18083</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195675</v>
+        <v>0.198861</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2009</v>
+        <v>0.20049</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173553</v>
+        <v>0.173344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194661</v>
+        <v>0.197828</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217754</v>
+        <v>0.217068</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242319</v>
+        <v>0.241757</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211764</v>
+        <v>0.215033</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215772</v>
+        <v>0.215339</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239323</v>
+        <v>0.238485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209985</v>
+        <v>0.213306</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214167</v>
+        <v>0.213551</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234373</v>
+        <v>0.234758</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20841</v>
+        <v>0.211812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212965</v>
+        <v>0.21217</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230027</v>
+        <v>0.229926</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207396</v>
+        <v>0.210511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211716</v>
+        <v>0.211063</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224998</v>
+        <v>0.224311</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206251</v>
+        <v>0.209148</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210473</v>
+        <v>0.209878</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219668</v>
+        <v>0.220173</v>
       </c>
       <c r="C43" t="n">
-        <v>0.205164</v>
+        <v>0.208035</v>
       </c>
       <c r="D43" t="n">
-        <v>0.209191</v>
+        <v>0.208544</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214856</v>
+        <v>0.214483</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20405</v>
+        <v>0.206881</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208232</v>
+        <v>0.207447</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209057</v>
+        <v>0.209522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.20298</v>
+        <v>0.205723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206745</v>
+        <v>0.206441</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203729</v>
+        <v>0.204045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201627</v>
+        <v>0.204511</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205732</v>
+        <v>0.205177</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199119</v>
+        <v>0.200065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200811</v>
+        <v>0.203474</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204904</v>
+        <v>0.20457</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194017</v>
+        <v>0.19439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199651</v>
+        <v>0.202451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203731</v>
+        <v>0.203212</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188675</v>
+        <v>0.188725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.198163</v>
+        <v>0.201036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202542</v>
+        <v>0.202019</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182688</v>
+        <v>0.182931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.197405</v>
+        <v>0.200305</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201988</v>
+        <v>0.201231</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175931</v>
+        <v>0.175834</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196451</v>
+        <v>0.199387</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219123</v>
+        <v>0.218351</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167837</v>
+        <v>0.168156</v>
       </c>
       <c r="C52" t="n">
-        <v>0.195212</v>
+        <v>0.198296</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217412</v>
+        <v>0.217001</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240722</v>
+        <v>0.240359</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21156</v>
+        <v>0.214628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215616</v>
+        <v>0.215187</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236458</v>
+        <v>0.236259</v>
       </c>
       <c r="C54" t="n">
-        <v>0.209959</v>
+        <v>0.213172</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214037</v>
+        <v>0.21361</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232168</v>
+        <v>0.231504</v>
       </c>
       <c r="C55" t="n">
-        <v>0.20892</v>
+        <v>0.211842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212873</v>
+        <v>0.212328</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226854</v>
+        <v>0.227084</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207081</v>
+        <v>0.210084</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211241</v>
+        <v>0.210751</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222592</v>
+        <v>0.221555</v>
       </c>
       <c r="C57" t="n">
-        <v>0.205951</v>
+        <v>0.20882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210072</v>
+        <v>0.209258</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216603</v>
+        <v>0.216827</v>
       </c>
       <c r="C58" t="n">
-        <v>0.204922</v>
+        <v>0.2076</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208931</v>
+        <v>0.208222</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211688</v>
+        <v>0.211558</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203728</v>
+        <v>0.20639</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207508</v>
+        <v>0.207036</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206538</v>
+        <v>0.206795</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202731</v>
+        <v>0.205448</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206424</v>
+        <v>0.206345</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201416</v>
+        <v>0.201846</v>
       </c>
       <c r="C61" t="n">
-        <v>0.201856</v>
+        <v>0.204349</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20549</v>
+        <v>0.205318</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196466</v>
+        <v>0.19616</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200521</v>
+        <v>0.203193</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204342</v>
+        <v>0.204135</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190902</v>
+        <v>0.190498</v>
       </c>
       <c r="C63" t="n">
-        <v>0.199238</v>
+        <v>0.201855</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203249</v>
+        <v>0.202817</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184444</v>
+        <v>0.18482</v>
       </c>
       <c r="C64" t="n">
-        <v>0.198006</v>
+        <v>0.200772</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202129</v>
+        <v>0.201722</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178282</v>
+        <v>0.178911</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196951</v>
+        <v>0.199713</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20138</v>
+        <v>0.201093</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170768</v>
+        <v>0.170542</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195849</v>
+        <v>0.198611</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217868</v>
+        <v>0.217768</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242615</v>
+        <v>0.242236</v>
       </c>
       <c r="C67" t="n">
-        <v>0.212702</v>
+        <v>0.215665</v>
       </c>
       <c r="D67" t="n">
-        <v>0.21646</v>
+        <v>0.215905</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238094</v>
+        <v>0.235986</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211025</v>
+        <v>0.214081</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214851</v>
+        <v>0.214637</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231762</v>
+        <v>0.231645</v>
       </c>
       <c r="C69" t="n">
-        <v>0.209398</v>
+        <v>0.212314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213195</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226381</v>
+        <v>0.22621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208096</v>
+        <v>0.210936</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211782</v>
+        <v>0.211215</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221188</v>
+        <v>0.221243</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206441</v>
+        <v>0.209383</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21024</v>
+        <v>0.209789</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215769</v>
+        <v>0.215704</v>
       </c>
       <c r="C72" t="n">
-        <v>0.205392</v>
+        <v>0.208102</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208904</v>
+        <v>0.208582</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209784</v>
+        <v>0.209798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20402</v>
+        <v>0.206644</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207626</v>
+        <v>0.207358</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20459</v>
+        <v>0.204914</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202904</v>
+        <v>0.205361</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206411</v>
+        <v>0.206124</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198628</v>
+        <v>0.199276</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2017</v>
+        <v>0.204173</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205353</v>
+        <v>0.205064</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193521</v>
+        <v>0.193294</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200597</v>
+        <v>0.20312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20443</v>
+        <v>0.204154</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187427</v>
+        <v>0.187513</v>
       </c>
       <c r="C77" t="n">
-        <v>0.19943</v>
+        <v>0.202097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203658</v>
+        <v>0.203097</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181207</v>
+        <v>0.181481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198442</v>
+        <v>0.201079</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202729</v>
+        <v>0.202077</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174632</v>
+        <v>0.174741</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197269</v>
+        <v>0.199954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201837</v>
+        <v>0.201243</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166304</v>
+        <v>0.166525</v>
       </c>
       <c r="C80" t="n">
-        <v>0.196282</v>
+        <v>0.1989</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218714</v>
+        <v>0.218141</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243362</v>
+        <v>0.243305</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21332</v>
+        <v>0.216248</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216956</v>
+        <v>0.216709</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239346</v>
+        <v>0.239259</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211855</v>
+        <v>0.214747</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215484</v>
+        <v>0.215353</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234605</v>
+        <v>0.234509</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210384</v>
+        <v>0.213027</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213885</v>
+        <v>0.213653</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.229753</v>
+        <v>0.229828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208905</v>
+        <v>0.211586</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212366</v>
+        <v>0.212272</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224656</v>
+        <v>0.222403</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207647</v>
+        <v>0.210232</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21101</v>
+        <v>0.210941</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219607</v>
+        <v>0.217096</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206429</v>
+        <v>0.208947</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209812</v>
+        <v>0.209706</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211662</v>
+        <v>0.211735</v>
       </c>
       <c r="C87" t="n">
-        <v>0.20509</v>
+        <v>0.207635</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208531</v>
+        <v>0.208192</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20598</v>
+        <v>0.206175</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203912</v>
+        <v>0.206401</v>
       </c>
       <c r="D88" t="n">
-        <v>0.20725</v>
+        <v>0.207119</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200262</v>
+        <v>0.200829</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202523</v>
+        <v>0.204986</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206153</v>
+        <v>0.205848</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1947</v>
+        <v>0.194911</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201329</v>
+        <v>0.203838</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205085</v>
+        <v>0.204901</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189009</v>
+        <v>0.189218</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200099</v>
+        <v>0.202659</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203847</v>
+        <v>0.203601</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182741</v>
+        <v>0.182961</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198906</v>
+        <v>0.201632</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20278</v>
+        <v>0.202515</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176405</v>
+        <v>0.176161</v>
       </c>
       <c r="C93" t="n">
-        <v>0.19769</v>
+        <v>0.200392</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201875</v>
+        <v>0.201517</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168158</v>
+        <v>0.168767</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19655</v>
+        <v>0.199138</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218963</v>
+        <v>0.21892</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244335</v>
+        <v>0.244079</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215364</v>
+        <v>0.216683</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217326</v>
+        <v>0.217556</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240577</v>
+        <v>0.238664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214173</v>
+        <v>0.215051</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215951</v>
+        <v>0.215664</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234747</v>
+        <v>0.234387</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212433</v>
+        <v>0.213597</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214475</v>
+        <v>0.21422</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229789</v>
+        <v>0.229684</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210627</v>
+        <v>0.211972</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212921</v>
+        <v>0.212777</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224949</v>
+        <v>0.224586</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208559</v>
+        <v>0.210723</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211495</v>
+        <v>0.211433</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219523</v>
+        <v>0.219171</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207685</v>
+        <v>0.209416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210177</v>
+        <v>0.209881</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213494</v>
+        <v>0.213429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206532</v>
+        <v>0.208222</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208872</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207672</v>
+        <v>0.207838</v>
       </c>
       <c r="C102" t="n">
-        <v>0.20488</v>
+        <v>0.20704</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207759</v>
+        <v>0.207352</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202111</v>
+        <v>0.202124</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203311</v>
+        <v>0.205802</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206549</v>
+        <v>0.206193</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196288</v>
+        <v>0.19658</v>
       </c>
       <c r="C104" t="n">
-        <v>0.202193</v>
+        <v>0.204492</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20538</v>
+        <v>0.204939</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190987</v>
+        <v>0.190798</v>
       </c>
       <c r="C105" t="n">
-        <v>0.201087</v>
+        <v>0.203354</v>
       </c>
       <c r="D105" t="n">
-        <v>0.204335</v>
+        <v>0.20375</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185094</v>
+        <v>0.185</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199735</v>
+        <v>0.202211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.203238</v>
+        <v>0.202785</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178222</v>
+        <v>0.178387</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198539</v>
+        <v>0.201141</v>
       </c>
       <c r="D107" t="n">
-        <v>0.20238</v>
+        <v>0.201894</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170453</v>
+        <v>0.170956</v>
       </c>
       <c r="C108" t="n">
-        <v>0.197266</v>
+        <v>0.199983</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219765</v>
+        <v>0.219575</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.160821</v>
+        <v>0.161515</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195864</v>
+        <v>0.198666</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217923</v>
+        <v>0.217609</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239585</v>
+        <v>0.239227</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212524</v>
+        <v>0.214968</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216555</v>
+        <v>0.216127</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235415</v>
+        <v>0.23535</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211464</v>
+        <v>0.21338</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214984</v>
+        <v>0.214725</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230736</v>
+        <v>0.230383</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210498</v>
+        <v>0.211894</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213858</v>
+        <v>0.213653</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225831</v>
+        <v>0.225286</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209288</v>
+        <v>0.210558</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212445</v>
+        <v>0.212029</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219947</v>
+        <v>0.219824</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207642</v>
+        <v>0.20909</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211096</v>
+        <v>0.210685</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214486</v>
+        <v>0.214264</v>
       </c>
       <c r="C115" t="n">
-        <v>0.206872</v>
+        <v>0.207825</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209749</v>
+        <v>0.209224</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208741</v>
+        <v>0.208733</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205486</v>
+        <v>0.206661</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20834</v>
+        <v>0.207788</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203014</v>
+        <v>0.202928</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204659</v>
+        <v>0.205538</v>
       </c>
       <c r="D117" t="n">
-        <v>0.20761</v>
+        <v>0.206803</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19733</v>
+        <v>0.197244</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203448</v>
+        <v>0.204389</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206208</v>
+        <v>0.205379</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191797</v>
+        <v>0.191802</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202355</v>
+        <v>0.203411</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204664</v>
+        <v>0.203996</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185756</v>
+        <v>0.185645</v>
       </c>
       <c r="C120" t="n">
-        <v>0.200785</v>
+        <v>0.202285</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203785</v>
+        <v>0.203352</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179291</v>
+        <v>0.179364</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199577</v>
+        <v>0.201229</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202602</v>
+        <v>0.202142</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171987</v>
+        <v>0.171942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.198341</v>
+        <v>0.200082</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201702</v>
+        <v>0.201359</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162896</v>
+        <v>0.162812</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196738</v>
+        <v>0.19879</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218411</v>
+        <v>0.218331</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239615</v>
+        <v>0.240041</v>
       </c>
       <c r="C124" t="n">
-        <v>0.212986</v>
+        <v>0.215456</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216722</v>
+        <v>0.216534</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.235798</v>
+        <v>0.236316</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211687</v>
+        <v>0.213817</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215343</v>
+        <v>0.214997</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231276</v>
+        <v>0.231481</v>
       </c>
       <c r="C126" t="n">
-        <v>0.210697</v>
+        <v>0.212353</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213933</v>
+        <v>0.213643</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226198</v>
+        <v>0.226406</v>
       </c>
       <c r="C127" t="n">
-        <v>0.20942</v>
+        <v>0.210843</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212612</v>
+        <v>0.212096</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221002</v>
+        <v>0.221157</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208153</v>
+        <v>0.209511</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211261</v>
+        <v>0.210774</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215293</v>
+        <v>0.215416</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207167</v>
+        <v>0.208093</v>
       </c>
       <c r="D129" t="n">
-        <v>0.209906</v>
+        <v>0.209063</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209608</v>
+        <v>0.209752</v>
       </c>
       <c r="C130" t="n">
-        <v>0.205989</v>
+        <v>0.206645</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208503</v>
+        <v>0.207811</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204422</v>
+        <v>0.20454</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204832</v>
+        <v>0.205646</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207593</v>
+        <v>0.206654</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198689</v>
+        <v>0.198718</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203491</v>
+        <v>0.204566</v>
       </c>
       <c r="D132" t="n">
-        <v>0.206351</v>
+        <v>0.205385</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193027</v>
+        <v>0.193078</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202327</v>
+        <v>0.203538</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205219</v>
+        <v>0.204242</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187168</v>
+        <v>0.187208</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201123</v>
+        <v>0.202367</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204035</v>
+        <v>0.203217</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180869</v>
+        <v>0.180915</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19999</v>
+        <v>0.201298</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203134</v>
+        <v>0.20216</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173717</v>
+        <v>0.173676</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198535</v>
+        <v>0.200179</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201998</v>
+        <v>0.201221</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164919</v>
+        <v>0.165135</v>
       </c>
       <c r="C137" t="n">
-        <v>0.197265</v>
+        <v>0.199101</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218699</v>
+        <v>0.218499</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240717</v>
+        <v>0.240745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.213175</v>
+        <v>0.215833</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217159</v>
+        <v>0.216871</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236926</v>
+        <v>0.237137</v>
       </c>
       <c r="C139" t="n">
-        <v>0.211668</v>
+        <v>0.214259</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215678</v>
+        <v>0.215305</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232438</v>
+        <v>0.232586</v>
       </c>
       <c r="C140" t="n">
-        <v>0.210559</v>
+        <v>0.21272</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214279</v>
+        <v>0.213746</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227427</v>
+        <v>0.227653</v>
       </c>
       <c r="C141" t="n">
-        <v>0.209759</v>
+        <v>0.211335</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212971</v>
+        <v>0.212148</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222167</v>
+        <v>0.22223</v>
       </c>
       <c r="C142" t="n">
-        <v>0.20853</v>
+        <v>0.209912</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211667</v>
+        <v>0.210758</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216769</v>
+        <v>0.216755</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207468</v>
+        <v>0.208559</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210375</v>
+        <v>0.209647</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207558</v>
+        <v>0.203999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193751</v>
+        <v>0.18948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19582</v>
+        <v>0.195807</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194411</v>
+        <v>0.194201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194677</v>
+        <v>0.189661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196344</v>
+        <v>0.195001</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.190924</v>
+        <v>0.188339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193515</v>
+        <v>0.189238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196264</v>
+        <v>0.195207</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182534</v>
+        <v>0.182109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19333</v>
+        <v>0.188331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195341</v>
+        <v>0.194926</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17722</v>
+        <v>0.177426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19345</v>
+        <v>0.188877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196189</v>
+        <v>0.195567</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170618</v>
+        <v>0.171419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192401</v>
+        <v>0.188023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194927</v>
+        <v>0.194842</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1634</v>
+        <v>0.162387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191472</v>
+        <v>0.187434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195157</v>
+        <v>0.193813</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152633</v>
+        <v>0.15238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191758</v>
+        <v>0.187668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212145</v>
+        <v>0.211278</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236615</v>
+        <v>0.237083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21124</v>
+        <v>0.205057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.211209</v>
+        <v>0.210965</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234366</v>
+        <v>0.232445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211239</v>
+        <v>0.204535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.211509</v>
+        <v>0.210637</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227134</v>
+        <v>0.226573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.209613</v>
+        <v>0.203034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209436</v>
+        <v>0.20977</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221713</v>
+        <v>0.221435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.208242</v>
+        <v>0.201714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208439</v>
+        <v>0.208688</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215692</v>
+        <v>0.216952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206463</v>
+        <v>0.200534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207227</v>
+        <v>0.207715</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211482</v>
+        <v>0.211535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20509</v>
+        <v>0.199217</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206201</v>
+        <v>0.206684</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206514</v>
+        <v>0.205491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204271</v>
+        <v>0.198771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205193</v>
+        <v>0.205639</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201551</v>
+        <v>0.200861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203058</v>
+        <v>0.197221</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203753</v>
+        <v>0.204651</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19562</v>
+        <v>0.195808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202125</v>
+        <v>0.196748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203483</v>
+        <v>0.203935</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189258</v>
+        <v>0.189434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201077</v>
+        <v>0.195732</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202259</v>
+        <v>0.202917</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183401</v>
+        <v>0.183757</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19923</v>
+        <v>0.193854</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20137</v>
+        <v>0.201545</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.17835</v>
+        <v>0.17831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199225</v>
+        <v>0.193633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200752</v>
+        <v>0.201354</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171466</v>
+        <v>0.171697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198092</v>
+        <v>0.192763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199772</v>
+        <v>0.200192</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163016</v>
+        <v>0.163143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197283</v>
+        <v>0.191985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.215658</v>
+        <v>0.215711</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238428</v>
+        <v>0.239727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214271</v>
+        <v>0.208005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214181</v>
+        <v>0.214034</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234163</v>
+        <v>0.234192</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21275</v>
+        <v>0.206462</v>
       </c>
       <c r="D25" t="n">
-        <v>0.212701</v>
+        <v>0.213565</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230048</v>
+        <v>0.229705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210872</v>
+        <v>0.204734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211191</v>
+        <v>0.211926</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225288</v>
+        <v>0.227246</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209107</v>
+        <v>0.203052</v>
       </c>
       <c r="D27" t="n">
-        <v>0.209869</v>
+        <v>0.210206</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219727</v>
+        <v>0.220152</v>
       </c>
       <c r="C28" t="n">
-        <v>0.207572</v>
+        <v>0.201716</v>
       </c>
       <c r="D28" t="n">
-        <v>0.208361</v>
+        <v>0.207707</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215666</v>
+        <v>0.215149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.206323</v>
+        <v>0.200409</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207088</v>
+        <v>0.206325</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209095</v>
+        <v>0.209268</v>
       </c>
       <c r="C30" t="n">
-        <v>0.20498</v>
+        <v>0.199267</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206017</v>
+        <v>0.206441</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203708</v>
+        <v>0.204343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204049</v>
+        <v>0.19836</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204985</v>
+        <v>0.205376</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198468</v>
+        <v>0.198447</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203299</v>
+        <v>0.197601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204021</v>
+        <v>0.204718</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196216</v>
+        <v>0.19681</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2022</v>
+        <v>0.196669</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203411</v>
+        <v>0.20376</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192009</v>
+        <v>0.192676</v>
       </c>
       <c r="C34" t="n">
-        <v>0.20172</v>
+        <v>0.195913</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20233</v>
+        <v>0.203051</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187016</v>
+        <v>0.186892</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200496</v>
+        <v>0.195062</v>
       </c>
       <c r="D35" t="n">
-        <v>0.201548</v>
+        <v>0.200722</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18083</v>
+        <v>0.180355</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198861</v>
+        <v>0.193605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20049</v>
+        <v>0.19933</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173344</v>
+        <v>0.173265</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197828</v>
+        <v>0.192529</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217068</v>
+        <v>0.217605</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241757</v>
+        <v>0.242242</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215033</v>
+        <v>0.208675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215339</v>
+        <v>0.215828</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238485</v>
+        <v>0.239487</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213306</v>
+        <v>0.206828</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213551</v>
+        <v>0.214036</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234758</v>
+        <v>0.234734</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211812</v>
+        <v>0.205466</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21217</v>
+        <v>0.211726</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229926</v>
+        <v>0.230585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210511</v>
+        <v>0.204093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211063</v>
+        <v>0.210586</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224311</v>
+        <v>0.224563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209148</v>
+        <v>0.202928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.209878</v>
+        <v>0.20915</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220173</v>
+        <v>0.220021</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208035</v>
+        <v>0.201888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208544</v>
+        <v>0.207868</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214483</v>
+        <v>0.21519</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206881</v>
+        <v>0.200744</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207447</v>
+        <v>0.206685</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209522</v>
+        <v>0.209738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205723</v>
+        <v>0.199628</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206441</v>
+        <v>0.205565</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204045</v>
+        <v>0.204327</v>
       </c>
       <c r="C46" t="n">
-        <v>0.204511</v>
+        <v>0.198552</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205177</v>
+        <v>0.204341</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200065</v>
+        <v>0.199668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203474</v>
+        <v>0.197788</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20457</v>
+        <v>0.203556</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19439</v>
+        <v>0.194804</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202451</v>
+        <v>0.196787</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203212</v>
+        <v>0.20226</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188725</v>
+        <v>0.189036</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201036</v>
+        <v>0.195721</v>
       </c>
       <c r="D49" t="n">
-        <v>0.202019</v>
+        <v>0.20253</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182931</v>
+        <v>0.183729</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200305</v>
+        <v>0.194861</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201231</v>
+        <v>0.201931</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175834</v>
+        <v>0.175878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199387</v>
+        <v>0.193966</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218351</v>
+        <v>0.219012</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168156</v>
+        <v>0.167961</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198296</v>
+        <v>0.192733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217001</v>
+        <v>0.217214</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240359</v>
+        <v>0.240885</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214628</v>
+        <v>0.208113</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215187</v>
+        <v>0.21559</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236259</v>
+        <v>0.236696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.213172</v>
+        <v>0.206877</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21361</v>
+        <v>0.214055</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231504</v>
+        <v>0.232119</v>
       </c>
       <c r="C55" t="n">
-        <v>0.211842</v>
+        <v>0.205578</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212328</v>
+        <v>0.211602</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227084</v>
+        <v>0.227248</v>
       </c>
       <c r="C56" t="n">
-        <v>0.210084</v>
+        <v>0.203964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210751</v>
+        <v>0.209911</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221555</v>
+        <v>0.221732</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20882</v>
+        <v>0.202709</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209258</v>
+        <v>0.208739</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216827</v>
+        <v>0.216431</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2076</v>
+        <v>0.201632</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208222</v>
+        <v>0.207473</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211558</v>
+        <v>0.211306</v>
       </c>
       <c r="C59" t="n">
-        <v>0.20639</v>
+        <v>0.200501</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207036</v>
+        <v>0.20627</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206795</v>
+        <v>0.206807</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205448</v>
+        <v>0.199602</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206345</v>
+        <v>0.206643</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201846</v>
+        <v>0.201644</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204349</v>
+        <v>0.198728</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205318</v>
+        <v>0.205663</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19616</v>
+        <v>0.196367</v>
       </c>
       <c r="C62" t="n">
-        <v>0.203193</v>
+        <v>0.197499</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204135</v>
+        <v>0.204466</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190498</v>
+        <v>0.191027</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201855</v>
+        <v>0.196265</v>
       </c>
       <c r="D63" t="n">
-        <v>0.202817</v>
+        <v>0.203268</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18482</v>
+        <v>0.184959</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200772</v>
+        <v>0.195326</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201722</v>
+        <v>0.202317</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178911</v>
+        <v>0.17856</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199713</v>
+        <v>0.194409</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201093</v>
+        <v>0.201644</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170542</v>
+        <v>0.1705</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198611</v>
+        <v>0.19342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217768</v>
+        <v>0.217838</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242236</v>
+        <v>0.242389</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215665</v>
+        <v>0.209266</v>
       </c>
       <c r="D67" t="n">
-        <v>0.215905</v>
+        <v>0.215484</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235986</v>
+        <v>0.238566</v>
       </c>
       <c r="C68" t="n">
-        <v>0.214081</v>
+        <v>0.207724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214637</v>
+        <v>0.213725</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231645</v>
+        <v>0.233737</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212314</v>
+        <v>0.206049</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212612</v>
+        <v>0.213203</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22621</v>
+        <v>0.228961</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210936</v>
+        <v>0.204752</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211215</v>
+        <v>0.211791</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221243</v>
+        <v>0.223265</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209383</v>
+        <v>0.203271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209789</v>
+        <v>0.210392</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215704</v>
+        <v>0.218103</v>
       </c>
       <c r="C72" t="n">
-        <v>0.208102</v>
+        <v>0.202106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208582</v>
+        <v>0.209222</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209798</v>
+        <v>0.209796</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206644</v>
+        <v>0.200705</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207358</v>
+        <v>0.207924</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204914</v>
+        <v>0.204344</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205361</v>
+        <v>0.199625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206124</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199276</v>
+        <v>0.198888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204173</v>
+        <v>0.19863</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205064</v>
+        <v>0.205674</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193294</v>
+        <v>0.193408</v>
       </c>
       <c r="C76" t="n">
-        <v>0.20312</v>
+        <v>0.197559</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204154</v>
+        <v>0.2046</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187513</v>
+        <v>0.187567</v>
       </c>
       <c r="C77" t="n">
-        <v>0.202097</v>
+        <v>0.196764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203097</v>
+        <v>0.203606</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181481</v>
+        <v>0.181281</v>
       </c>
       <c r="C78" t="n">
-        <v>0.201079</v>
+        <v>0.195695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202077</v>
+        <v>0.202698</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174741</v>
+        <v>0.174701</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199954</v>
+        <v>0.194653</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201243</v>
+        <v>0.201791</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166525</v>
+        <v>0.169855</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1989</v>
+        <v>0.193634</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218141</v>
+        <v>0.218535</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243305</v>
+        <v>0.243162</v>
       </c>
       <c r="C81" t="n">
-        <v>0.216248</v>
+        <v>0.210003</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216709</v>
+        <v>0.216948</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239259</v>
+        <v>0.239425</v>
       </c>
       <c r="C82" t="n">
-        <v>0.214747</v>
+        <v>0.208689</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215353</v>
+        <v>0.215492</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234509</v>
+        <v>0.235019</v>
       </c>
       <c r="C83" t="n">
-        <v>0.213027</v>
+        <v>0.206974</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213653</v>
+        <v>0.213811</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.229828</v>
+        <v>0.228301</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211586</v>
+        <v>0.205607</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212272</v>
+        <v>0.212535</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222403</v>
+        <v>0.222609</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210232</v>
+        <v>0.20461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.210941</v>
+        <v>0.209981</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217096</v>
+        <v>0.217086</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208947</v>
+        <v>0.203209</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209706</v>
+        <v>0.208604</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211735</v>
+        <v>0.211595</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207635</v>
+        <v>0.201996</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208192</v>
+        <v>0.207195</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206175</v>
+        <v>0.206194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.206401</v>
+        <v>0.200872</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207119</v>
+        <v>0.205945</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200829</v>
+        <v>0.200317</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204986</v>
+        <v>0.199552</v>
       </c>
       <c r="D89" t="n">
-        <v>0.205848</v>
+        <v>0.204662</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194911</v>
+        <v>0.194794</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203838</v>
+        <v>0.198549</v>
       </c>
       <c r="D90" t="n">
-        <v>0.204901</v>
+        <v>0.203572</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189218</v>
+        <v>0.189046</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202659</v>
+        <v>0.197328</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203601</v>
+        <v>0.20233</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182961</v>
+        <v>0.183408</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201632</v>
+        <v>0.196321</v>
       </c>
       <c r="D92" t="n">
-        <v>0.202515</v>
+        <v>0.201438</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176161</v>
+        <v>0.176392</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200392</v>
+        <v>0.194926</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201517</v>
+        <v>0.200389</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168767</v>
+        <v>0.168272</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199138</v>
+        <v>0.193917</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21892</v>
+        <v>0.218113</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244079</v>
+        <v>0.24386</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216683</v>
+        <v>0.213375</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217556</v>
+        <v>0.216279</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238664</v>
+        <v>0.240397</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215051</v>
+        <v>0.21132</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215664</v>
+        <v>0.214808</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234387</v>
+        <v>0.236109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.213597</v>
+        <v>0.209976</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21422</v>
+        <v>0.214477</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229684</v>
+        <v>0.231788</v>
       </c>
       <c r="C98" t="n">
-        <v>0.211972</v>
+        <v>0.207944</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212777</v>
+        <v>0.212952</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224586</v>
+        <v>0.226649</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210723</v>
+        <v>0.206427</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211433</v>
+        <v>0.21153</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219171</v>
+        <v>0.221343</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209416</v>
+        <v>0.204969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.209881</v>
+        <v>0.210303</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213429</v>
+        <v>0.215995</v>
       </c>
       <c r="C101" t="n">
-        <v>0.208222</v>
+        <v>0.203262</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208424</v>
+        <v>0.208857</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207838</v>
+        <v>0.210655</v>
       </c>
       <c r="C102" t="n">
-        <v>0.20704</v>
+        <v>0.202617</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207352</v>
+        <v>0.207721</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202124</v>
+        <v>0.205469</v>
       </c>
       <c r="C103" t="n">
-        <v>0.205802</v>
+        <v>0.200891</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206193</v>
+        <v>0.204951</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.19658</v>
+        <v>0.200253</v>
       </c>
       <c r="C104" t="n">
-        <v>0.204492</v>
+        <v>0.199409</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204939</v>
+        <v>0.203794</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190798</v>
+        <v>0.190946</v>
       </c>
       <c r="C105" t="n">
-        <v>0.203354</v>
+        <v>0.198699</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20375</v>
+        <v>0.202742</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.185</v>
+        <v>0.184809</v>
       </c>
       <c r="C106" t="n">
-        <v>0.202211</v>
+        <v>0.197462</v>
       </c>
       <c r="D106" t="n">
-        <v>0.202785</v>
+        <v>0.201849</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178387</v>
+        <v>0.178107</v>
       </c>
       <c r="C107" t="n">
-        <v>0.201141</v>
+        <v>0.196308</v>
       </c>
       <c r="D107" t="n">
-        <v>0.201894</v>
+        <v>0.200741</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170956</v>
+        <v>0.170516</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199983</v>
+        <v>0.195086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219575</v>
+        <v>0.21991</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161515</v>
+        <v>0.161326</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198666</v>
+        <v>0.1935</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217609</v>
+        <v>0.218004</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239227</v>
+        <v>0.239957</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214968</v>
+        <v>0.210154</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216127</v>
+        <v>0.215326</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23535</v>
+        <v>0.235246</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21338</v>
+        <v>0.208875</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214725</v>
+        <v>0.213758</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230383</v>
+        <v>0.230589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211894</v>
+        <v>0.207807</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213653</v>
+        <v>0.21388</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225286</v>
+        <v>0.225818</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210558</v>
+        <v>0.207184</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212029</v>
+        <v>0.211209</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219824</v>
+        <v>0.219758</v>
       </c>
       <c r="C114" t="n">
-        <v>0.20909</v>
+        <v>0.205334</v>
       </c>
       <c r="D114" t="n">
-        <v>0.210685</v>
+        <v>0.209688</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214264</v>
+        <v>0.214203</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207825</v>
+        <v>0.204287</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209224</v>
+        <v>0.20832</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208733</v>
+        <v>0.20878</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206661</v>
+        <v>0.20209</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207788</v>
+        <v>0.207047</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.202928</v>
+        <v>0.20312</v>
       </c>
       <c r="C117" t="n">
-        <v>0.205538</v>
+        <v>0.200258</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206803</v>
+        <v>0.205692</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197244</v>
+        <v>0.197322</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204389</v>
+        <v>0.199364</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205379</v>
+        <v>0.204623</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191802</v>
+        <v>0.191716</v>
       </c>
       <c r="C119" t="n">
-        <v>0.203411</v>
+        <v>0.198764</v>
       </c>
       <c r="D119" t="n">
-        <v>0.203996</v>
+        <v>0.203262</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185645</v>
+        <v>0.185775</v>
       </c>
       <c r="C120" t="n">
-        <v>0.202285</v>
+        <v>0.198466</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203352</v>
+        <v>0.202245</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.179364</v>
+        <v>0.17926</v>
       </c>
       <c r="C121" t="n">
-        <v>0.201229</v>
+        <v>0.195807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202142</v>
+        <v>0.201342</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171942</v>
+        <v>0.172045</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200082</v>
+        <v>0.19545</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201359</v>
+        <v>0.200301</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162812</v>
+        <v>0.162868</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19879</v>
+        <v>0.194826</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218331</v>
+        <v>0.217212</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240041</v>
+        <v>0.240192</v>
       </c>
       <c r="C124" t="n">
-        <v>0.215456</v>
+        <v>0.210537</v>
       </c>
       <c r="D124" t="n">
-        <v>0.216534</v>
+        <v>0.215614</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236316</v>
+        <v>0.236424</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213817</v>
+        <v>0.209341</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214997</v>
+        <v>0.214048</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231481</v>
+        <v>0.231533</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212353</v>
+        <v>0.208453</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213643</v>
+        <v>0.213774</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226406</v>
+        <v>0.226457</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210843</v>
+        <v>0.20726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212096</v>
+        <v>0.21119</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221157</v>
+        <v>0.221191</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209511</v>
+        <v>0.206186</v>
       </c>
       <c r="D128" t="n">
-        <v>0.210774</v>
+        <v>0.211006</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215416</v>
+        <v>0.215403</v>
       </c>
       <c r="C129" t="n">
-        <v>0.208093</v>
+        <v>0.204767</v>
       </c>
       <c r="D129" t="n">
-        <v>0.209063</v>
+        <v>0.208216</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209752</v>
+        <v>0.210017</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206645</v>
+        <v>0.203258</v>
       </c>
       <c r="D130" t="n">
-        <v>0.207811</v>
+        <v>0.208301</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20454</v>
+        <v>0.20455</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205646</v>
+        <v>0.202662</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206654</v>
+        <v>0.20567</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198718</v>
+        <v>0.198952</v>
       </c>
       <c r="C132" t="n">
-        <v>0.204566</v>
+        <v>0.20137</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205385</v>
+        <v>0.204662</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193078</v>
+        <v>0.193355</v>
       </c>
       <c r="C133" t="n">
-        <v>0.203538</v>
+        <v>0.200264</v>
       </c>
       <c r="D133" t="n">
-        <v>0.204242</v>
+        <v>0.203521</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187208</v>
+        <v>0.187395</v>
       </c>
       <c r="C134" t="n">
-        <v>0.202367</v>
+        <v>0.199007</v>
       </c>
       <c r="D134" t="n">
-        <v>0.203217</v>
+        <v>0.202393</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180915</v>
+        <v>0.181029</v>
       </c>
       <c r="C135" t="n">
-        <v>0.201298</v>
+        <v>0.197795</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20216</v>
+        <v>0.20139</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173676</v>
+        <v>0.173718</v>
       </c>
       <c r="C136" t="n">
-        <v>0.200179</v>
+        <v>0.196416</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201221</v>
+        <v>0.200465</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165135</v>
+        <v>0.165076</v>
       </c>
       <c r="C137" t="n">
-        <v>0.199101</v>
+        <v>0.195228</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218499</v>
+        <v>0.217627</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240745</v>
+        <v>0.240879</v>
       </c>
       <c r="C138" t="n">
-        <v>0.215833</v>
+        <v>0.211073</v>
       </c>
       <c r="D138" t="n">
-        <v>0.216871</v>
+        <v>0.216027</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237137</v>
+        <v>0.237075</v>
       </c>
       <c r="C139" t="n">
-        <v>0.214259</v>
+        <v>0.209857</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215305</v>
+        <v>0.21439</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232586</v>
+        <v>0.232547</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21272</v>
+        <v>0.208613</v>
       </c>
       <c r="D140" t="n">
-        <v>0.213746</v>
+        <v>0.212873</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227653</v>
+        <v>0.227634</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211335</v>
+        <v>0.207349</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212148</v>
+        <v>0.212499</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22223</v>
+        <v>0.222351</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209912</v>
+        <v>0.206922</v>
       </c>
       <c r="D142" t="n">
-        <v>0.210758</v>
+        <v>0.211301</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216755</v>
+        <v>0.216861</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208559</v>
+        <v>0.205667</v>
       </c>
       <c r="D143" t="n">
-        <v>0.209647</v>
+        <v>0.210064</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203999</v>
+        <v>0.202738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18948</v>
+        <v>0.188639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195807</v>
+        <v>0.195526</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194201</v>
+        <v>0.196466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189661</v>
+        <v>0.18791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195001</v>
+        <v>0.195574</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188339</v>
+        <v>0.191653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189238</v>
+        <v>0.188265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195207</v>
+        <v>0.19496</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182109</v>
+        <v>0.185572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188331</v>
+        <v>0.188074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194926</v>
+        <v>0.194054</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177426</v>
+        <v>0.180869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188877</v>
+        <v>0.187546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.195567</v>
+        <v>0.193234</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171419</v>
+        <v>0.17604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188023</v>
+        <v>0.187092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194842</v>
+        <v>0.193325</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162387</v>
+        <v>0.16925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187434</v>
+        <v>0.187589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193813</v>
+        <v>0.193152</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15238</v>
+        <v>0.160316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187668</v>
+        <v>0.187746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.211278</v>
+        <v>0.212534</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237083</v>
+        <v>0.236959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205057</v>
+        <v>0.205407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.210965</v>
+        <v>0.211392</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232445</v>
+        <v>0.233923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204535</v>
+        <v>0.203882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210637</v>
+        <v>0.210496</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226573</v>
+        <v>0.229781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203034</v>
+        <v>0.203769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20977</v>
+        <v>0.209507</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221435</v>
+        <v>0.225684</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201714</v>
+        <v>0.202694</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208688</v>
+        <v>0.209356</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.216952</v>
+        <v>0.219879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.200534</v>
+        <v>0.201215</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207715</v>
+        <v>0.207446</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211535</v>
+        <v>0.214922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199217</v>
+        <v>0.200378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206684</v>
+        <v>0.207372</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.205491</v>
+        <v>0.21073</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198771</v>
+        <v>0.199087</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205639</v>
+        <v>0.206228</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200861</v>
+        <v>0.204717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.197221</v>
+        <v>0.198076</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204651</v>
+        <v>0.205076</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.195808</v>
+        <v>0.200357</v>
       </c>
       <c r="C18" t="n">
-        <v>0.196748</v>
+        <v>0.196886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203935</v>
+        <v>0.203819</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.189434</v>
+        <v>0.195879</v>
       </c>
       <c r="C19" t="n">
-        <v>0.195732</v>
+        <v>0.196155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202917</v>
+        <v>0.203295</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183757</v>
+        <v>0.18918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193854</v>
+        <v>0.195361</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201545</v>
+        <v>0.202465</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.17831</v>
+        <v>0.183193</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193633</v>
+        <v>0.194286</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201354</v>
+        <v>0.201457</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171697</v>
+        <v>0.171316</v>
       </c>
       <c r="C22" t="n">
-        <v>0.192763</v>
+        <v>0.193414</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200192</v>
+        <v>0.200623</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163143</v>
+        <v>0.164797</v>
       </c>
       <c r="C23" t="n">
-        <v>0.191985</v>
+        <v>0.19205</v>
       </c>
       <c r="D23" t="n">
-        <v>0.215711</v>
+        <v>0.216492</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239727</v>
+        <v>0.240718</v>
       </c>
       <c r="C24" t="n">
-        <v>0.208005</v>
+        <v>0.207732</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214034</v>
+        <v>0.215041</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234192</v>
+        <v>0.23615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206462</v>
+        <v>0.206134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213565</v>
+        <v>0.213203</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229705</v>
+        <v>0.230655</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204734</v>
+        <v>0.204552</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211926</v>
+        <v>0.211512</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227246</v>
+        <v>0.226233</v>
       </c>
       <c r="C27" t="n">
-        <v>0.203052</v>
+        <v>0.203677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210206</v>
+        <v>0.210616</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220152</v>
+        <v>0.220876</v>
       </c>
       <c r="C28" t="n">
-        <v>0.201716</v>
+        <v>0.202269</v>
       </c>
       <c r="D28" t="n">
-        <v>0.207707</v>
+        <v>0.208946</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215149</v>
+        <v>0.215504</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200409</v>
+        <v>0.200521</v>
       </c>
       <c r="D29" t="n">
-        <v>0.206325</v>
+        <v>0.206809</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209268</v>
+        <v>0.209306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.199267</v>
+        <v>0.199251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206441</v>
+        <v>0.205424</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204343</v>
+        <v>0.204084</v>
       </c>
       <c r="C31" t="n">
-        <v>0.19836</v>
+        <v>0.198135</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205376</v>
+        <v>0.204348</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198447</v>
+        <v>0.198585</v>
       </c>
       <c r="C32" t="n">
-        <v>0.197601</v>
+        <v>0.197718</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204718</v>
+        <v>0.203793</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19681</v>
+        <v>0.193293</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196669</v>
+        <v>0.196651</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20376</v>
+        <v>0.204095</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192676</v>
+        <v>0.188521</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195913</v>
+        <v>0.195626</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203051</v>
+        <v>0.202984</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186892</v>
+        <v>0.182226</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195062</v>
+        <v>0.194785</v>
       </c>
       <c r="D35" t="n">
-        <v>0.200722</v>
+        <v>0.202233</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180355</v>
+        <v>0.176043</v>
       </c>
       <c r="C36" t="n">
-        <v>0.193605</v>
+        <v>0.193813</v>
       </c>
       <c r="D36" t="n">
-        <v>0.19933</v>
+        <v>0.199622</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173265</v>
+        <v>0.167358</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192529</v>
+        <v>0.192726</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217605</v>
+        <v>0.217569</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242242</v>
+        <v>0.241303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208675</v>
+        <v>0.209054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215828</v>
+        <v>0.216095</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239487</v>
+        <v>0.236286</v>
       </c>
       <c r="C39" t="n">
-        <v>0.206828</v>
+        <v>0.207056</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214036</v>
+        <v>0.21458</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234734</v>
+        <v>0.232319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.205466</v>
+        <v>0.205576</v>
       </c>
       <c r="D40" t="n">
-        <v>0.211726</v>
+        <v>0.213104</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230585</v>
+        <v>0.227698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.204093</v>
+        <v>0.204028</v>
       </c>
       <c r="D41" t="n">
-        <v>0.210586</v>
+        <v>0.211482</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224563</v>
+        <v>0.222083</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202928</v>
+        <v>0.202539</v>
       </c>
       <c r="D42" t="n">
-        <v>0.20915</v>
+        <v>0.209767</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220021</v>
+        <v>0.217076</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201888</v>
+        <v>0.201092</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207868</v>
+        <v>0.208544</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21519</v>
+        <v>0.212035</v>
       </c>
       <c r="C44" t="n">
-        <v>0.200744</v>
+        <v>0.200488</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206685</v>
+        <v>0.207761</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209738</v>
+        <v>0.2069</v>
       </c>
       <c r="C45" t="n">
-        <v>0.199628</v>
+        <v>0.199534</v>
       </c>
       <c r="D45" t="n">
-        <v>0.205565</v>
+        <v>0.206834</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204327</v>
+        <v>0.200575</v>
       </c>
       <c r="C46" t="n">
-        <v>0.198552</v>
+        <v>0.198366</v>
       </c>
       <c r="D46" t="n">
-        <v>0.204341</v>
+        <v>0.205519</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199668</v>
+        <v>0.195726</v>
       </c>
       <c r="C47" t="n">
-        <v>0.197788</v>
+        <v>0.197231</v>
       </c>
       <c r="D47" t="n">
-        <v>0.203556</v>
+        <v>0.204429</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194804</v>
+        <v>0.189692</v>
       </c>
       <c r="C48" t="n">
-        <v>0.196787</v>
+        <v>0.19615</v>
       </c>
       <c r="D48" t="n">
-        <v>0.20226</v>
+        <v>0.203492</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189036</v>
+        <v>0.183867</v>
       </c>
       <c r="C49" t="n">
-        <v>0.195721</v>
+        <v>0.195114</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20253</v>
+        <v>0.20088</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183729</v>
+        <v>0.182833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194861</v>
+        <v>0.194229</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201931</v>
+        <v>0.200083</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175878</v>
+        <v>0.175729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193966</v>
+        <v>0.193423</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219012</v>
+        <v>0.218728</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167961</v>
+        <v>0.166552</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192733</v>
+        <v>0.192525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217214</v>
+        <v>0.216949</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240885</v>
+        <v>0.24106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.208113</v>
+        <v>0.20854</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21559</v>
+        <v>0.215821</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236696</v>
+        <v>0.237021</v>
       </c>
       <c r="C54" t="n">
-        <v>0.206877</v>
+        <v>0.206905</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214055</v>
+        <v>0.214281</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232119</v>
+        <v>0.230451</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205578</v>
+        <v>0.205471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211602</v>
+        <v>0.212813</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227248</v>
+        <v>0.225385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.203964</v>
+        <v>0.204044</v>
       </c>
       <c r="D56" t="n">
-        <v>0.209911</v>
+        <v>0.210246</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221732</v>
+        <v>0.220265</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202709</v>
+        <v>0.202786</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208739</v>
+        <v>0.20992</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216431</v>
+        <v>0.214195</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201632</v>
+        <v>0.201179</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207473</v>
+        <v>0.207365</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211306</v>
+        <v>0.208541</v>
       </c>
       <c r="C59" t="n">
-        <v>0.200501</v>
+        <v>0.199959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20627</v>
+        <v>0.207351</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206807</v>
+        <v>0.202947</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199602</v>
+        <v>0.198924</v>
       </c>
       <c r="D60" t="n">
-        <v>0.206643</v>
+        <v>0.205066</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201644</v>
+        <v>0.198106</v>
       </c>
       <c r="C61" t="n">
-        <v>0.198728</v>
+        <v>0.197988</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205663</v>
+        <v>0.204052</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196367</v>
+        <v>0.192453</v>
       </c>
       <c r="C62" t="n">
-        <v>0.197499</v>
+        <v>0.197088</v>
       </c>
       <c r="D62" t="n">
-        <v>0.204466</v>
+        <v>0.203017</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191027</v>
+        <v>0.186298</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196265</v>
+        <v>0.195875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203268</v>
+        <v>0.203453</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184959</v>
+        <v>0.180169</v>
       </c>
       <c r="C64" t="n">
-        <v>0.195326</v>
+        <v>0.195045</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202317</v>
+        <v>0.201195</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17856</v>
+        <v>0.17283</v>
       </c>
       <c r="C65" t="n">
-        <v>0.194409</v>
+        <v>0.19428</v>
       </c>
       <c r="D65" t="n">
-        <v>0.201644</v>
+        <v>0.200301</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1705</v>
+        <v>0.164052</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19342</v>
+        <v>0.193172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217838</v>
+        <v>0.216987</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242389</v>
+        <v>0.240495</v>
       </c>
       <c r="C67" t="n">
-        <v>0.209266</v>
+        <v>0.209259</v>
       </c>
       <c r="D67" t="n">
-        <v>0.215484</v>
+        <v>0.215605</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238566</v>
+        <v>0.236094</v>
       </c>
       <c r="C68" t="n">
-        <v>0.207724</v>
+        <v>0.207715</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213725</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233737</v>
+        <v>0.231417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.206049</v>
+        <v>0.206195</v>
       </c>
       <c r="D69" t="n">
-        <v>0.213203</v>
+        <v>0.212128</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228961</v>
+        <v>0.22645</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204752</v>
+        <v>0.204785</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211791</v>
+        <v>0.210656</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223265</v>
+        <v>0.22153</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203271</v>
+        <v>0.203633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210392</v>
+        <v>0.209474</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218103</v>
+        <v>0.215386</v>
       </c>
       <c r="C72" t="n">
-        <v>0.202106</v>
+        <v>0.202431</v>
       </c>
       <c r="D72" t="n">
-        <v>0.209222</v>
+        <v>0.208101</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209796</v>
+        <v>0.209916</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200705</v>
+        <v>0.20121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207924</v>
+        <v>0.206773</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204344</v>
+        <v>0.204861</v>
       </c>
       <c r="C74" t="n">
-        <v>0.199625</v>
+        <v>0.199965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2067</v>
+        <v>0.205697</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.198888</v>
+        <v>0.199097</v>
       </c>
       <c r="C75" t="n">
-        <v>0.19863</v>
+        <v>0.198805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205674</v>
+        <v>0.204544</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193408</v>
+        <v>0.193879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.197559</v>
+        <v>0.197676</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2046</v>
+        <v>0.20348</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187567</v>
+        <v>0.188325</v>
       </c>
       <c r="C77" t="n">
-        <v>0.196764</v>
+        <v>0.196562</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203606</v>
+        <v>0.202531</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181281</v>
+        <v>0.182043</v>
       </c>
       <c r="C78" t="n">
-        <v>0.195695</v>
+        <v>0.195582</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202698</v>
+        <v>0.201383</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174701</v>
+        <v>0.175249</v>
       </c>
       <c r="C79" t="n">
-        <v>0.194653</v>
+        <v>0.194492</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201791</v>
+        <v>0.20031</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169855</v>
+        <v>0.166877</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193634</v>
+        <v>0.193563</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218535</v>
+        <v>0.218683</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243162</v>
+        <v>0.240876</v>
       </c>
       <c r="C81" t="n">
-        <v>0.210003</v>
+        <v>0.210238</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216948</v>
+        <v>0.217232</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239425</v>
+        <v>0.237169</v>
       </c>
       <c r="C82" t="n">
-        <v>0.208689</v>
+        <v>0.208519</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215492</v>
+        <v>0.215543</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235019</v>
+        <v>0.23274</v>
       </c>
       <c r="C83" t="n">
-        <v>0.206974</v>
+        <v>0.206952</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213811</v>
+        <v>0.214039</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228301</v>
+        <v>0.227914</v>
       </c>
       <c r="C84" t="n">
-        <v>0.205607</v>
+        <v>0.205752</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212535</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222609</v>
+        <v>0.222481</v>
       </c>
       <c r="C85" t="n">
-        <v>0.20461</v>
+        <v>0.204689</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209981</v>
+        <v>0.21142</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217086</v>
+        <v>0.217056</v>
       </c>
       <c r="C86" t="n">
-        <v>0.203209</v>
+        <v>0.203309</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208604</v>
+        <v>0.209941</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211595</v>
+        <v>0.211732</v>
       </c>
       <c r="C87" t="n">
-        <v>0.201996</v>
+        <v>0.202331</v>
       </c>
       <c r="D87" t="n">
-        <v>0.207195</v>
+        <v>0.208782</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206194</v>
+        <v>0.205809</v>
       </c>
       <c r="C88" t="n">
-        <v>0.200872</v>
+        <v>0.20083</v>
       </c>
       <c r="D88" t="n">
-        <v>0.205945</v>
+        <v>0.207502</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200317</v>
+        <v>0.200337</v>
       </c>
       <c r="C89" t="n">
-        <v>0.199552</v>
+        <v>0.199812</v>
       </c>
       <c r="D89" t="n">
-        <v>0.204662</v>
+        <v>0.206414</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194794</v>
+        <v>0.195051</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198549</v>
+        <v>0.198576</v>
       </c>
       <c r="D90" t="n">
-        <v>0.203572</v>
+        <v>0.205431</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189046</v>
+        <v>0.188771</v>
       </c>
       <c r="C91" t="n">
-        <v>0.197328</v>
+        <v>0.197408</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20233</v>
+        <v>0.20421</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183408</v>
+        <v>0.183124</v>
       </c>
       <c r="C92" t="n">
-        <v>0.196321</v>
+        <v>0.196111</v>
       </c>
       <c r="D92" t="n">
-        <v>0.201438</v>
+        <v>0.203148</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176392</v>
+        <v>0.176004</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194926</v>
+        <v>0.195134</v>
       </c>
       <c r="D93" t="n">
-        <v>0.200389</v>
+        <v>0.202154</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168272</v>
+        <v>0.168066</v>
       </c>
       <c r="C94" t="n">
-        <v>0.193917</v>
+        <v>0.194083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218113</v>
+        <v>0.219367</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24386</v>
+        <v>0.243866</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213375</v>
+        <v>0.213551</v>
       </c>
       <c r="D95" t="n">
-        <v>0.216279</v>
+        <v>0.217715</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240397</v>
+        <v>0.24088</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21132</v>
+        <v>0.211341</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214808</v>
+        <v>0.216346</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236109</v>
+        <v>0.236065</v>
       </c>
       <c r="C97" t="n">
-        <v>0.209976</v>
+        <v>0.210282</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214477</v>
+        <v>0.21481</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231788</v>
+        <v>0.23168</v>
       </c>
       <c r="C98" t="n">
-        <v>0.207944</v>
+        <v>0.207914</v>
       </c>
       <c r="D98" t="n">
-        <v>0.212952</v>
+        <v>0.213376</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226649</v>
+        <v>0.226128</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206427</v>
+        <v>0.206297</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21153</v>
+        <v>0.211814</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.221343</v>
+        <v>0.22068</v>
       </c>
       <c r="C100" t="n">
-        <v>0.204969</v>
+        <v>0.20544</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210303</v>
+        <v>0.210586</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215995</v>
+        <v>0.215543</v>
       </c>
       <c r="C101" t="n">
-        <v>0.203262</v>
+        <v>0.20386</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208857</v>
+        <v>0.209385</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210655</v>
+        <v>0.210037</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202617</v>
+        <v>0.202422</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207721</v>
+        <v>0.208033</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205469</v>
+        <v>0.205087</v>
       </c>
       <c r="C103" t="n">
-        <v>0.200891</v>
+        <v>0.201554</v>
       </c>
       <c r="D103" t="n">
-        <v>0.204951</v>
+        <v>0.207048</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200253</v>
+        <v>0.200014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.199409</v>
+        <v>0.199841</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203794</v>
+        <v>0.204307</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190946</v>
+        <v>0.194459</v>
       </c>
       <c r="C105" t="n">
-        <v>0.198699</v>
+        <v>0.198692</v>
       </c>
       <c r="D105" t="n">
-        <v>0.202742</v>
+        <v>0.203073</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184809</v>
+        <v>0.188992</v>
       </c>
       <c r="C106" t="n">
-        <v>0.197462</v>
+        <v>0.1973</v>
       </c>
       <c r="D106" t="n">
-        <v>0.201849</v>
+        <v>0.201945</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.178107</v>
+        <v>0.183127</v>
       </c>
       <c r="C107" t="n">
-        <v>0.196308</v>
+        <v>0.196114</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200741</v>
+        <v>0.201095</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170516</v>
+        <v>0.176053</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195086</v>
+        <v>0.195051</v>
       </c>
       <c r="D108" t="n">
-        <v>0.21991</v>
+        <v>0.22036</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161326</v>
+        <v>0.167473</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1935</v>
+        <v>0.193903</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218004</v>
+        <v>0.218471</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239957</v>
+        <v>0.241735</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210154</v>
+        <v>0.2105</v>
       </c>
       <c r="D110" t="n">
-        <v>0.215326</v>
+        <v>0.215548</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235246</v>
+        <v>0.237624</v>
       </c>
       <c r="C111" t="n">
-        <v>0.208875</v>
+        <v>0.209579</v>
       </c>
       <c r="D111" t="n">
-        <v>0.213758</v>
+        <v>0.214068</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230589</v>
+        <v>0.232636</v>
       </c>
       <c r="C112" t="n">
-        <v>0.207807</v>
+        <v>0.208764</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21388</v>
+        <v>0.213056</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225818</v>
+        <v>0.227247</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207184</v>
+        <v>0.207587</v>
       </c>
       <c r="D113" t="n">
-        <v>0.211209</v>
+        <v>0.2115</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219758</v>
+        <v>0.221862</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205334</v>
+        <v>0.206327</v>
       </c>
       <c r="D114" t="n">
-        <v>0.209688</v>
+        <v>0.212017</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214203</v>
+        <v>0.216439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.204287</v>
+        <v>0.204925</v>
       </c>
       <c r="D115" t="n">
-        <v>0.20832</v>
+        <v>0.210478</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20878</v>
+        <v>0.211317</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20209</v>
+        <v>0.204005</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207047</v>
+        <v>0.209452</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20312</v>
+        <v>0.206192</v>
       </c>
       <c r="C117" t="n">
-        <v>0.200258</v>
+        <v>0.202518</v>
       </c>
       <c r="D117" t="n">
-        <v>0.205692</v>
+        <v>0.208186</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197322</v>
+        <v>0.200893</v>
       </c>
       <c r="C118" t="n">
-        <v>0.199364</v>
+        <v>0.201725</v>
       </c>
       <c r="D118" t="n">
-        <v>0.204623</v>
+        <v>0.206917</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191716</v>
+        <v>0.195518</v>
       </c>
       <c r="C119" t="n">
-        <v>0.198764</v>
+        <v>0.200203</v>
       </c>
       <c r="D119" t="n">
-        <v>0.203262</v>
+        <v>0.205669</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185775</v>
+        <v>0.19033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.198466</v>
+        <v>0.198885</v>
       </c>
       <c r="D120" t="n">
-        <v>0.202245</v>
+        <v>0.204627</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.17926</v>
+        <v>0.184507</v>
       </c>
       <c r="C121" t="n">
-        <v>0.195807</v>
+        <v>0.197517</v>
       </c>
       <c r="D121" t="n">
-        <v>0.201342</v>
+        <v>0.203557</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.172045</v>
+        <v>0.178062</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19545</v>
+        <v>0.196322</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200301</v>
+        <v>0.202511</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162868</v>
+        <v>0.169688</v>
       </c>
       <c r="C123" t="n">
-        <v>0.194826</v>
+        <v>0.194944</v>
       </c>
       <c r="D123" t="n">
-        <v>0.217212</v>
+        <v>0.217359</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240192</v>
+        <v>0.240173</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210537</v>
+        <v>0.211048</v>
       </c>
       <c r="D124" t="n">
-        <v>0.215614</v>
+        <v>0.215747</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236424</v>
+        <v>0.236094</v>
       </c>
       <c r="C125" t="n">
-        <v>0.209341</v>
+        <v>0.209775</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214048</v>
+        <v>0.214242</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231533</v>
+        <v>0.23144</v>
       </c>
       <c r="C126" t="n">
-        <v>0.208453</v>
+        <v>0.208831</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213774</v>
+        <v>0.212778</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226457</v>
+        <v>0.226479</v>
       </c>
       <c r="C127" t="n">
-        <v>0.20726</v>
+        <v>0.208109</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21119</v>
+        <v>0.211429</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221191</v>
+        <v>0.221056</v>
       </c>
       <c r="C128" t="n">
-        <v>0.206186</v>
+        <v>0.206722</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211006</v>
+        <v>0.210035</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215403</v>
+        <v>0.215642</v>
       </c>
       <c r="C129" t="n">
-        <v>0.204767</v>
+        <v>0.205395</v>
       </c>
       <c r="D129" t="n">
-        <v>0.208216</v>
+        <v>0.210185</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210017</v>
+        <v>0.209984</v>
       </c>
       <c r="C130" t="n">
-        <v>0.203258</v>
+        <v>0.204186</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208301</v>
+        <v>0.208884</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20455</v>
+        <v>0.204132</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202662</v>
+        <v>0.202672</v>
       </c>
       <c r="D131" t="n">
-        <v>0.20567</v>
+        <v>0.206079</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198952</v>
+        <v>0.19874</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20137</v>
+        <v>0.201299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.204662</v>
+        <v>0.204992</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193355</v>
+        <v>0.193185</v>
       </c>
       <c r="C133" t="n">
-        <v>0.200264</v>
+        <v>0.199959</v>
       </c>
       <c r="D133" t="n">
-        <v>0.203521</v>
+        <v>0.205601</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187395</v>
+        <v>0.187513</v>
       </c>
       <c r="C134" t="n">
-        <v>0.199007</v>
+        <v>0.198836</v>
       </c>
       <c r="D134" t="n">
-        <v>0.202393</v>
+        <v>0.204421</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.181029</v>
+        <v>0.181035</v>
       </c>
       <c r="C135" t="n">
-        <v>0.197795</v>
+        <v>0.19782</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20139</v>
+        <v>0.203305</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173718</v>
+        <v>0.173807</v>
       </c>
       <c r="C136" t="n">
-        <v>0.196416</v>
+        <v>0.196422</v>
       </c>
       <c r="D136" t="n">
-        <v>0.200465</v>
+        <v>0.202325</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165076</v>
+        <v>0.165143</v>
       </c>
       <c r="C137" t="n">
-        <v>0.195228</v>
+        <v>0.195256</v>
       </c>
       <c r="D137" t="n">
-        <v>0.217627</v>
+        <v>0.218888</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240879</v>
+        <v>0.241128</v>
       </c>
       <c r="C138" t="n">
-        <v>0.211073</v>
+        <v>0.211011</v>
       </c>
       <c r="D138" t="n">
-        <v>0.216027</v>
+        <v>0.217357</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237075</v>
+        <v>0.237311</v>
       </c>
       <c r="C139" t="n">
-        <v>0.209857</v>
+        <v>0.209915</v>
       </c>
       <c r="D139" t="n">
-        <v>0.21439</v>
+        <v>0.215802</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232547</v>
+        <v>0.232573</v>
       </c>
       <c r="C140" t="n">
-        <v>0.208613</v>
+        <v>0.209196</v>
       </c>
       <c r="D140" t="n">
-        <v>0.212873</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227634</v>
+        <v>0.227722</v>
       </c>
       <c r="C141" t="n">
-        <v>0.207349</v>
+        <v>0.208074</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212499</v>
+        <v>0.213101</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222351</v>
+        <v>0.222411</v>
       </c>
       <c r="C142" t="n">
-        <v>0.206922</v>
+        <v>0.207059</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211301</v>
+        <v>0.211868</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216861</v>
+        <v>0.216953</v>
       </c>
       <c r="C143" t="n">
-        <v>0.205667</v>
+        <v>0.205976</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210064</v>
+        <v>0.208997</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202738</v>
+        <v>0.202983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188639</v>
+        <v>0.188379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195526</v>
+        <v>0.195674</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196466</v>
+        <v>0.196838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18791</v>
+        <v>0.187805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195574</v>
+        <v>0.195518</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191653</v>
+        <v>0.192628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188265</v>
+        <v>0.187925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19496</v>
+        <v>0.195476</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185572</v>
+        <v>0.187041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188074</v>
+        <v>0.187834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194054</v>
+        <v>0.193749</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.180869</v>
+        <v>0.181551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.187546</v>
+        <v>0.18721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193234</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17604</v>
+        <v>0.178655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187092</v>
+        <v>0.187015</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193325</v>
+        <v>0.193574</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16925</v>
+        <v>0.170474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187589</v>
+        <v>0.187349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193152</v>
+        <v>0.193391</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160316</v>
+        <v>0.160998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187746</v>
+        <v>0.187986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212534</v>
+        <v>0.212614</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236959</v>
+        <v>0.235365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205407</v>
+        <v>0.20525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.211392</v>
+        <v>0.21173</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233923</v>
+        <v>0.232033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.203882</v>
+        <v>0.204133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210496</v>
+        <v>0.210838</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229781</v>
+        <v>0.22778</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203769</v>
+        <v>0.203638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209507</v>
+        <v>0.209835</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225684</v>
+        <v>0.224599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202694</v>
+        <v>0.202734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209356</v>
+        <v>0.209878</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219879</v>
+        <v>0.218388</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201215</v>
+        <v>0.201147</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207446</v>
+        <v>0.207811</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214922</v>
+        <v>0.212681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200378</v>
+        <v>0.200453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.207372</v>
+        <v>0.207743</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21073</v>
+        <v>0.207489</v>
       </c>
       <c r="C16" t="n">
-        <v>0.199087</v>
+        <v>0.19919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206228</v>
+        <v>0.206556</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204717</v>
+        <v>0.201655</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198076</v>
+        <v>0.198121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.205076</v>
+        <v>0.205215</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200357</v>
+        <v>0.197888</v>
       </c>
       <c r="C18" t="n">
-        <v>0.196886</v>
+        <v>0.196978</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203819</v>
+        <v>0.204102</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195879</v>
+        <v>0.190436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.196155</v>
+        <v>0.196007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.203295</v>
+        <v>0.203381</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18918</v>
+        <v>0.185534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195361</v>
+        <v>0.19536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202465</v>
+        <v>0.202654</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183193</v>
+        <v>0.178065</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194286</v>
+        <v>0.194422</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201457</v>
+        <v>0.201946</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.171316</v>
+        <v>0.17063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193414</v>
+        <v>0.193401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200623</v>
+        <v>0.200821</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164797</v>
+        <v>0.162534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19205</v>
+        <v>0.191878</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216492</v>
+        <v>0.216482</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240718</v>
+        <v>0.238511</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207732</v>
+        <v>0.207867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215041</v>
+        <v>0.215225</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23615</v>
+        <v>0.234584</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206134</v>
+        <v>0.206195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213203</v>
+        <v>0.213771</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230655</v>
+        <v>0.231408</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204552</v>
+        <v>0.204595</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211512</v>
+        <v>0.211851</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226233</v>
+        <v>0.226845</v>
       </c>
       <c r="C27" t="n">
-        <v>0.203677</v>
+        <v>0.20381</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210616</v>
+        <v>0.211076</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220876</v>
+        <v>0.221079</v>
       </c>
       <c r="C28" t="n">
-        <v>0.202269</v>
+        <v>0.202504</v>
       </c>
       <c r="D28" t="n">
-        <v>0.208946</v>
+        <v>0.209121</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215504</v>
+        <v>0.214879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200521</v>
+        <v>0.200652</v>
       </c>
       <c r="D29" t="n">
-        <v>0.206809</v>
+        <v>0.207298</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.209306</v>
+        <v>0.210656</v>
       </c>
       <c r="C30" t="n">
-        <v>0.199251</v>
+        <v>0.199448</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205424</v>
+        <v>0.205767</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204084</v>
+        <v>0.204193</v>
       </c>
       <c r="C31" t="n">
-        <v>0.198135</v>
+        <v>0.198388</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204348</v>
+        <v>0.204535</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198585</v>
+        <v>0.198638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.197718</v>
+        <v>0.197815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203793</v>
+        <v>0.203951</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193293</v>
+        <v>0.193283</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196651</v>
+        <v>0.196836</v>
       </c>
       <c r="D33" t="n">
-        <v>0.204095</v>
+        <v>0.204239</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.188521</v>
+        <v>0.187901</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195626</v>
+        <v>0.195911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202984</v>
+        <v>0.203135</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.182226</v>
+        <v>0.182894</v>
       </c>
       <c r="C35" t="n">
-        <v>0.194785</v>
+        <v>0.19496</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202233</v>
+        <v>0.202434</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.176043</v>
+        <v>0.175422</v>
       </c>
       <c r="C36" t="n">
-        <v>0.193813</v>
+        <v>0.193852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199622</v>
+        <v>0.199798</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167358</v>
+        <v>0.167107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192726</v>
+        <v>0.193073</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217569</v>
+        <v>0.217584</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241303</v>
+        <v>0.24199</v>
       </c>
       <c r="C38" t="n">
-        <v>0.209054</v>
+        <v>0.209241</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216095</v>
+        <v>0.216352</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236286</v>
+        <v>0.237465</v>
       </c>
       <c r="C39" t="n">
-        <v>0.207056</v>
+        <v>0.207517</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21458</v>
+        <v>0.214704</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232319</v>
+        <v>0.232841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.205576</v>
+        <v>0.20581</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213104</v>
+        <v>0.21334</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227698</v>
+        <v>0.22797</v>
       </c>
       <c r="C41" t="n">
-        <v>0.204028</v>
+        <v>0.204213</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211482</v>
+        <v>0.211746</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222083</v>
+        <v>0.222354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202539</v>
+        <v>0.20271</v>
       </c>
       <c r="D42" t="n">
-        <v>0.209767</v>
+        <v>0.210085</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.217076</v>
+        <v>0.216667</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201092</v>
+        <v>0.201151</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208544</v>
+        <v>0.208856</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212035</v>
+        <v>0.212075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.200488</v>
+        <v>0.200678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207761</v>
+        <v>0.207883</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2069</v>
+        <v>0.206753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.199534</v>
+        <v>0.199659</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206834</v>
+        <v>0.207031</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.200575</v>
+        <v>0.200804</v>
       </c>
       <c r="C46" t="n">
-        <v>0.198366</v>
+        <v>0.198448</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205519</v>
+        <v>0.205781</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.195726</v>
+        <v>0.195426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.197231</v>
+        <v>0.197322</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204429</v>
+        <v>0.204653</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.189692</v>
+        <v>0.189621</v>
       </c>
       <c r="C48" t="n">
-        <v>0.19615</v>
+        <v>0.196217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203492</v>
+        <v>0.203665</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183867</v>
+        <v>0.183896</v>
       </c>
       <c r="C49" t="n">
-        <v>0.195114</v>
+        <v>0.195296</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20088</v>
+        <v>0.201112</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182833</v>
+        <v>0.183387</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194229</v>
+        <v>0.194482</v>
       </c>
       <c r="D50" t="n">
-        <v>0.200083</v>
+        <v>0.200258</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175729</v>
+        <v>0.176211</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193423</v>
+        <v>0.193553</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218728</v>
+        <v>0.218867</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166552</v>
+        <v>0.16731</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192525</v>
+        <v>0.192702</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216949</v>
+        <v>0.217108</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24106</v>
+        <v>0.241013</v>
       </c>
       <c r="C53" t="n">
-        <v>0.20854</v>
+        <v>0.2087</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215821</v>
+        <v>0.216031</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237021</v>
+        <v>0.237413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.206905</v>
+        <v>0.207088</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214281</v>
+        <v>0.214448</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230451</v>
+        <v>0.230865</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205471</v>
+        <v>0.205742</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212813</v>
+        <v>0.213045</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225385</v>
+        <v>0.224894</v>
       </c>
       <c r="C56" t="n">
-        <v>0.204044</v>
+        <v>0.204137</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210246</v>
+        <v>0.21068</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220265</v>
+        <v>0.220437</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202786</v>
+        <v>0.202969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20992</v>
+        <v>0.210232</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214195</v>
+        <v>0.213646</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201179</v>
+        <v>0.201396</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207365</v>
+        <v>0.207748</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208541</v>
+        <v>0.208516</v>
       </c>
       <c r="C59" t="n">
-        <v>0.199959</v>
+        <v>0.200168</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207351</v>
+        <v>0.207523</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202947</v>
+        <v>0.202998</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198924</v>
+        <v>0.199095</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205066</v>
+        <v>0.205365</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198106</v>
+        <v>0.197917</v>
       </c>
       <c r="C61" t="n">
-        <v>0.197988</v>
+        <v>0.198067</v>
       </c>
       <c r="D61" t="n">
-        <v>0.204052</v>
+        <v>0.204308</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192453</v>
+        <v>0.192584</v>
       </c>
       <c r="C62" t="n">
-        <v>0.197088</v>
+        <v>0.197221</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203017</v>
+        <v>0.203392</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186298</v>
+        <v>0.186503</v>
       </c>
       <c r="C63" t="n">
-        <v>0.195875</v>
+        <v>0.196144</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203453</v>
+        <v>0.203578</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180169</v>
+        <v>0.179885</v>
       </c>
       <c r="C64" t="n">
-        <v>0.195045</v>
+        <v>0.195333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201195</v>
+        <v>0.202782</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17283</v>
+        <v>0.172879</v>
       </c>
       <c r="C65" t="n">
-        <v>0.19428</v>
+        <v>0.194369</v>
       </c>
       <c r="D65" t="n">
-        <v>0.200301</v>
+        <v>0.200486</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164052</v>
+        <v>0.163865</v>
       </c>
       <c r="C66" t="n">
-        <v>0.193172</v>
+        <v>0.193416</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216987</v>
+        <v>0.217275</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240495</v>
+        <v>0.24062</v>
       </c>
       <c r="C67" t="n">
-        <v>0.209259</v>
+        <v>0.209358</v>
       </c>
       <c r="D67" t="n">
-        <v>0.215605</v>
+        <v>0.215832</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236094</v>
+        <v>0.236098</v>
       </c>
       <c r="C68" t="n">
-        <v>0.207715</v>
+        <v>0.20782</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2138</v>
+        <v>0.214349</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231417</v>
+        <v>0.231345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.206195</v>
+        <v>0.206343</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212128</v>
+        <v>0.212686</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22645</v>
+        <v>0.226512</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204785</v>
+        <v>0.204858</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210656</v>
+        <v>0.210978</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22153</v>
+        <v>0.220816</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203633</v>
+        <v>0.203652</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209474</v>
+        <v>0.209723</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215386</v>
+        <v>0.21552</v>
       </c>
       <c r="C72" t="n">
-        <v>0.202431</v>
+        <v>0.202507</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208101</v>
+        <v>0.208292</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209916</v>
+        <v>0.209795</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20121</v>
+        <v>0.201199</v>
       </c>
       <c r="D73" t="n">
-        <v>0.206773</v>
+        <v>0.207265</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204861</v>
+        <v>0.204344</v>
       </c>
       <c r="C74" t="n">
-        <v>0.199965</v>
+        <v>0.200023</v>
       </c>
       <c r="D74" t="n">
-        <v>0.205697</v>
+        <v>0.206011</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199097</v>
+        <v>0.199163</v>
       </c>
       <c r="C75" t="n">
-        <v>0.198805</v>
+        <v>0.198962</v>
       </c>
       <c r="D75" t="n">
-        <v>0.204544</v>
+        <v>0.204737</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193879</v>
+        <v>0.193488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.197676</v>
+        <v>0.197813</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20348</v>
+        <v>0.203609</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188325</v>
+        <v>0.188312</v>
       </c>
       <c r="C77" t="n">
-        <v>0.196562</v>
+        <v>0.196806</v>
       </c>
       <c r="D77" t="n">
-        <v>0.202531</v>
+        <v>0.202781</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182043</v>
+        <v>0.181819</v>
       </c>
       <c r="C78" t="n">
-        <v>0.195582</v>
+        <v>0.195715</v>
       </c>
       <c r="D78" t="n">
-        <v>0.201383</v>
+        <v>0.20159</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175249</v>
+        <v>0.175076</v>
       </c>
       <c r="C79" t="n">
-        <v>0.194492</v>
+        <v>0.194657</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20031</v>
+        <v>0.200465</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166877</v>
+        <v>0.166744</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193563</v>
+        <v>0.193616</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218683</v>
+        <v>0.218872</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.240876</v>
+        <v>0.241198</v>
       </c>
       <c r="C81" t="n">
-        <v>0.210238</v>
+        <v>0.2102</v>
       </c>
       <c r="D81" t="n">
-        <v>0.217232</v>
+        <v>0.217423</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237169</v>
+        <v>0.237655</v>
       </c>
       <c r="C82" t="n">
-        <v>0.208519</v>
+        <v>0.208564</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215543</v>
+        <v>0.215603</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23274</v>
+        <v>0.233041</v>
       </c>
       <c r="C83" t="n">
-        <v>0.206952</v>
+        <v>0.20706</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214039</v>
+        <v>0.214164</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227914</v>
+        <v>0.227819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.205752</v>
+        <v>0.205895</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212617</v>
+        <v>0.212739</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222481</v>
+        <v>0.222427</v>
       </c>
       <c r="C85" t="n">
-        <v>0.204689</v>
+        <v>0.204755</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21142</v>
+        <v>0.211472</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217056</v>
+        <v>0.217167</v>
       </c>
       <c r="C86" t="n">
-        <v>0.203309</v>
+        <v>0.203357</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209941</v>
+        <v>0.210046</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211732</v>
+        <v>0.211506</v>
       </c>
       <c r="C87" t="n">
-        <v>0.202331</v>
+        <v>0.202247</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208782</v>
+        <v>0.208893</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.205809</v>
+        <v>0.205942</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20083</v>
+        <v>0.200937</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207502</v>
+        <v>0.207626</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200337</v>
+        <v>0.200203</v>
       </c>
       <c r="C89" t="n">
-        <v>0.199812</v>
+        <v>0.199827</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206414</v>
+        <v>0.206484</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195051</v>
+        <v>0.194852</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198576</v>
+        <v>0.198474</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205431</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188771</v>
+        <v>0.189031</v>
       </c>
       <c r="C91" t="n">
-        <v>0.197408</v>
+        <v>0.197382</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20421</v>
+        <v>0.204427</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183124</v>
+        <v>0.182974</v>
       </c>
       <c r="C92" t="n">
-        <v>0.196111</v>
+        <v>0.196347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.203148</v>
+        <v>0.20329</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176004</v>
+        <v>0.176059</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195134</v>
+        <v>0.195269</v>
       </c>
       <c r="D93" t="n">
-        <v>0.202154</v>
+        <v>0.202354</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168066</v>
+        <v>0.16819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.194083</v>
+        <v>0.194237</v>
       </c>
       <c r="D94" t="n">
-        <v>0.219367</v>
+        <v>0.219815</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243866</v>
+        <v>0.244253</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213551</v>
+        <v>0.214009</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217715</v>
+        <v>0.217947</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24088</v>
+        <v>0.240169</v>
       </c>
       <c r="C96" t="n">
-        <v>0.211341</v>
+        <v>0.211562</v>
       </c>
       <c r="D96" t="n">
-        <v>0.216346</v>
+        <v>0.21651</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236065</v>
+        <v>0.235899</v>
       </c>
       <c r="C97" t="n">
-        <v>0.210282</v>
+        <v>0.210566</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21481</v>
+        <v>0.215063</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23168</v>
+        <v>0.231224</v>
       </c>
       <c r="C98" t="n">
-        <v>0.207914</v>
+        <v>0.208329</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213376</v>
+        <v>0.213638</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226128</v>
+        <v>0.226285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206297</v>
+        <v>0.206642</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211814</v>
+        <v>0.2121</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22068</v>
+        <v>0.220935</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20544</v>
+        <v>0.205877</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210586</v>
+        <v>0.210801</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215543</v>
+        <v>0.215755</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20386</v>
+        <v>0.204317</v>
       </c>
       <c r="D101" t="n">
-        <v>0.209385</v>
+        <v>0.209585</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210037</v>
+        <v>0.210178</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202422</v>
+        <v>0.202591</v>
       </c>
       <c r="D102" t="n">
-        <v>0.208033</v>
+        <v>0.208412</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205087</v>
+        <v>0.205131</v>
       </c>
       <c r="C103" t="n">
-        <v>0.201554</v>
+        <v>0.201416</v>
       </c>
       <c r="D103" t="n">
-        <v>0.207048</v>
+        <v>0.207306</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200014</v>
+        <v>0.199924</v>
       </c>
       <c r="C104" t="n">
-        <v>0.199841</v>
+        <v>0.20008</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204307</v>
+        <v>0.204779</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194459</v>
+        <v>0.194741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.198692</v>
+        <v>0.198799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.203073</v>
+        <v>0.203409</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188992</v>
+        <v>0.189275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1973</v>
+        <v>0.197547</v>
       </c>
       <c r="D106" t="n">
-        <v>0.201945</v>
+        <v>0.202282</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183127</v>
+        <v>0.18349</v>
       </c>
       <c r="C107" t="n">
-        <v>0.196114</v>
+        <v>0.196406</v>
       </c>
       <c r="D107" t="n">
-        <v>0.201095</v>
+        <v>0.201308</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176053</v>
+        <v>0.176242</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195051</v>
+        <v>0.195111</v>
       </c>
       <c r="D108" t="n">
-        <v>0.22036</v>
+        <v>0.220557</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167473</v>
+        <v>0.167358</v>
       </c>
       <c r="C109" t="n">
-        <v>0.193903</v>
+        <v>0.193877</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218471</v>
+        <v>0.218482</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241735</v>
+        <v>0.241606</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2105</v>
+        <v>0.210402</v>
       </c>
       <c r="D110" t="n">
-        <v>0.215548</v>
+        <v>0.215894</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237624</v>
+        <v>0.237306</v>
       </c>
       <c r="C111" t="n">
-        <v>0.209579</v>
+        <v>0.20955</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214068</v>
+        <v>0.214421</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232636</v>
+        <v>0.23269</v>
       </c>
       <c r="C112" t="n">
-        <v>0.208764</v>
+        <v>0.208472</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213056</v>
+        <v>0.213197</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227247</v>
+        <v>0.227525</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207587</v>
+        <v>0.207698</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2115</v>
+        <v>0.211612</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221862</v>
+        <v>0.22225</v>
       </c>
       <c r="C114" t="n">
-        <v>0.206327</v>
+        <v>0.206619</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212017</v>
+        <v>0.212032</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216439</v>
+        <v>0.216817</v>
       </c>
       <c r="C115" t="n">
-        <v>0.204925</v>
+        <v>0.20519</v>
       </c>
       <c r="D115" t="n">
-        <v>0.210478</v>
+        <v>0.210475</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211317</v>
+        <v>0.211592</v>
       </c>
       <c r="C116" t="n">
-        <v>0.204005</v>
+        <v>0.204097</v>
       </c>
       <c r="D116" t="n">
-        <v>0.209452</v>
+        <v>0.209438</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206192</v>
+        <v>0.206384</v>
       </c>
       <c r="C117" t="n">
-        <v>0.202518</v>
+        <v>0.20253</v>
       </c>
       <c r="D117" t="n">
-        <v>0.208186</v>
+        <v>0.208214</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200893</v>
+        <v>0.200914</v>
       </c>
       <c r="C118" t="n">
-        <v>0.201725</v>
+        <v>0.20153</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206917</v>
+        <v>0.207073</v>
       </c>
     </row>
     <row r="119">
@@ -4887,10 +4887,10 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195518</v>
+        <v>0.195709</v>
       </c>
       <c r="C119" t="n">
-        <v>0.200203</v>
+        <v>0.200087</v>
       </c>
       <c r="D119" t="n">
         <v>0.205669</v>
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19033</v>
+        <v>0.19049</v>
       </c>
       <c r="C120" t="n">
-        <v>0.198885</v>
+        <v>0.198654</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204627</v>
+        <v>0.204464</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184507</v>
+        <v>0.184947</v>
       </c>
       <c r="C121" t="n">
-        <v>0.197517</v>
+        <v>0.197444</v>
       </c>
       <c r="D121" t="n">
-        <v>0.203557</v>
+        <v>0.20351</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178062</v>
+        <v>0.178197</v>
       </c>
       <c r="C122" t="n">
-        <v>0.196322</v>
+        <v>0.196307</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202511</v>
+        <v>0.202421</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.169688</v>
+        <v>0.170032</v>
       </c>
       <c r="C123" t="n">
-        <v>0.194944</v>
+        <v>0.194868</v>
       </c>
       <c r="D123" t="n">
-        <v>0.217359</v>
+        <v>0.217292</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240173</v>
+        <v>0.24015</v>
       </c>
       <c r="C124" t="n">
-        <v>0.211048</v>
+        <v>0.210942</v>
       </c>
       <c r="D124" t="n">
-        <v>0.215747</v>
+        <v>0.215667</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236094</v>
+        <v>0.236049</v>
       </c>
       <c r="C125" t="n">
-        <v>0.209775</v>
+        <v>0.209659</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214242</v>
+        <v>0.214235</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23144</v>
+        <v>0.231554</v>
       </c>
       <c r="C126" t="n">
-        <v>0.208831</v>
+        <v>0.208982</v>
       </c>
       <c r="D126" t="n">
-        <v>0.212778</v>
+        <v>0.212636</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226479</v>
+        <v>0.226463</v>
       </c>
       <c r="C127" t="n">
-        <v>0.208109</v>
+        <v>0.208198</v>
       </c>
       <c r="D127" t="n">
-        <v>0.211429</v>
+        <v>0.211359</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221056</v>
+        <v>0.221015</v>
       </c>
       <c r="C128" t="n">
-        <v>0.206722</v>
+        <v>0.206698</v>
       </c>
       <c r="D128" t="n">
-        <v>0.210035</v>
+        <v>0.209963</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215642</v>
+        <v>0.215437</v>
       </c>
       <c r="C129" t="n">
-        <v>0.205395</v>
+        <v>0.205664</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210185</v>
+        <v>0.210215</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209984</v>
+        <v>0.209804</v>
       </c>
       <c r="C130" t="n">
         <v>0.204186</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208884</v>
+        <v>0.208799</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204132</v>
+        <v>0.204355</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202672</v>
+        <v>0.202601</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206079</v>
+        <v>0.206044</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.19874</v>
+        <v>0.198776</v>
       </c>
       <c r="C132" t="n">
-        <v>0.201299</v>
+        <v>0.201248</v>
       </c>
       <c r="D132" t="n">
-        <v>0.204992</v>
+        <v>0.204972</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193185</v>
+        <v>0.193085</v>
       </c>
       <c r="C133" t="n">
-        <v>0.199959</v>
+        <v>0.20009</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205601</v>
+        <v>0.205621</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187513</v>
+        <v>0.187318</v>
       </c>
       <c r="C134" t="n">
-        <v>0.198836</v>
+        <v>0.19885</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204421</v>
+        <v>0.204449</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.181035</v>
+        <v>0.181007</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19782</v>
+        <v>0.197741</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203305</v>
+        <v>0.203444</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173807</v>
+        <v>0.173626</v>
       </c>
       <c r="C136" t="n">
-        <v>0.196422</v>
+        <v>0.196423</v>
       </c>
       <c r="D136" t="n">
-        <v>0.202325</v>
+        <v>0.202432</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165143</v>
+        <v>0.16515</v>
       </c>
       <c r="C137" t="n">
-        <v>0.195256</v>
+        <v>0.195138</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218888</v>
+        <v>0.218893</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241128</v>
+        <v>0.241222</v>
       </c>
       <c r="C138" t="n">
-        <v>0.211011</v>
+        <v>0.210946</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217357</v>
+        <v>0.217632</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237311</v>
+        <v>0.237288</v>
       </c>
       <c r="C139" t="n">
-        <v>0.209915</v>
+        <v>0.209976</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215802</v>
+        <v>0.215813</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232573</v>
+        <v>0.232808</v>
       </c>
       <c r="C140" t="n">
-        <v>0.209196</v>
+        <v>0.209163</v>
       </c>
       <c r="D140" t="n">
-        <v>0.212941</v>
+        <v>0.213071</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227722</v>
+        <v>0.227662</v>
       </c>
       <c r="C141" t="n">
-        <v>0.208074</v>
+        <v>0.208205</v>
       </c>
       <c r="D141" t="n">
-        <v>0.213101</v>
+        <v>0.213431</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222411</v>
+        <v>0.222481</v>
       </c>
       <c r="C142" t="n">
-        <v>0.207059</v>
+        <v>0.207196</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211868</v>
+        <v>0.211769</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216953</v>
+        <v>0.216946</v>
       </c>
       <c r="C143" t="n">
-        <v>0.205976</v>
+        <v>0.20592</v>
       </c>
       <c r="D143" t="n">
-        <v>0.208997</v>
+        <v>0.20893</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202983</v>
+        <v>0.203445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188379</v>
+        <v>0.190236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195674</v>
+        <v>0.194582</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196838</v>
+        <v>0.19936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187805</v>
+        <v>0.191429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195518</v>
+        <v>0.195614</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192628</v>
+        <v>0.192623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187925</v>
+        <v>0.190583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195476</v>
+        <v>0.195681</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187041</v>
+        <v>0.186728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187834</v>
+        <v>0.1903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.193749</v>
+        <v>0.195186</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181551</v>
+        <v>0.182107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18721</v>
+        <v>0.18904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1933</v>
+        <v>0.194188</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178655</v>
+        <v>0.172824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187015</v>
+        <v>0.189054</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193574</v>
+        <v>0.194181</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.170474</v>
+        <v>0.165758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187349</v>
+        <v>0.188935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193391</v>
+        <v>0.194088</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160998</v>
+        <v>0.156354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187986</v>
+        <v>0.189139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212614</v>
+        <v>0.212411</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235365</v>
+        <v>0.235377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20525</v>
+        <v>0.208507</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21173</v>
+        <v>0.210569</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232033</v>
+        <v>0.232784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.204133</v>
+        <v>0.207292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210838</v>
+        <v>0.210113</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22778</v>
+        <v>0.227983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203638</v>
+        <v>0.207393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209835</v>
+        <v>0.209699</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224599</v>
+        <v>0.224622</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202734</v>
+        <v>0.206002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209878</v>
+        <v>0.209001</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218388</v>
+        <v>0.219052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201147</v>
+        <v>0.204392</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207811</v>
+        <v>0.207663</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212681</v>
+        <v>0.213117</v>
       </c>
       <c r="C15" t="n">
-        <v>0.200453</v>
+        <v>0.202922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.207743</v>
+        <v>0.206638</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207489</v>
+        <v>0.20816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.19919</v>
+        <v>0.201942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206556</v>
+        <v>0.205616</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201655</v>
+        <v>0.201652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.198121</v>
+        <v>0.200624</v>
       </c>
       <c r="D17" t="n">
-        <v>0.205215</v>
+        <v>0.204459</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197888</v>
+        <v>0.196018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.196978</v>
+        <v>0.199312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204102</v>
+        <v>0.203407</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190436</v>
+        <v>0.190233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.196007</v>
+        <v>0.198375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.203381</v>
+        <v>0.20241</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185534</v>
+        <v>0.183858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19536</v>
+        <v>0.197605</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202654</v>
+        <v>0.201749</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178065</v>
+        <v>0.178485</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194422</v>
+        <v>0.196132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201946</v>
+        <v>0.200871</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17063</v>
+        <v>0.175547</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193401</v>
+        <v>0.195123</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200821</v>
+        <v>0.199965</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162534</v>
+        <v>0.165477</v>
       </c>
       <c r="C23" t="n">
-        <v>0.191878</v>
+        <v>0.193912</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216482</v>
+        <v>0.215895</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238511</v>
+        <v>0.237491</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207867</v>
+        <v>0.210669</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215225</v>
+        <v>0.214529</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234584</v>
+        <v>0.234311</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206195</v>
+        <v>0.20945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213771</v>
+        <v>0.212599</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231408</v>
+        <v>0.229631</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204595</v>
+        <v>0.207534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211851</v>
+        <v>0.21078</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226845</v>
+        <v>0.226104</v>
       </c>
       <c r="C27" t="n">
-        <v>0.20381</v>
+        <v>0.206568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.211076</v>
+        <v>0.210017</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221079</v>
+        <v>0.221037</v>
       </c>
       <c r="C28" t="n">
-        <v>0.202504</v>
+        <v>0.205225</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209121</v>
+        <v>0.208875</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214879</v>
+        <v>0.214543</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200652</v>
+        <v>0.203767</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207298</v>
+        <v>0.207211</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210656</v>
+        <v>0.208526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.199448</v>
+        <v>0.201949</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205767</v>
+        <v>0.205798</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204193</v>
+        <v>0.204386</v>
       </c>
       <c r="C31" t="n">
-        <v>0.198388</v>
+        <v>0.200699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204535</v>
+        <v>0.205012</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198638</v>
+        <v>0.198797</v>
       </c>
       <c r="C32" t="n">
-        <v>0.197815</v>
+        <v>0.200351</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203951</v>
+        <v>0.20456</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193283</v>
+        <v>0.193134</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196836</v>
+        <v>0.19988</v>
       </c>
       <c r="D33" t="n">
-        <v>0.204239</v>
+        <v>0.203303</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.187901</v>
+        <v>0.187882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195911</v>
+        <v>0.198022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203135</v>
+        <v>0.202367</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.182894</v>
+        <v>0.181507</v>
       </c>
       <c r="C35" t="n">
-        <v>0.19496</v>
+        <v>0.197043</v>
       </c>
       <c r="D35" t="n">
-        <v>0.202434</v>
+        <v>0.201525</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.175422</v>
+        <v>0.179268</v>
       </c>
       <c r="C36" t="n">
-        <v>0.193852</v>
+        <v>0.19565</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199798</v>
+        <v>0.20058</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167107</v>
+        <v>0.169749</v>
       </c>
       <c r="C37" t="n">
-        <v>0.193073</v>
+        <v>0.194461</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217584</v>
+        <v>0.217212</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24199</v>
+        <v>0.241857</v>
       </c>
       <c r="C38" t="n">
-        <v>0.209241</v>
+        <v>0.212547</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216352</v>
+        <v>0.215694</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237465</v>
+        <v>0.238535</v>
       </c>
       <c r="C39" t="n">
-        <v>0.207517</v>
+        <v>0.210795</v>
       </c>
       <c r="D39" t="n">
-        <v>0.214704</v>
+        <v>0.21457</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232841</v>
+        <v>0.233361</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20581</v>
+        <v>0.208663</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21334</v>
+        <v>0.212827</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22797</v>
+        <v>0.22855</v>
       </c>
       <c r="C41" t="n">
-        <v>0.204213</v>
+        <v>0.207735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211746</v>
+        <v>0.210998</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.222354</v>
+        <v>0.22336</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20271</v>
+        <v>0.206012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.210085</v>
+        <v>0.209256</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216667</v>
+        <v>0.219096</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201151</v>
+        <v>0.204492</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208856</v>
+        <v>0.207787</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.212075</v>
+        <v>0.213361</v>
       </c>
       <c r="C44" t="n">
-        <v>0.200678</v>
+        <v>0.203753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207883</v>
+        <v>0.207075</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.206753</v>
+        <v>0.208681</v>
       </c>
       <c r="C45" t="n">
-        <v>0.199659</v>
+        <v>0.202879</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207031</v>
+        <v>0.206128</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.200804</v>
+        <v>0.203752</v>
       </c>
       <c r="C46" t="n">
-        <v>0.198448</v>
+        <v>0.201565</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205781</v>
+        <v>0.204675</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.195426</v>
+        <v>0.198976</v>
       </c>
       <c r="C47" t="n">
-        <v>0.197322</v>
+        <v>0.200436</v>
       </c>
       <c r="D47" t="n">
-        <v>0.204653</v>
+        <v>0.203833</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.189621</v>
+        <v>0.193985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.196217</v>
+        <v>0.199052</v>
       </c>
       <c r="D48" t="n">
-        <v>0.203665</v>
+        <v>0.202759</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183896</v>
+        <v>0.187642</v>
       </c>
       <c r="C49" t="n">
-        <v>0.195296</v>
+        <v>0.197698</v>
       </c>
       <c r="D49" t="n">
-        <v>0.201112</v>
+        <v>0.201766</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183387</v>
+        <v>0.181092</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194482</v>
+        <v>0.19681</v>
       </c>
       <c r="D50" t="n">
-        <v>0.200258</v>
+        <v>0.20109</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176211</v>
+        <v>0.173107</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193553</v>
+        <v>0.195901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218867</v>
+        <v>0.218146</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16731</v>
+        <v>0.164215</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192702</v>
+        <v>0.194831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217108</v>
+        <v>0.216562</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241013</v>
+        <v>0.237959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2087</v>
+        <v>0.211992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.216031</v>
+        <v>0.215188</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237413</v>
+        <v>0.234042</v>
       </c>
       <c r="C54" t="n">
-        <v>0.207088</v>
+        <v>0.210341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.214448</v>
+        <v>0.213507</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230865</v>
+        <v>0.229407</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205742</v>
+        <v>0.208902</v>
       </c>
       <c r="D55" t="n">
-        <v>0.213045</v>
+        <v>0.212277</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224894</v>
+        <v>0.224289</v>
       </c>
       <c r="C56" t="n">
-        <v>0.204137</v>
+        <v>0.207495</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21068</v>
+        <v>0.210819</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220437</v>
+        <v>0.219067</v>
       </c>
       <c r="C57" t="n">
-        <v>0.202969</v>
+        <v>0.206139</v>
       </c>
       <c r="D57" t="n">
-        <v>0.210232</v>
+        <v>0.209581</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213646</v>
+        <v>0.213052</v>
       </c>
       <c r="C58" t="n">
-        <v>0.201396</v>
+        <v>0.205019</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207748</v>
+        <v>0.207895</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208516</v>
+        <v>0.207939</v>
       </c>
       <c r="C59" t="n">
-        <v>0.200168</v>
+        <v>0.203358</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207523</v>
+        <v>0.206817</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202998</v>
+        <v>0.202645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199095</v>
+        <v>0.202545</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205365</v>
+        <v>0.205485</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197917</v>
+        <v>0.197311</v>
       </c>
       <c r="C61" t="n">
-        <v>0.198067</v>
+        <v>0.200745</v>
       </c>
       <c r="D61" t="n">
-        <v>0.204308</v>
+        <v>0.204543</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192584</v>
+        <v>0.190828</v>
       </c>
       <c r="C62" t="n">
-        <v>0.197221</v>
+        <v>0.200333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203392</v>
+        <v>0.203626</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186503</v>
+        <v>0.18432</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196144</v>
+        <v>0.198908</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203578</v>
+        <v>0.202549</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.179885</v>
+        <v>0.178136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.195333</v>
+        <v>0.197727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202782</v>
+        <v>0.201724</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.172879</v>
+        <v>0.170648</v>
       </c>
       <c r="C65" t="n">
-        <v>0.194369</v>
+        <v>0.196785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.200486</v>
+        <v>0.20097</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163865</v>
+        <v>0.161402</v>
       </c>
       <c r="C66" t="n">
-        <v>0.193416</v>
+        <v>0.195509</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217275</v>
+        <v>0.217508</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24062</v>
+        <v>0.241476</v>
       </c>
       <c r="C67" t="n">
-        <v>0.209358</v>
+        <v>0.213437</v>
       </c>
       <c r="D67" t="n">
-        <v>0.215832</v>
+        <v>0.215857</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236098</v>
+        <v>0.237076</v>
       </c>
       <c r="C68" t="n">
-        <v>0.20782</v>
+        <v>0.212164</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214349</v>
+        <v>0.214356</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231345</v>
+        <v>0.232574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.206343</v>
+        <v>0.210166</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212686</v>
+        <v>0.21265</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226512</v>
+        <v>0.227943</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204858</v>
+        <v>0.208601</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210978</v>
+        <v>0.211286</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.220816</v>
+        <v>0.223055</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203652</v>
+        <v>0.207521</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209723</v>
+        <v>0.210559</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21552</v>
+        <v>0.217673</v>
       </c>
       <c r="C72" t="n">
-        <v>0.202507</v>
+        <v>0.20578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208292</v>
+        <v>0.209424</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209795</v>
+        <v>0.212567</v>
       </c>
       <c r="C73" t="n">
-        <v>0.201199</v>
+        <v>0.204694</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207265</v>
+        <v>0.207758</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204344</v>
+        <v>0.207276</v>
       </c>
       <c r="C74" t="n">
-        <v>0.200023</v>
+        <v>0.202993</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206011</v>
+        <v>0.206302</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199163</v>
+        <v>0.20244</v>
       </c>
       <c r="C75" t="n">
-        <v>0.198962</v>
+        <v>0.202078</v>
       </c>
       <c r="D75" t="n">
-        <v>0.204737</v>
+        <v>0.205261</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193488</v>
+        <v>0.197011</v>
       </c>
       <c r="C76" t="n">
-        <v>0.197813</v>
+        <v>0.200954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.203609</v>
+        <v>0.204151</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188312</v>
+        <v>0.191453</v>
       </c>
       <c r="C77" t="n">
-        <v>0.196806</v>
+        <v>0.199431</v>
       </c>
       <c r="D77" t="n">
-        <v>0.202781</v>
+        <v>0.203301</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181819</v>
+        <v>0.184924</v>
       </c>
       <c r="C78" t="n">
-        <v>0.195715</v>
+        <v>0.198493</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20159</v>
+        <v>0.202299</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175076</v>
+        <v>0.178005</v>
       </c>
       <c r="C79" t="n">
-        <v>0.194657</v>
+        <v>0.197076</v>
       </c>
       <c r="D79" t="n">
-        <v>0.200465</v>
+        <v>0.201146</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166744</v>
+        <v>0.170125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193616</v>
+        <v>0.19587</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218872</v>
+        <v>0.218116</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241198</v>
+        <v>0.240755</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2102</v>
+        <v>0.213503</v>
       </c>
       <c r="D81" t="n">
-        <v>0.217423</v>
+        <v>0.216634</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237655</v>
+        <v>0.237087</v>
       </c>
       <c r="C82" t="n">
-        <v>0.208564</v>
+        <v>0.211933</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215603</v>
+        <v>0.215049</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233041</v>
+        <v>0.232852</v>
       </c>
       <c r="C83" t="n">
-        <v>0.20706</v>
+        <v>0.210763</v>
       </c>
       <c r="D83" t="n">
-        <v>0.214164</v>
+        <v>0.213325</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227819</v>
+        <v>0.227977</v>
       </c>
       <c r="C84" t="n">
-        <v>0.205895</v>
+        <v>0.208553</v>
       </c>
       <c r="D84" t="n">
-        <v>0.212739</v>
+        <v>0.211987</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222427</v>
+        <v>0.222698</v>
       </c>
       <c r="C85" t="n">
-        <v>0.204755</v>
+        <v>0.207292</v>
       </c>
       <c r="D85" t="n">
-        <v>0.211472</v>
+        <v>0.210587</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217167</v>
+        <v>0.217249</v>
       </c>
       <c r="C86" t="n">
-        <v>0.203357</v>
+        <v>0.206234</v>
       </c>
       <c r="D86" t="n">
-        <v>0.210046</v>
+        <v>0.209124</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211506</v>
+        <v>0.211945</v>
       </c>
       <c r="C87" t="n">
-        <v>0.202247</v>
+        <v>0.205049</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208893</v>
+        <v>0.208178</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.205942</v>
+        <v>0.20603</v>
       </c>
       <c r="C88" t="n">
-        <v>0.200937</v>
+        <v>0.203595</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207626</v>
+        <v>0.206766</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200203</v>
+        <v>0.199738</v>
       </c>
       <c r="C89" t="n">
-        <v>0.199827</v>
+        <v>0.202428</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206484</v>
+        <v>0.205403</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194852</v>
+        <v>0.194006</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198474</v>
+        <v>0.201585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205511</v>
+        <v>0.204281</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189031</v>
+        <v>0.193452</v>
       </c>
       <c r="C91" t="n">
-        <v>0.197382</v>
+        <v>0.200058</v>
       </c>
       <c r="D91" t="n">
-        <v>0.204427</v>
+        <v>0.203299</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182974</v>
+        <v>0.186388</v>
       </c>
       <c r="C92" t="n">
-        <v>0.196347</v>
+        <v>0.198531</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20329</v>
+        <v>0.20211</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176059</v>
+        <v>0.179681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195269</v>
+        <v>0.197197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.202354</v>
+        <v>0.201208</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16819</v>
+        <v>0.17162</v>
       </c>
       <c r="C94" t="n">
-        <v>0.194237</v>
+        <v>0.196201</v>
       </c>
       <c r="D94" t="n">
-        <v>0.219815</v>
+        <v>0.218798</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244253</v>
+        <v>0.241713</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214009</v>
+        <v>0.213967</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217947</v>
+        <v>0.217025</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240169</v>
+        <v>0.238558</v>
       </c>
       <c r="C96" t="n">
-        <v>0.211562</v>
+        <v>0.21188</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21651</v>
+        <v>0.215562</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235899</v>
+        <v>0.234544</v>
       </c>
       <c r="C97" t="n">
-        <v>0.210566</v>
+        <v>0.210943</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215063</v>
+        <v>0.21412</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231224</v>
+        <v>0.229762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.208329</v>
+        <v>0.20934</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213638</v>
+        <v>0.213181</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226285</v>
+        <v>0.225106</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206642</v>
+        <v>0.207568</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2121</v>
+        <v>0.21124</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220935</v>
+        <v>0.219215</v>
       </c>
       <c r="C100" t="n">
-        <v>0.205877</v>
+        <v>0.206332</v>
       </c>
       <c r="D100" t="n">
-        <v>0.210801</v>
+        <v>0.20973</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215755</v>
+        <v>0.213273</v>
       </c>
       <c r="C101" t="n">
-        <v>0.204317</v>
+        <v>0.205381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.209585</v>
+        <v>0.208329</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210178</v>
+        <v>0.207737</v>
       </c>
       <c r="C102" t="n">
-        <v>0.202591</v>
+        <v>0.203999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.208412</v>
+        <v>0.207243</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205131</v>
+        <v>0.202502</v>
       </c>
       <c r="C103" t="n">
-        <v>0.201416</v>
+        <v>0.202937</v>
       </c>
       <c r="D103" t="n">
-        <v>0.207306</v>
+        <v>0.205997</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199924</v>
+        <v>0.196439</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20008</v>
+        <v>0.201505</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204779</v>
+        <v>0.20519</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194741</v>
+        <v>0.190199</v>
       </c>
       <c r="C105" t="n">
-        <v>0.198799</v>
+        <v>0.199995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.203409</v>
+        <v>0.20378</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189275</v>
+        <v>0.183899</v>
       </c>
       <c r="C106" t="n">
-        <v>0.197547</v>
+        <v>0.19879</v>
       </c>
       <c r="D106" t="n">
-        <v>0.202282</v>
+        <v>0.202772</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18349</v>
+        <v>0.181572</v>
       </c>
       <c r="C107" t="n">
-        <v>0.196406</v>
+        <v>0.197688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.201308</v>
+        <v>0.201893</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176242</v>
+        <v>0.174065</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195111</v>
+        <v>0.196395</v>
       </c>
       <c r="D108" t="n">
-        <v>0.220557</v>
+        <v>0.219823</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167358</v>
+        <v>0.164465</v>
       </c>
       <c r="C109" t="n">
-        <v>0.193877</v>
+        <v>0.195255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218482</v>
+        <v>0.218373</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241606</v>
+        <v>0.239011</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210402</v>
+        <v>0.213075</v>
       </c>
       <c r="D110" t="n">
-        <v>0.215894</v>
+        <v>0.216453</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237306</v>
+        <v>0.237236</v>
       </c>
       <c r="C111" t="n">
-        <v>0.20955</v>
+        <v>0.212567</v>
       </c>
       <c r="D111" t="n">
-        <v>0.214421</v>
+        <v>0.215057</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23269</v>
+        <v>0.23001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.208472</v>
+        <v>0.211002</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213197</v>
+        <v>0.213889</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227525</v>
+        <v>0.225188</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207698</v>
+        <v>0.209551</v>
       </c>
       <c r="D113" t="n">
-        <v>0.211612</v>
+        <v>0.212194</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22225</v>
+        <v>0.219683</v>
       </c>
       <c r="C114" t="n">
-        <v>0.206619</v>
+        <v>0.208317</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212032</v>
+        <v>0.210771</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216817</v>
+        <v>0.214053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.20519</v>
+        <v>0.207535</v>
       </c>
       <c r="D115" t="n">
-        <v>0.210475</v>
+        <v>0.209368</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211592</v>
+        <v>0.208564</v>
       </c>
       <c r="C116" t="n">
-        <v>0.204097</v>
+        <v>0.206022</v>
       </c>
       <c r="D116" t="n">
-        <v>0.209438</v>
+        <v>0.208338</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206384</v>
+        <v>0.202878</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20253</v>
+        <v>0.204714</v>
       </c>
       <c r="D117" t="n">
-        <v>0.208214</v>
+        <v>0.207335</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200914</v>
+        <v>0.197231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20153</v>
+        <v>0.203263</v>
       </c>
       <c r="D118" t="n">
-        <v>0.207073</v>
+        <v>0.205802</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195709</v>
+        <v>0.191216</v>
       </c>
       <c r="C119" t="n">
-        <v>0.200087</v>
+        <v>0.201928</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205669</v>
+        <v>0.204439</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.19049</v>
+        <v>0.184904</v>
       </c>
       <c r="C120" t="n">
-        <v>0.198654</v>
+        <v>0.201026</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204464</v>
+        <v>0.203253</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184947</v>
+        <v>0.178237</v>
       </c>
       <c r="C121" t="n">
-        <v>0.197444</v>
+        <v>0.199671</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20351</v>
+        <v>0.202264</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.178197</v>
+        <v>0.171001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.196307</v>
+        <v>0.197939</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202421</v>
+        <v>0.201363</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.170032</v>
+        <v>0.160938</v>
       </c>
       <c r="C123" t="n">
-        <v>0.194868</v>
+        <v>0.196292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.217292</v>
+        <v>0.218179</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24015</v>
+        <v>0.239961</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210942</v>
+        <v>0.213885</v>
       </c>
       <c r="D124" t="n">
-        <v>0.215667</v>
+        <v>0.21659</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236049</v>
+        <v>0.236019</v>
       </c>
       <c r="C125" t="n">
-        <v>0.209659</v>
+        <v>0.212571</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214235</v>
+        <v>0.215186</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231554</v>
+        <v>0.231744</v>
       </c>
       <c r="C126" t="n">
-        <v>0.208982</v>
+        <v>0.211775</v>
       </c>
       <c r="D126" t="n">
-        <v>0.212636</v>
+        <v>0.213623</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226463</v>
+        <v>0.226808</v>
       </c>
       <c r="C127" t="n">
-        <v>0.208198</v>
+        <v>0.21038</v>
       </c>
       <c r="D127" t="n">
-        <v>0.211359</v>
+        <v>0.212616</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221015</v>
+        <v>0.221348</v>
       </c>
       <c r="C128" t="n">
-        <v>0.206698</v>
+        <v>0.209085</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209963</v>
+        <v>0.211216</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215437</v>
+        <v>0.215934</v>
       </c>
       <c r="C129" t="n">
-        <v>0.205664</v>
+        <v>0.207792</v>
       </c>
       <c r="D129" t="n">
-        <v>0.210215</v>
+        <v>0.209598</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209804</v>
+        <v>0.210345</v>
       </c>
       <c r="C130" t="n">
-        <v>0.204186</v>
+        <v>0.20635</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208799</v>
+        <v>0.208289</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204355</v>
+        <v>0.204538</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202601</v>
+        <v>0.2047</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206044</v>
+        <v>0.206923</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198776</v>
+        <v>0.199101</v>
       </c>
       <c r="C132" t="n">
-        <v>0.201248</v>
+        <v>0.203727</v>
       </c>
       <c r="D132" t="n">
-        <v>0.204972</v>
+        <v>0.205881</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193085</v>
+        <v>0.193018</v>
       </c>
       <c r="C133" t="n">
-        <v>0.20009</v>
+        <v>0.202328</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205621</v>
+        <v>0.204757</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187318</v>
+        <v>0.187429</v>
       </c>
       <c r="C134" t="n">
-        <v>0.19885</v>
+        <v>0.201004</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204449</v>
+        <v>0.203593</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.181007</v>
+        <v>0.179901</v>
       </c>
       <c r="C135" t="n">
-        <v>0.197741</v>
+        <v>0.19978</v>
       </c>
       <c r="D135" t="n">
-        <v>0.203444</v>
+        <v>0.202392</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.173626</v>
+        <v>0.172143</v>
       </c>
       <c r="C136" t="n">
-        <v>0.196423</v>
+        <v>0.198202</v>
       </c>
       <c r="D136" t="n">
-        <v>0.202432</v>
+        <v>0.201524</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16515</v>
+        <v>0.16271</v>
       </c>
       <c r="C137" t="n">
-        <v>0.195138</v>
+        <v>0.196748</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218893</v>
+        <v>0.218519</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241222</v>
+        <v>0.240732</v>
       </c>
       <c r="C138" t="n">
-        <v>0.210946</v>
+        <v>0.214517</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217632</v>
+        <v>0.21676</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237288</v>
+        <v>0.236926</v>
       </c>
       <c r="C139" t="n">
-        <v>0.209976</v>
+        <v>0.212954</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215813</v>
+        <v>0.215506</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232808</v>
+        <v>0.232884</v>
       </c>
       <c r="C140" t="n">
-        <v>0.209163</v>
+        <v>0.211802</v>
       </c>
       <c r="D140" t="n">
-        <v>0.213071</v>
+        <v>0.214072</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227662</v>
+        <v>0.227571</v>
       </c>
       <c r="C141" t="n">
-        <v>0.208205</v>
+        <v>0.21056</v>
       </c>
       <c r="D141" t="n">
-        <v>0.213431</v>
+        <v>0.212792</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222481</v>
+        <v>0.222374</v>
       </c>
       <c r="C142" t="n">
-        <v>0.207196</v>
+        <v>0.209103</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211769</v>
+        <v>0.21138</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216946</v>
+        <v>0.21858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.20592</v>
+        <v>0.208097</v>
       </c>
       <c r="D143" t="n">
-        <v>0.20893</v>
+        <v>0.210052</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203445</v>
+        <v>0.20548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.190236</v>
+        <v>0.193305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194582</v>
+        <v>0.199974</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19936</v>
+        <v>0.196073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191429</v>
+        <v>0.193948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195614</v>
+        <v>0.200457</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192623</v>
+        <v>0.19264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190583</v>
+        <v>0.194274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195681</v>
+        <v>0.201039</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186728</v>
+        <v>0.188939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1903</v>
+        <v>0.193698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195186</v>
+        <v>0.200569</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182107</v>
+        <v>0.183527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18904</v>
+        <v>0.19249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.194188</v>
+        <v>0.199953</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.172824</v>
+        <v>0.175979</v>
       </c>
       <c r="C7" t="n">
-        <v>0.189054</v>
+        <v>0.193282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194181</v>
+        <v>0.199345</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.165758</v>
+        <v>0.167637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.188935</v>
+        <v>0.192896</v>
       </c>
       <c r="D8" t="n">
-        <v>0.194088</v>
+        <v>0.199832</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156354</v>
+        <v>0.158141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189139</v>
+        <v>0.192897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212411</v>
+        <v>0.218106</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235377</v>
+        <v>0.240513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208507</v>
+        <v>0.211084</v>
       </c>
       <c r="D10" t="n">
-        <v>0.210569</v>
+        <v>0.216461</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232784</v>
+        <v>0.236206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.207292</v>
+        <v>0.209831</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210113</v>
+        <v>0.215309</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227983</v>
+        <v>0.232014</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207393</v>
+        <v>0.208028</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209699</v>
+        <v>0.214152</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224622</v>
+        <v>0.228139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206002</v>
+        <v>0.206558</v>
       </c>
       <c r="D13" t="n">
-        <v>0.209001</v>
+        <v>0.212678</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219052</v>
+        <v>0.221854</v>
       </c>
       <c r="C14" t="n">
-        <v>0.204392</v>
+        <v>0.206157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.207663</v>
+        <v>0.212269</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213117</v>
+        <v>0.214269</v>
       </c>
       <c r="C15" t="n">
-        <v>0.202922</v>
+        <v>0.20505</v>
       </c>
       <c r="D15" t="n">
-        <v>0.206638</v>
+        <v>0.211252</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20816</v>
+        <v>0.210477</v>
       </c>
       <c r="C16" t="n">
-        <v>0.201942</v>
+        <v>0.204233</v>
       </c>
       <c r="D16" t="n">
-        <v>0.205616</v>
+        <v>0.209996</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.201652</v>
+        <v>0.205776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.200624</v>
+        <v>0.203376</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204459</v>
+        <v>0.209545</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.196018</v>
+        <v>0.200503</v>
       </c>
       <c r="C18" t="n">
-        <v>0.199312</v>
+        <v>0.202193</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203407</v>
+        <v>0.208409</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190233</v>
+        <v>0.195725</v>
       </c>
       <c r="C19" t="n">
-        <v>0.198375</v>
+        <v>0.201311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20241</v>
+        <v>0.2077</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183858</v>
+        <v>0.190217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197605</v>
+        <v>0.200391</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201749</v>
+        <v>0.206876</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178485</v>
+        <v>0.185354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196132</v>
+        <v>0.19944</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200871</v>
+        <v>0.206175</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175547</v>
+        <v>0.177734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.195123</v>
+        <v>0.198742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199965</v>
+        <v>0.205185</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165477</v>
+        <v>0.170053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193912</v>
+        <v>0.197619</v>
       </c>
       <c r="D23" t="n">
-        <v>0.215895</v>
+        <v>0.222058</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237491</v>
+        <v>0.243202</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210669</v>
+        <v>0.21428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.214529</v>
+        <v>0.219911</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234311</v>
+        <v>0.240521</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20945</v>
+        <v>0.212547</v>
       </c>
       <c r="D25" t="n">
-        <v>0.212599</v>
+        <v>0.218367</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229631</v>
+        <v>0.233783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.207534</v>
+        <v>0.211203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21078</v>
+        <v>0.21688</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226104</v>
+        <v>0.230057</v>
       </c>
       <c r="C27" t="n">
-        <v>0.206568</v>
+        <v>0.209789</v>
       </c>
       <c r="D27" t="n">
-        <v>0.210017</v>
+        <v>0.215447</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221037</v>
+        <v>0.225482</v>
       </c>
       <c r="C28" t="n">
-        <v>0.205225</v>
+        <v>0.208356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.208875</v>
+        <v>0.214251</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214543</v>
+        <v>0.218856</v>
       </c>
       <c r="C29" t="n">
-        <v>0.203767</v>
+        <v>0.207186</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207211</v>
+        <v>0.21296</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208526</v>
+        <v>0.213129</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201949</v>
+        <v>0.205616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205798</v>
+        <v>0.211665</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204386</v>
+        <v>0.208235</v>
       </c>
       <c r="C31" t="n">
-        <v>0.200699</v>
+        <v>0.204655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205012</v>
+        <v>0.210636</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.198797</v>
+        <v>0.202337</v>
       </c>
       <c r="C32" t="n">
-        <v>0.200351</v>
+        <v>0.20348</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20456</v>
+        <v>0.209719</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193134</v>
+        <v>0.197265</v>
       </c>
       <c r="C33" t="n">
-        <v>0.19988</v>
+        <v>0.202388</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203303</v>
+        <v>0.208953</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.187882</v>
+        <v>0.192635</v>
       </c>
       <c r="C34" t="n">
-        <v>0.198022</v>
+        <v>0.201412</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202367</v>
+        <v>0.208084</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181507</v>
+        <v>0.186926</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197043</v>
+        <v>0.200092</v>
       </c>
       <c r="D35" t="n">
-        <v>0.201525</v>
+        <v>0.206832</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179268</v>
+        <v>0.180948</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19565</v>
+        <v>0.200138</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20058</v>
+        <v>0.206242</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169749</v>
+        <v>0.171704</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194461</v>
+        <v>0.198982</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217212</v>
+        <v>0.223046</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241857</v>
+        <v>0.245733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.212547</v>
+        <v>0.21497</v>
       </c>
       <c r="D38" t="n">
-        <v>0.215694</v>
+        <v>0.220868</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238535</v>
+        <v>0.241802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210795</v>
+        <v>0.213205</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21457</v>
+        <v>0.219201</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233361</v>
+        <v>0.23564</v>
       </c>
       <c r="C40" t="n">
-        <v>0.208663</v>
+        <v>0.21179</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212827</v>
+        <v>0.217796</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.22855</v>
+        <v>0.231376</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207735</v>
+        <v>0.210503</v>
       </c>
       <c r="D41" t="n">
-        <v>0.210998</v>
+        <v>0.216304</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22336</v>
+        <v>0.226085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.206012</v>
+        <v>0.208942</v>
       </c>
       <c r="D42" t="n">
-        <v>0.209256</v>
+        <v>0.214892</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219096</v>
+        <v>0.220502</v>
       </c>
       <c r="C43" t="n">
-        <v>0.204492</v>
+        <v>0.207358</v>
       </c>
       <c r="D43" t="n">
-        <v>0.207787</v>
+        <v>0.213516</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213361</v>
+        <v>0.214754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203753</v>
+        <v>0.206287</v>
       </c>
       <c r="D44" t="n">
-        <v>0.207075</v>
+        <v>0.212224</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208681</v>
+        <v>0.210026</v>
       </c>
       <c r="C45" t="n">
-        <v>0.202879</v>
+        <v>0.205099</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206128</v>
+        <v>0.211282</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203752</v>
+        <v>0.204833</v>
       </c>
       <c r="C46" t="n">
-        <v>0.201565</v>
+        <v>0.203985</v>
       </c>
       <c r="D46" t="n">
-        <v>0.204675</v>
+        <v>0.210054</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198976</v>
+        <v>0.199976</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200436</v>
+        <v>0.203031</v>
       </c>
       <c r="D47" t="n">
-        <v>0.203833</v>
+        <v>0.209266</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193985</v>
+        <v>0.194018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.199052</v>
+        <v>0.202097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.202759</v>
+        <v>0.208284</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187642</v>
+        <v>0.188474</v>
       </c>
       <c r="C49" t="n">
-        <v>0.197698</v>
+        <v>0.200919</v>
       </c>
       <c r="D49" t="n">
-        <v>0.201766</v>
+        <v>0.207214</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181092</v>
+        <v>0.182298</v>
       </c>
       <c r="C50" t="n">
-        <v>0.19681</v>
+        <v>0.199835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20109</v>
+        <v>0.206241</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173107</v>
+        <v>0.175717</v>
       </c>
       <c r="C51" t="n">
-        <v>0.195901</v>
+        <v>0.198976</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218146</v>
+        <v>0.223774</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164215</v>
+        <v>0.166938</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194831</v>
+        <v>0.19822</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216562</v>
+        <v>0.221617</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237959</v>
+        <v>0.240883</v>
       </c>
       <c r="C53" t="n">
-        <v>0.211992</v>
+        <v>0.213959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215188</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234042</v>
+        <v>0.237789</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210341</v>
+        <v>0.212184</v>
       </c>
       <c r="D54" t="n">
-        <v>0.213507</v>
+        <v>0.218444</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229407</v>
+        <v>0.233346</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208902</v>
+        <v>0.210884</v>
       </c>
       <c r="D55" t="n">
-        <v>0.212277</v>
+        <v>0.216943</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224289</v>
+        <v>0.22721</v>
       </c>
       <c r="C56" t="n">
-        <v>0.207495</v>
+        <v>0.209365</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210819</v>
+        <v>0.215481</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219067</v>
+        <v>0.221047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.206139</v>
+        <v>0.208159</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209581</v>
+        <v>0.214405</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213052</v>
+        <v>0.21481</v>
       </c>
       <c r="C58" t="n">
-        <v>0.205019</v>
+        <v>0.206853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207895</v>
+        <v>0.21305</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.207939</v>
+        <v>0.208951</v>
       </c>
       <c r="C59" t="n">
-        <v>0.203358</v>
+        <v>0.205645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.206817</v>
+        <v>0.211594</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.202645</v>
+        <v>0.203327</v>
       </c>
       <c r="C60" t="n">
-        <v>0.202545</v>
+        <v>0.204568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.205485</v>
+        <v>0.210532</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197311</v>
+        <v>0.198048</v>
       </c>
       <c r="C61" t="n">
-        <v>0.200745</v>
+        <v>0.203508</v>
       </c>
       <c r="D61" t="n">
-        <v>0.204543</v>
+        <v>0.209411</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190828</v>
+        <v>0.192091</v>
       </c>
       <c r="C62" t="n">
-        <v>0.200333</v>
+        <v>0.202356</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203626</v>
+        <v>0.208389</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.18432</v>
+        <v>0.186628</v>
       </c>
       <c r="C63" t="n">
-        <v>0.198908</v>
+        <v>0.20143</v>
       </c>
       <c r="D63" t="n">
-        <v>0.202549</v>
+        <v>0.207846</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.178136</v>
+        <v>0.184508</v>
       </c>
       <c r="C64" t="n">
-        <v>0.197727</v>
+        <v>0.200491</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201724</v>
+        <v>0.206527</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.170648</v>
+        <v>0.177865</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196785</v>
+        <v>0.199404</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20097</v>
+        <v>0.205678</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161402</v>
+        <v>0.169371</v>
       </c>
       <c r="C66" t="n">
-        <v>0.195509</v>
+        <v>0.198401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.217508</v>
+        <v>0.22242</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241476</v>
+        <v>0.242327</v>
       </c>
       <c r="C67" t="n">
-        <v>0.213437</v>
+        <v>0.22017</v>
       </c>
       <c r="D67" t="n">
-        <v>0.215857</v>
+        <v>0.220675</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237076</v>
+        <v>0.237932</v>
       </c>
       <c r="C68" t="n">
-        <v>0.212164</v>
+        <v>0.217186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.214356</v>
+        <v>0.218998</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232574</v>
+        <v>0.233648</v>
       </c>
       <c r="C69" t="n">
-        <v>0.210166</v>
+        <v>0.214402</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21265</v>
+        <v>0.217517</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227943</v>
+        <v>0.228914</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208601</v>
+        <v>0.212033</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211286</v>
+        <v>0.216185</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223055</v>
+        <v>0.22497</v>
       </c>
       <c r="C71" t="n">
-        <v>0.207521</v>
+        <v>0.209754</v>
       </c>
       <c r="D71" t="n">
-        <v>0.210559</v>
+        <v>0.214783</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217673</v>
+        <v>0.219383</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20578</v>
+        <v>0.207779</v>
       </c>
       <c r="D72" t="n">
-        <v>0.209424</v>
+        <v>0.213535</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212567</v>
+        <v>0.214086</v>
       </c>
       <c r="C73" t="n">
-        <v>0.204694</v>
+        <v>0.206227</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207758</v>
+        <v>0.21227</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207276</v>
+        <v>0.208751</v>
       </c>
       <c r="C74" t="n">
-        <v>0.202993</v>
+        <v>0.204956</v>
       </c>
       <c r="D74" t="n">
-        <v>0.206302</v>
+        <v>0.211167</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20244</v>
+        <v>0.202756</v>
       </c>
       <c r="C75" t="n">
-        <v>0.202078</v>
+        <v>0.203847</v>
       </c>
       <c r="D75" t="n">
-        <v>0.205261</v>
+        <v>0.210121</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197011</v>
+        <v>0.197784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.200954</v>
+        <v>0.202724</v>
       </c>
       <c r="D76" t="n">
-        <v>0.204151</v>
+        <v>0.209156</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191453</v>
+        <v>0.192392</v>
       </c>
       <c r="C77" t="n">
-        <v>0.199431</v>
+        <v>0.201766</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203301</v>
+        <v>0.208136</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.184924</v>
+        <v>0.18648</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198493</v>
+        <v>0.200743</v>
       </c>
       <c r="D78" t="n">
-        <v>0.202299</v>
+        <v>0.207142</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178005</v>
+        <v>0.180075</v>
       </c>
       <c r="C79" t="n">
-        <v>0.197076</v>
+        <v>0.199704</v>
       </c>
       <c r="D79" t="n">
-        <v>0.201146</v>
+        <v>0.206309</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170125</v>
+        <v>0.172689</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19587</v>
+        <v>0.198709</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218116</v>
+        <v>0.224794</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.240755</v>
+        <v>0.244049</v>
       </c>
       <c r="C81" t="n">
-        <v>0.213503</v>
+        <v>0.224783</v>
       </c>
       <c r="D81" t="n">
-        <v>0.216634</v>
+        <v>0.222528</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237087</v>
+        <v>0.240011</v>
       </c>
       <c r="C82" t="n">
-        <v>0.211933</v>
+        <v>0.219527</v>
       </c>
       <c r="D82" t="n">
-        <v>0.215049</v>
+        <v>0.220439</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232852</v>
+        <v>0.236766</v>
       </c>
       <c r="C83" t="n">
-        <v>0.210763</v>
+        <v>0.214421</v>
       </c>
       <c r="D83" t="n">
-        <v>0.213325</v>
+        <v>0.218585</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227977</v>
+        <v>0.231389</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208553</v>
+        <v>0.211507</v>
       </c>
       <c r="D84" t="n">
-        <v>0.211987</v>
+        <v>0.216876</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222698</v>
+        <v>0.225869</v>
       </c>
       <c r="C85" t="n">
-        <v>0.207292</v>
+        <v>0.20976</v>
       </c>
       <c r="D85" t="n">
-        <v>0.210587</v>
+        <v>0.215331</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217249</v>
+        <v>0.219923</v>
       </c>
       <c r="C86" t="n">
-        <v>0.206234</v>
+        <v>0.208248</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209124</v>
+        <v>0.214042</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211945</v>
+        <v>0.213328</v>
       </c>
       <c r="C87" t="n">
-        <v>0.205049</v>
+        <v>0.206923</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208178</v>
+        <v>0.212778</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20603</v>
+        <v>0.20715</v>
       </c>
       <c r="C88" t="n">
-        <v>0.203595</v>
+        <v>0.205719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.206766</v>
+        <v>0.21155</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.199738</v>
+        <v>0.201404</v>
       </c>
       <c r="C89" t="n">
-        <v>0.202428</v>
+        <v>0.204372</v>
       </c>
       <c r="D89" t="n">
-        <v>0.205403</v>
+        <v>0.210443</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194006</v>
+        <v>0.195737</v>
       </c>
       <c r="C90" t="n">
-        <v>0.201585</v>
+        <v>0.20341</v>
       </c>
       <c r="D90" t="n">
-        <v>0.204281</v>
+        <v>0.20931</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193452</v>
+        <v>0.189612</v>
       </c>
       <c r="C91" t="n">
-        <v>0.200058</v>
+        <v>0.202193</v>
       </c>
       <c r="D91" t="n">
-        <v>0.203299</v>
+        <v>0.208377</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.186388</v>
+        <v>0.183178</v>
       </c>
       <c r="C92" t="n">
-        <v>0.198531</v>
+        <v>0.201149</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20211</v>
+        <v>0.207454</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.179681</v>
+        <v>0.17646</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197197</v>
+        <v>0.200159</v>
       </c>
       <c r="D93" t="n">
-        <v>0.201208</v>
+        <v>0.206645</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17162</v>
+        <v>0.168311</v>
       </c>
       <c r="C94" t="n">
-        <v>0.196201</v>
+        <v>0.199316</v>
       </c>
       <c r="D94" t="n">
-        <v>0.218798</v>
+        <v>0.226514</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241713</v>
+        <v>0.245069</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213967</v>
+        <v>0.22214</v>
       </c>
       <c r="D95" t="n">
-        <v>0.217025</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238558</v>
+        <v>0.24099</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21188</v>
+        <v>0.217989</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215562</v>
+        <v>0.221012</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234544</v>
+        <v>0.237061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.210943</v>
+        <v>0.214993</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21412</v>
+        <v>0.219078</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229762</v>
+        <v>0.231238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.20934</v>
+        <v>0.212348</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213181</v>
+        <v>0.217686</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225106</v>
+        <v>0.22614</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207568</v>
+        <v>0.210298</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21124</v>
+        <v>0.216747</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219215</v>
+        <v>0.22023</v>
       </c>
       <c r="C100" t="n">
-        <v>0.206332</v>
+        <v>0.208754</v>
       </c>
       <c r="D100" t="n">
-        <v>0.20973</v>
+        <v>0.215321</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213273</v>
+        <v>0.214443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.205381</v>
+        <v>0.207191</v>
       </c>
       <c r="D101" t="n">
-        <v>0.208329</v>
+        <v>0.213877</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207737</v>
+        <v>0.208246</v>
       </c>
       <c r="C102" t="n">
-        <v>0.203999</v>
+        <v>0.205853</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207243</v>
+        <v>0.21266</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202502</v>
+        <v>0.205824</v>
       </c>
       <c r="C103" t="n">
-        <v>0.202937</v>
+        <v>0.204632</v>
       </c>
       <c r="D103" t="n">
-        <v>0.205997</v>
+        <v>0.211111</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196439</v>
+        <v>0.200566</v>
       </c>
       <c r="C104" t="n">
-        <v>0.201505</v>
+        <v>0.2034</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20519</v>
+        <v>0.209952</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190199</v>
+        <v>0.194619</v>
       </c>
       <c r="C105" t="n">
-        <v>0.199995</v>
+        <v>0.202394</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20378</v>
+        <v>0.208899</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.183899</v>
+        <v>0.189071</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19879</v>
+        <v>0.201374</v>
       </c>
       <c r="D106" t="n">
-        <v>0.202772</v>
+        <v>0.208287</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.181572</v>
+        <v>0.1829</v>
       </c>
       <c r="C107" t="n">
-        <v>0.197688</v>
+        <v>0.200328</v>
       </c>
       <c r="D107" t="n">
-        <v>0.201893</v>
+        <v>0.207404</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174065</v>
+        <v>0.175872</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196395</v>
+        <v>0.19935</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219823</v>
+        <v>0.226196</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.164465</v>
+        <v>0.16719</v>
       </c>
       <c r="C109" t="n">
-        <v>0.195255</v>
+        <v>0.198662</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218373</v>
+        <v>0.22347</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239011</v>
+        <v>0.243374</v>
       </c>
       <c r="C110" t="n">
-        <v>0.213075</v>
+        <v>0.218772</v>
       </c>
       <c r="D110" t="n">
-        <v>0.216453</v>
+        <v>0.221331</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237236</v>
+        <v>0.238541</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212567</v>
+        <v>0.21513</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215057</v>
+        <v>0.219361</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23001</v>
+        <v>0.23333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211002</v>
+        <v>0.212532</v>
       </c>
       <c r="D112" t="n">
-        <v>0.213889</v>
+        <v>0.21764</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225188</v>
+        <v>0.227539</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209551</v>
+        <v>0.210489</v>
       </c>
       <c r="D113" t="n">
-        <v>0.212194</v>
+        <v>0.216071</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219683</v>
+        <v>0.221952</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208317</v>
+        <v>0.208765</v>
       </c>
       <c r="D114" t="n">
-        <v>0.210771</v>
+        <v>0.214638</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214053</v>
+        <v>0.216224</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207535</v>
+        <v>0.207254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.209368</v>
+        <v>0.213424</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208564</v>
+        <v>0.210661</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206022</v>
+        <v>0.205944</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208338</v>
+        <v>0.212142</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.202878</v>
+        <v>0.204622</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204714</v>
+        <v>0.204682</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207335</v>
+        <v>0.210932</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197231</v>
+        <v>0.198343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203263</v>
+        <v>0.203932</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205802</v>
+        <v>0.210265</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191216</v>
+        <v>0.192728</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201928</v>
+        <v>0.202798</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204439</v>
+        <v>0.209239</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.184904</v>
+        <v>0.1876</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201026</v>
+        <v>0.201737</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203253</v>
+        <v>0.208192</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.178237</v>
+        <v>0.180673</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199671</v>
+        <v>0.200772</v>
       </c>
       <c r="D121" t="n">
-        <v>0.202264</v>
+        <v>0.2073</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171001</v>
+        <v>0.173156</v>
       </c>
       <c r="C122" t="n">
-        <v>0.197939</v>
+        <v>0.199878</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201363</v>
+        <v>0.206298</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.160938</v>
+        <v>0.164479</v>
       </c>
       <c r="C123" t="n">
-        <v>0.196292</v>
+        <v>0.199059</v>
       </c>
       <c r="D123" t="n">
-        <v>0.218179</v>
+        <v>0.223845</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239961</v>
+        <v>0.242777</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213885</v>
+        <v>0.219196</v>
       </c>
       <c r="D124" t="n">
-        <v>0.21659</v>
+        <v>0.22154</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236019</v>
+        <v>0.238854</v>
       </c>
       <c r="C125" t="n">
-        <v>0.212571</v>
+        <v>0.215473</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215186</v>
+        <v>0.21956</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231744</v>
+        <v>0.234358</v>
       </c>
       <c r="C126" t="n">
-        <v>0.211775</v>
+        <v>0.212846</v>
       </c>
       <c r="D126" t="n">
-        <v>0.213623</v>
+        <v>0.217907</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226808</v>
+        <v>0.229217</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21038</v>
+        <v>0.210697</v>
       </c>
       <c r="D127" t="n">
-        <v>0.212616</v>
+        <v>0.216388</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221348</v>
+        <v>0.225191</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209085</v>
+        <v>0.209046</v>
       </c>
       <c r="D128" t="n">
-        <v>0.211216</v>
+        <v>0.214953</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215934</v>
+        <v>0.218051</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207792</v>
+        <v>0.207541</v>
       </c>
       <c r="D129" t="n">
-        <v>0.209598</v>
+        <v>0.213648</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210345</v>
+        <v>0.211125</v>
       </c>
       <c r="C130" t="n">
-        <v>0.20635</v>
+        <v>0.206209</v>
       </c>
       <c r="D130" t="n">
-        <v>0.208289</v>
+        <v>0.212481</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204538</v>
+        <v>0.204761</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2047</v>
+        <v>0.205007</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206923</v>
+        <v>0.211184</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199101</v>
+        <v>0.198811</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203727</v>
+        <v>0.203741</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205881</v>
+        <v>0.210266</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193018</v>
+        <v>0.196985</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202328</v>
+        <v>0.202687</v>
       </c>
       <c r="D133" t="n">
-        <v>0.204757</v>
+        <v>0.208996</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187429</v>
+        <v>0.190918</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201004</v>
+        <v>0.201728</v>
       </c>
       <c r="D134" t="n">
-        <v>0.203593</v>
+        <v>0.207898</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179901</v>
+        <v>0.179914</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19978</v>
+        <v>0.200607</v>
       </c>
       <c r="D135" t="n">
-        <v>0.202392</v>
+        <v>0.206965</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172143</v>
+        <v>0.172732</v>
       </c>
       <c r="C136" t="n">
-        <v>0.198202</v>
+        <v>0.199722</v>
       </c>
       <c r="D136" t="n">
-        <v>0.201524</v>
+        <v>0.206156</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16271</v>
+        <v>0.16394</v>
       </c>
       <c r="C137" t="n">
-        <v>0.196748</v>
+        <v>0.19883</v>
       </c>
       <c r="D137" t="n">
-        <v>0.218519</v>
+        <v>0.224773</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240732</v>
+        <v>0.24581</v>
       </c>
       <c r="C138" t="n">
-        <v>0.214517</v>
+        <v>0.220725</v>
       </c>
       <c r="D138" t="n">
-        <v>0.21676</v>
+        <v>0.22237</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236926</v>
+        <v>0.241601</v>
       </c>
       <c r="C139" t="n">
-        <v>0.212954</v>
+        <v>0.216865</v>
       </c>
       <c r="D139" t="n">
-        <v>0.215506</v>
+        <v>0.220278</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232884</v>
+        <v>0.237164</v>
       </c>
       <c r="C140" t="n">
-        <v>0.211802</v>
+        <v>0.213924</v>
       </c>
       <c r="D140" t="n">
-        <v>0.214072</v>
+        <v>0.218515</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227571</v>
+        <v>0.231948</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21056</v>
+        <v>0.211639</v>
       </c>
       <c r="D141" t="n">
-        <v>0.212792</v>
+        <v>0.216862</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222374</v>
+        <v>0.226189</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209103</v>
+        <v>0.209808</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21138</v>
+        <v>0.215426</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.21858</v>
+        <v>0.220813</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208097</v>
+        <v>0.208182</v>
       </c>
       <c r="D143" t="n">
-        <v>0.210052</v>
+        <v>0.213979</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.204288</v>
+                  <v>0.187292</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19442</v>
+                  <v>0.183982</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.187999</v>
+                  <v>0.179004</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.183702</v>
+                  <v>0.176892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.177518</v>
+                  <v>0.17022</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.171776</v>
+                  <v>0.163509</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.163307</v>
+                  <v>0.156318</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.152699</v>
+                  <v>0.146334</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.235719</v>
+                  <v>0.231139</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.232749</v>
+                  <v>0.228081</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.228385</v>
+                  <v>0.225517</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222208</v>
+                  <v>0.222864</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216689</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212032</v>
+                  <v>0.214659</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.20617</v>
+                  <v>0.209928</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.201752</v>
+                  <v>0.20518</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.195483</v>
+                  <v>0.200207</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.189832</v>
+                  <v>0.195783</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.183811</v>
+                  <v>0.189275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.178623</v>
+                  <v>0.181574</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.172033</v>
+                  <v>0.174132</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.163599</v>
+                  <v>0.16528</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.239505</v>
+                  <v>0.243142</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.233888</v>
+                  <v>0.239615</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230343</v>
+                  <v>0.236139</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224573</v>
+                  <v>0.232566</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.218914</v>
+                  <v>0.227385</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.215601</v>
+                  <v>0.222635</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.208658</v>
+                  <v>0.217695</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.204626</v>
+                  <v>0.212684</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.199956</v>
+                  <v>0.20734</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.197262</v>
+                  <v>0.20071</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.188346</v>
+                  <v>0.194395</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.182658</v>
+                  <v>0.186684</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181077</v>
+                  <v>0.181061</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.173516</v>
+                  <v>0.169795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.241963</v>
+                  <v>0.248879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.238452</v>
+                  <v>0.244774</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.234278</v>
+                  <v>0.241026</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.229805</v>
+                  <v>0.236858</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224733</v>
+                  <v>0.232237</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.220315</v>
+                  <v>0.227177</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.21506</v>
+                  <v>0.22226</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.209559</v>
+                  <v>0.216502</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.204334</v>
+                  <v>0.2114</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.199916</v>
+                  <v>0.204573</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.195282</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.189481</v>
+                  <v>0.191099</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183272</v>
+                  <v>0.183731</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.176701</v>
+                  <v>0.172869</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.168145</v>
+                  <v>0.161871</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.240661</v>
+                  <v>0.247769</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.236419</v>
+                  <v>0.243592</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.232684</v>
+                  <v>0.239389</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.227344</v>
+                  <v>0.234805</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.221784</v>
+                  <v>0.230401</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216792</v>
+                  <v>0.224628</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.211658</v>
+                  <v>0.218949</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.206551</v>
+                  <v>0.213275</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.20174</v>
+                  <v>0.206692</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.196262</v>
+                  <v>0.200398</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.190963</v>
+                  <v>0.193096</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.184661</v>
+                  <v>0.185345</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.178803</v>
+                  <v>0.177726</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.17051</v>
+                  <v>0.167032</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.242938</v>
+                  <v>0.250983</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.238263</v>
+                  <v>0.246922</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.233828</v>
+                  <v>0.24234</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.228553</v>
+                  <v>0.237651</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.223209</v>
+                  <v>0.232612</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.218078</v>
+                  <v>0.2275</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.212445</v>
+                  <v>0.222083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.20771</v>
+                  <v>0.215699</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.202499</v>
+                  <v>0.209667</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.197622</v>
+                  <v>0.202946</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.191849</v>
+                  <v>0.196222</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.186441</v>
+                  <v>0.188555</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.180338</v>
+                  <v>0.179944</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.172901</v>
+                  <v>0.169766</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.243893</v>
+                  <v>0.251071</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.237924</v>
+                  <v>0.247217</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233136</v>
+                  <v>0.243499</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.228112</v>
+                  <v>0.239247</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.222597</v>
+                  <v>0.233745</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217119</v>
+                  <v>0.228775</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.211811</v>
+                  <v>0.223145</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.206128</v>
+                  <v>0.217208</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.200721</v>
+                  <v>0.211176</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19501</v>
+                  <v>0.20484</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.189449</v>
+                  <v>0.197888</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.183148</v>
+                  <v>0.190605</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.176318</v>
+                  <v>0.182097</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168124</v>
+                  <v>0.1719</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.244806</v>
+                  <v>0.251299</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.240933</v>
+                  <v>0.248019</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.236613</v>
+                  <v>0.244127</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232219</v>
+                  <v>0.239723</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226766</v>
+                  <v>0.23491</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.22163</v>
+                  <v>0.229923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.216049</v>
+                  <v>0.224131</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.210901</v>
+                  <v>0.218559</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.205491</v>
+                  <v>0.212431</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.200459</v>
+                  <v>0.206093</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.195301</v>
+                  <v>0.199207</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.190072</v>
+                  <v>0.192019</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183759</v>
+                  <v>0.183749</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176649</v>
+                  <v>0.174303</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167755</v>
+                  <v>0.162838</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.241044</v>
+                  <v>0.249639</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.235785</v>
+                  <v>0.245731</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.230922</v>
+                  <v>0.241243</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.225733</v>
+                  <v>0.236498</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.219878</v>
+                  <v>0.231101</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.214459</v>
+                  <v>0.225563</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.20895</v>
+                  <v>0.219876</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.203289</v>
+                  <v>0.213794</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.197496</v>
+                  <v>0.207545</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.191773</v>
+                  <v>0.200654</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.185972</v>
+                  <v>0.193435</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.179337</v>
+                  <v>0.185456</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.171864</v>
+                  <v>0.175966</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163087</v>
+                  <v>0.16491</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.240168</v>
+                  <v>0.251293</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.236365</v>
+                  <v>0.247604</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.231752</v>
+                  <v>0.243229</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226514</v>
+                  <v>0.237169</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.221245</v>
+                  <v>0.232007</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.215316</v>
+                  <v>0.226576</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.209973</v>
+                  <v>0.221042</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.20465</v>
+                  <v>0.214901</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.198829</v>
+                  <v>0.208636</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.193233</v>
+                  <v>0.201996</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.18731</v>
+                  <v>0.195117</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.180802</v>
+                  <v>0.18742</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.173737</v>
+                  <v>0.178418</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164841</v>
+                  <v>0.167876</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.240876</v>
+                  <v>0.250586</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.236923</v>
+                  <v>0.247147</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.232511</v>
+                  <v>0.242923</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227622</v>
+                  <v>0.238252</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.222417</v>
+                  <v>0.2333</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.216895</v>
+                  <v>0.227843</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187788</v>
+                  <v>0.206229</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.186501</v>
+                  <v>0.206842</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.188187</v>
+                  <v>0.206135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187985</v>
+                  <v>0.206722</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188004</v>
+                  <v>0.206327</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.188763</v>
+                  <v>0.206321</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.187293</v>
+                  <v>0.206192</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.186718</v>
+                  <v>0.205238</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.205493</v>
+                  <v>0.224944</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.20465</v>
+                  <v>0.224007</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.203331</v>
+                  <v>0.222663</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.202318</v>
+                  <v>0.221498</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.200257</v>
+                  <v>0.221017</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.199789</v>
+                  <v>0.220245</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.19898</v>
+                  <v>0.219581</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.198243</v>
+                  <v>0.218457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.197143</v>
+                  <v>0.217573</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.196928</v>
+                  <v>0.217195</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.195321</v>
+                  <v>0.216497</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.195472</v>
+                  <v>0.215746</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.194724</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.19369</v>
+                  <v>0.21423</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209049</v>
+                  <v>0.228939</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.207532</v>
+                  <v>0.227393</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.206127</v>
+                  <v>0.227107</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.204557</v>
+                  <v>0.224972</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203222</v>
+                  <v>0.224321</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.201978</v>
+                  <v>0.223063</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.200627</v>
+                  <v>0.221902</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.199732</v>
+                  <v>0.220735</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.19892</v>
+                  <v>0.219663</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.198063</v>
+                  <v>0.219014</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.197677</v>
+                  <v>0.21802</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.196461</v>
+                  <v>0.217046</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.195004</v>
+                  <v>0.216342</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.194434</v>
+                  <v>0.215854</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.20979</v>
+                  <v>0.229763</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.208269</v>
+                  <v>0.228245</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.207035</v>
+                  <v>0.226658</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.205775</v>
+                  <v>0.225711</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.204888</v>
+                  <v>0.224436</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203576</v>
+                  <v>0.223405</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202627</v>
+                  <v>0.222302</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.201346</v>
+                  <v>0.22123</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.200287</v>
+                  <v>0.220403</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.199501</v>
+                  <v>0.219849</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198633</v>
+                  <v>0.218845</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.197358</v>
+                  <v>0.217926</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.196467</v>
+                  <v>0.217302</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.195645</v>
+                  <v>0.216228</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.194658</v>
+                  <v>0.215748</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.209692</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.208269</v>
+                  <v>0.227574</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.207072</v>
+                  <v>0.226449</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.205401</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.20426</v>
+                  <v>0.224386</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.20329</v>
+                  <v>0.223346</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202296</v>
+                  <v>0.222174</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.20107</v>
+                  <v>0.221052</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.200475</v>
+                  <v>0.220193</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.199308</v>
+                  <v>0.219293</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.198012</v>
+                  <v>0.218512</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.197031</v>
+                  <v>0.217698</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.196106</v>
+                  <v>0.216983</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.19521</v>
+                  <v>0.215886</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.211038</v>
+                  <v>0.231128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.209497</v>
+                  <v>0.229816</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.207555</v>
+                  <v>0.228207</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.206337</v>
+                  <v>0.226759</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.204753</v>
+                  <v>0.225621</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.203835</v>
+                  <v>0.224178</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.202517</v>
+                  <v>0.223074</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.201415</v>
+                  <v>0.221867</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.200408</v>
+                  <v>0.220973</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.199486</v>
+                  <v>0.22015</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.198389</v>
+                  <v>0.219205</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.197358</v>
+                  <v>0.218341</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.196362</v>
+                  <v>0.217394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.195436</v>
+                  <v>0.216569</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.211271</v>
+                  <v>0.238485</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.209914</v>
+                  <v>0.233573</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.208353</v>
+                  <v>0.230278</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.207477</v>
+                  <v>0.227726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.205956</v>
+                  <v>0.225567</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.204661</v>
+                  <v>0.224477</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.203489</v>
+                  <v>0.223515</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.202249</v>
+                  <v>0.222424</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201072</v>
+                  <v>0.221344</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200053</v>
+                  <v>0.220256</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198798</v>
+                  <v>0.219415</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.197924</v>
+                  <v>0.218492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.196753</v>
+                  <v>0.217706</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.195651</v>
+                  <v>0.216915</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.213844</v>
+                  <v>0.235879</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.211561</v>
+                  <v>0.232276</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.210325</v>
+                  <v>0.229777</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.2093</v>
+                  <v>0.227738</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.207879</v>
+                  <v>0.226186</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.206137</v>
+                  <v>0.224924</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.204602</v>
+                  <v>0.223825</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.203162</v>
+                  <v>0.222639</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.20178</v>
+                  <v>0.221594</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.200823</v>
+                  <v>0.220637</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.200032</v>
+                  <v>0.219782</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.198945</v>
+                  <v>0.218899</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.197806</v>
+                  <v>0.218093</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.196595</v>
+                  <v>0.217262</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.194905</v>
+                  <v>0.216542</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210872</v>
+                  <v>0.233106</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.20907</v>
+                  <v>0.230117</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.207718</v>
+                  <v>0.227957</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.207102</v>
+                  <v>0.226393</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.206784</v>
+                  <v>0.224926</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.205695</v>
+                  <v>0.223667</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.20456</v>
+                  <v>0.223096</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.203375</v>
+                  <v>0.221964</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.201652</v>
+                  <v>0.221041</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.199538</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.198548</v>
+                  <v>0.219251</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198399</v>
+                  <v>0.218443</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.197788</v>
+                  <v>0.217652</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.196565</v>
+                  <v>0.216747</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.211103</v>
+                  <v>0.233339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.209804</v>
+                  <v>0.230313</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.208435</v>
+                  <v>0.228265</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.206849</v>
+                  <v>0.226554</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.205586</v>
+                  <v>0.225147</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.205583</v>
+                  <v>0.223895</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.204704</v>
+                  <v>0.222836</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.203456</v>
+                  <v>0.221859</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.201841</v>
+                  <v>0.220818</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201044</v>
+                  <v>0.219893</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.198442</v>
+                  <v>0.219067</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.199362</v>
+                  <v>0.218239</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.197446</v>
+                  <v>0.217829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196455</v>
+                  <v>0.21699</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.211468</v>
+                  <v>0.234758</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.210023</v>
+                  <v>0.231578</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.208863</v>
+                  <v>0.229123</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.207975</v>
+                  <v>0.227302</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.207083</v>
+                  <v>0.225811</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.206227</v>
+                  <v>0.22452</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.189206</v>
+                  <v>0.209873</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.189628</v>
+                  <v>0.211012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.188832</v>
+                  <v>0.210745</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.188728</v>
+                  <v>0.211549</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.189916</v>
+                  <v>0.212704</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.190389</v>
+                  <v>0.211818</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.18966</v>
+                  <v>0.212862</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.204135</v>
+                  <v>0.227673</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.205146</v>
+                  <v>0.226193</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.204486</v>
+                  <v>0.226517</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20354</v>
+                  <v>0.225181</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.203591</v>
+                  <v>0.224215</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202589</v>
+                  <v>0.224629</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.201627</v>
+                  <v>0.224124</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.201327</v>
+                  <v>0.22305</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20026</v>
+                  <v>0.222995</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.199744</v>
+                  <v>0.221534</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.198556</v>
+                  <v>0.221762</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.197618</v>
+                  <v>0.221599</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.197531</v>
+                  <v>0.220998</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.196747</v>
+                  <v>0.21979</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.212155</v>
+                  <v>0.233436</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.210565</v>
+                  <v>0.232471</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209558</v>
+                  <v>0.231226</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.208259</v>
+                  <v>0.230275</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.20714</v>
+                  <v>0.229388</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.205962</v>
+                  <v>0.228411</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204634</v>
+                  <v>0.227283</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.203488</v>
+                  <v>0.226614</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.202825</v>
+                  <v>0.225598</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20213</v>
+                  <v>0.225321</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.201275</v>
+                  <v>0.224224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.20064</v>
+                  <v>0.223667</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.19972</v>
+                  <v>0.222733</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.19851</v>
+                  <v>0.222081</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215015</v>
+                  <v>0.235696</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213259</v>
+                  <v>0.234257</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.211969</v>
+                  <v>0.233102</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.210644</v>
+                  <v>0.231628</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.209465</v>
+                  <v>0.230805</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208467</v>
+                  <v>0.229469</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.207193</v>
+                  <v>0.228368</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.206043</v>
+                  <v>0.227503</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.204902</v>
+                  <v>0.226573</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.203766</v>
+                  <v>0.225474</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.202938</v>
+                  <v>0.224613</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.202014</v>
+                  <v>0.223838</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.200665</v>
+                  <v>0.223185</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.200004</v>
+                  <v>0.222298</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.217018</v>
+                  <v>0.236836</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215188</v>
+                  <v>0.235449</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.21345</v>
+                  <v>0.234269</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.212229</v>
+                  <v>0.232952</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.210887</v>
+                  <v>0.231637</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.20921</v>
+                  <v>0.230491</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.208077</v>
+                  <v>0.229579</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.207036</v>
+                  <v>0.22827</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.20576</v>
+                  <v>0.227342</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.204824</v>
+                  <v>0.226352</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.203753</v>
+                  <v>0.225524</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.202552</v>
+                  <v>0.22462</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.201499</v>
+                  <v>0.223724</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.200473</v>
+                  <v>0.222897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.199679</v>
+                  <v>0.222256</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.216096</v>
+                  <v>0.236524</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.214596</v>
+                  <v>0.234957</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.213184</v>
+                  <v>0.23352</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.211444</v>
+                  <v>0.232314</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.210063</v>
+                  <v>0.231079</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.208676</v>
+                  <v>0.230032</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.207298</v>
+                  <v>0.228745</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.205932</v>
+                  <v>0.227756</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.204831</v>
+                  <v>0.226814</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.203807</v>
+                  <v>0.225878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202646</v>
+                  <v>0.225063</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.20173</v>
+                  <v>0.224187</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.200812</v>
+                  <v>0.223308</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.200028</v>
+                  <v>0.222776</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216696</v>
+                  <v>0.238898</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.215114</v>
+                  <v>0.236543</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.213669</v>
+                  <v>0.234982</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.212053</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.210642</v>
+                  <v>0.231928</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.209374</v>
+                  <v>0.230557</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.207986</v>
+                  <v>0.229474</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.206741</v>
+                  <v>0.228263</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.205468</v>
+                  <v>0.22724</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.204273</v>
+                  <v>0.226241</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20318</v>
+                  <v>0.225489</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.201996</v>
+                  <v>0.224505</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.201026</v>
+                  <v>0.223735</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.200159</v>
+                  <v>0.222895</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.217094</v>
+                  <v>0.239711</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.215405</v>
+                  <v>0.237182</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.214009</v>
+                  <v>0.235335</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.212469</v>
+                  <v>0.233933</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.210989</v>
+                  <v>0.232964</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.209834</v>
+                  <v>0.231522</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.208204</v>
+                  <v>0.230428</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.206961</v>
+                  <v>0.228937</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.20591</v>
+                  <v>0.227841</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.204589</v>
+                  <v>0.226936</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203542</v>
+                  <v>0.226475</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.202492</v>
+                  <v>0.22552</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.201522</v>
+                  <v>0.22466</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.200552</v>
+                  <v>0.223865</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217869</v>
+                  <v>0.239576</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.215983</v>
+                  <v>0.237213</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.214176</v>
+                  <v>0.235342</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.212739</v>
+                  <v>0.233703</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.211362</v>
+                  <v>0.232291</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.209898</v>
+                  <v>0.230896</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.208599</v>
+                  <v>0.229691</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.207391</v>
+                  <v>0.22859</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.20611</v>
+                  <v>0.227856</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.204952</v>
+                  <v>0.226983</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.203891</v>
+                  <v>0.226085</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202877</v>
+                  <v>0.225282</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.201742</v>
+                  <v>0.224461</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.200857</v>
+                  <v>0.223722</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.199882</v>
+                  <v>0.223001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216063</v>
+                  <v>0.237285</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.214729</v>
+                  <v>0.235374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213195</v>
+                  <v>0.2337</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.211711</v>
+                  <v>0.232315</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.210362</v>
+                  <v>0.230895</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.209168</v>
+                  <v>0.229728</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.207869</v>
+                  <v>0.228673</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.206252</v>
+                  <v>0.227668</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.205165</v>
+                  <v>0.226699</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.203738</v>
+                  <v>0.225807</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.202487</v>
+                  <v>0.224951</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.201824</v>
+                  <v>0.224143</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.2008</v>
+                  <v>0.223409</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.19999</v>
+                  <v>0.223041</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216545</v>
+                  <v>0.238591</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.214966</v>
+                  <v>0.236406</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.213203</v>
+                  <v>0.234698</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.212099</v>
+                  <v>0.233163</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.210338</v>
+                  <v>0.231711</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.209133</v>
+                  <v>0.230522</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.208123</v>
+                  <v>0.229318</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20548</v>
+        <v>0.202049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193305</v>
+        <v>0.194046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199974</v>
+        <v>0.200084</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196073</v>
+        <v>0.195746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193948</v>
+        <v>0.194329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200457</v>
+        <v>0.20058</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19264</v>
+        <v>0.19288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194274</v>
+        <v>0.194098</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201039</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188939</v>
+        <v>0.188871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193698</v>
+        <v>0.194024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200569</v>
+        <v>0.201018</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183527</v>
+        <v>0.183054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19249</v>
+        <v>0.193477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199953</v>
+        <v>0.20025</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175979</v>
+        <v>0.175854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193282</v>
+        <v>0.193162</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199345</v>
+        <v>0.19965</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167637</v>
+        <v>0.16755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192896</v>
+        <v>0.192723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199832</v>
+        <v>0.199646</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158141</v>
+        <v>0.15816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192897</v>
+        <v>0.19266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218106</v>
+        <v>0.217294</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240513</v>
+        <v>0.242023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211084</v>
+        <v>0.211179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216461</v>
+        <v>0.216379</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.236206</v>
+        <v>0.235188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209831</v>
+        <v>0.209664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215309</v>
+        <v>0.215503</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232014</v>
+        <v>0.23227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208028</v>
+        <v>0.20813</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214152</v>
+        <v>0.214003</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228139</v>
+        <v>0.229032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206558</v>
+        <v>0.206843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212678</v>
+        <v>0.212324</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221854</v>
+        <v>0.223213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206157</v>
+        <v>0.205966</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212269</v>
+        <v>0.211976</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214269</v>
+        <v>0.216575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20505</v>
+        <v>0.204831</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211252</v>
+        <v>0.211257</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210477</v>
+        <v>0.210584</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204233</v>
+        <v>0.2041</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209996</v>
+        <v>0.210155</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205776</v>
+        <v>0.206412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203376</v>
+        <v>0.203441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209545</v>
+        <v>0.209318</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200503</v>
+        <v>0.200754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202193</v>
+        <v>0.202162</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208409</v>
+        <v>0.208359</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195725</v>
+        <v>0.195906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201311</v>
+        <v>0.201654</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2077</v>
+        <v>0.207474</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190217</v>
+        <v>0.190231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200391</v>
+        <v>0.20077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206876</v>
+        <v>0.206909</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185354</v>
+        <v>0.185383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19944</v>
+        <v>0.199316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206175</v>
+        <v>0.206002</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177734</v>
+        <v>0.177792</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198742</v>
+        <v>0.19895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205185</v>
+        <v>0.205012</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170053</v>
+        <v>0.170295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197619</v>
+        <v>0.197947</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222058</v>
+        <v>0.222023</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243202</v>
+        <v>0.24316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21428</v>
+        <v>0.216169</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219911</v>
+        <v>0.219903</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240521</v>
+        <v>0.240366</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212547</v>
+        <v>0.214803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218367</v>
+        <v>0.218466</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233783</v>
+        <v>0.234444</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211203</v>
+        <v>0.211265</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21688</v>
+        <v>0.217031</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230057</v>
+        <v>0.230091</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209789</v>
+        <v>0.210125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215447</v>
+        <v>0.215442</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225482</v>
+        <v>0.22587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208356</v>
+        <v>0.208318</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214251</v>
+        <v>0.21432</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218856</v>
+        <v>0.220625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207186</v>
+        <v>0.207129</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21296</v>
+        <v>0.212965</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213129</v>
+        <v>0.213878</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205616</v>
+        <v>0.205834</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211665</v>
+        <v>0.211649</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208235</v>
+        <v>0.208504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204655</v>
+        <v>0.204612</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210636</v>
+        <v>0.210657</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202337</v>
+        <v>0.201776</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20348</v>
+        <v>0.20338</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209719</v>
+        <v>0.209796</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197265</v>
+        <v>0.196442</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202388</v>
+        <v>0.202216</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208953</v>
+        <v>0.208804</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192635</v>
+        <v>0.191528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201412</v>
+        <v>0.201425</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208084</v>
+        <v>0.208004</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186926</v>
+        <v>0.186838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200092</v>
+        <v>0.200027</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206832</v>
+        <v>0.206908</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180948</v>
+        <v>0.180553</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200138</v>
+        <v>0.199972</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206242</v>
+        <v>0.206267</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171704</v>
+        <v>0.17156</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198982</v>
+        <v>0.199003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223046</v>
+        <v>0.222792</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245733</v>
+        <v>0.245802</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21497</v>
+        <v>0.215111</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220868</v>
+        <v>0.220991</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241802</v>
+        <v>0.241189</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213205</v>
+        <v>0.213214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219201</v>
+        <v>0.219261</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23564</v>
+        <v>0.23585</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21179</v>
+        <v>0.211909</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217796</v>
+        <v>0.217929</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231376</v>
+        <v>0.231086</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210503</v>
+        <v>0.210468</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216304</v>
+        <v>0.216478</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226085</v>
+        <v>0.225528</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208942</v>
+        <v>0.208987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214892</v>
+        <v>0.214971</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220502</v>
+        <v>0.22014</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207358</v>
+        <v>0.207405</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213516</v>
+        <v>0.21346</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214754</v>
+        <v>0.214658</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206287</v>
+        <v>0.206372</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212224</v>
+        <v>0.212319</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210026</v>
+        <v>0.209557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205099</v>
+        <v>0.205113</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211282</v>
+        <v>0.211344</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204833</v>
+        <v>0.204813</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203985</v>
+        <v>0.203991</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210054</v>
+        <v>0.210088</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199976</v>
+        <v>0.199829</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203031</v>
+        <v>0.202962</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209266</v>
+        <v>0.209327</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194018</v>
+        <v>0.194524</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202097</v>
+        <v>0.20212</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208284</v>
+        <v>0.208401</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188474</v>
+        <v>0.188367</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200919</v>
+        <v>0.200998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207214</v>
+        <v>0.207301</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182298</v>
+        <v>0.182398</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199835</v>
+        <v>0.199971</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206241</v>
+        <v>0.206261</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175717</v>
+        <v>0.175541</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198976</v>
+        <v>0.198952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223774</v>
+        <v>0.223304</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166938</v>
+        <v>0.166538</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19822</v>
+        <v>0.198172</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221617</v>
+        <v>0.22151</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240883</v>
+        <v>0.243312</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213959</v>
+        <v>0.213741</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22</v>
+        <v>0.219883</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237789</v>
+        <v>0.23878</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212184</v>
+        <v>0.212186</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218444</v>
+        <v>0.218376</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233346</v>
+        <v>0.235121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210884</v>
+        <v>0.210807</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216943</v>
+        <v>0.217021</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.22721</v>
+        <v>0.228706</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209365</v>
+        <v>0.209351</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215481</v>
+        <v>0.215508</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221047</v>
+        <v>0.222401</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208159</v>
+        <v>0.208044</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214405</v>
+        <v>0.214351</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21481</v>
+        <v>0.217257</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206853</v>
+        <v>0.20676</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21305</v>
+        <v>0.213066</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208951</v>
+        <v>0.211123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205645</v>
+        <v>0.205609</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211594</v>
+        <v>0.211543</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203327</v>
+        <v>0.206721</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204568</v>
+        <v>0.204459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210532</v>
+        <v>0.210493</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198048</v>
+        <v>0.201207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203508</v>
+        <v>0.203363</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209411</v>
+        <v>0.209419</v>
       </c>
     </row>
     <row r="62">
@@ -4089,10 +4089,10 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192091</v>
+        <v>0.195585</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202356</v>
+        <v>0.202389</v>
       </c>
       <c r="D62" t="n">
         <v>0.208389</v>
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186628</v>
+        <v>0.19072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.20143</v>
+        <v>0.201341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207846</v>
+        <v>0.207791</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184508</v>
+        <v>0.184432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200491</v>
+        <v>0.200364</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206527</v>
+        <v>0.206495</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177865</v>
+        <v>0.177866</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199404</v>
+        <v>0.199318</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205678</v>
+        <v>0.205661</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169371</v>
+        <v>0.169173</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198401</v>
+        <v>0.198281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22242</v>
+        <v>0.222245</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242327</v>
+        <v>0.240998</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22017</v>
+        <v>0.215085</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220675</v>
+        <v>0.220532</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237932</v>
+        <v>0.237103</v>
       </c>
       <c r="C68" t="n">
-        <v>0.217186</v>
+        <v>0.213453</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218998</v>
+        <v>0.21889</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233648</v>
+        <v>0.233193</v>
       </c>
       <c r="C69" t="n">
-        <v>0.214402</v>
+        <v>0.21178</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217517</v>
+        <v>0.217404</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228914</v>
+        <v>0.22776</v>
       </c>
       <c r="C70" t="n">
-        <v>0.212033</v>
+        <v>0.210302</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216185</v>
+        <v>0.216089</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22497</v>
+        <v>0.222945</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209754</v>
+        <v>0.208835</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214783</v>
+        <v>0.214669</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219383</v>
+        <v>0.216825</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207779</v>
+        <v>0.20753</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213535</v>
+        <v>0.213467</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.214086</v>
+        <v>0.210904</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206227</v>
+        <v>0.206245</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21227</v>
+        <v>0.212253</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208751</v>
+        <v>0.205534</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204956</v>
+        <v>0.205034</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211167</v>
+        <v>0.211118</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202756</v>
+        <v>0.199583</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203847</v>
+        <v>0.203911</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210121</v>
+        <v>0.210071</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197784</v>
+        <v>0.193617</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202724</v>
+        <v>0.202859</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209156</v>
+        <v>0.209081</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192392</v>
+        <v>0.187764</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201766</v>
+        <v>0.201801</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208136</v>
+        <v>0.208095</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18648</v>
+        <v>0.181031</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200743</v>
+        <v>0.200861</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207142</v>
+        <v>0.207137</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180075</v>
+        <v>0.179948</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199704</v>
+        <v>0.199829</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206309</v>
+        <v>0.206271</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172689</v>
+        <v>0.172366</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198709</v>
+        <v>0.198857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224794</v>
+        <v>0.224908</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244049</v>
+        <v>0.244695</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224783</v>
+        <v>0.223513</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222528</v>
+        <v>0.222403</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240011</v>
+        <v>0.240798</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219527</v>
+        <v>0.219385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220439</v>
+        <v>0.220091</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236766</v>
+        <v>0.236545</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214421</v>
+        <v>0.214069</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218585</v>
+        <v>0.218519</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231389</v>
+        <v>0.230802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211507</v>
+        <v>0.211763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216876</v>
+        <v>0.217172</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225869</v>
+        <v>0.225517</v>
       </c>
       <c r="C85" t="n">
-        <v>0.20976</v>
+        <v>0.209776</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215331</v>
+        <v>0.215601</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219923</v>
+        <v>0.220014</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208248</v>
+        <v>0.208364</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214042</v>
+        <v>0.214152</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213328</v>
+        <v>0.214042</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206923</v>
+        <v>0.207022</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212778</v>
+        <v>0.212863</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20715</v>
+        <v>0.207106</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205719</v>
+        <v>0.205854</v>
       </c>
       <c r="D88" t="n">
-        <v>0.21155</v>
+        <v>0.211648</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201404</v>
+        <v>0.201161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204372</v>
+        <v>0.204568</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210443</v>
+        <v>0.210455</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195737</v>
+        <v>0.195746</v>
       </c>
       <c r="C90" t="n">
-        <v>0.20341</v>
+        <v>0.203308</v>
       </c>
       <c r="D90" t="n">
-        <v>0.20931</v>
+        <v>0.20938</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189612</v>
+        <v>0.189249</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202193</v>
+        <v>0.202191</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208377</v>
+        <v>0.208443</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183178</v>
+        <v>0.183121</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201149</v>
+        <v>0.201154</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207454</v>
+        <v>0.207504</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.17646</v>
+        <v>0.176384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200159</v>
+        <v>0.200148</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206645</v>
+        <v>0.206576</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168311</v>
+        <v>0.16827</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199316</v>
+        <v>0.199338</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226514</v>
+        <v>0.226398</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245069</v>
+        <v>0.244889</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22214</v>
+        <v>0.222154</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223565</v>
+        <v>0.223544</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24099</v>
+        <v>0.241034</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217989</v>
+        <v>0.217887</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221012</v>
+        <v>0.22116</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237061</v>
+        <v>0.235638</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214993</v>
+        <v>0.214929</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219078</v>
+        <v>0.219195</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231238</v>
+        <v>0.231257</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212348</v>
+        <v>0.212122</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217686</v>
+        <v>0.21761</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22614</v>
+        <v>0.225901</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210298</v>
+        <v>0.210186</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216747</v>
+        <v>0.216534</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22023</v>
+        <v>0.220058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208754</v>
+        <v>0.20875</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215321</v>
+        <v>0.215277</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214443</v>
+        <v>0.21456</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207191</v>
+        <v>0.207164</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213877</v>
+        <v>0.213773</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208246</v>
+        <v>0.20802</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205853</v>
+        <v>0.205837</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21266</v>
+        <v>0.212207</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205824</v>
+        <v>0.205753</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204632</v>
+        <v>0.204584</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211111</v>
+        <v>0.211025</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200566</v>
+        <v>0.200435</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2034</v>
+        <v>0.203343</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209952</v>
+        <v>0.209878</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194619</v>
+        <v>0.19454</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202394</v>
+        <v>0.202357</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208899</v>
+        <v>0.208849</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189071</v>
+        <v>0.189131</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201374</v>
+        <v>0.201278</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208287</v>
+        <v>0.208316</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1829</v>
+        <v>0.183058</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200328</v>
+        <v>0.200216</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207404</v>
+        <v>0.207346</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175872</v>
+        <v>0.176048</v>
       </c>
       <c r="C108" t="n">
-        <v>0.19935</v>
+        <v>0.199304</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226196</v>
+        <v>0.225988</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16719</v>
+        <v>0.167424</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198662</v>
+        <v>0.198599</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22347</v>
+        <v>0.223504</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243374</v>
+        <v>0.243156</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218772</v>
+        <v>0.218824</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221331</v>
+        <v>0.221183</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238541</v>
+        <v>0.238087</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21513</v>
+        <v>0.215177</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219361</v>
+        <v>0.21929</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23333</v>
+        <v>0.233647</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212532</v>
+        <v>0.212533</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21764</v>
+        <v>0.217588</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227539</v>
+        <v>0.228482</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210489</v>
+        <v>0.210463</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216071</v>
+        <v>0.216049</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221952</v>
+        <v>0.222738</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208765</v>
+        <v>0.208743</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214638</v>
+        <v>0.214675</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216224</v>
+        <v>0.216513</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207254</v>
+        <v>0.207268</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213424</v>
+        <v>0.213383</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210661</v>
+        <v>0.210863</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205944</v>
+        <v>0.205933</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212142</v>
+        <v>0.212113</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204622</v>
+        <v>0.205482</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204682</v>
+        <v>0.204643</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210932</v>
+        <v>0.210908</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198343</v>
+        <v>0.200448</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203932</v>
+        <v>0.203915</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210265</v>
+        <v>0.210252</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.192728</v>
+        <v>0.195105</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202798</v>
+        <v>0.202775</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209239</v>
+        <v>0.209223</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1876</v>
+        <v>0.18954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201737</v>
+        <v>0.201759</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208192</v>
+        <v>0.208224</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.180673</v>
+        <v>0.183389</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200772</v>
+        <v>0.200729</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2073</v>
+        <v>0.207228</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.173156</v>
+        <v>0.176037</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199878</v>
+        <v>0.199891</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206298</v>
+        <v>0.206486</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164479</v>
+        <v>0.167733</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199059</v>
+        <v>0.19905</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223845</v>
+        <v>0.223859</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242777</v>
+        <v>0.242447</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219196</v>
+        <v>0.21918</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22154</v>
+        <v>0.221591</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238854</v>
+        <v>0.239024</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215473</v>
+        <v>0.215463</v>
       </c>
       <c r="D125" t="n">
-        <v>0.21956</v>
+        <v>0.219587</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234358</v>
+        <v>0.233898</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212846</v>
+        <v>0.212845</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217907</v>
+        <v>0.217867</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229217</v>
+        <v>0.228992</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210697</v>
+        <v>0.210758</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216388</v>
+        <v>0.21638</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225191</v>
+        <v>0.224071</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209046</v>
+        <v>0.209052</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214953</v>
+        <v>0.214992</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218051</v>
+        <v>0.217522</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207541</v>
+        <v>0.207566</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213648</v>
+        <v>0.213679</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211125</v>
+        <v>0.210932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206209</v>
+        <v>0.206192</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212481</v>
+        <v>0.212448</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204761</v>
+        <v>0.204514</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205007</v>
+        <v>0.204991</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211184</v>
+        <v>0.211226</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198811</v>
+        <v>0.198559</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203741</v>
+        <v>0.20378</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210266</v>
+        <v>0.210227</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196985</v>
+        <v>0.196843</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202687</v>
+        <v>0.202686</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208996</v>
+        <v>0.208985</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190918</v>
+        <v>0.186648</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201728</v>
+        <v>0.201643</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207898</v>
+        <v>0.208014</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179914</v>
+        <v>0.184903</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200607</v>
+        <v>0.200615</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206965</v>
+        <v>0.206962</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172732</v>
+        <v>0.178302</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199722</v>
+        <v>0.199738</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206156</v>
+        <v>0.206145</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16394</v>
+        <v>0.169779</v>
       </c>
       <c r="C137" t="n">
-        <v>0.19883</v>
+        <v>0.198799</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224773</v>
+        <v>0.224846</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24581</v>
+        <v>0.245658</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220725</v>
+        <v>0.220787</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22237</v>
+        <v>0.222375</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241601</v>
+        <v>0.241797</v>
       </c>
       <c r="C139" t="n">
-        <v>0.216865</v>
+        <v>0.21695</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220278</v>
+        <v>0.220332</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237164</v>
+        <v>0.237019</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213924</v>
+        <v>0.213921</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218515</v>
+        <v>0.218494</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231948</v>
+        <v>0.231686</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211639</v>
+        <v>0.211681</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216862</v>
+        <v>0.216847</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226189</v>
+        <v>0.22634</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209808</v>
+        <v>0.209798</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215426</v>
+        <v>0.215424</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220813</v>
+        <v>0.220692</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208182</v>
+        <v>0.208249</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213979</v>
+        <v>0.213962</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202049</v>
+        <v>0.200627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194046</v>
+        <v>0.193184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200084</v>
+        <v>0.200364</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195746</v>
+        <v>0.196035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194329</v>
+        <v>0.19427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20058</v>
+        <v>0.200265</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19288</v>
+        <v>0.193519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194098</v>
+        <v>0.19366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201</v>
+        <v>0.201269</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188871</v>
+        <v>0.189348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194024</v>
+        <v>0.193775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201018</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183054</v>
+        <v>0.182695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193477</v>
+        <v>0.193175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20025</v>
+        <v>0.200421</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175854</v>
+        <v>0.175946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193162</v>
+        <v>0.192672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19965</v>
+        <v>0.199544</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16755</v>
+        <v>0.167446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192723</v>
+        <v>0.192169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199646</v>
+        <v>0.19961</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15816</v>
+        <v>0.157822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19266</v>
+        <v>0.192778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217294</v>
+        <v>0.218192</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242023</v>
+        <v>0.240441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211179</v>
+        <v>0.213228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216379</v>
+        <v>0.216241</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235188</v>
+        <v>0.234879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209664</v>
+        <v>0.20992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215503</v>
+        <v>0.215379</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23227</v>
+        <v>0.231485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20813</v>
+        <v>0.208125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214003</v>
+        <v>0.214911</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229032</v>
+        <v>0.22706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206843</v>
+        <v>0.206732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212324</v>
+        <v>0.212594</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.223213</v>
+        <v>0.220913</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205966</v>
+        <v>0.206185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211976</v>
+        <v>0.212152</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216575</v>
+        <v>0.213861</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204831</v>
+        <v>0.205315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211257</v>
+        <v>0.211463</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210584</v>
+        <v>0.211003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2041</v>
+        <v>0.204489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210155</v>
+        <v>0.210291</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206412</v>
+        <v>0.206185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203441</v>
+        <v>0.203281</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209318</v>
+        <v>0.20957</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200754</v>
+        <v>0.200171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202162</v>
+        <v>0.202306</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208359</v>
+        <v>0.208677</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195906</v>
+        <v>0.195291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201654</v>
+        <v>0.201355</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207474</v>
+        <v>0.20767</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190231</v>
+        <v>0.189379</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20077</v>
+        <v>0.200548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206909</v>
+        <v>0.206898</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185383</v>
+        <v>0.18454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199316</v>
+        <v>0.199483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206002</v>
+        <v>0.206105</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177792</v>
+        <v>0.177014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.19895</v>
+        <v>0.198707</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205012</v>
+        <v>0.205204</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170295</v>
+        <v>0.169152</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197947</v>
+        <v>0.197718</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222023</v>
+        <v>0.222851</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24316</v>
+        <v>0.243084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216169</v>
+        <v>0.215891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219903</v>
+        <v>0.220249</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240366</v>
+        <v>0.238542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214803</v>
+        <v>0.212798</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218466</v>
+        <v>0.218451</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234444</v>
+        <v>0.233792</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211265</v>
+        <v>0.211345</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217031</v>
+        <v>0.216982</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230091</v>
+        <v>0.229617</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210125</v>
+        <v>0.209973</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215442</v>
+        <v>0.215488</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22587</v>
+        <v>0.225367</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208318</v>
+        <v>0.208701</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21432</v>
+        <v>0.214205</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220625</v>
+        <v>0.220474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207129</v>
+        <v>0.207137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212965</v>
+        <v>0.212958</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213878</v>
+        <v>0.213516</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205834</v>
+        <v>0.205659</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211649</v>
+        <v>0.211659</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208504</v>
+        <v>0.208988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204612</v>
+        <v>0.20455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210657</v>
+        <v>0.210478</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201776</v>
+        <v>0.201852</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20338</v>
+        <v>0.203383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209796</v>
+        <v>0.20971</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196442</v>
+        <v>0.196705</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202216</v>
+        <v>0.202089</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208804</v>
+        <v>0.208827</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191528</v>
+        <v>0.192224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201425</v>
+        <v>0.201512</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208004</v>
+        <v>0.208082</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186838</v>
+        <v>0.18641</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200027</v>
+        <v>0.200152</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206908</v>
+        <v>0.206819</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180553</v>
+        <v>0.180231</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199972</v>
+        <v>0.200062</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206267</v>
+        <v>0.206221</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17156</v>
+        <v>0.17158</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199003</v>
+        <v>0.199109</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222792</v>
+        <v>0.223099</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245802</v>
+        <v>0.245962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215111</v>
+        <v>0.215195</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220991</v>
+        <v>0.220885</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241189</v>
+        <v>0.241272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213214</v>
+        <v>0.213249</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219261</v>
+        <v>0.219345</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23585</v>
+        <v>0.236183</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211909</v>
+        <v>0.211952</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217929</v>
+        <v>0.218034</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231086</v>
+        <v>0.23139</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210468</v>
+        <v>0.210566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216478</v>
+        <v>0.216407</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225528</v>
+        <v>0.22548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208987</v>
+        <v>0.209016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214971</v>
+        <v>0.215004</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22014</v>
+        <v>0.220533</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207405</v>
+        <v>0.207551</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21346</v>
+        <v>0.21351</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214658</v>
+        <v>0.214894</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206372</v>
+        <v>0.206429</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212319</v>
+        <v>0.212259</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209557</v>
+        <v>0.209984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205113</v>
+        <v>0.205322</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211344</v>
+        <v>0.211245</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204813</v>
+        <v>0.20486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203991</v>
+        <v>0.204061</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210088</v>
+        <v>0.210063</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199829</v>
+        <v>0.199594</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202962</v>
+        <v>0.203213</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209327</v>
+        <v>0.209309</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194524</v>
+        <v>0.193972</v>
       </c>
       <c r="C48" t="n">
-        <v>0.20212</v>
+        <v>0.202129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208401</v>
+        <v>0.208406</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188367</v>
+        <v>0.188127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200998</v>
+        <v>0.201193</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207301</v>
+        <v>0.207278</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182398</v>
+        <v>0.182069</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199971</v>
+        <v>0.200092</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206261</v>
+        <v>0.206294</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175541</v>
+        <v>0.175156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198952</v>
+        <v>0.199142</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223304</v>
+        <v>0.22361</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166538</v>
+        <v>0.166497</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198172</v>
+        <v>0.198286</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22151</v>
+        <v>0.221532</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243312</v>
+        <v>0.24314</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213741</v>
+        <v>0.213953</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219883</v>
+        <v>0.219982</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23878</v>
+        <v>0.239841</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212186</v>
+        <v>0.212274</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218376</v>
+        <v>0.218459</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235121</v>
+        <v>0.235406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210807</v>
+        <v>0.210893</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217021</v>
+        <v>0.21703</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228706</v>
+        <v>0.229678</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209351</v>
+        <v>0.209346</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215508</v>
+        <v>0.215673</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222401</v>
+        <v>0.223307</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208044</v>
+        <v>0.208138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214351</v>
+        <v>0.214447</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217257</v>
+        <v>0.21746</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20676</v>
+        <v>0.206907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213066</v>
+        <v>0.213131</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211123</v>
+        <v>0.211517</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205609</v>
+        <v>0.205731</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211543</v>
+        <v>0.211673</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206721</v>
+        <v>0.206491</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204459</v>
+        <v>0.204568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210493</v>
+        <v>0.210518</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201207</v>
+        <v>0.201032</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203363</v>
+        <v>0.203509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209419</v>
+        <v>0.20945</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195585</v>
+        <v>0.196027</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202389</v>
+        <v>0.202428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208389</v>
+        <v>0.208401</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19072</v>
+        <v>0.190755</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201341</v>
+        <v>0.201493</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207791</v>
+        <v>0.207875</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184432</v>
+        <v>0.184323</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200364</v>
+        <v>0.20043</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206495</v>
+        <v>0.206539</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177866</v>
+        <v>0.177577</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199318</v>
+        <v>0.199384</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205661</v>
+        <v>0.205742</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169173</v>
+        <v>0.169033</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198281</v>
+        <v>0.198464</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222245</v>
+        <v>0.222348</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240998</v>
+        <v>0.241582</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215085</v>
+        <v>0.215705</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220532</v>
+        <v>0.220677</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237103</v>
+        <v>0.237843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213453</v>
+        <v>0.213991</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21889</v>
+        <v>0.219045</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233193</v>
+        <v>0.233869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21178</v>
+        <v>0.212226</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217404</v>
+        <v>0.217569</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22776</v>
+        <v>0.228559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210302</v>
+        <v>0.210669</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216089</v>
+        <v>0.216239</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222945</v>
+        <v>0.22452</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208835</v>
+        <v>0.209125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214669</v>
+        <v>0.214764</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216825</v>
+        <v>0.219173</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20753</v>
+        <v>0.207713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213467</v>
+        <v>0.213641</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210904</v>
+        <v>0.213376</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206245</v>
+        <v>0.206426</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212253</v>
+        <v>0.212351</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205534</v>
+        <v>0.208501</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205034</v>
+        <v>0.20513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211118</v>
+        <v>0.211223</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199583</v>
+        <v>0.202913</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203911</v>
+        <v>0.204006</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210071</v>
+        <v>0.210189</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193617</v>
+        <v>0.197075</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202859</v>
+        <v>0.202894</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209081</v>
+        <v>0.209159</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187764</v>
+        <v>0.191647</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201801</v>
+        <v>0.201885</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208095</v>
+        <v>0.20822</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181031</v>
+        <v>0.185861</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200861</v>
+        <v>0.200832</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207137</v>
+        <v>0.207235</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179948</v>
+        <v>0.179671</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199829</v>
+        <v>0.199897</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206271</v>
+        <v>0.206405</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172366</v>
+        <v>0.172528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198857</v>
+        <v>0.198876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224908</v>
+        <v>0.224573</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244695</v>
+        <v>0.243777</v>
       </c>
       <c r="C81" t="n">
-        <v>0.223513</v>
+        <v>0.225107</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222403</v>
+        <v>0.222583</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240798</v>
+        <v>0.240349</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219385</v>
+        <v>0.219441</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220091</v>
+        <v>0.220377</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236545</v>
+        <v>0.236009</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214069</v>
+        <v>0.21501</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218519</v>
+        <v>0.218658</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230802</v>
+        <v>0.230723</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211763</v>
+        <v>0.211912</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217172</v>
+        <v>0.217341</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225517</v>
+        <v>0.225302</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209776</v>
+        <v>0.209879</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215601</v>
+        <v>0.215617</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220014</v>
+        <v>0.220046</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208364</v>
+        <v>0.208606</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214152</v>
+        <v>0.214216</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214042</v>
+        <v>0.213472</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207022</v>
+        <v>0.207124</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212863</v>
+        <v>0.212942</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207106</v>
+        <v>0.207319</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205854</v>
+        <v>0.20594</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211648</v>
+        <v>0.211617</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201161</v>
+        <v>0.200998</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204568</v>
+        <v>0.204584</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210455</v>
+        <v>0.210566</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195746</v>
+        <v>0.1955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203308</v>
+        <v>0.203362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.20938</v>
+        <v>0.209508</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189249</v>
+        <v>0.189243</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202191</v>
+        <v>0.202284</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208443</v>
+        <v>0.20852</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183121</v>
+        <v>0.183143</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201154</v>
+        <v>0.201188</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207504</v>
+        <v>0.207581</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176384</v>
+        <v>0.176198</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200148</v>
+        <v>0.200179</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206576</v>
+        <v>0.206667</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16827</v>
+        <v>0.168139</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199338</v>
+        <v>0.199406</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226398</v>
+        <v>0.226344</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244889</v>
+        <v>0.244274</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222154</v>
+        <v>0.222067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223544</v>
+        <v>0.223444</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241034</v>
+        <v>0.240888</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217887</v>
+        <v>0.218</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22116</v>
+        <v>0.221099</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235638</v>
+        <v>0.236121</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214929</v>
+        <v>0.215008</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219195</v>
+        <v>0.219338</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231257</v>
+        <v>0.23089</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212122</v>
+        <v>0.212263</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21761</v>
+        <v>0.217708</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225901</v>
+        <v>0.225646</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210186</v>
+        <v>0.210256</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216534</v>
+        <v>0.216734</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220058</v>
+        <v>0.219661</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20875</v>
+        <v>0.208738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215277</v>
+        <v>0.215296</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.21456</v>
+        <v>0.214551</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207164</v>
+        <v>0.20718</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213773</v>
+        <v>0.213826</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20802</v>
+        <v>0.208093</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205837</v>
+        <v>0.205797</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212207</v>
+        <v>0.212153</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205753</v>
+        <v>0.205816</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204584</v>
+        <v>0.204569</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211025</v>
+        <v>0.21105</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200435</v>
+        <v>0.20044</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203343</v>
+        <v>0.20337</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209878</v>
+        <v>0.209949</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19454</v>
+        <v>0.194714</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202357</v>
+        <v>0.202398</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208849</v>
+        <v>0.208946</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189131</v>
+        <v>0.188829</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201278</v>
+        <v>0.201398</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208316</v>
+        <v>0.208362</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183058</v>
+        <v>0.183184</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200216</v>
+        <v>0.200247</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207346</v>
+        <v>0.207385</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176048</v>
+        <v>0.175928</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199304</v>
+        <v>0.199316</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225988</v>
+        <v>0.226187</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167424</v>
+        <v>0.166521</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198599</v>
+        <v>0.198625</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223504</v>
+        <v>0.223595</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243156</v>
+        <v>0.243149</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218824</v>
+        <v>0.218861</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221183</v>
+        <v>0.22139</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238087</v>
+        <v>0.238582</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215177</v>
+        <v>0.215201</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21929</v>
+        <v>0.219447</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233647</v>
+        <v>0.233455</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212533</v>
+        <v>0.212595</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217588</v>
+        <v>0.217692</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228482</v>
+        <v>0.227971</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210463</v>
+        <v>0.210559</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216049</v>
+        <v>0.216094</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222738</v>
+        <v>0.222652</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208743</v>
+        <v>0.208789</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214675</v>
+        <v>0.214744</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216513</v>
+        <v>0.216833</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207268</v>
+        <v>0.207274</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213383</v>
+        <v>0.213461</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210863</v>
+        <v>0.211786</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205933</v>
+        <v>0.205948</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212113</v>
+        <v>0.212179</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205482</v>
+        <v>0.205939</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204643</v>
+        <v>0.20472</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210908</v>
+        <v>0.210939</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200448</v>
+        <v>0.200684</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203915</v>
+        <v>0.203923</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210252</v>
+        <v>0.210282</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195105</v>
+        <v>0.195322</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202775</v>
+        <v>0.20282</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209223</v>
+        <v>0.209281</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.18954</v>
+        <v>0.189503</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201759</v>
+        <v>0.201782</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208224</v>
+        <v>0.208229</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183389</v>
+        <v>0.182999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200729</v>
+        <v>0.200864</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207228</v>
+        <v>0.207261</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176037</v>
+        <v>0.175795</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199891</v>
+        <v>0.199907</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206486</v>
+        <v>0.206291</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167733</v>
+        <v>0.16738</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19905</v>
+        <v>0.199053</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223859</v>
+        <v>0.223854</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242447</v>
+        <v>0.242344</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21918</v>
+        <v>0.219222</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221591</v>
+        <v>0.221557</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239024</v>
+        <v>0.238338</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215463</v>
+        <v>0.21548</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219587</v>
+        <v>0.219644</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233898</v>
+        <v>0.233676</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212845</v>
+        <v>0.212822</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217867</v>
+        <v>0.21793</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228992</v>
+        <v>0.228538</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210758</v>
+        <v>0.210734</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21638</v>
+        <v>0.216393</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224071</v>
+        <v>0.223355</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209052</v>
+        <v>0.209023</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214992</v>
+        <v>0.215033</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217522</v>
+        <v>0.217472</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207566</v>
+        <v>0.207575</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213679</v>
+        <v>0.213688</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210932</v>
+        <v>0.211</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206192</v>
+        <v>0.2062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212448</v>
+        <v>0.212472</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204514</v>
+        <v>0.204588</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204991</v>
+        <v>0.204962</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211226</v>
+        <v>0.211167</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198559</v>
+        <v>0.199367</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20378</v>
+        <v>0.203759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210227</v>
+        <v>0.210206</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196843</v>
+        <v>0.196802</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202686</v>
+        <v>0.202684</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208985</v>
+        <v>0.209019</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186648</v>
+        <v>0.190903</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201643</v>
+        <v>0.201727</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208014</v>
+        <v>0.208039</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.184903</v>
+        <v>0.179886</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200615</v>
+        <v>0.200613</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206962</v>
+        <v>0.20697</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178302</v>
+        <v>0.172598</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199738</v>
+        <v>0.199717</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206145</v>
+        <v>0.206144</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169779</v>
+        <v>0.163751</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198799</v>
+        <v>0.198782</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224846</v>
+        <v>0.224869</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245658</v>
+        <v>0.245038</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220787</v>
+        <v>0.220834</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222375</v>
+        <v>0.222373</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241797</v>
+        <v>0.24142</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21695</v>
+        <v>0.216921</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220332</v>
+        <v>0.220284</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237019</v>
+        <v>0.236522</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213921</v>
+        <v>0.213907</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218494</v>
+        <v>0.218508</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231686</v>
+        <v>0.231426</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211681</v>
+        <v>0.211675</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216847</v>
+        <v>0.216876</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22634</v>
+        <v>0.225939</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209798</v>
+        <v>0.209855</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215424</v>
+        <v>0.215433</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220692</v>
+        <v>0.220242</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208249</v>
+        <v>0.20822</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213962</v>
+        <v>0.213992</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200627</v>
+        <v>0.20203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193184</v>
+        <v>0.193544</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200364</v>
+        <v>0.199488</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196035</v>
+        <v>0.196893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19427</v>
+        <v>0.194304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200265</v>
+        <v>0.200397</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193519</v>
+        <v>0.193927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19366</v>
+        <v>0.194009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201269</v>
+        <v>0.201352</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189348</v>
+        <v>0.189489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193775</v>
+        <v>0.193745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200513</v>
+        <v>0.200449</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182695</v>
+        <v>0.183606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193175</v>
+        <v>0.193014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200421</v>
+        <v>0.200156</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175946</v>
+        <v>0.176438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192672</v>
+        <v>0.192514</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199544</v>
+        <v>0.199703</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167446</v>
+        <v>0.169287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192169</v>
+        <v>0.192616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19961</v>
+        <v>0.199261</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157822</v>
+        <v>0.158412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192778</v>
+        <v>0.19255</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218192</v>
+        <v>0.217678</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240441</v>
+        <v>0.239691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213228</v>
+        <v>0.211057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216241</v>
+        <v>0.217453</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234879</v>
+        <v>0.235078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20992</v>
+        <v>0.210156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215379</v>
+        <v>0.215556</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231485</v>
+        <v>0.231416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208125</v>
+        <v>0.208227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214911</v>
+        <v>0.214928</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22706</v>
+        <v>0.228021</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206732</v>
+        <v>0.206849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212594</v>
+        <v>0.213029</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220913</v>
+        <v>0.221074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206185</v>
+        <v>0.205971</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212152</v>
+        <v>0.212222</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213861</v>
+        <v>0.215383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205315</v>
+        <v>0.205147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211463</v>
+        <v>0.211486</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211003</v>
+        <v>0.210907</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204489</v>
+        <v>0.204457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210291</v>
+        <v>0.210117</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206185</v>
+        <v>0.206553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203281</v>
+        <v>0.203343</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20957</v>
+        <v>0.209414</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200171</v>
+        <v>0.200937</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202306</v>
+        <v>0.202381</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208677</v>
+        <v>0.208655</v>
       </c>
     </row>
     <row r="19">
@@ -3487,10 +3487,10 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195291</v>
+        <v>0.195907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201355</v>
+        <v>0.201326</v>
       </c>
       <c r="D19" t="n">
         <v>0.20767</v>
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189379</v>
+        <v>0.190181</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200548</v>
+        <v>0.200703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206898</v>
+        <v>0.206957</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18454</v>
+        <v>0.184833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199483</v>
+        <v>0.199303</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206105</v>
+        <v>0.20605</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177014</v>
+        <v>0.176997</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198707</v>
+        <v>0.198783</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205204</v>
+        <v>0.205156</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169152</v>
+        <v>0.170166</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197718</v>
+        <v>0.197769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222851</v>
+        <v>0.222632</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243084</v>
+        <v>0.242636</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215891</v>
+        <v>0.217846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220249</v>
+        <v>0.220411</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238542</v>
+        <v>0.239997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212798</v>
+        <v>0.21344</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218451</v>
+        <v>0.218751</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233792</v>
+        <v>0.233591</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211345</v>
+        <v>0.211395</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216982</v>
+        <v>0.216969</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229617</v>
+        <v>0.228581</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209973</v>
+        <v>0.210186</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215488</v>
+        <v>0.215492</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225367</v>
+        <v>0.225195</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208701</v>
+        <v>0.208818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214205</v>
+        <v>0.214193</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220474</v>
+        <v>0.219409</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207137</v>
+        <v>0.20731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212958</v>
+        <v>0.212914</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213516</v>
+        <v>0.213998</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205659</v>
+        <v>0.205785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211659</v>
+        <v>0.211606</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208988</v>
+        <v>0.209453</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20455</v>
+        <v>0.204601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210478</v>
+        <v>0.210614</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201852</v>
+        <v>0.202664</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203383</v>
+        <v>0.203366</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20971</v>
+        <v>0.209667</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196705</v>
+        <v>0.196335</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202089</v>
+        <v>0.202184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208827</v>
+        <v>0.208853</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192224</v>
+        <v>0.191387</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201512</v>
+        <v>0.201336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208082</v>
+        <v>0.207967</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18641</v>
+        <v>0.186628</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200152</v>
+        <v>0.200104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206819</v>
+        <v>0.206798</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180231</v>
+        <v>0.180257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200062</v>
+        <v>0.199915</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206221</v>
+        <v>0.206266</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17158</v>
+        <v>0.172067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199109</v>
+        <v>0.199026</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223099</v>
+        <v>0.223242</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245962</v>
+        <v>0.24596</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215195</v>
+        <v>0.215239</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220885</v>
+        <v>0.220993</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241272</v>
+        <v>0.241533</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213249</v>
+        <v>0.213228</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219345</v>
+        <v>0.21933</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236183</v>
+        <v>0.23638</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211952</v>
+        <v>0.211785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218034</v>
+        <v>0.217971</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23139</v>
+        <v>0.231236</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210566</v>
+        <v>0.210462</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216407</v>
+        <v>0.216535</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22548</v>
+        <v>0.226656</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209016</v>
+        <v>0.208928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215004</v>
+        <v>0.21511</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220533</v>
+        <v>0.220992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207551</v>
+        <v>0.207348</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21351</v>
+        <v>0.213603</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214894</v>
+        <v>0.215759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206429</v>
+        <v>0.206333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212259</v>
+        <v>0.212444</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209984</v>
+        <v>0.210291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205322</v>
+        <v>0.205114</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211245</v>
+        <v>0.211372</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20486</v>
+        <v>0.205988</v>
       </c>
       <c r="C46" t="n">
-        <v>0.204061</v>
+        <v>0.203869</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210063</v>
+        <v>0.210204</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199594</v>
+        <v>0.200195</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203213</v>
+        <v>0.203102</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209309</v>
+        <v>0.209366</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193972</v>
+        <v>0.194261</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202129</v>
+        <v>0.202115</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208406</v>
+        <v>0.208387</v>
       </c>
     </row>
     <row r="49">
@@ -3907,10 +3907,10 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188127</v>
+        <v>0.188629</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201193</v>
+        <v>0.200996</v>
       </c>
       <c r="D49" t="n">
         <v>0.207278</v>
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182069</v>
+        <v>0.182567</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200092</v>
+        <v>0.199889</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206294</v>
+        <v>0.206396</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175156</v>
+        <v>0.176079</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199142</v>
+        <v>0.199072</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22361</v>
+        <v>0.223452</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166497</v>
+        <v>0.167405</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198286</v>
+        <v>0.198248</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221532</v>
+        <v>0.221543</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24314</v>
+        <v>0.241396</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213953</v>
+        <v>0.213835</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219982</v>
+        <v>0.22029</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239841</v>
+        <v>0.237632</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212274</v>
+        <v>0.212126</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218459</v>
+        <v>0.218647</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235406</v>
+        <v>0.232479</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210893</v>
+        <v>0.210681</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21703</v>
+        <v>0.217193</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229678</v>
+        <v>0.226587</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209346</v>
+        <v>0.209279</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215673</v>
+        <v>0.215635</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.223307</v>
+        <v>0.221011</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208138</v>
+        <v>0.20808</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214447</v>
+        <v>0.214555</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21746</v>
+        <v>0.215748</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206907</v>
+        <v>0.206706</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213131</v>
+        <v>0.213103</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211517</v>
+        <v>0.209503</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205731</v>
+        <v>0.205545</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211673</v>
+        <v>0.211645</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206491</v>
+        <v>0.203504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204568</v>
+        <v>0.20444</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210518</v>
+        <v>0.210478</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201032</v>
+        <v>0.198085</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203509</v>
+        <v>0.20341</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20945</v>
+        <v>0.209394</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196027</v>
+        <v>0.192111</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202428</v>
+        <v>0.202302</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208401</v>
+        <v>0.208312</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190755</v>
+        <v>0.186022</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201493</v>
+        <v>0.201286</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207875</v>
+        <v>0.207789</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184323</v>
+        <v>0.184319</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20043</v>
+        <v>0.200342</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206539</v>
+        <v>0.206492</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177577</v>
+        <v>0.177712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199384</v>
+        <v>0.199298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205742</v>
+        <v>0.205627</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169033</v>
+        <v>0.169606</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198464</v>
+        <v>0.198386</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222348</v>
+        <v>0.222312</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241582</v>
+        <v>0.24225</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215705</v>
+        <v>0.2163</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220677</v>
+        <v>0.220616</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237843</v>
+        <v>0.237931</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213991</v>
+        <v>0.214384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219045</v>
+        <v>0.218995</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233869</v>
+        <v>0.235637</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212226</v>
+        <v>0.212506</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217569</v>
+        <v>0.217566</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228559</v>
+        <v>0.229963</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210669</v>
+        <v>0.210871</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216239</v>
+        <v>0.216233</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22452</v>
+        <v>0.225035</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209125</v>
+        <v>0.209212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214764</v>
+        <v>0.214706</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219173</v>
+        <v>0.21916</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207713</v>
+        <v>0.207736</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213641</v>
+        <v>0.213521</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213376</v>
+        <v>0.213995</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206426</v>
+        <v>0.20636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212351</v>
+        <v>0.212335</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208501</v>
+        <v>0.209131</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20513</v>
+        <v>0.205186</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211223</v>
+        <v>0.211178</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202913</v>
+        <v>0.202635</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204006</v>
+        <v>0.203994</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210189</v>
+        <v>0.21011</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197075</v>
+        <v>0.197472</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202894</v>
+        <v>0.202819</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209159</v>
+        <v>0.209167</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191647</v>
+        <v>0.192134</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201885</v>
+        <v>0.201794</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20822</v>
+        <v>0.208166</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185861</v>
+        <v>0.186426</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200832</v>
+        <v>0.200836</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207235</v>
+        <v>0.207176</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179671</v>
+        <v>0.180107</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199897</v>
+        <v>0.199823</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206405</v>
+        <v>0.20631</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172528</v>
+        <v>0.172877</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198876</v>
+        <v>0.198822</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224573</v>
+        <v>0.225147</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243777</v>
+        <v>0.244488</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225107</v>
+        <v>0.225335</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222583</v>
+        <v>0.222514</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240349</v>
+        <v>0.240231</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219441</v>
+        <v>0.219408</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220377</v>
+        <v>0.220447</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236009</v>
+        <v>0.236463</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21501</v>
+        <v>0.214938</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218658</v>
+        <v>0.218585</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230723</v>
+        <v>0.231078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211912</v>
+        <v>0.211851</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217341</v>
+        <v>0.217019</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225302</v>
+        <v>0.225904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209879</v>
+        <v>0.209774</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215617</v>
+        <v>0.215427</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220046</v>
+        <v>0.219664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208606</v>
+        <v>0.208336</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214216</v>
+        <v>0.21419</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213472</v>
+        <v>0.214149</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207124</v>
+        <v>0.206966</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212942</v>
+        <v>0.212831</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207319</v>
+        <v>0.207059</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20594</v>
+        <v>0.205696</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211617</v>
+        <v>0.211602</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200998</v>
+        <v>0.201877</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204584</v>
+        <v>0.204407</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210566</v>
+        <v>0.210373</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1955</v>
+        <v>0.195493</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203362</v>
+        <v>0.203288</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209508</v>
+        <v>0.209403</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189243</v>
+        <v>0.189225</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202284</v>
+        <v>0.202217</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20852</v>
+        <v>0.208403</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183143</v>
+        <v>0.183678</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201188</v>
+        <v>0.20107</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207581</v>
+        <v>0.207452</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176198</v>
+        <v>0.176464</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200179</v>
+        <v>0.200129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206667</v>
+        <v>0.206572</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168139</v>
+        <v>0.168633</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199406</v>
+        <v>0.199296</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226344</v>
+        <v>0.226586</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244274</v>
+        <v>0.245081</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222067</v>
+        <v>0.222042</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223444</v>
+        <v>0.223763</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240888</v>
+        <v>0.241124</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218</v>
+        <v>0.21789</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221099</v>
+        <v>0.220918</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236121</v>
+        <v>0.237001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215008</v>
+        <v>0.214891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219338</v>
+        <v>0.219014</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23089</v>
+        <v>0.231586</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212263</v>
+        <v>0.212149</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217708</v>
+        <v>0.217572</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225646</v>
+        <v>0.226123</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210256</v>
+        <v>0.210241</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216734</v>
+        <v>0.216693</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219661</v>
+        <v>0.219648</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208738</v>
+        <v>0.208785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215296</v>
+        <v>0.215423</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214551</v>
+        <v>0.214503</v>
       </c>
       <c r="C101" t="n">
         <v>0.20718</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213826</v>
+        <v>0.213966</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208093</v>
+        <v>0.208267</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205797</v>
+        <v>0.205801</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212153</v>
+        <v>0.212462</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205816</v>
+        <v>0.206124</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204569</v>
+        <v>0.204591</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21105</v>
+        <v>0.210979</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20044</v>
+        <v>0.200485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20337</v>
+        <v>0.203348</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209949</v>
+        <v>0.209847</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194714</v>
+        <v>0.19465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202398</v>
+        <v>0.202405</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208946</v>
+        <v>0.208896</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188829</v>
+        <v>0.189203</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201398</v>
+        <v>0.201364</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208362</v>
+        <v>0.208319</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183184</v>
+        <v>0.183216</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200247</v>
+        <v>0.200248</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207385</v>
+        <v>0.207417</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175928</v>
+        <v>0.176318</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199316</v>
+        <v>0.199324</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226187</v>
+        <v>0.226003</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166521</v>
+        <v>0.167218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198625</v>
+        <v>0.198641</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223595</v>
+        <v>0.223498</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243149</v>
+        <v>0.243525</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218861</v>
+        <v>0.218748</v>
       </c>
       <c r="D110" t="n">
-        <v>0.22139</v>
+        <v>0.221195</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238582</v>
+        <v>0.238908</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215201</v>
+        <v>0.215125</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219447</v>
+        <v>0.219322</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233455</v>
+        <v>0.233811</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212595</v>
+        <v>0.212536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217692</v>
+        <v>0.21762</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227971</v>
+        <v>0.228636</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210559</v>
+        <v>0.210454</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216094</v>
+        <v>0.216039</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222652</v>
+        <v>0.223477</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208789</v>
+        <v>0.208795</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214744</v>
+        <v>0.214676</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216833</v>
+        <v>0.2173</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207274</v>
+        <v>0.207264</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213461</v>
+        <v>0.213396</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211786</v>
+        <v>0.211887</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205948</v>
+        <v>0.205934</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212179</v>
+        <v>0.212122</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205939</v>
+        <v>0.206369</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20472</v>
+        <v>0.204624</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210939</v>
+        <v>0.210929</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200684</v>
+        <v>0.200617</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203923</v>
+        <v>0.203936</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210282</v>
+        <v>0.210271</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195322</v>
+        <v>0.195696</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20282</v>
+        <v>0.202831</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209281</v>
+        <v>0.209242</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189503</v>
+        <v>0.190006</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201782</v>
+        <v>0.201778</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208229</v>
+        <v>0.208232</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182999</v>
+        <v>0.183517</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200864</v>
+        <v>0.200803</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207261</v>
+        <v>0.207207</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175795</v>
+        <v>0.176476</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199907</v>
+        <v>0.199899</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206291</v>
+        <v>0.206405</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16738</v>
+        <v>0.167426</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199053</v>
+        <v>0.199039</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223854</v>
+        <v>0.22386</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242344</v>
+        <v>0.243096</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219222</v>
+        <v>0.219244</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221557</v>
+        <v>0.221626</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238338</v>
+        <v>0.238425</v>
       </c>
       <c r="C125" t="n">
-        <v>0.21548</v>
+        <v>0.215534</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219644</v>
+        <v>0.219637</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233676</v>
+        <v>0.233924</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212822</v>
+        <v>0.212827</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21793</v>
+        <v>0.217888</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228538</v>
+        <v>0.229005</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210734</v>
+        <v>0.210702</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216393</v>
+        <v>0.216355</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223355</v>
+        <v>0.223866</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209023</v>
+        <v>0.209041</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215033</v>
+        <v>0.214998</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217472</v>
+        <v>0.217829</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207575</v>
+        <v>0.20755</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213688</v>
+        <v>0.21371</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211</v>
+        <v>0.211577</v>
       </c>
       <c r="C130" t="n">
         <v>0.2062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212472</v>
+        <v>0.21249</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204588</v>
+        <v>0.204833</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204962</v>
+        <v>0.20498</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211167</v>
+        <v>0.21119</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199367</v>
+        <v>0.198897</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203759</v>
+        <v>0.203767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210206</v>
+        <v>0.21017</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196802</v>
+        <v>0.196933</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202684</v>
+        <v>0.202706</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209019</v>
+        <v>0.209003</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190903</v>
+        <v>0.186785</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201727</v>
+        <v>0.20165</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208039</v>
+        <v>0.20787</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179886</v>
+        <v>0.180001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200613</v>
+        <v>0.200628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20697</v>
+        <v>0.206958</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172598</v>
+        <v>0.172801</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199717</v>
+        <v>0.199754</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206144</v>
+        <v>0.206196</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163751</v>
+        <v>0.163895</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198782</v>
+        <v>0.198889</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224869</v>
+        <v>0.224834</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245038</v>
+        <v>0.245523</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220834</v>
+        <v>0.220874</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222373</v>
+        <v>0.222393</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24142</v>
+        <v>0.241729</v>
       </c>
       <c r="C139" t="n">
-        <v>0.216921</v>
+        <v>0.216971</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220284</v>
+        <v>0.220301</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236522</v>
+        <v>0.237246</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213907</v>
+        <v>0.213936</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218508</v>
+        <v>0.218504</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231426</v>
+        <v>0.231869</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211675</v>
+        <v>0.211674</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216876</v>
+        <v>0.216848</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.225939</v>
+        <v>0.22659</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209855</v>
+        <v>0.209803</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215433</v>
+        <v>0.215435</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220242</v>
+        <v>0.220881</v>
       </c>
       <c r="C143" t="n">
-        <v>0.20822</v>
+        <v>0.20819</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213992</v>
+        <v>0.213983</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20203</v>
+        <v>0.200854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193544</v>
+        <v>0.193451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199488</v>
+        <v>0.199855</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196893</v>
+        <v>0.196115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194304</v>
+        <v>0.194295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200397</v>
+        <v>0.200297</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193927</v>
+        <v>0.193172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194009</v>
+        <v>0.194061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201352</v>
+        <v>0.201107</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189489</v>
+        <v>0.189234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193745</v>
+        <v>0.192783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200449</v>
+        <v>0.200356</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183606</v>
+        <v>0.183024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193014</v>
+        <v>0.192566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200156</v>
+        <v>0.199893</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176438</v>
+        <v>0.176356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192514</v>
+        <v>0.192607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199703</v>
+        <v>0.199535</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.169287</v>
+        <v>0.167852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192616</v>
+        <v>0.192406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199261</v>
+        <v>0.199916</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158412</v>
+        <v>0.157812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19255</v>
+        <v>0.192603</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217678</v>
+        <v>0.217153</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239691</v>
+        <v>0.240909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211057</v>
+        <v>0.2111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217453</v>
+        <v>0.216228</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235078</v>
+        <v>0.235713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210156</v>
+        <v>0.209895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215556</v>
+        <v>0.215427</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231416</v>
+        <v>0.232323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208227</v>
+        <v>0.208162</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214928</v>
+        <v>0.214411</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228021</v>
+        <v>0.228302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206849</v>
+        <v>0.206713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213029</v>
+        <v>0.212904</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221074</v>
+        <v>0.223624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205971</v>
+        <v>0.205885</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212222</v>
+        <v>0.212202</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215383</v>
+        <v>0.215699</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205147</v>
+        <v>0.205026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211486</v>
+        <v>0.211392</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210907</v>
+        <v>0.21055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204457</v>
+        <v>0.204197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210117</v>
+        <v>0.210373</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206553</v>
+        <v>0.205963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203343</v>
+        <v>0.203315</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209414</v>
+        <v>0.209375</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200937</v>
+        <v>0.200271</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202381</v>
+        <v>0.202175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208655</v>
+        <v>0.2086</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195907</v>
+        <v>0.195169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201326</v>
+        <v>0.201574</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20767</v>
+        <v>0.207686</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190181</v>
+        <v>0.18963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200703</v>
+        <v>0.200358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206957</v>
+        <v>0.207069</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184833</v>
+        <v>0.184551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199303</v>
+        <v>0.199276</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20605</v>
+        <v>0.206169</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176997</v>
+        <v>0.177279</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198783</v>
+        <v>0.198811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205156</v>
+        <v>0.205313</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170166</v>
+        <v>0.169565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197769</v>
+        <v>0.197746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222632</v>
+        <v>0.222526</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242636</v>
+        <v>0.243847</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217846</v>
+        <v>0.214076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220411</v>
+        <v>0.219895</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239997</v>
+        <v>0.240255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21344</v>
+        <v>0.212426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218751</v>
+        <v>0.218363</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233591</v>
+        <v>0.234656</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211395</v>
+        <v>0.211197</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216969</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228581</v>
+        <v>0.229698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210186</v>
+        <v>0.209761</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215492</v>
+        <v>0.215503</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225195</v>
+        <v>0.225877</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208818</v>
+        <v>0.20845</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214193</v>
+        <v>0.214213</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219409</v>
+        <v>0.220359</v>
       </c>
       <c r="C29" t="n">
-        <v>0.20731</v>
+        <v>0.207076</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212914</v>
+        <v>0.213072</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213998</v>
+        <v>0.214409</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205785</v>
+        <v>0.205658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211606</v>
+        <v>0.211594</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209453</v>
+        <v>0.208768</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204601</v>
+        <v>0.204424</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210614</v>
+        <v>0.210623</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202664</v>
+        <v>0.202209</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203366</v>
+        <v>0.203321</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209667</v>
+        <v>0.209563</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196335</v>
+        <v>0.197116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202184</v>
+        <v>0.202097</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208853</v>
+        <v>0.20878</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191387</v>
+        <v>0.19262</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201336</v>
+        <v>0.201201</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207967</v>
+        <v>0.208011</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186628</v>
+        <v>0.187004</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200104</v>
+        <v>0.199983</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206798</v>
+        <v>0.206866</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180257</v>
+        <v>0.180603</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199915</v>
+        <v>0.199678</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206266</v>
+        <v>0.20627</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172067</v>
+        <v>0.172493</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199026</v>
+        <v>0.198764</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223242</v>
+        <v>0.222689</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24596</v>
+        <v>0.246114</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215239</v>
+        <v>0.214942</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220993</v>
+        <v>0.220821</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241533</v>
+        <v>0.241735</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213228</v>
+        <v>0.213107</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21933</v>
+        <v>0.21919</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23638</v>
+        <v>0.236395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211785</v>
+        <v>0.211745</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217971</v>
+        <v>0.217864</v>
       </c>
     </row>
     <row r="41">
@@ -3795,10 +3795,10 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231236</v>
+        <v>0.230945</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210462</v>
+        <v>0.210465</v>
       </c>
       <c r="D41" t="n">
         <v>0.216535</v>
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226656</v>
+        <v>0.225538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208928</v>
+        <v>0.20891</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21511</v>
+        <v>0.21493</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220992</v>
+        <v>0.220748</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207348</v>
+        <v>0.207398</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213603</v>
+        <v>0.21344</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215759</v>
+        <v>0.215249</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206333</v>
+        <v>0.206415</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212444</v>
+        <v>0.212306</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210291</v>
+        <v>0.210083</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205114</v>
+        <v>0.205227</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211372</v>
+        <v>0.211215</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205988</v>
+        <v>0.205273</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203869</v>
+        <v>0.204049</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210204</v>
+        <v>0.210121</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200195</v>
+        <v>0.199729</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203102</v>
+        <v>0.203017</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209366</v>
+        <v>0.209282</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194261</v>
+        <v>0.193786</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202115</v>
+        <v>0.202145</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208387</v>
+        <v>0.208392</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188629</v>
+        <v>0.188323</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200996</v>
+        <v>0.201023</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207278</v>
+        <v>0.207259</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182567</v>
+        <v>0.181991</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199889</v>
+        <v>0.199854</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206396</v>
+        <v>0.206347</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176079</v>
+        <v>0.175511</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199072</v>
+        <v>0.19897</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223452</v>
+        <v>0.223694</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167405</v>
+        <v>0.166377</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198248</v>
+        <v>0.198162</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221543</v>
+        <v>0.221564</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241396</v>
+        <v>0.243254</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213835</v>
+        <v>0.213905</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22029</v>
+        <v>0.219971</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237632</v>
+        <v>0.239334</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212126</v>
+        <v>0.21217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218647</v>
+        <v>0.218442</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232479</v>
+        <v>0.234473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210681</v>
+        <v>0.21074</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217193</v>
+        <v>0.216976</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226587</v>
+        <v>0.228723</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209279</v>
+        <v>0.209305</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215635</v>
+        <v>0.215499</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221011</v>
+        <v>0.223134</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20808</v>
+        <v>0.208165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214555</v>
+        <v>0.214382</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215748</v>
+        <v>0.217327</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206706</v>
+        <v>0.206771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213103</v>
+        <v>0.213085</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209503</v>
+        <v>0.21161</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205545</v>
+        <v>0.205592</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211645</v>
+        <v>0.211646</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203504</v>
+        <v>0.206244</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20444</v>
+        <v>0.204491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210478</v>
+        <v>0.210494</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198085</v>
+        <v>0.201587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20341</v>
+        <v>0.203424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209394</v>
+        <v>0.209405</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192111</v>
+        <v>0.19669</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202302</v>
+        <v>0.202394</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208312</v>
+        <v>0.208382</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186022</v>
+        <v>0.190902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201286</v>
+        <v>0.201312</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207789</v>
+        <v>0.207749</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184319</v>
+        <v>0.184596</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200342</v>
+        <v>0.200369</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206492</v>
+        <v>0.206514</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177712</v>
+        <v>0.177804</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199298</v>
+        <v>0.199301</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205627</v>
+        <v>0.205697</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169606</v>
+        <v>0.16944</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198386</v>
+        <v>0.198323</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222312</v>
+        <v>0.223301</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24225</v>
+        <v>0.242289</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2163</v>
+        <v>0.239911</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220616</v>
+        <v>0.220926</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237931</v>
+        <v>0.237892</v>
       </c>
       <c r="C68" t="n">
-        <v>0.214384</v>
+        <v>0.232291</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218995</v>
+        <v>0.219279</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235637</v>
+        <v>0.233609</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212506</v>
+        <v>0.22419</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217566</v>
+        <v>0.21777</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229963</v>
+        <v>0.230392</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210871</v>
+        <v>0.216759</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216233</v>
+        <v>0.216332</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225035</v>
+        <v>0.224871</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209212</v>
+        <v>0.212312</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214706</v>
+        <v>0.214851</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21916</v>
+        <v>0.218978</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207736</v>
+        <v>0.209074</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213521</v>
+        <v>0.213541</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213995</v>
+        <v>0.21363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20636</v>
+        <v>0.207137</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212335</v>
+        <v>0.212298</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209131</v>
+        <v>0.208505</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205186</v>
+        <v>0.205717</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211178</v>
+        <v>0.21117</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202635</v>
+        <v>0.202979</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203994</v>
+        <v>0.204477</v>
       </c>
       <c r="D75" t="n">
-        <v>0.21011</v>
+        <v>0.210076</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197472</v>
+        <v>0.197618</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202819</v>
+        <v>0.20321</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209167</v>
+        <v>0.209089</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192134</v>
+        <v>0.192168</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201794</v>
+        <v>0.201837</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208166</v>
+        <v>0.208118</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186426</v>
+        <v>0.186198</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200836</v>
+        <v>0.200753</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207176</v>
+        <v>0.20709</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180107</v>
+        <v>0.179992</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199823</v>
+        <v>0.19969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20631</v>
+        <v>0.206321</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172877</v>
+        <v>0.172785</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198822</v>
+        <v>0.198663</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225147</v>
+        <v>0.225557</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244488</v>
+        <v>0.244966</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225335</v>
+        <v>0.22775</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222514</v>
+        <v>0.223245</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240231</v>
+        <v>0.240897</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219408</v>
+        <v>0.221212</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220447</v>
+        <v>0.221047</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236463</v>
+        <v>0.236363</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214938</v>
+        <v>0.214897</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218585</v>
+        <v>0.219369</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231078</v>
+        <v>0.231902</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211851</v>
+        <v>0.212284</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217019</v>
+        <v>0.217652</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225904</v>
+        <v>0.226184</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209774</v>
+        <v>0.210385</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215427</v>
+        <v>0.215805</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219664</v>
+        <v>0.220525</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208336</v>
+        <v>0.208593</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21419</v>
+        <v>0.214398</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214149</v>
+        <v>0.214288</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206966</v>
+        <v>0.207402</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212831</v>
+        <v>0.212994</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207059</v>
+        <v>0.207657</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205696</v>
+        <v>0.206041</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211602</v>
+        <v>0.211629</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201877</v>
+        <v>0.20171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204407</v>
+        <v>0.20452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210373</v>
+        <v>0.210433</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195493</v>
+        <v>0.195681</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203288</v>
+        <v>0.203377</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209403</v>
+        <v>0.209429</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189225</v>
+        <v>0.189765</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202217</v>
+        <v>0.202152</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208403</v>
+        <v>0.208503</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183678</v>
+        <v>0.183271</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20107</v>
+        <v>0.201047</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207452</v>
+        <v>0.207513</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176464</v>
+        <v>0.176439</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200129</v>
+        <v>0.200094</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206572</v>
+        <v>0.206581</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168633</v>
+        <v>0.168465</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199296</v>
+        <v>0.199283</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226586</v>
+        <v>0.226848</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245081</v>
+        <v>0.24488</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222042</v>
+        <v>0.22287</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223763</v>
+        <v>0.223372</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241124</v>
+        <v>0.240327</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21789</v>
+        <v>0.218106</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220918</v>
+        <v>0.221311</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237001</v>
+        <v>0.236724</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214891</v>
+        <v>0.215114</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219014</v>
+        <v>0.219581</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231586</v>
+        <v>0.231583</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212149</v>
+        <v>0.21238</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217572</v>
+        <v>0.218371</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226123</v>
+        <v>0.225219</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210241</v>
+        <v>0.210529</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216693</v>
+        <v>0.216738</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219648</v>
+        <v>0.220449</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208785</v>
+        <v>0.20901</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215423</v>
+        <v>0.21548</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214503</v>
+        <v>0.214149</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20718</v>
+        <v>0.207513</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213966</v>
+        <v>0.21395</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208267</v>
+        <v>0.208247</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205801</v>
+        <v>0.205959</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212462</v>
+        <v>0.212209</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.206124</v>
+        <v>0.205758</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204591</v>
+        <v>0.204771</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210979</v>
+        <v>0.211132</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200485</v>
+        <v>0.200471</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203348</v>
+        <v>0.20356</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209847</v>
+        <v>0.209988</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19465</v>
+        <v>0.194527</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202405</v>
+        <v>0.202554</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208896</v>
+        <v>0.209247</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189203</v>
+        <v>0.189168</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201364</v>
+        <v>0.201446</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208319</v>
+        <v>0.208243</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183216</v>
+        <v>0.183088</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200248</v>
+        <v>0.200401</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207417</v>
+        <v>0.207257</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176318</v>
+        <v>0.176283</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199324</v>
+        <v>0.199502</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226003</v>
+        <v>0.226635</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167218</v>
+        <v>0.167053</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198641</v>
+        <v>0.198559</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223498</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243525</v>
+        <v>0.243716</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218748</v>
+        <v>0.218746</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221195</v>
+        <v>0.221347</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238908</v>
+        <v>0.239095</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215125</v>
+        <v>0.215314</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219322</v>
+        <v>0.219476</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233811</v>
+        <v>0.234346</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212536</v>
+        <v>0.212627</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21762</v>
+        <v>0.217675</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228636</v>
+        <v>0.229069</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210454</v>
+        <v>0.210435</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216039</v>
+        <v>0.216088</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223477</v>
+        <v>0.224145</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208795</v>
+        <v>0.208837</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214676</v>
+        <v>0.214585</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2173</v>
+        <v>0.217937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207264</v>
+        <v>0.207312</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213396</v>
+        <v>0.213359</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211887</v>
+        <v>0.212296</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205934</v>
+        <v>0.206003</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212122</v>
+        <v>0.212273</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206369</v>
+        <v>0.206504</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204624</v>
+        <v>0.2047</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210929</v>
+        <v>0.211021</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200617</v>
+        <v>0.201163</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203936</v>
+        <v>0.20356</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210271</v>
+        <v>0.209888</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195696</v>
+        <v>0.195738</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202831</v>
+        <v>0.202825</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209242</v>
+        <v>0.209244</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.190006</v>
+        <v>0.189877</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201778</v>
+        <v>0.201716</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208232</v>
+        <v>0.208274</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183517</v>
+        <v>0.183435</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200803</v>
+        <v>0.200741</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207207</v>
+        <v>0.207306</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176476</v>
+        <v>0.176072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199899</v>
+        <v>0.199703</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206405</v>
+        <v>0.206388</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167426</v>
+        <v>0.167565</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199039</v>
+        <v>0.198888</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22386</v>
+        <v>0.224033</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243096</v>
+        <v>0.242932</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219244</v>
+        <v>0.219242</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221626</v>
+        <v>0.221601</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238425</v>
+        <v>0.238545</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215534</v>
+        <v>0.215558</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219637</v>
+        <v>0.219514</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233924</v>
+        <v>0.233862</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212827</v>
+        <v>0.213012</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217888</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229005</v>
+        <v>0.229155</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210702</v>
+        <v>0.210825</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216355</v>
+        <v>0.216368</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223866</v>
+        <v>0.223305</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209041</v>
+        <v>0.209156</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214998</v>
+        <v>0.215045</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217829</v>
+        <v>0.219559</v>
       </c>
       <c r="C129" t="n">
-        <v>0.20755</v>
+        <v>0.20762</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21371</v>
+        <v>0.213722</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211577</v>
+        <v>0.211167</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2062</v>
+        <v>0.206272</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21249</v>
+        <v>0.212489</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204833</v>
+        <v>0.205245</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20498</v>
+        <v>0.205064</v>
       </c>
       <c r="D131" t="n">
-        <v>0.21119</v>
+        <v>0.211258</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198897</v>
+        <v>0.201016</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203767</v>
+        <v>0.203845</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21017</v>
+        <v>0.210223</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196933</v>
+        <v>0.197101</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202706</v>
+        <v>0.202741</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209003</v>
+        <v>0.209009</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186785</v>
+        <v>0.186787</v>
       </c>
       <c r="C134" t="n">
-        <v>0.20165</v>
+        <v>0.201704</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20787</v>
+        <v>0.208082</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180001</v>
+        <v>0.180198</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200628</v>
+        <v>0.200686</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206958</v>
+        <v>0.207014</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172801</v>
+        <v>0.172802</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199754</v>
+        <v>0.199758</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206196</v>
+        <v>0.206197</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163895</v>
+        <v>0.1705</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198889</v>
+        <v>0.198795</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224834</v>
+        <v>0.225011</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245523</v>
+        <v>0.245463</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220874</v>
+        <v>0.220988</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222393</v>
+        <v>0.22255</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241729</v>
+        <v>0.241197</v>
       </c>
       <c r="C139" t="n">
-        <v>0.216971</v>
+        <v>0.217126</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220301</v>
+        <v>0.220481</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237246</v>
+        <v>0.236117</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213936</v>
+        <v>0.214094</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218504</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231869</v>
+        <v>0.230994</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211674</v>
+        <v>0.211837</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216848</v>
+        <v>0.217066</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22659</v>
+        <v>0.225938</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209803</v>
+        <v>0.209982</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215435</v>
+        <v>0.215554</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220881</v>
+        <v>0.22066</v>
       </c>
       <c r="C143" t="n">
-        <v>0.20819</v>
+        <v>0.208366</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213983</v>
+        <v>0.214194</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.200854</v>
+        <v>0.201791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193451</v>
+        <v>0.193189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199855</v>
+        <v>0.200182</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196115</v>
+        <v>0.196357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194295</v>
+        <v>0.194528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200297</v>
+        <v>0.200595</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193172</v>
+        <v>0.193765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194061</v>
+        <v>0.194621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201107</v>
+        <v>0.200781</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189234</v>
+        <v>0.18873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192783</v>
+        <v>0.192754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200356</v>
+        <v>0.200946</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183024</v>
+        <v>0.183403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192566</v>
+        <v>0.192982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199893</v>
+        <v>0.200273</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176356</v>
+        <v>0.176304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192607</v>
+        <v>0.192439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199535</v>
+        <v>0.199989</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167852</v>
+        <v>0.168266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192406</v>
+        <v>0.192617</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199916</v>
+        <v>0.199739</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157812</v>
+        <v>0.157587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192603</v>
+        <v>0.192796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217153</v>
+        <v>0.218511</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240909</v>
+        <v>0.238997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2111</v>
+        <v>0.211233</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216228</v>
+        <v>0.217354</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235713</v>
+        <v>0.233071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209895</v>
+        <v>0.210056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215427</v>
+        <v>0.215902</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232323</v>
+        <v>0.229191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208162</v>
+        <v>0.208722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214411</v>
+        <v>0.214819</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228302</v>
+        <v>0.226521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206713</v>
+        <v>0.206885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212904</v>
+        <v>0.21312</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.223624</v>
+        <v>0.222283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205885</v>
+        <v>0.206046</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212202</v>
+        <v>0.212454</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215699</v>
+        <v>0.214652</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205026</v>
+        <v>0.205102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211392</v>
+        <v>0.211676</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21055</v>
+        <v>0.210964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204197</v>
+        <v>0.204422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210373</v>
+        <v>0.210228</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205963</v>
+        <v>0.206466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203315</v>
+        <v>0.203379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209375</v>
+        <v>0.209751</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200271</v>
+        <v>0.200321</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202175</v>
+        <v>0.20242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2086</v>
+        <v>0.208727</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195169</v>
+        <v>0.196421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201574</v>
+        <v>0.201542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207686</v>
+        <v>0.207769</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18963</v>
+        <v>0.190588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200358</v>
+        <v>0.200544</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207069</v>
+        <v>0.207241</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184551</v>
+        <v>0.185073</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199276</v>
+        <v>0.199284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206169</v>
+        <v>0.206376</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177279</v>
+        <v>0.177494</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198811</v>
+        <v>0.199086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205313</v>
+        <v>0.205554</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169565</v>
+        <v>0.170027</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197746</v>
+        <v>0.197875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222526</v>
+        <v>0.222001</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243847</v>
+        <v>0.243814</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214076</v>
+        <v>0.216649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219895</v>
+        <v>0.219814</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240255</v>
+        <v>0.240368</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212426</v>
+        <v>0.213504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218363</v>
+        <v>0.218696</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234656</v>
+        <v>0.234312</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211197</v>
+        <v>0.2126</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2167</v>
+        <v>0.217268</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229698</v>
+        <v>0.229742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209761</v>
+        <v>0.210436</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215503</v>
+        <v>0.215575</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225877</v>
+        <v>0.225253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20845</v>
+        <v>0.208955</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214213</v>
+        <v>0.214389</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220359</v>
+        <v>0.220107</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207076</v>
+        <v>0.207311</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213072</v>
+        <v>0.213111</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214409</v>
+        <v>0.214352</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205658</v>
+        <v>0.205818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211594</v>
+        <v>0.211722</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208768</v>
+        <v>0.208753</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204424</v>
+        <v>0.204817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210623</v>
+        <v>0.210801</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202209</v>
+        <v>0.20245</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203321</v>
+        <v>0.203573</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209563</v>
+        <v>0.209847</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197116</v>
+        <v>0.197158</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202097</v>
+        <v>0.202376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20878</v>
+        <v>0.20889</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19262</v>
+        <v>0.192498</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201201</v>
+        <v>0.201605</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208011</v>
+        <v>0.208167</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187004</v>
+        <v>0.186925</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199983</v>
+        <v>0.20025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206866</v>
+        <v>0.206944</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180603</v>
+        <v>0.180866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199678</v>
+        <v>0.200168</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20627</v>
+        <v>0.206339</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172493</v>
+        <v>0.172795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198764</v>
+        <v>0.199268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222689</v>
+        <v>0.222987</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246114</v>
+        <v>0.245493</v>
       </c>
       <c r="C38" t="n">
-        <v>0.214942</v>
+        <v>0.215306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220821</v>
+        <v>0.221096</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241735</v>
+        <v>0.241698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213107</v>
+        <v>0.213432</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21919</v>
+        <v>0.219244</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236395</v>
+        <v>0.235994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211745</v>
+        <v>0.211974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217864</v>
+        <v>0.218043</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230945</v>
+        <v>0.231534</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210465</v>
+        <v>0.210676</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216535</v>
+        <v>0.216588</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225538</v>
+        <v>0.225403</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20891</v>
+        <v>0.20915</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21493</v>
+        <v>0.214943</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220748</v>
+        <v>0.220729</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207398</v>
+        <v>0.207597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21344</v>
+        <v>0.213663</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215249</v>
+        <v>0.214511</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206415</v>
+        <v>0.206412</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212306</v>
+        <v>0.212445</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210083</v>
+        <v>0.210636</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205227</v>
+        <v>0.205259</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211215</v>
+        <v>0.211413</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205273</v>
+        <v>0.205357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.204049</v>
+        <v>0.20406</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210121</v>
+        <v>0.210233</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199729</v>
+        <v>0.199881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203017</v>
+        <v>0.203225</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209282</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193786</v>
+        <v>0.194189</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202145</v>
+        <v>0.20225</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208392</v>
+        <v>0.208504</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188323</v>
+        <v>0.18871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201023</v>
+        <v>0.201113</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207259</v>
+        <v>0.207362</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181991</v>
+        <v>0.182799</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199854</v>
+        <v>0.200149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206347</v>
+        <v>0.206428</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175511</v>
+        <v>0.176279</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19897</v>
+        <v>0.199211</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223694</v>
+        <v>0.224462</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166377</v>
+        <v>0.167765</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198162</v>
+        <v>0.198439</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221564</v>
+        <v>0.221656</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243254</v>
+        <v>0.243289</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213905</v>
+        <v>0.214018</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219971</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239334</v>
+        <v>0.238518</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21217</v>
+        <v>0.212311</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218442</v>
+        <v>0.218543</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234473</v>
+        <v>0.235001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21074</v>
+        <v>0.210857</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216976</v>
+        <v>0.217164</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228723</v>
+        <v>0.228496</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209305</v>
+        <v>0.209499</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215499</v>
+        <v>0.215711</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.223134</v>
+        <v>0.222781</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208165</v>
+        <v>0.208185</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214382</v>
+        <v>0.214544</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217327</v>
+        <v>0.217093</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206771</v>
+        <v>0.206872</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213085</v>
+        <v>0.213208</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21161</v>
+        <v>0.21126</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205592</v>
+        <v>0.205743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211646</v>
+        <v>0.211813</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206244</v>
+        <v>0.206119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204491</v>
+        <v>0.20453</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210494</v>
+        <v>0.210706</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201587</v>
+        <v>0.2012</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203424</v>
+        <v>0.203534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209405</v>
+        <v>0.209615</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19669</v>
+        <v>0.195903</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202394</v>
+        <v>0.202461</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208382</v>
+        <v>0.208568</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190902</v>
+        <v>0.190682</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201312</v>
+        <v>0.201455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207749</v>
+        <v>0.207985</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184596</v>
+        <v>0.184485</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200369</v>
+        <v>0.200472</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206514</v>
+        <v>0.206639</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177804</v>
+        <v>0.178107</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199301</v>
+        <v>0.199441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205697</v>
+        <v>0.20579</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16944</v>
+        <v>0.16998</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198323</v>
+        <v>0.19845</v>
       </c>
       <c r="D66" t="n">
-        <v>0.223301</v>
+        <v>0.222463</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242289</v>
+        <v>0.241841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.239911</v>
+        <v>0.215505</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220926</v>
+        <v>0.220796</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237892</v>
+        <v>0.238306</v>
       </c>
       <c r="C68" t="n">
-        <v>0.232291</v>
+        <v>0.213763</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219279</v>
+        <v>0.219212</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233609</v>
+        <v>0.235481</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22419</v>
+        <v>0.212044</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21777</v>
+        <v>0.217698</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.230392</v>
+        <v>0.229746</v>
       </c>
       <c r="C70" t="n">
-        <v>0.216759</v>
+        <v>0.210463</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216332</v>
+        <v>0.216317</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224871</v>
+        <v>0.224169</v>
       </c>
       <c r="C71" t="n">
-        <v>0.212312</v>
+        <v>0.209102</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214851</v>
+        <v>0.21488</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218978</v>
+        <v>0.218842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209074</v>
+        <v>0.207687</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213541</v>
+        <v>0.21372</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21363</v>
+        <v>0.21332</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207137</v>
+        <v>0.206429</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212298</v>
+        <v>0.212508</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208505</v>
+        <v>0.20855</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205717</v>
+        <v>0.20521</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21117</v>
+        <v>0.21135</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202979</v>
+        <v>0.203091</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204477</v>
+        <v>0.204034</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210076</v>
+        <v>0.210257</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197618</v>
+        <v>0.197651</v>
       </c>
       <c r="C76" t="n">
-        <v>0.20321</v>
+        <v>0.20288</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209089</v>
+        <v>0.209294</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192168</v>
+        <v>0.192396</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201837</v>
+        <v>0.201845</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208118</v>
+        <v>0.208288</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186198</v>
+        <v>0.186368</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200753</v>
+        <v>0.200841</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20709</v>
+        <v>0.207329</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179992</v>
+        <v>0.180252</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19969</v>
+        <v>0.19986</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206321</v>
+        <v>0.206485</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172785</v>
+        <v>0.173164</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198663</v>
+        <v>0.198814</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225557</v>
+        <v>0.224859</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244966</v>
+        <v>0.244798</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22775</v>
+        <v>0.225776</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223245</v>
+        <v>0.222612</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240897</v>
+        <v>0.240646</v>
       </c>
       <c r="C82" t="n">
-        <v>0.221212</v>
+        <v>0.219587</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221047</v>
+        <v>0.220634</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236363</v>
+        <v>0.236406</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214897</v>
+        <v>0.214736</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219369</v>
+        <v>0.218939</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231902</v>
+        <v>0.230448</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212284</v>
+        <v>0.211747</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217652</v>
+        <v>0.217128</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226184</v>
+        <v>0.225466</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210385</v>
+        <v>0.209913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215805</v>
+        <v>0.215641</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220525</v>
+        <v>0.219707</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208593</v>
+        <v>0.208573</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214398</v>
+        <v>0.21417</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214288</v>
+        <v>0.212937</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207402</v>
+        <v>0.206745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212994</v>
+        <v>0.212814</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207657</v>
+        <v>0.206511</v>
       </c>
       <c r="C88" t="n">
-        <v>0.206041</v>
+        <v>0.205575</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211629</v>
+        <v>0.211656</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20171</v>
+        <v>0.200994</v>
       </c>
       <c r="C89" t="n">
-        <v>0.20452</v>
+        <v>0.204301</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210433</v>
+        <v>0.210456</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195681</v>
+        <v>0.194912</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203377</v>
+        <v>0.2032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209429</v>
+        <v>0.209403</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189765</v>
+        <v>0.188859</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202152</v>
+        <v>0.202119</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208503</v>
+        <v>0.208399</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183271</v>
+        <v>0.182643</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201047</v>
+        <v>0.201619</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207513</v>
+        <v>0.207499</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176439</v>
+        <v>0.176205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200094</v>
+        <v>0.200195</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206581</v>
+        <v>0.206657</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168465</v>
+        <v>0.167697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199283</v>
+        <v>0.199178</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226848</v>
+        <v>0.226534</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24488</v>
+        <v>0.24449</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22287</v>
+        <v>0.222452</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223372</v>
+        <v>0.223688</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240327</v>
+        <v>0.2411</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218106</v>
+        <v>0.218082</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221311</v>
+        <v>0.221093</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236724</v>
+        <v>0.23564</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215114</v>
+        <v>0.214933</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219581</v>
+        <v>0.219252</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231583</v>
+        <v>0.230822</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21238</v>
+        <v>0.212276</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218371</v>
+        <v>0.21788</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225219</v>
+        <v>0.225811</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210529</v>
+        <v>0.210271</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216738</v>
+        <v>0.216518</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220449</v>
+        <v>0.21991</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20901</v>
+        <v>0.208789</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21548</v>
+        <v>0.215258</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214149</v>
+        <v>0.214517</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207513</v>
+        <v>0.207125</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21395</v>
+        <v>0.213806</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208247</v>
+        <v>0.208195</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205959</v>
+        <v>0.205719</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212209</v>
+        <v>0.212068</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205758</v>
+        <v>0.205606</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204771</v>
+        <v>0.204528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211132</v>
+        <v>0.210946</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200471</v>
+        <v>0.200421</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20356</v>
+        <v>0.20333</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209988</v>
+        <v>0.209849</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194527</v>
+        <v>0.194326</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202554</v>
+        <v>0.202298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209247</v>
+        <v>0.20916</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189168</v>
+        <v>0.189234</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201446</v>
+        <v>0.201236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208243</v>
+        <v>0.20811</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183088</v>
+        <v>0.183212</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200401</v>
+        <v>0.200183</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207257</v>
+        <v>0.207213</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176283</v>
+        <v>0.176274</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199502</v>
+        <v>0.199235</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226635</v>
+        <v>0.226443</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167053</v>
+        <v>0.167253</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198559</v>
+        <v>0.198451</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2238</v>
+        <v>0.223568</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243716</v>
+        <v>0.243293</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218746</v>
+        <v>0.218859</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221347</v>
+        <v>0.221233</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239095</v>
+        <v>0.238339</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215314</v>
+        <v>0.215168</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219476</v>
+        <v>0.219414</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234346</v>
+        <v>0.233754</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212627</v>
+        <v>0.212514</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217675</v>
+        <v>0.217551</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.229069</v>
+        <v>0.228476</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210435</v>
+        <v>0.210461</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216088</v>
+        <v>0.215967</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.224145</v>
+        <v>0.222553</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208837</v>
+        <v>0.208762</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214585</v>
+        <v>0.214582</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217937</v>
+        <v>0.216864</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207312</v>
+        <v>0.207266</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213359</v>
+        <v>0.213374</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212296</v>
+        <v>0.211216</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206003</v>
+        <v>0.205921</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212273</v>
+        <v>0.212179</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206504</v>
+        <v>0.205571</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2047</v>
+        <v>0.204626</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211021</v>
+        <v>0.21095</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.201163</v>
+        <v>0.200596</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20356</v>
+        <v>0.203912</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209888</v>
+        <v>0.209957</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195738</v>
+        <v>0.195486</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202825</v>
+        <v>0.202791</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209244</v>
+        <v>0.209266</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189877</v>
+        <v>0.189733</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201716</v>
+        <v>0.201765</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208274</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183435</v>
+        <v>0.183309</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200741</v>
+        <v>0.200756</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207306</v>
+        <v>0.207145</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176072</v>
+        <v>0.176315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199703</v>
+        <v>0.199783</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206388</v>
+        <v>0.206295</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167565</v>
+        <v>0.16771</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198888</v>
+        <v>0.198852</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224033</v>
+        <v>0.223937</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242932</v>
+        <v>0.243258</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219242</v>
+        <v>0.219317</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221601</v>
+        <v>0.221613</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238545</v>
+        <v>0.239245</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215558</v>
+        <v>0.215535</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219514</v>
+        <v>0.219742</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233862</v>
+        <v>0.23381</v>
       </c>
       <c r="C126" t="n">
-        <v>0.213012</v>
+        <v>0.212882</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217959</v>
+        <v>0.217984</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229155</v>
+        <v>0.229438</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210825</v>
+        <v>0.210787</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216368</v>
+        <v>0.216455</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223305</v>
+        <v>0.224006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209156</v>
+        <v>0.209089</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215045</v>
+        <v>0.215063</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219559</v>
+        <v>0.219779</v>
       </c>
       <c r="C129" t="n">
-        <v>0.20762</v>
+        <v>0.207587</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213722</v>
+        <v>0.213755</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211167</v>
+        <v>0.211492</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206272</v>
+        <v>0.206239</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212489</v>
+        <v>0.212529</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205245</v>
+        <v>0.205178</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205064</v>
+        <v>0.205026</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211258</v>
+        <v>0.211223</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201016</v>
+        <v>0.200045</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203845</v>
+        <v>0.203819</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210223</v>
+        <v>0.21028</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197101</v>
+        <v>0.197347</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202741</v>
+        <v>0.202697</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209009</v>
+        <v>0.209046</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186787</v>
+        <v>0.186782</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201704</v>
+        <v>0.201657</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208082</v>
+        <v>0.208056</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180198</v>
+        <v>0.18017</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200686</v>
+        <v>0.200642</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207014</v>
+        <v>0.207126</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172802</v>
+        <v>0.17274</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199758</v>
+        <v>0.199676</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206197</v>
+        <v>0.206158</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1705</v>
+        <v>0.16392</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198795</v>
+        <v>0.19868</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225011</v>
+        <v>0.224888</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245463</v>
+        <v>0.245426</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220988</v>
+        <v>0.220983</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22255</v>
+        <v>0.222432</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241197</v>
+        <v>0.241256</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217126</v>
+        <v>0.217093</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220481</v>
+        <v>0.220385</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236117</v>
+        <v>0.236453</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214094</v>
+        <v>0.213958</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2187</v>
+        <v>0.21858</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230994</v>
+        <v>0.231196</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211837</v>
+        <v>0.211759</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217066</v>
+        <v>0.216934</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.225938</v>
+        <v>0.225922</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209982</v>
+        <v>0.209893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215554</v>
+        <v>0.215485</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22066</v>
+        <v>0.221106</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208366</v>
+        <v>0.208285</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214194</v>
+        <v>0.214062</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201791</v>
+        <v>0.201227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193189</v>
+        <v>0.192787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200182</v>
+        <v>0.199922</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196357</v>
+        <v>0.195261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194528</v>
+        <v>0.193543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200595</v>
+        <v>0.200294</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193765</v>
+        <v>0.193244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194621</v>
+        <v>0.194025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200781</v>
+        <v>0.201092</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18873</v>
+        <v>0.188658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192754</v>
+        <v>0.193406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200946</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183403</v>
+        <v>0.182716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192982</v>
+        <v>0.193146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200273</v>
+        <v>0.200205</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176304</v>
+        <v>0.176328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192439</v>
+        <v>0.193013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199989</v>
+        <v>0.199659</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168266</v>
+        <v>0.167591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192617</v>
+        <v>0.192738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199739</v>
+        <v>0.199591</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157587</v>
+        <v>0.15788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192796</v>
+        <v>0.192564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218511</v>
+        <v>0.217927</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238997</v>
+        <v>0.240874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211233</v>
+        <v>0.212289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217354</v>
+        <v>0.216678</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233071</v>
+        <v>0.235919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210056</v>
+        <v>0.210038</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215902</v>
+        <v>0.21558</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229191</v>
+        <v>0.231984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208722</v>
+        <v>0.208221</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214819</v>
+        <v>0.214487</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226521</v>
+        <v>0.228047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206885</v>
+        <v>0.206779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21312</v>
+        <v>0.212857</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222283</v>
+        <v>0.22198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206046</v>
+        <v>0.206198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212454</v>
+        <v>0.212113</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214652</v>
+        <v>0.215228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205102</v>
+        <v>0.20493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211676</v>
+        <v>0.211322</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210964</v>
+        <v>0.210404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204422</v>
+        <v>0.204214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210228</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206466</v>
+        <v>0.20614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203379</v>
+        <v>0.203284</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209751</v>
+        <v>0.209477</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200321</v>
+        <v>0.200646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20242</v>
+        <v>0.202362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208727</v>
+        <v>0.208477</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196421</v>
+        <v>0.196311</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201542</v>
+        <v>0.201485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207769</v>
+        <v>0.207653</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190588</v>
+        <v>0.190253</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200544</v>
+        <v>0.200504</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207241</v>
+        <v>0.207093</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185073</v>
+        <v>0.185493</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199284</v>
+        <v>0.199334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206376</v>
+        <v>0.206281</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177494</v>
+        <v>0.177692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199086</v>
+        <v>0.198775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205554</v>
+        <v>0.205312</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170027</v>
+        <v>0.170588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197875</v>
+        <v>0.197793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222001</v>
+        <v>0.22278</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243814</v>
+        <v>0.243214</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216649</v>
+        <v>0.217743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219814</v>
+        <v>0.220232</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240368</v>
+        <v>0.240117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213504</v>
+        <v>0.21481</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218696</v>
+        <v>0.218835</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234312</v>
+        <v>0.233645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2126</v>
+        <v>0.211323</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217268</v>
+        <v>0.217001</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229742</v>
+        <v>0.228897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210436</v>
+        <v>0.210076</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215575</v>
+        <v>0.215609</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225253</v>
+        <v>0.225534</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208955</v>
+        <v>0.20835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214389</v>
+        <v>0.214304</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220107</v>
+        <v>0.220054</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207311</v>
+        <v>0.207033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213111</v>
+        <v>0.213059</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214352</v>
+        <v>0.213874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205818</v>
+        <v>0.205596</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211722</v>
+        <v>0.211602</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208753</v>
+        <v>0.208748</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204817</v>
+        <v>0.204511</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210801</v>
+        <v>0.210514</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20245</v>
+        <v>0.20217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203573</v>
+        <v>0.20329</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209847</v>
+        <v>0.209578</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197158</v>
+        <v>0.197417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202376</v>
+        <v>0.202154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20889</v>
+        <v>0.208915</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192498</v>
+        <v>0.192384</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201605</v>
+        <v>0.201384</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208167</v>
+        <v>0.208017</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186925</v>
+        <v>0.186778</v>
       </c>
       <c r="C35" t="n">
-        <v>0.20025</v>
+        <v>0.20014</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206944</v>
+        <v>0.206853</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180866</v>
+        <v>0.180738</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200168</v>
+        <v>0.199829</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206339</v>
+        <v>0.206419</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172795</v>
+        <v>0.172818</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199268</v>
+        <v>0.198886</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222987</v>
+        <v>0.223093</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245493</v>
+        <v>0.244624</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215306</v>
+        <v>0.215221</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221096</v>
+        <v>0.220848</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241698</v>
+        <v>0.240779</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213432</v>
+        <v>0.213174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219244</v>
+        <v>0.219275</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235994</v>
+        <v>0.235659</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211974</v>
+        <v>0.211579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218043</v>
+        <v>0.217912</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231534</v>
+        <v>0.231498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210676</v>
+        <v>0.21045</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216588</v>
+        <v>0.216472</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225403</v>
+        <v>0.226375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20915</v>
+        <v>0.208948</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214943</v>
+        <v>0.214865</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220729</v>
+        <v>0.220586</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207597</v>
+        <v>0.207464</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213663</v>
+        <v>0.213545</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214511</v>
+        <v>0.214638</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206412</v>
+        <v>0.206308</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212445</v>
+        <v>0.212318</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210636</v>
+        <v>0.210067</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205259</v>
+        <v>0.205137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211413</v>
+        <v>0.21128</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205357</v>
+        <v>0.204864</v>
       </c>
       <c r="C46" t="n">
-        <v>0.20406</v>
+        <v>0.203919</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210233</v>
+        <v>0.210133</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199881</v>
+        <v>0.199578</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203225</v>
+        <v>0.202947</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2094</v>
+        <v>0.209346</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194189</v>
+        <v>0.194122</v>
       </c>
       <c r="C48" t="n">
-        <v>0.20225</v>
+        <v>0.202032</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208504</v>
+        <v>0.208371</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18871</v>
+        <v>0.188775</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201113</v>
+        <v>0.201008</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207362</v>
+        <v>0.207243</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182799</v>
+        <v>0.182769</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200149</v>
+        <v>0.199901</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206428</v>
+        <v>0.206322</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176279</v>
+        <v>0.176104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199211</v>
+        <v>0.199009</v>
       </c>
       <c r="D51" t="n">
-        <v>0.224462</v>
+        <v>0.223731</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167765</v>
+        <v>0.167674</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198439</v>
+        <v>0.197974</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221656</v>
+        <v>0.221505</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243289</v>
+        <v>0.241386</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214018</v>
+        <v>0.2138</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2201</v>
+        <v>0.219952</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.238518</v>
+        <v>0.237262</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212311</v>
+        <v>0.21212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218543</v>
+        <v>0.21839</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.235001</v>
+        <v>0.233468</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210857</v>
+        <v>0.210793</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217164</v>
+        <v>0.217099</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228496</v>
+        <v>0.228219</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209499</v>
+        <v>0.209304</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215711</v>
+        <v>0.215562</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222781</v>
+        <v>0.222185</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208185</v>
+        <v>0.20807</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214544</v>
+        <v>0.214371</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217093</v>
+        <v>0.21726</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206872</v>
+        <v>0.206773</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213208</v>
+        <v>0.21305</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21126</v>
+        <v>0.211088</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205743</v>
+        <v>0.205599</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211813</v>
+        <v>0.211612</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206119</v>
+        <v>0.20601</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20453</v>
+        <v>0.204408</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210706</v>
+        <v>0.210482</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2012</v>
+        <v>0.201459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203534</v>
+        <v>0.203372</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209615</v>
+        <v>0.20937</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195903</v>
+        <v>0.196077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202461</v>
+        <v>0.202262</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208568</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190682</v>
+        <v>0.190663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201455</v>
+        <v>0.201342</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207985</v>
+        <v>0.207848</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184485</v>
+        <v>0.184363</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200472</v>
+        <v>0.200347</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206639</v>
+        <v>0.206541</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178107</v>
+        <v>0.177786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199441</v>
+        <v>0.199305</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20579</v>
+        <v>0.205671</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16998</v>
+        <v>0.169466</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19845</v>
+        <v>0.19837</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222463</v>
+        <v>0.22222</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241841</v>
+        <v>0.242114</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215505</v>
+        <v>0.221536</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220796</v>
+        <v>0.22058</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238306</v>
+        <v>0.237517</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213763</v>
+        <v>0.218254</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219212</v>
+        <v>0.21899</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235481</v>
+        <v>0.234072</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212044</v>
+        <v>0.214877</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217698</v>
+        <v>0.217517</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229746</v>
+        <v>0.229138</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210463</v>
+        <v>0.212137</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216317</v>
+        <v>0.216136</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224169</v>
+        <v>0.224392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209102</v>
+        <v>0.209975</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21488</v>
+        <v>0.214738</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218842</v>
+        <v>0.218832</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207687</v>
+        <v>0.207823</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21372</v>
+        <v>0.213533</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21332</v>
+        <v>0.213903</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206429</v>
+        <v>0.2062</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212508</v>
+        <v>0.212326</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20855</v>
+        <v>0.208784</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20521</v>
+        <v>0.204947</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21135</v>
+        <v>0.211148</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203091</v>
+        <v>0.203225</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204034</v>
+        <v>0.203855</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210257</v>
+        <v>0.210099</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197651</v>
+        <v>0.197675</v>
       </c>
       <c r="C76" t="n">
-        <v>0.20288</v>
+        <v>0.202731</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209294</v>
+        <v>0.209149</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192396</v>
+        <v>0.192451</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201845</v>
+        <v>0.2017</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208288</v>
+        <v>0.20813</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186368</v>
+        <v>0.186398</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200841</v>
+        <v>0.200733</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207329</v>
+        <v>0.20715</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180252</v>
+        <v>0.180065</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19986</v>
+        <v>0.199748</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206485</v>
+        <v>0.206357</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173164</v>
+        <v>0.172764</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198814</v>
+        <v>0.198688</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224859</v>
+        <v>0.22498</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244798</v>
+        <v>0.244375</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225776</v>
+        <v>0.225217</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222612</v>
+        <v>0.222776</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240646</v>
+        <v>0.240501</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219587</v>
+        <v>0.219256</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220634</v>
+        <v>0.220572</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236406</v>
+        <v>0.236013</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214736</v>
+        <v>0.214778</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218939</v>
+        <v>0.218562</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230448</v>
+        <v>0.23135</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211747</v>
+        <v>0.211731</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217128</v>
+        <v>0.217086</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225466</v>
+        <v>0.224947</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209913</v>
+        <v>0.209824</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215641</v>
+        <v>0.215538</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219707</v>
+        <v>0.220061</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208573</v>
+        <v>0.208352</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21417</v>
+        <v>0.214112</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212937</v>
+        <v>0.213866</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206745</v>
+        <v>0.206859</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212814</v>
+        <v>0.212803</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206511</v>
+        <v>0.207298</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205575</v>
+        <v>0.205576</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211656</v>
+        <v>0.211531</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200994</v>
+        <v>0.20149</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204301</v>
+        <v>0.204278</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210456</v>
+        <v>0.210425</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194912</v>
+        <v>0.195867</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2032</v>
+        <v>0.203169</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209403</v>
+        <v>0.209254</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188859</v>
+        <v>0.18954</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202119</v>
+        <v>0.202081</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208399</v>
+        <v>0.208372</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182643</v>
+        <v>0.183447</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201619</v>
+        <v>0.200994</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207499</v>
+        <v>0.207456</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176205</v>
+        <v>0.176358</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200195</v>
+        <v>0.200056</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206657</v>
+        <v>0.206547</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167697</v>
+        <v>0.168518</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199178</v>
+        <v>0.199167</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226534</v>
+        <v>0.22674</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24449</v>
+        <v>0.244447</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222452</v>
+        <v>0.222613</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223688</v>
+        <v>0.22355</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2411</v>
+        <v>0.241197</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218082</v>
+        <v>0.217978</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221093</v>
+        <v>0.221268</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.23564</v>
+        <v>0.236686</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214933</v>
+        <v>0.214931</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219252</v>
+        <v>0.219424</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230822</v>
+        <v>0.231567</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212276</v>
+        <v>0.212326</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21788</v>
+        <v>0.218012</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225811</v>
+        <v>0.225512</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210271</v>
+        <v>0.210348</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216518</v>
+        <v>0.216756</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21991</v>
+        <v>0.219522</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208789</v>
+        <v>0.208832</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215258</v>
+        <v>0.215346</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214517</v>
+        <v>0.214661</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207125</v>
+        <v>0.207214</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213806</v>
+        <v>0.213901</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208195</v>
+        <v>0.208359</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205719</v>
+        <v>0.20586</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212068</v>
+        <v>0.212151</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205606</v>
+        <v>0.205702</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204528</v>
+        <v>0.204544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210946</v>
+        <v>0.21117</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200421</v>
+        <v>0.200318</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20333</v>
+        <v>0.203347</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209849</v>
+        <v>0.209912</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194326</v>
+        <v>0.194534</v>
       </c>
       <c r="C105" t="n">
         <v>0.202298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20916</v>
+        <v>0.209281</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189234</v>
+        <v>0.189183</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201236</v>
+        <v>0.201228</v>
       </c>
       <c r="D106" t="n">
-        <v>0.20811</v>
+        <v>0.208272</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183212</v>
+        <v>0.183065</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200183</v>
+        <v>0.200181</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207213</v>
+        <v>0.207004</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176274</v>
+        <v>0.176232</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199235</v>
+        <v>0.199249</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226443</v>
+        <v>0.226446</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167253</v>
+        <v>0.167652</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198451</v>
+        <v>0.198427</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223568</v>
+        <v>0.223523</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243293</v>
+        <v>0.243182</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218859</v>
+        <v>0.21887</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221233</v>
+        <v>0.22133</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238339</v>
+        <v>0.23925</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215168</v>
+        <v>0.215161</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219414</v>
+        <v>0.219483</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233754</v>
+        <v>0.234212</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212514</v>
+        <v>0.212641</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217551</v>
+        <v>0.217698</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228476</v>
+        <v>0.228924</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210461</v>
+        <v>0.210586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215967</v>
+        <v>0.216059</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222553</v>
+        <v>0.223535</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208762</v>
+        <v>0.208855</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214582</v>
+        <v>0.214803</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216864</v>
+        <v>0.21725</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207266</v>
+        <v>0.207378</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213374</v>
+        <v>0.213606</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211216</v>
+        <v>0.211915</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205921</v>
+        <v>0.206042</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212179</v>
+        <v>0.212293</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205571</v>
+        <v>0.206601</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204626</v>
+        <v>0.204702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21095</v>
+        <v>0.211034</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200596</v>
+        <v>0.201033</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203912</v>
+        <v>0.204058</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209957</v>
+        <v>0.210262</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195486</v>
+        <v>0.195726</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202791</v>
+        <v>0.20291</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209266</v>
+        <v>0.209385</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189733</v>
+        <v>0.189906</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201765</v>
+        <v>0.201912</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2082</v>
+        <v>0.208347</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183309</v>
+        <v>0.183621</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200756</v>
+        <v>0.200846</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207145</v>
+        <v>0.207293</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176315</v>
+        <v>0.1763</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199783</v>
+        <v>0.19996</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206295</v>
+        <v>0.206414</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16771</v>
+        <v>0.167632</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198852</v>
+        <v>0.19899</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223937</v>
+        <v>0.224068</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243258</v>
+        <v>0.242789</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219317</v>
+        <v>0.219364</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221613</v>
+        <v>0.221792</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239245</v>
+        <v>0.238448</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215535</v>
+        <v>0.215453</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219742</v>
+        <v>0.219852</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23381</v>
+        <v>0.23418</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212882</v>
+        <v>0.212991</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217984</v>
+        <v>0.218046</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229438</v>
+        <v>0.22933</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210787</v>
+        <v>0.210799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216455</v>
+        <v>0.216556</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224006</v>
+        <v>0.22531</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209089</v>
+        <v>0.209183</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215063</v>
+        <v>0.215184</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219779</v>
+        <v>0.219997</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207587</v>
+        <v>0.207667</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213755</v>
+        <v>0.21389</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211492</v>
+        <v>0.211797</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206239</v>
+        <v>0.206283</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212529</v>
+        <v>0.212632</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205178</v>
+        <v>0.205726</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205026</v>
+        <v>0.205065</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211223</v>
+        <v>0.211372</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200045</v>
+        <v>0.199737</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203819</v>
+        <v>0.203859</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21028</v>
+        <v>0.210317</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197347</v>
+        <v>0.197653</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202697</v>
+        <v>0.202707</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209046</v>
+        <v>0.209101</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186782</v>
+        <v>0.187542</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201657</v>
+        <v>0.201699</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208056</v>
+        <v>0.208195</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18017</v>
+        <v>0.180675</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200642</v>
+        <v>0.200699</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207126</v>
+        <v>0.207206</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17274</v>
+        <v>0.177687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199676</v>
+        <v>0.199636</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206158</v>
+        <v>0.206286</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16392</v>
+        <v>0.163845</v>
       </c>
       <c r="C137" t="n">
-        <v>0.19868</v>
+        <v>0.198864</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224888</v>
+        <v>0.225152</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245426</v>
+        <v>0.245429</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220983</v>
+        <v>0.22109</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222432</v>
+        <v>0.222616</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241256</v>
+        <v>0.241122</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217093</v>
+        <v>0.217197</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220385</v>
+        <v>0.220485</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236453</v>
+        <v>0.23665</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213958</v>
+        <v>0.214064</v>
       </c>
       <c r="D140" t="n">
-        <v>0.21858</v>
+        <v>0.218693</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231196</v>
+        <v>0.231151</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211759</v>
+        <v>0.211896</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216934</v>
+        <v>0.217068</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.225922</v>
+        <v>0.22617</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209893</v>
+        <v>0.210034</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215485</v>
+        <v>0.215592</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221106</v>
+        <v>0.221063</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208285</v>
+        <v>0.208415</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214062</v>
+        <v>0.214199</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201227</v>
+        <v>0.201066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192787</v>
+        <v>0.193583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199922</v>
+        <v>0.199496</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195261</v>
+        <v>0.197111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193543</v>
+        <v>0.194003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200294</v>
+        <v>0.200764</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193244</v>
+        <v>0.193669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194025</v>
+        <v>0.194058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201092</v>
+        <v>0.200653</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188658</v>
+        <v>0.189227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193406</v>
+        <v>0.193592</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200513</v>
+        <v>0.200746</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182716</v>
+        <v>0.18308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193146</v>
+        <v>0.192751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200205</v>
+        <v>0.200215</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176328</v>
+        <v>0.176463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193013</v>
+        <v>0.192988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199659</v>
+        <v>0.199628</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167591</v>
+        <v>0.168323</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192738</v>
+        <v>0.192699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199591</v>
+        <v>0.199886</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15788</v>
+        <v>0.158399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192564</v>
+        <v>0.192492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217927</v>
+        <v>0.217546</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240874</v>
+        <v>0.241897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212289</v>
+        <v>0.210956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216678</v>
+        <v>0.216308</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235919</v>
+        <v>0.23689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210038</v>
+        <v>0.209868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21558</v>
+        <v>0.215275</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231984</v>
+        <v>0.233449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208221</v>
+        <v>0.207955</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214487</v>
+        <v>0.214292</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228047</v>
+        <v>0.229344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206779</v>
+        <v>0.206716</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212857</v>
+        <v>0.212651</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22198</v>
+        <v>0.222993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206198</v>
+        <v>0.206056</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212113</v>
+        <v>0.21214</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215228</v>
+        <v>0.216139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20493</v>
+        <v>0.204961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211322</v>
+        <v>0.211072</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210404</v>
+        <v>0.211457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204214</v>
+        <v>0.204397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2103</v>
+        <v>0.210032</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20614</v>
+        <v>0.20631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203284</v>
+        <v>0.20337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209477</v>
+        <v>0.209403</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200646</v>
+        <v>0.200506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202362</v>
+        <v>0.202219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208477</v>
+        <v>0.208523</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196311</v>
+        <v>0.195576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201485</v>
+        <v>0.201271</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207653</v>
+        <v>0.207627</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190253</v>
+        <v>0.19017</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200504</v>
+        <v>0.200597</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207093</v>
+        <v>0.207043</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185493</v>
+        <v>0.184961</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199334</v>
+        <v>0.199472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206281</v>
+        <v>0.206285</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177692</v>
+        <v>0.178193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198775</v>
+        <v>0.198728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205312</v>
+        <v>0.205247</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170588</v>
+        <v>0.170137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197793</v>
+        <v>0.197765</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22278</v>
+        <v>0.222378</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243214</v>
+        <v>0.243465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217743</v>
+        <v>0.215386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220232</v>
+        <v>0.22013</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240117</v>
+        <v>0.240578</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21481</v>
+        <v>0.214311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218835</v>
+        <v>0.218434</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233645</v>
+        <v>0.234359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211323</v>
+        <v>0.211815</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217001</v>
+        <v>0.217145</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228897</v>
+        <v>0.230312</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210076</v>
+        <v>0.210123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215609</v>
+        <v>0.215598</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225534</v>
+        <v>0.225724</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20835</v>
+        <v>0.208558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214304</v>
+        <v>0.214169</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220054</v>
+        <v>0.220477</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207033</v>
+        <v>0.207058</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213059</v>
+        <v>0.212922</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213874</v>
+        <v>0.213648</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205596</v>
+        <v>0.205724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211602</v>
+        <v>0.211677</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208748</v>
+        <v>0.208299</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204511</v>
+        <v>0.20443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210514</v>
+        <v>0.21057</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20217</v>
+        <v>0.202373</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20329</v>
+        <v>0.203382</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209578</v>
+        <v>0.209579</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197417</v>
+        <v>0.196525</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202154</v>
+        <v>0.202366</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208915</v>
+        <v>0.208806</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192384</v>
+        <v>0.191526</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201384</v>
+        <v>0.201401</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208017</v>
+        <v>0.207983</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186778</v>
+        <v>0.186429</v>
       </c>
       <c r="C35" t="n">
-        <v>0.20014</v>
+        <v>0.200012</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206853</v>
+        <v>0.206742</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180738</v>
+        <v>0.18017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199829</v>
+        <v>0.200036</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206419</v>
+        <v>0.206262</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172818</v>
+        <v>0.172282</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198886</v>
+        <v>0.198852</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223093</v>
+        <v>0.223003</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244624</v>
+        <v>0.245506</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215221</v>
+        <v>0.21492</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220848</v>
+        <v>0.220974</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240779</v>
+        <v>0.241792</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213174</v>
+        <v>0.213084</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219275</v>
+        <v>0.219292</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235659</v>
+        <v>0.235549</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211579</v>
+        <v>0.21183</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217912</v>
+        <v>0.217847</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231498</v>
+        <v>0.231779</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21045</v>
+        <v>0.210498</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216472</v>
+        <v>0.216435</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226375</v>
+        <v>0.22695</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208948</v>
+        <v>0.208892</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214865</v>
+        <v>0.214893</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220586</v>
+        <v>0.221378</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207464</v>
+        <v>0.207297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213545</v>
+        <v>0.213487</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214638</v>
+        <v>0.215097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206308</v>
+        <v>0.206224</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212318</v>
+        <v>0.212313</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210067</v>
+        <v>0.210631</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205137</v>
+        <v>0.205196</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21128</v>
+        <v>0.211254</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204864</v>
+        <v>0.205606</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203919</v>
+        <v>0.203939</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210133</v>
+        <v>0.210083</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199578</v>
+        <v>0.1998</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202947</v>
+        <v>0.202965</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209346</v>
+        <v>0.20933</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194122</v>
+        <v>0.194018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202032</v>
+        <v>0.202075</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208371</v>
+        <v>0.208408</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188775</v>
+        <v>0.1884</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201008</v>
+        <v>0.200951</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207243</v>
+        <v>0.207361</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182769</v>
+        <v>0.182376</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199901</v>
+        <v>0.199917</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206322</v>
+        <v>0.206234</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176104</v>
+        <v>0.176044</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199009</v>
+        <v>0.19898</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223731</v>
+        <v>0.223939</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167674</v>
+        <v>0.167389</v>
       </c>
       <c r="C52" t="n">
-        <v>0.197974</v>
+        <v>0.198259</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221505</v>
+        <v>0.221586</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241386</v>
+        <v>0.242031</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2138</v>
+        <v>0.214018</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219952</v>
+        <v>0.219942</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237262</v>
+        <v>0.239525</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21212</v>
+        <v>0.212181</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21839</v>
+        <v>0.218507</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233468</v>
+        <v>0.234445</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210793</v>
+        <v>0.210851</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217099</v>
+        <v>0.217004</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228219</v>
+        <v>0.229076</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209304</v>
+        <v>0.209407</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215562</v>
+        <v>0.215529</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222185</v>
+        <v>0.222748</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20807</v>
+        <v>0.208149</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214371</v>
+        <v>0.214406</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21726</v>
+        <v>0.217813</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206773</v>
+        <v>0.206792</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21305</v>
+        <v>0.213057</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211088</v>
+        <v>0.21181</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205599</v>
+        <v>0.205632</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211612</v>
+        <v>0.211665</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.20601</v>
+        <v>0.206358</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204408</v>
+        <v>0.204491</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210482</v>
+        <v>0.210466</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201459</v>
+        <v>0.201356</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203372</v>
+        <v>0.203403</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20937</v>
+        <v>0.209389</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196077</v>
+        <v>0.196325</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202262</v>
+        <v>0.202343</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2084</v>
+        <v>0.208422</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190663</v>
+        <v>0.19068</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201342</v>
+        <v>0.201334</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207848</v>
+        <v>0.207821</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184363</v>
+        <v>0.184615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200347</v>
+        <v>0.200358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206541</v>
+        <v>0.206561</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177786</v>
+        <v>0.177788</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199305</v>
+        <v>0.199361</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205671</v>
+        <v>0.205706</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169466</v>
+        <v>0.169629</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19837</v>
+        <v>0.198298</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22222</v>
+        <v>0.222233</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242114</v>
+        <v>0.243561</v>
       </c>
       <c r="C67" t="n">
-        <v>0.221536</v>
+        <v>0.215382</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22058</v>
+        <v>0.220612</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237517</v>
+        <v>0.239933</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218254</v>
+        <v>0.213566</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21899</v>
+        <v>0.21904</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.234072</v>
+        <v>0.235485</v>
       </c>
       <c r="C69" t="n">
-        <v>0.214877</v>
+        <v>0.21189</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217517</v>
+        <v>0.217503</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229138</v>
+        <v>0.229604</v>
       </c>
       <c r="C70" t="n">
-        <v>0.212137</v>
+        <v>0.210385</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216136</v>
+        <v>0.216146</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224392</v>
+        <v>0.225715</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209975</v>
+        <v>0.209015</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214738</v>
+        <v>0.214725</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218832</v>
+        <v>0.219227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207823</v>
+        <v>0.207598</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213533</v>
+        <v>0.213511</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213903</v>
+        <v>0.214019</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2062</v>
+        <v>0.206251</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212326</v>
+        <v>0.21225</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208784</v>
+        <v>0.208484</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204947</v>
+        <v>0.205051</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211148</v>
+        <v>0.211092</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203225</v>
+        <v>0.203083</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203855</v>
+        <v>0.203993</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210099</v>
+        <v>0.210059</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197675</v>
+        <v>0.197819</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202731</v>
+        <v>0.202827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209149</v>
+        <v>0.209088</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192451</v>
+        <v>0.192237</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2017</v>
+        <v>0.201763</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20813</v>
+        <v>0.208087</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186398</v>
+        <v>0.186272</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200733</v>
+        <v>0.200862</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20715</v>
+        <v>0.207156</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180065</v>
+        <v>0.180144</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199748</v>
+        <v>0.199864</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206357</v>
+        <v>0.206294</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172764</v>
+        <v>0.172441</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198688</v>
+        <v>0.198818</v>
       </c>
       <c r="D80" t="n">
-        <v>0.22498</v>
+        <v>0.224584</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244375</v>
+        <v>0.246488</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225217</v>
+        <v>0.225261</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222776</v>
+        <v>0.222332</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240501</v>
+        <v>0.242552</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219256</v>
+        <v>0.219774</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220572</v>
+        <v>0.220319</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236013</v>
+        <v>0.238289</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214778</v>
+        <v>0.213716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218562</v>
+        <v>0.218567</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23135</v>
+        <v>0.233206</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211731</v>
+        <v>0.21152</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217086</v>
+        <v>0.216849</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224947</v>
+        <v>0.227235</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209824</v>
+        <v>0.209419</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215538</v>
+        <v>0.215405</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220061</v>
+        <v>0.221824</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208352</v>
+        <v>0.20818</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214112</v>
+        <v>0.21406</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213866</v>
+        <v>0.215995</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206859</v>
+        <v>0.206765</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212803</v>
+        <v>0.212726</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207298</v>
+        <v>0.209672</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205576</v>
+        <v>0.205577</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211531</v>
+        <v>0.211443</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20149</v>
+        <v>0.204456</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204278</v>
+        <v>0.204348</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210425</v>
+        <v>0.210332</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195867</v>
+        <v>0.199238</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203169</v>
+        <v>0.203167</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209254</v>
+        <v>0.209372</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18954</v>
+        <v>0.193453</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202081</v>
+        <v>0.20211</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208372</v>
+        <v>0.208375</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183447</v>
+        <v>0.187828</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200994</v>
+        <v>0.201071</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207456</v>
+        <v>0.207365</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176358</v>
+        <v>0.18132</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200056</v>
+        <v>0.200045</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206547</v>
+        <v>0.206512</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168518</v>
+        <v>0.174163</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199167</v>
+        <v>0.199124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.22674</v>
+        <v>0.226367</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244447</v>
+        <v>0.246834</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222613</v>
+        <v>0.222452</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22355</v>
+        <v>0.223556</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241197</v>
+        <v>0.242172</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217978</v>
+        <v>0.218133</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221268</v>
+        <v>0.221013</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236686</v>
+        <v>0.236645</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214931</v>
+        <v>0.215022</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219424</v>
+        <v>0.219399</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231567</v>
+        <v>0.230802</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212326</v>
+        <v>0.212366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218012</v>
+        <v>0.218054</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225512</v>
+        <v>0.226282</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210348</v>
+        <v>0.21043</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216756</v>
+        <v>0.21672</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219522</v>
+        <v>0.21943</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208832</v>
+        <v>0.209081</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215346</v>
+        <v>0.215286</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214661</v>
+        <v>0.214599</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207214</v>
+        <v>0.207405</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213901</v>
+        <v>0.213955</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208359</v>
+        <v>0.208119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.20586</v>
+        <v>0.205992</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212151</v>
+        <v>0.212214</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205702</v>
+        <v>0.205613</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204544</v>
+        <v>0.204672</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21117</v>
+        <v>0.211061</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200318</v>
+        <v>0.200524</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203347</v>
+        <v>0.203461</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209912</v>
+        <v>0.209933</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194534</v>
+        <v>0.194635</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202298</v>
+        <v>0.202397</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209281</v>
+        <v>0.209085</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189183</v>
+        <v>0.188714</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201228</v>
+        <v>0.201351</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208272</v>
+        <v>0.208335</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183065</v>
+        <v>0.1826</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200181</v>
+        <v>0.200258</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207004</v>
+        <v>0.207273</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176232</v>
+        <v>0.17585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199249</v>
+        <v>0.199402</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226446</v>
+        <v>0.226513</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167652</v>
+        <v>0.167912</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198427</v>
+        <v>0.198526</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223523</v>
+        <v>0.223567</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243182</v>
+        <v>0.243165</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21887</v>
+        <v>0.218657</v>
       </c>
       <c r="D110" t="n">
-        <v>0.22133</v>
+        <v>0.22145</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23925</v>
+        <v>0.238786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215161</v>
+        <v>0.215129</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219483</v>
+        <v>0.219367</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234212</v>
+        <v>0.23391</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212641</v>
+        <v>0.212534</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217698</v>
+        <v>0.217706</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228924</v>
+        <v>0.228335</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210586</v>
+        <v>0.210488</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216059</v>
+        <v>0.215974</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223535</v>
+        <v>0.222987</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208855</v>
+        <v>0.208761</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214803</v>
+        <v>0.214724</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21725</v>
+        <v>0.217067</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207378</v>
+        <v>0.207259</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213606</v>
+        <v>0.213383</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211915</v>
+        <v>0.211097</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206042</v>
+        <v>0.205916</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212293</v>
+        <v>0.212192</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206601</v>
+        <v>0.205397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204702</v>
+        <v>0.20464</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211034</v>
+        <v>0.210901</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.201033</v>
+        <v>0.200617</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204058</v>
+        <v>0.203755</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210262</v>
+        <v>0.209936</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195726</v>
+        <v>0.195538</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20291</v>
+        <v>0.202784</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209385</v>
+        <v>0.209245</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189906</v>
+        <v>0.189767</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201912</v>
+        <v>0.201776</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208347</v>
+        <v>0.20826</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183621</v>
+        <v>0.183394</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200846</v>
+        <v>0.200765</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207293</v>
+        <v>0.207184</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1763</v>
+        <v>0.17608</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19996</v>
+        <v>0.199787</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206414</v>
+        <v>0.206303</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167632</v>
+        <v>0.167502</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19899</v>
+        <v>0.198833</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224068</v>
+        <v>0.223887</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242789</v>
+        <v>0.244521</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219364</v>
+        <v>0.219076</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221792</v>
+        <v>0.221671</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238448</v>
+        <v>0.240883</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215453</v>
+        <v>0.215496</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219852</v>
+        <v>0.219685</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.23418</v>
+        <v>0.234407</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212991</v>
+        <v>0.212775</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218046</v>
+        <v>0.217847</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.22933</v>
+        <v>0.229097</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210799</v>
+        <v>0.210694</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216556</v>
+        <v>0.216424</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.22531</v>
+        <v>0.223597</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209183</v>
+        <v>0.209023</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215184</v>
+        <v>0.215025</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219997</v>
+        <v>0.219405</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207667</v>
+        <v>0.207578</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21389</v>
+        <v>0.213726</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211797</v>
+        <v>0.213575</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206283</v>
+        <v>0.206201</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212632</v>
+        <v>0.212437</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205726</v>
+        <v>0.207858</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205065</v>
+        <v>0.205019</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211372</v>
+        <v>0.211238</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199737</v>
+        <v>0.19951</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203859</v>
+        <v>0.203838</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210317</v>
+        <v>0.210203</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197653</v>
+        <v>0.197272</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202707</v>
+        <v>0.20269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209101</v>
+        <v>0.209076</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187542</v>
+        <v>0.18655</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201699</v>
+        <v>0.201688</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208195</v>
+        <v>0.20806</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180675</v>
+        <v>0.180018</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200699</v>
+        <v>0.200624</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207206</v>
+        <v>0.206993</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.177687</v>
+        <v>0.172617</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199636</v>
+        <v>0.199705</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206286</v>
+        <v>0.206312</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163845</v>
+        <v>0.163618</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198864</v>
+        <v>0.198698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225152</v>
+        <v>0.224992</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245429</v>
+        <v>0.245277</v>
       </c>
       <c r="C138" t="n">
-        <v>0.22109</v>
+        <v>0.220895</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222616</v>
+        <v>0.22246</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241122</v>
+        <v>0.240827</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217197</v>
+        <v>0.217032</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220485</v>
+        <v>0.220433</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23665</v>
+        <v>0.236417</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214064</v>
+        <v>0.214037</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218693</v>
+        <v>0.218582</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231151</v>
+        <v>0.2311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211896</v>
+        <v>0.211764</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217068</v>
+        <v>0.216951</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22617</v>
+        <v>0.226167</v>
       </c>
       <c r="C142" t="n">
-        <v>0.210034</v>
+        <v>0.20987</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215592</v>
+        <v>0.215504</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221063</v>
+        <v>0.220971</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208415</v>
+        <v>0.208315</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214199</v>
+        <v>0.214047</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201066</v>
+        <v>0.201372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193583</v>
+        <v>0.193384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199496</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197111</v>
+        <v>0.198093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194003</v>
+        <v>0.194206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200764</v>
+        <v>0.200762</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193669</v>
+        <v>0.191784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194058</v>
+        <v>0.19412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200653</v>
+        <v>0.20091</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189227</v>
+        <v>0.186892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193592</v>
+        <v>0.194425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200746</v>
+        <v>0.200578</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18308</v>
+        <v>0.180455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192751</v>
+        <v>0.193502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200215</v>
+        <v>0.19994</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176463</v>
+        <v>0.174286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192988</v>
+        <v>0.193085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199628</v>
+        <v>0.199765</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168323</v>
+        <v>0.167735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192699</v>
+        <v>0.192493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199886</v>
+        <v>0.199587</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158399</v>
+        <v>0.160219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192492</v>
+        <v>0.192693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217546</v>
+        <v>0.218196</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241897</v>
+        <v>0.24006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210956</v>
+        <v>0.211093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216308</v>
+        <v>0.21596</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23689</v>
+        <v>0.236991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209868</v>
+        <v>0.209991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215275</v>
+        <v>0.215358</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233449</v>
+        <v>0.233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207955</v>
+        <v>0.208117</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214292</v>
+        <v>0.214162</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229344</v>
+        <v>0.225561</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206716</v>
+        <v>0.206708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212651</v>
+        <v>0.212586</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222993</v>
+        <v>0.220869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206056</v>
+        <v>0.205909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21214</v>
+        <v>0.211854</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216139</v>
+        <v>0.215287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204961</v>
+        <v>0.205213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211072</v>
+        <v>0.211079</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211457</v>
+        <v>0.211157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204397</v>
+        <v>0.204115</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210032</v>
+        <v>0.210446</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20631</v>
+        <v>0.205414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20337</v>
+        <v>0.203399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209403</v>
+        <v>0.209297</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200506</v>
+        <v>0.200048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202219</v>
+        <v>0.202175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208523</v>
+        <v>0.208514</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195576</v>
+        <v>0.193525</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201271</v>
+        <v>0.20159</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207627</v>
+        <v>0.207651</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19017</v>
+        <v>0.188296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200597</v>
+        <v>0.200583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207043</v>
+        <v>0.206908</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184961</v>
+        <v>0.183318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199472</v>
+        <v>0.199567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206285</v>
+        <v>0.205979</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.178193</v>
+        <v>0.177682</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198728</v>
+        <v>0.198805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205247</v>
+        <v>0.205427</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170137</v>
+        <v>0.170412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197765</v>
+        <v>0.19781</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222378</v>
+        <v>0.221638</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243465</v>
+        <v>0.243471</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215386</v>
+        <v>0.214239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22013</v>
+        <v>0.219815</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240578</v>
+        <v>0.240325</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214311</v>
+        <v>0.212528</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218434</v>
+        <v>0.21867</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234359</v>
+        <v>0.236492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211815</v>
+        <v>0.211275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217145</v>
+        <v>0.216912</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230312</v>
+        <v>0.230525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210123</v>
+        <v>0.209677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215598</v>
+        <v>0.215484</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225724</v>
+        <v>0.224944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208558</v>
+        <v>0.208528</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214169</v>
+        <v>0.21421</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220477</v>
+        <v>0.219543</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207058</v>
+        <v>0.207147</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212922</v>
+        <v>0.212879</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213648</v>
+        <v>0.213927</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205724</v>
+        <v>0.205792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211677</v>
+        <v>0.211538</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208299</v>
+        <v>0.207839</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20443</v>
+        <v>0.204528</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21057</v>
+        <v>0.210649</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202373</v>
+        <v>0.203047</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203382</v>
+        <v>0.20345</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209579</v>
+        <v>0.20957</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196525</v>
+        <v>0.197835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202366</v>
+        <v>0.20219</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208806</v>
+        <v>0.208764</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191526</v>
+        <v>0.192959</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201401</v>
+        <v>0.201366</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207983</v>
+        <v>0.208029</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186429</v>
+        <v>0.187106</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200012</v>
+        <v>0.20004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206742</v>
+        <v>0.206826</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18017</v>
+        <v>0.180021</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200036</v>
+        <v>0.199871</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206262</v>
+        <v>0.206345</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172282</v>
+        <v>0.173086</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198852</v>
+        <v>0.19863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223003</v>
+        <v>0.222833</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245506</v>
+        <v>0.244216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21492</v>
+        <v>0.215091</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220974</v>
+        <v>0.220889</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241792</v>
+        <v>0.239981</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213084</v>
+        <v>0.213285</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219292</v>
+        <v>0.219172</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235549</v>
+        <v>0.235818</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21183</v>
+        <v>0.211748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217847</v>
+        <v>0.217863</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231779</v>
+        <v>0.231358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210498</v>
+        <v>0.210406</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216435</v>
+        <v>0.216422</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.22695</v>
+        <v>0.225846</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208892</v>
+        <v>0.208864</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214893</v>
+        <v>0.215074</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221378</v>
+        <v>0.219632</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207297</v>
+        <v>0.207408</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213487</v>
+        <v>0.213539</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215097</v>
+        <v>0.214047</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206224</v>
+        <v>0.20634</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212313</v>
+        <v>0.212427</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210631</v>
+        <v>0.20786</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205196</v>
+        <v>0.20513</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211254</v>
+        <v>0.211381</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205606</v>
+        <v>0.201569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203939</v>
+        <v>0.204016</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210083</v>
+        <v>0.210092</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1998</v>
+        <v>0.196814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202965</v>
+        <v>0.203089</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20933</v>
+        <v>0.209286</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194018</v>
+        <v>0.189885</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202075</v>
+        <v>0.202055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208408</v>
+        <v>0.208363</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1884</v>
+        <v>0.183938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200951</v>
+        <v>0.200969</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207361</v>
+        <v>0.207323</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182376</v>
+        <v>0.183033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199917</v>
+        <v>0.199953</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206234</v>
+        <v>0.206303</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176044</v>
+        <v>0.175596</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19898</v>
+        <v>0.199038</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223939</v>
+        <v>0.223348</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167389</v>
+        <v>0.166225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198259</v>
+        <v>0.198184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221586</v>
+        <v>0.221356</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242031</v>
+        <v>0.241748</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214018</v>
+        <v>0.213847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219942</v>
+        <v>0.219918</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239525</v>
+        <v>0.236556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212181</v>
+        <v>0.212121</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218507</v>
+        <v>0.218329</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234445</v>
+        <v>0.231965</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210851</v>
+        <v>0.210687</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217004</v>
+        <v>0.217017</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229076</v>
+        <v>0.227449</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209407</v>
+        <v>0.209319</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215529</v>
+        <v>0.215487</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222748</v>
+        <v>0.222173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208149</v>
+        <v>0.208082</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214406</v>
+        <v>0.214324</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217813</v>
+        <v>0.21699</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206792</v>
+        <v>0.206691</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213057</v>
+        <v>0.213051</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.21181</v>
+        <v>0.212064</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205632</v>
+        <v>0.205481</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211665</v>
+        <v>0.211579</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206358</v>
+        <v>0.206483</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204491</v>
+        <v>0.204415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210466</v>
+        <v>0.210495</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201356</v>
+        <v>0.201263</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203403</v>
+        <v>0.203452</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209389</v>
+        <v>0.209434</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196325</v>
+        <v>0.195422</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202343</v>
+        <v>0.202276</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208422</v>
+        <v>0.208426</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19068</v>
+        <v>0.189905</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201334</v>
+        <v>0.201291</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207821</v>
+        <v>0.20785</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184615</v>
+        <v>0.184794</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200358</v>
+        <v>0.200342</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206561</v>
+        <v>0.20651</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177788</v>
+        <v>0.177571</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199361</v>
+        <v>0.199311</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205706</v>
+        <v>0.205651</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169629</v>
+        <v>0.169397</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198298</v>
+        <v>0.198321</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222233</v>
+        <v>0.222559</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243561</v>
+        <v>0.244636</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215382</v>
+        <v>0.217656</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220612</v>
+        <v>0.220795</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239933</v>
+        <v>0.240235</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213566</v>
+        <v>0.215421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21904</v>
+        <v>0.219104</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235485</v>
+        <v>0.235561</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21189</v>
+        <v>0.213014</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217503</v>
+        <v>0.217666</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229604</v>
+        <v>0.230426</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210385</v>
+        <v>0.211117</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216146</v>
+        <v>0.21624</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225715</v>
+        <v>0.224565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209015</v>
+        <v>0.20942</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214725</v>
+        <v>0.21478</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219227</v>
+        <v>0.219396</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207598</v>
+        <v>0.207692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213511</v>
+        <v>0.213618</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.214019</v>
+        <v>0.213268</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206251</v>
+        <v>0.206236</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21225</v>
+        <v>0.212342</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208484</v>
+        <v>0.208238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205051</v>
+        <v>0.205071</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211092</v>
+        <v>0.21121</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203083</v>
+        <v>0.202844</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203993</v>
+        <v>0.203921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210059</v>
+        <v>0.210217</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197819</v>
+        <v>0.197492</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202827</v>
+        <v>0.202713</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209088</v>
+        <v>0.209176</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192237</v>
+        <v>0.192052</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201763</v>
+        <v>0.201738</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208087</v>
+        <v>0.208265</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186272</v>
+        <v>0.186582</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200862</v>
+        <v>0.200748</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207156</v>
+        <v>0.20721</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180144</v>
+        <v>0.180105</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199864</v>
+        <v>0.19975</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206294</v>
+        <v>0.206482</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172441</v>
+        <v>0.172765</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198818</v>
+        <v>0.19879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224584</v>
+        <v>0.225036</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.246488</v>
+        <v>0.245643</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225261</v>
+        <v>0.224641</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222332</v>
+        <v>0.222631</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.242552</v>
+        <v>0.241807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219774</v>
+        <v>0.219798</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220319</v>
+        <v>0.220526</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.238289</v>
+        <v>0.237046</v>
       </c>
       <c r="C83" t="n">
-        <v>0.213716</v>
+        <v>0.214885</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218567</v>
+        <v>0.218833</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233206</v>
+        <v>0.231881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21152</v>
+        <v>0.21188</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216849</v>
+        <v>0.217216</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.227235</v>
+        <v>0.226234</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209419</v>
+        <v>0.209615</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215405</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.221824</v>
+        <v>0.220704</v>
       </c>
       <c r="C86" t="n">
-        <v>0.20818</v>
+        <v>0.208129</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21406</v>
+        <v>0.214144</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215995</v>
+        <v>0.215567</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206765</v>
+        <v>0.206906</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212726</v>
+        <v>0.21277</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209672</v>
+        <v>0.209482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205577</v>
+        <v>0.205595</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211443</v>
+        <v>0.211643</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.204456</v>
+        <v>0.203726</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204348</v>
+        <v>0.204278</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210332</v>
+        <v>0.21041</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199238</v>
+        <v>0.198784</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203167</v>
+        <v>0.203138</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209372</v>
+        <v>0.209385</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193453</v>
+        <v>0.193495</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20211</v>
+        <v>0.202051</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208375</v>
+        <v>0.208423</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187828</v>
+        <v>0.187926</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201071</v>
+        <v>0.201023</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207365</v>
+        <v>0.207478</v>
       </c>
     </row>
     <row r="93">
@@ -4526,10 +4526,10 @@
         <v>0.18132</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200045</v>
+        <v>0.200104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206512</v>
+        <v>0.206622</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174163</v>
+        <v>0.174223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199124</v>
+        <v>0.199281</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226367</v>
+        <v>0.226586</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246834</v>
+        <v>0.243813</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222452</v>
+        <v>0.221851</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223556</v>
+        <v>0.22343</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242172</v>
+        <v>0.239754</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218133</v>
+        <v>0.217775</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221013</v>
+        <v>0.220691</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236645</v>
+        <v>0.235954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215022</v>
+        <v>0.214911</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219399</v>
+        <v>0.219122</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230802</v>
+        <v>0.230627</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212366</v>
+        <v>0.212256</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218054</v>
+        <v>0.217629</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226282</v>
+        <v>0.225427</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21043</v>
+        <v>0.210164</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21672</v>
+        <v>0.216573</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21943</v>
+        <v>0.21881</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209081</v>
+        <v>0.20869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215286</v>
+        <v>0.21521</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214599</v>
+        <v>0.213162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207405</v>
+        <v>0.207084</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213955</v>
+        <v>0.213708</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208119</v>
+        <v>0.207189</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205992</v>
+        <v>0.205687</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212214</v>
+        <v>0.212035</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205613</v>
+        <v>0.20199</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204672</v>
+        <v>0.204516</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211061</v>
+        <v>0.210904</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200524</v>
+        <v>0.199486</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203461</v>
+        <v>0.203273</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209933</v>
+        <v>0.209793</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194635</v>
+        <v>0.194477</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202397</v>
+        <v>0.202304</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209085</v>
+        <v>0.208774</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188714</v>
+        <v>0.188659</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201351</v>
+        <v>0.201291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208335</v>
+        <v>0.208183</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1826</v>
+        <v>0.18286</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200258</v>
+        <v>0.200192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207273</v>
+        <v>0.207236</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17585</v>
+        <v>0.175908</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199402</v>
+        <v>0.199339</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226513</v>
+        <v>0.226254</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167912</v>
+        <v>0.167438</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198526</v>
+        <v>0.198566</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223567</v>
+        <v>0.223272</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243165</v>
+        <v>0.243317</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218657</v>
+        <v>0.218748</v>
       </c>
       <c r="D110" t="n">
-        <v>0.22145</v>
+        <v>0.221122</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238786</v>
+        <v>0.237314</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215129</v>
+        <v>0.215076</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219367</v>
+        <v>0.219211</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23391</v>
+        <v>0.233681</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212534</v>
+        <v>0.212564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217706</v>
+        <v>0.217474</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228335</v>
+        <v>0.227883</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210488</v>
+        <v>0.210497</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215974</v>
+        <v>0.215941</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222987</v>
+        <v>0.222247</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208761</v>
+        <v>0.208787</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214724</v>
+        <v>0.214562</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217067</v>
+        <v>0.217271</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207259</v>
+        <v>0.207307</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213383</v>
+        <v>0.213245</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211097</v>
+        <v>0.211624</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205916</v>
+        <v>0.205994</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212192</v>
+        <v>0.212196</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205397</v>
+        <v>0.205536</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20464</v>
+        <v>0.204724</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210901</v>
+        <v>0.210897</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200617</v>
+        <v>0.200894</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203755</v>
+        <v>0.204027</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209936</v>
+        <v>0.210252</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195538</v>
+        <v>0.195658</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202784</v>
+        <v>0.202876</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209245</v>
+        <v>0.209269</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189767</v>
+        <v>0.186796</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201776</v>
+        <v>0.201847</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20826</v>
+        <v>0.208185</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183394</v>
+        <v>0.178882</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200765</v>
+        <v>0.200788</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207184</v>
+        <v>0.207152</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17608</v>
+        <v>0.170652</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199787</v>
+        <v>0.199897</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206303</v>
+        <v>0.206318</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167502</v>
+        <v>0.161641</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198833</v>
+        <v>0.198835</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223887</v>
+        <v>0.223918</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244521</v>
+        <v>0.242983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219076</v>
+        <v>0.219356</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221671</v>
+        <v>0.221535</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.240883</v>
+        <v>0.238935</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215496</v>
+        <v>0.215623</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219685</v>
+        <v>0.219569</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234407</v>
+        <v>0.234044</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212775</v>
+        <v>0.212984</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217847</v>
+        <v>0.217858</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229097</v>
+        <v>0.229202</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210694</v>
+        <v>0.210819</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216424</v>
+        <v>0.216501</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223597</v>
+        <v>0.223983</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209023</v>
+        <v>0.209191</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215025</v>
+        <v>0.21504</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219405</v>
+        <v>0.217932</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207578</v>
+        <v>0.207648</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213726</v>
+        <v>0.213748</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213575</v>
+        <v>0.211446</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206201</v>
+        <v>0.206238</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212437</v>
+        <v>0.212599</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.207858</v>
+        <v>0.205714</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205019</v>
+        <v>0.205005</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211238</v>
+        <v>0.21126</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.19951</v>
+        <v>0.199372</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203838</v>
+        <v>0.203801</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210203</v>
+        <v>0.210319</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197272</v>
+        <v>0.192819</v>
       </c>
       <c r="C133" t="n">
-        <v>0.20269</v>
+        <v>0.202728</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209076</v>
+        <v>0.208991</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18655</v>
+        <v>0.186377</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201688</v>
+        <v>0.201702</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20806</v>
+        <v>0.208139</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180018</v>
+        <v>0.180093</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200624</v>
+        <v>0.200704</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206993</v>
+        <v>0.207057</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172617</v>
+        <v>0.172723</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199705</v>
+        <v>0.199815</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206312</v>
+        <v>0.206198</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163618</v>
+        <v>0.163884</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198698</v>
+        <v>0.198916</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224992</v>
+        <v>0.224989</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245277</v>
+        <v>0.245072</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220895</v>
+        <v>0.221007</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22246</v>
+        <v>0.222476</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.240827</v>
+        <v>0.24125</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217032</v>
+        <v>0.217217</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220433</v>
+        <v>0.220411</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236417</v>
+        <v>0.236507</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214037</v>
+        <v>0.21413</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218582</v>
+        <v>0.218585</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2311</v>
+        <v>0.231357</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211764</v>
+        <v>0.211824</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216951</v>
+        <v>0.216953</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226167</v>
+        <v>0.226034</v>
       </c>
       <c r="C142" t="n">
-        <v>0.20987</v>
+        <v>0.210015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215504</v>
+        <v>0.215525</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220971</v>
+        <v>0.22073</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208315</v>
+        <v>0.208413</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214047</v>
+        <v>0.214054</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201372</v>
+        <v>0.204116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193384</v>
+        <v>0.193236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200115</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198093</v>
+        <v>0.197267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194206</v>
+        <v>0.194528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200762</v>
+        <v>0.200388</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191784</v>
+        <v>0.194403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19412</v>
+        <v>0.194247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20091</v>
+        <v>0.200984</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186892</v>
+        <v>0.188644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194425</v>
+        <v>0.193012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200578</v>
+        <v>0.20038</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.180455</v>
+        <v>0.183098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193502</v>
+        <v>0.193314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19994</v>
+        <v>0.200227</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.174286</v>
+        <v>0.175483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193085</v>
+        <v>0.193316</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199765</v>
+        <v>0.199258</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167735</v>
+        <v>0.16691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192493</v>
+        <v>0.192597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199587</v>
+        <v>0.199803</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160219</v>
+        <v>0.157309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192693</v>
+        <v>0.192521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218196</v>
+        <v>0.217894</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24006</v>
+        <v>0.23956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211093</v>
+        <v>0.212719</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21596</v>
+        <v>0.216795</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.236991</v>
+        <v>0.234955</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209991</v>
+        <v>0.209926</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215358</v>
+        <v>0.215753</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233</v>
+        <v>0.232275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208117</v>
+        <v>0.20818</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214162</v>
+        <v>0.214733</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225561</v>
+        <v>0.227942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206708</v>
+        <v>0.206748</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212586</v>
+        <v>0.212964</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220869</v>
+        <v>0.222204</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205909</v>
+        <v>0.205898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211854</v>
+        <v>0.212276</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215287</v>
+        <v>0.214844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205213</v>
+        <v>0.20518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211079</v>
+        <v>0.211189</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211157</v>
+        <v>0.211212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204115</v>
+        <v>0.204028</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210446</v>
+        <v>0.210377</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205414</v>
+        <v>0.207026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203399</v>
+        <v>0.203056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209297</v>
+        <v>0.209565</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200048</v>
+        <v>0.200978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202175</v>
+        <v>0.202077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208514</v>
+        <v>0.208545</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193525</v>
+        <v>0.1963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20159</v>
+        <v>0.20116</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207651</v>
+        <v>0.207709</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188296</v>
+        <v>0.189846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200583</v>
+        <v>0.20044</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206908</v>
+        <v>0.207304</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183318</v>
+        <v>0.184397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199567</v>
+        <v>0.199263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205979</v>
+        <v>0.206154</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177682</v>
+        <v>0.176867</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198805</v>
+        <v>0.198723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205427</v>
+        <v>0.205336</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170412</v>
+        <v>0.169307</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19781</v>
+        <v>0.197718</v>
       </c>
       <c r="D23" t="n">
-        <v>0.221638</v>
+        <v>0.222295</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243471</v>
+        <v>0.243045</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214239</v>
+        <v>0.217442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219815</v>
+        <v>0.220561</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240325</v>
+        <v>0.240359</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212528</v>
+        <v>0.21391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21867</v>
+        <v>0.218851</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236492</v>
+        <v>0.234694</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211275</v>
+        <v>0.211746</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216912</v>
+        <v>0.217111</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230525</v>
+        <v>0.229337</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209677</v>
+        <v>0.209899</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215484</v>
+        <v>0.215524</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224944</v>
+        <v>0.225352</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208528</v>
+        <v>0.208449</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21421</v>
+        <v>0.214122</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219543</v>
+        <v>0.219814</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207147</v>
+        <v>0.207072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212879</v>
+        <v>0.213059</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213927</v>
+        <v>0.213425</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205792</v>
+        <v>0.205617</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211538</v>
+        <v>0.211744</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207839</v>
+        <v>0.208155</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204528</v>
+        <v>0.204607</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210649</v>
+        <v>0.210729</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203047</v>
+        <v>0.202105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20345</v>
+        <v>0.203389</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20957</v>
+        <v>0.209689</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197835</v>
+        <v>0.197375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20219</v>
+        <v>0.202178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208764</v>
+        <v>0.208862</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192959</v>
+        <v>0.192631</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201366</v>
+        <v>0.201415</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208029</v>
+        <v>0.207967</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187106</v>
+        <v>0.186667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.20004</v>
+        <v>0.200277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206826</v>
+        <v>0.206954</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180021</v>
+        <v>0.180335</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199871</v>
+        <v>0.199817</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206345</v>
+        <v>0.206339</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173086</v>
+        <v>0.17154</v>
       </c>
       <c r="C37" t="n">
-        <v>0.19863</v>
+        <v>0.198939</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222833</v>
+        <v>0.222889</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244216</v>
+        <v>0.245863</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215091</v>
+        <v>0.215063</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220889</v>
+        <v>0.220878</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239981</v>
+        <v>0.241489</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213285</v>
+        <v>0.21319</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219172</v>
+        <v>0.219202</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235818</v>
+        <v>0.235213</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211748</v>
+        <v>0.211684</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217863</v>
+        <v>0.217815</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231358</v>
+        <v>0.230699</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210406</v>
+        <v>0.21031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216422</v>
+        <v>0.216447</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225846</v>
+        <v>0.225686</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208864</v>
+        <v>0.20875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215074</v>
+        <v>0.214935</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219632</v>
+        <v>0.221042</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207408</v>
+        <v>0.207272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213539</v>
+        <v>0.213452</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214047</v>
+        <v>0.215437</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20634</v>
+        <v>0.206222</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212427</v>
+        <v>0.212332</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20786</v>
+        <v>0.210091</v>
       </c>
       <c r="C45" t="n">
-        <v>0.20513</v>
+        <v>0.205153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211381</v>
+        <v>0.211272</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.201569</v>
+        <v>0.204968</v>
       </c>
       <c r="C46" t="n">
-        <v>0.204016</v>
+        <v>0.203941</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210092</v>
+        <v>0.210086</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.196814</v>
+        <v>0.199433</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203089</v>
+        <v>0.202964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209286</v>
+        <v>0.209222</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.189885</v>
+        <v>0.193753</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202055</v>
+        <v>0.201995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208363</v>
+        <v>0.208293</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183938</v>
+        <v>0.188242</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200969</v>
+        <v>0.200992</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207323</v>
+        <v>0.207226</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183033</v>
+        <v>0.182246</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199953</v>
+        <v>0.200034</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206303</v>
+        <v>0.206312</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175596</v>
+        <v>0.175665</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199038</v>
+        <v>0.19894</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223348</v>
+        <v>0.223964</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166225</v>
+        <v>0.16717</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198184</v>
+        <v>0.198192</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221356</v>
+        <v>0.221519</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241748</v>
+        <v>0.2405</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213847</v>
+        <v>0.213783</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219918</v>
+        <v>0.220015</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236556</v>
+        <v>0.237384</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212121</v>
+        <v>0.212093</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218329</v>
+        <v>0.218375</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231965</v>
+        <v>0.233037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210687</v>
+        <v>0.210666</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217017</v>
+        <v>0.217008</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227449</v>
+        <v>0.226839</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209319</v>
+        <v>0.20931</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215487</v>
+        <v>0.215519</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222173</v>
+        <v>0.220528</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208082</v>
+        <v>0.20809</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214324</v>
+        <v>0.214318</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21699</v>
+        <v>0.21426</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206691</v>
+        <v>0.206745</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213051</v>
+        <v>0.213048</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212064</v>
+        <v>0.209208</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205481</v>
+        <v>0.205625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211579</v>
+        <v>0.211675</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206483</v>
+        <v>0.203144</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204415</v>
+        <v>0.204489</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210495</v>
+        <v>0.21053</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201263</v>
+        <v>0.197893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203452</v>
+        <v>0.203441</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209434</v>
+        <v>0.209387</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195422</v>
+        <v>0.192441</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202276</v>
+        <v>0.202363</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208426</v>
+        <v>0.208352</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189905</v>
+        <v>0.186135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201291</v>
+        <v>0.201353</v>
       </c>
       <c r="D63" t="n">
-        <v>0.20785</v>
+        <v>0.20782</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184794</v>
+        <v>0.184449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200342</v>
+        <v>0.200359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.20651</v>
+        <v>0.206529</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177571</v>
+        <v>0.177732</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199311</v>
+        <v>0.199315</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205651</v>
+        <v>0.20567</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169397</v>
+        <v>0.168845</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198321</v>
+        <v>0.198355</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222559</v>
+        <v>0.222423</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244636</v>
+        <v>0.241775</v>
       </c>
       <c r="C67" t="n">
-        <v>0.217656</v>
+        <v>0.215772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220795</v>
+        <v>0.220643</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.240235</v>
+        <v>0.237628</v>
       </c>
       <c r="C68" t="n">
-        <v>0.215421</v>
+        <v>0.2138</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219104</v>
+        <v>0.218967</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235561</v>
+        <v>0.233183</v>
       </c>
       <c r="C69" t="n">
-        <v>0.213014</v>
+        <v>0.211883</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217666</v>
+        <v>0.21747</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.230426</v>
+        <v>0.228346</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211117</v>
+        <v>0.210387</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21624</v>
+        <v>0.216118</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224565</v>
+        <v>0.222875</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20942</v>
+        <v>0.208887</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21478</v>
+        <v>0.214711</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219396</v>
+        <v>0.216711</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207692</v>
+        <v>0.207532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213618</v>
+        <v>0.213469</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213268</v>
+        <v>0.211158</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206236</v>
+        <v>0.206185</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212342</v>
+        <v>0.21229</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208238</v>
+        <v>0.206401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205071</v>
+        <v>0.204974</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21121</v>
+        <v>0.211104</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202844</v>
+        <v>0.199651</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203921</v>
+        <v>0.203848</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210217</v>
+        <v>0.210142</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197492</v>
+        <v>0.193739</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202713</v>
+        <v>0.202746</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209176</v>
+        <v>0.209118</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192052</v>
+        <v>0.187986</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201738</v>
+        <v>0.201636</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208265</v>
+        <v>0.208145</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186582</v>
+        <v>0.181564</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200748</v>
+        <v>0.200724</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20721</v>
+        <v>0.207177</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180105</v>
+        <v>0.179101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19975</v>
+        <v>0.199701</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206482</v>
+        <v>0.20633</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172765</v>
+        <v>0.172618</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19879</v>
+        <v>0.198766</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225036</v>
+        <v>0.224744</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.245643</v>
+        <v>0.244594</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224641</v>
+        <v>0.224431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222631</v>
+        <v>0.222497</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.241807</v>
+        <v>0.240742</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219798</v>
+        <v>0.219239</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220526</v>
+        <v>0.220538</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.237046</v>
+        <v>0.235679</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214885</v>
+        <v>0.214645</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218833</v>
+        <v>0.218582</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231881</v>
+        <v>0.231062</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21188</v>
+        <v>0.211607</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217216</v>
+        <v>0.217136</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226234</v>
+        <v>0.225935</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209615</v>
+        <v>0.209528</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21552</v>
+        <v>0.215502</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220704</v>
+        <v>0.219749</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208129</v>
+        <v>0.208314</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214144</v>
+        <v>0.214092</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.215567</v>
+        <v>0.213617</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206906</v>
+        <v>0.206829</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21277</v>
+        <v>0.21283</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209482</v>
+        <v>0.207171</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205595</v>
+        <v>0.205636</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211643</v>
+        <v>0.211568</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203726</v>
+        <v>0.201468</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204278</v>
+        <v>0.204689</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21041</v>
+        <v>0.210428</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198784</v>
+        <v>0.195085</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203138</v>
+        <v>0.203267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209385</v>
+        <v>0.209425</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193495</v>
+        <v>0.189075</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202051</v>
+        <v>0.20209</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208423</v>
+        <v>0.208479</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187926</v>
+        <v>0.182862</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201023</v>
+        <v>0.201091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207478</v>
+        <v>0.207573</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18132</v>
+        <v>0.176221</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200104</v>
+        <v>0.200231</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206622</v>
+        <v>0.206683</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174223</v>
+        <v>0.168222</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199281</v>
+        <v>0.19923</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226586</v>
+        <v>0.226514</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243813</v>
+        <v>0.244835</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221851</v>
+        <v>0.222008</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22343</v>
+        <v>0.223112</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239754</v>
+        <v>0.240418</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217775</v>
+        <v>0.217785</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220691</v>
+        <v>0.220921</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235954</v>
+        <v>0.235997</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214911</v>
+        <v>0.21489</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219122</v>
+        <v>0.219096</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230627</v>
+        <v>0.230897</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212256</v>
+        <v>0.212296</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217629</v>
+        <v>0.217499</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225427</v>
+        <v>0.225577</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210164</v>
+        <v>0.210226</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216573</v>
+        <v>0.216525</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21881</v>
+        <v>0.219562</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20869</v>
+        <v>0.208689</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21521</v>
+        <v>0.215214</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213162</v>
+        <v>0.214324</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207084</v>
+        <v>0.207072</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213708</v>
+        <v>0.213803</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207189</v>
+        <v>0.207702</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205687</v>
+        <v>0.205679</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212035</v>
+        <v>0.21207</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20199</v>
+        <v>0.205776</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204516</v>
+        <v>0.204492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210904</v>
+        <v>0.210953</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199486</v>
+        <v>0.200174</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203273</v>
+        <v>0.203322</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209793</v>
+        <v>0.209792</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194477</v>
+        <v>0.194714</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202304</v>
+        <v>0.202296</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208774</v>
+        <v>0.208782</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188659</v>
+        <v>0.188947</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201291</v>
+        <v>0.201281</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208183</v>
+        <v>0.208249</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18286</v>
+        <v>0.183262</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200192</v>
+        <v>0.200221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207236</v>
+        <v>0.207253</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175908</v>
+        <v>0.176524</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199339</v>
+        <v>0.199291</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226254</v>
+        <v>0.226284</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167438</v>
+        <v>0.167418</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198566</v>
+        <v>0.198576</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223272</v>
+        <v>0.22349</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243317</v>
+        <v>0.242879</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218748</v>
+        <v>0.218723</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221122</v>
+        <v>0.221114</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237314</v>
+        <v>0.23865</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215076</v>
+        <v>0.21504</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219211</v>
+        <v>0.219322</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233681</v>
+        <v>0.233229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212564</v>
+        <v>0.212491</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217474</v>
+        <v>0.217581</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227883</v>
+        <v>0.227853</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210497</v>
+        <v>0.210364</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215941</v>
+        <v>0.215874</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222247</v>
+        <v>0.222686</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208787</v>
+        <v>0.208724</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214562</v>
+        <v>0.214667</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217271</v>
+        <v>0.216607</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207307</v>
+        <v>0.207216</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213245</v>
+        <v>0.213235</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211624</v>
+        <v>0.211284</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205994</v>
+        <v>0.205897</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212196</v>
+        <v>0.212111</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205536</v>
+        <v>0.205629</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204724</v>
+        <v>0.2046</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210897</v>
+        <v>0.210899</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200894</v>
+        <v>0.200009</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204027</v>
+        <v>0.203916</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210252</v>
+        <v>0.210217</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195658</v>
+        <v>0.19553</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202876</v>
+        <v>0.202765</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209269</v>
+        <v>0.209228</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.186796</v>
+        <v>0.189961</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201847</v>
+        <v>0.201726</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208185</v>
+        <v>0.208214</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.178882</v>
+        <v>0.18394</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200788</v>
+        <v>0.200731</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207152</v>
+        <v>0.207295</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.170652</v>
+        <v>0.176754</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199897</v>
+        <v>0.199845</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206318</v>
+        <v>0.206276</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.161641</v>
+        <v>0.168212</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198835</v>
+        <v>0.199017</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223918</v>
+        <v>0.223865</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242983</v>
+        <v>0.244443</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219356</v>
+        <v>0.219192</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221535</v>
+        <v>0.221584</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238935</v>
+        <v>0.238658</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215623</v>
+        <v>0.215494</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219569</v>
+        <v>0.219652</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234044</v>
+        <v>0.234085</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212984</v>
+        <v>0.212812</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217858</v>
+        <v>0.217755</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229202</v>
+        <v>0.229035</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210819</v>
+        <v>0.210719</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216501</v>
+        <v>0.216423</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223983</v>
+        <v>0.223678</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209191</v>
+        <v>0.209049</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21504</v>
+        <v>0.215008</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217932</v>
+        <v>0.218818</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207648</v>
+        <v>0.207584</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213748</v>
+        <v>0.213694</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211446</v>
+        <v>0.211166</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206238</v>
+        <v>0.206194</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212599</v>
+        <v>0.212494</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205714</v>
+        <v>0.204666</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205005</v>
+        <v>0.204984</v>
       </c>
       <c r="D131" t="n">
-        <v>0.21126</v>
+        <v>0.211097</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199372</v>
+        <v>0.199028</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203801</v>
+        <v>0.203757</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210319</v>
+        <v>0.210268</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.192819</v>
+        <v>0.197157</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202728</v>
+        <v>0.202626</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208991</v>
+        <v>0.209026</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186377</v>
+        <v>0.186269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201702</v>
+        <v>0.201643</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208139</v>
+        <v>0.207922</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180093</v>
+        <v>0.179899</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200704</v>
+        <v>0.200625</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207057</v>
+        <v>0.207007</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172723</v>
+        <v>0.172599</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199815</v>
+        <v>0.199649</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206198</v>
+        <v>0.206193</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163884</v>
+        <v>0.163696</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198916</v>
+        <v>0.198796</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224989</v>
+        <v>0.224979</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245072</v>
+        <v>0.245535</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221007</v>
+        <v>0.220832</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222476</v>
+        <v>0.222467</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24125</v>
+        <v>0.241803</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217217</v>
+        <v>0.217007</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220411</v>
+        <v>0.220429</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236507</v>
+        <v>0.237346</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21413</v>
+        <v>0.213987</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218585</v>
+        <v>0.218577</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231357</v>
+        <v>0.232057</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211824</v>
+        <v>0.211737</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216953</v>
+        <v>0.216983</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226034</v>
+        <v>0.226599</v>
       </c>
       <c r="C142" t="n">
-        <v>0.210015</v>
+        <v>0.209912</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215525</v>
+        <v>0.215542</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.22073</v>
+        <v>0.220918</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208413</v>
+        <v>0.208296</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214054</v>
+        <v>0.21411</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204116</v>
+        <v>0.191619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193236</v>
+        <v>0.189763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.198156</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197267</v>
+        <v>0.187534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194528</v>
+        <v>0.207518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200388</v>
+        <v>0.198746</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194403</v>
+        <v>0.18262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194247</v>
+        <v>0.226691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200984</v>
+        <v>0.199043</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188644</v>
+        <v>0.180195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193012</v>
+        <v>0.248088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20038</v>
+        <v>0.19798</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183098</v>
+        <v>0.175457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193314</v>
+        <v>0.271539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200227</v>
+        <v>0.197895</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175483</v>
+        <v>0.168352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193316</v>
+        <v>0.295672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199258</v>
+        <v>0.197035</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16691</v>
+        <v>0.16194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192597</v>
+        <v>0.138473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199803</v>
+        <v>0.198684</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157309</v>
+        <v>0.15182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192521</v>
+        <v>0.147373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217894</v>
+        <v>0.215003</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23956</v>
+        <v>0.235771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212719</v>
+        <v>0.157906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216795</v>
+        <v>0.215107</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234955</v>
+        <v>0.231906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209926</v>
+        <v>0.165994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215753</v>
+        <v>0.212641</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232275</v>
+        <v>0.22802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20818</v>
+        <v>0.176273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214733</v>
+        <v>0.212609</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227942</v>
+        <v>0.223274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206748</v>
+        <v>0.186048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212964</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222204</v>
+        <v>0.218124</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205898</v>
+        <v>0.197205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212276</v>
+        <v>0.210758</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214844</v>
+        <v>0.212125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20518</v>
+        <v>0.209363</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211189</v>
+        <v>0.209663</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211212</v>
+        <v>0.208229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204028</v>
+        <v>0.221765</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210377</v>
+        <v>0.208601</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207026</v>
+        <v>0.203023</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203056</v>
+        <v>0.2339</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209565</v>
+        <v>0.207527</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200978</v>
+        <v>0.197475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202077</v>
+        <v>0.250645</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208545</v>
+        <v>0.206733</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1963</v>
+        <v>0.191972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20116</v>
+        <v>0.26822</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207709</v>
+        <v>0.206094</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189846</v>
+        <v>0.186123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20044</v>
+        <v>0.284471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207304</v>
+        <v>0.204992</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184397</v>
+        <v>0.180939</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199263</v>
+        <v>0.307915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206154</v>
+        <v>0.204258</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176867</v>
+        <v>0.174002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198723</v>
+        <v>0.174274</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205336</v>
+        <v>0.203608</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169307</v>
+        <v>0.166241</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197718</v>
+        <v>0.179574</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222295</v>
+        <v>0.219759</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243045</v>
+        <v>0.239751</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217442</v>
+        <v>0.18566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220561</v>
+        <v>0.217892</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240359</v>
+        <v>0.236166</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21391</v>
+        <v>0.19162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218851</v>
+        <v>0.21623</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234694</v>
+        <v>0.232523</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211746</v>
+        <v>0.199556</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217111</v>
+        <v>0.214834</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229337</v>
+        <v>0.227033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209899</v>
+        <v>0.20752</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215524</v>
+        <v>0.213947</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225352</v>
+        <v>0.221923</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208449</v>
+        <v>0.217258</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214122</v>
+        <v>0.212755</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219814</v>
+        <v>0.217572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207072</v>
+        <v>0.227658</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213059</v>
+        <v>0.211509</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213425</v>
+        <v>0.211354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205617</v>
+        <v>0.239996</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211744</v>
+        <v>0.210286</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208155</v>
+        <v>0.204681</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204607</v>
+        <v>0.253998</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210729</v>
+        <v>0.209312</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202105</v>
+        <v>0.200267</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203389</v>
+        <v>0.267401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209689</v>
+        <v>0.208171</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197375</v>
+        <v>0.195286</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202178</v>
+        <v>0.288108</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208862</v>
+        <v>0.207244</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192631</v>
+        <v>0.189717</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201415</v>
+        <v>0.307724</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207967</v>
+        <v>0.206066</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186667</v>
+        <v>0.184277</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200277</v>
+        <v>0.328001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206954</v>
+        <v>0.205745</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180335</v>
+        <v>0.178736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199817</v>
+        <v>0.354377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206339</v>
+        <v>0.204572</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17154</v>
+        <v>0.170462</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198939</v>
+        <v>0.197308</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222889</v>
+        <v>0.221006</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245863</v>
+        <v>0.242589</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215063</v>
+        <v>0.202456</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220878</v>
+        <v>0.218805</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241489</v>
+        <v>0.238509</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21319</v>
+        <v>0.208758</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219202</v>
+        <v>0.216952</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235213</v>
+        <v>0.233935</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211684</v>
+        <v>0.21569</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217815</v>
+        <v>0.215648</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230699</v>
+        <v>0.228832</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21031</v>
+        <v>0.224104</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216447</v>
+        <v>0.21433</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225686</v>
+        <v>0.223753</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20875</v>
+        <v>0.232145</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214935</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221042</v>
+        <v>0.218585</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207272</v>
+        <v>0.241781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213452</v>
+        <v>0.211762</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215437</v>
+        <v>0.213655</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206222</v>
+        <v>0.252413</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212332</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210091</v>
+        <v>0.208337</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205153</v>
+        <v>0.264807</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211272</v>
+        <v>0.209567</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204968</v>
+        <v>0.203174</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203941</v>
+        <v>0.279581</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210086</v>
+        <v>0.208481</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199433</v>
+        <v>0.197839</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202964</v>
+        <v>0.29749</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209222</v>
+        <v>0.207572</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193753</v>
+        <v>0.19219</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201995</v>
+        <v>0.316772</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208293</v>
+        <v>0.207162</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188242</v>
+        <v>0.186332</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200992</v>
+        <v>0.341023</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207226</v>
+        <v>0.205699</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182246</v>
+        <v>0.180134</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200034</v>
+        <v>0.364894</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206312</v>
+        <v>0.204899</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175665</v>
+        <v>0.172331</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19894</v>
+        <v>0.205449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223964</v>
+        <v>0.221299</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16717</v>
+        <v>0.163766</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198192</v>
+        <v>0.210879</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221519</v>
+        <v>0.219585</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2405</v>
+        <v>0.239974</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213783</v>
+        <v>0.21709</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220015</v>
+        <v>0.21794</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237384</v>
+        <v>0.235416</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212093</v>
+        <v>0.223353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218375</v>
+        <v>0.216607</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233037</v>
+        <v>0.230581</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210666</v>
+        <v>0.231482</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217008</v>
+        <v>0.214901</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226839</v>
+        <v>0.225445</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20931</v>
+        <v>0.239363</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215519</v>
+        <v>0.21363</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220528</v>
+        <v>0.220253</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20809</v>
+        <v>0.249249</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214318</v>
+        <v>0.212255</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21426</v>
+        <v>0.21409</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206745</v>
+        <v>0.260061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213048</v>
+        <v>0.211283</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209208</v>
+        <v>0.209148</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205625</v>
+        <v>0.273401</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211675</v>
+        <v>0.209931</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203144</v>
+        <v>0.203877</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204489</v>
+        <v>0.287577</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21053</v>
+        <v>0.208865</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197893</v>
+        <v>0.198869</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203441</v>
+        <v>0.30462</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209387</v>
+        <v>0.207884</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192441</v>
+        <v>0.193742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202363</v>
+        <v>0.322611</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208352</v>
+        <v>0.20695</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186135</v>
+        <v>0.188138</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201353</v>
+        <v>0.345047</v>
       </c>
       <c r="D63" t="n">
-        <v>0.20782</v>
+        <v>0.205957</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184449</v>
+        <v>0.181676</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200359</v>
+        <v>0.369651</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206529</v>
+        <v>0.205076</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177732</v>
+        <v>0.174486</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199315</v>
+        <v>0.210835</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20567</v>
+        <v>0.204121</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168845</v>
+        <v>0.165686</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198355</v>
+        <v>0.215513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222423</v>
+        <v>0.220458</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241775</v>
+        <v>0.241141</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215772</v>
+        <v>0.221686</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220643</v>
+        <v>0.218724</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237628</v>
+        <v>0.236823</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2138</v>
+        <v>0.22768</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218967</v>
+        <v>0.217084</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233183</v>
+        <v>0.232325</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211883</v>
+        <v>0.23484</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21747</v>
+        <v>0.215672</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228346</v>
+        <v>0.227143</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210387</v>
+        <v>0.244263</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216118</v>
+        <v>0.214218</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222875</v>
+        <v>0.221773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208887</v>
+        <v>0.253672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214711</v>
+        <v>0.212901</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216711</v>
+        <v>0.216407</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207532</v>
+        <v>0.264387</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213469</v>
+        <v>0.211709</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211158</v>
+        <v>0.211198</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206185</v>
+        <v>0.278184</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21229</v>
+        <v>0.210563</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206401</v>
+        <v>0.20553</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204974</v>
+        <v>0.292643</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211104</v>
+        <v>0.209336</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199651</v>
+        <v>0.200528</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203848</v>
+        <v>0.309809</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210142</v>
+        <v>0.208313</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193739</v>
+        <v>0.195449</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202746</v>
+        <v>0.329334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209118</v>
+        <v>0.207369</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187986</v>
+        <v>0.189872</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201636</v>
+        <v>0.350873</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208145</v>
+        <v>0.206389</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181564</v>
+        <v>0.183858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200724</v>
+        <v>0.378191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207177</v>
+        <v>0.205406</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179101</v>
+        <v>0.177129</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199701</v>
+        <v>0.273205</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20633</v>
+        <v>0.204577</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172618</v>
+        <v>0.169104</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198766</v>
+        <v>0.274868</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224744</v>
+        <v>0.224257</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244594</v>
+        <v>0.241856</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224431</v>
+        <v>0.274914</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222497</v>
+        <v>0.222746</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240742</v>
+        <v>0.23611</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219239</v>
+        <v>0.281514</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220538</v>
+        <v>0.220016</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235679</v>
+        <v>0.23124</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214645</v>
+        <v>0.283832</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218582</v>
+        <v>0.218087</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231062</v>
+        <v>0.226354</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211607</v>
+        <v>0.294555</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217136</v>
+        <v>0.216228</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225935</v>
+        <v>0.221121</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209528</v>
+        <v>0.305195</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215502</v>
+        <v>0.214495</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219749</v>
+        <v>0.215635</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208314</v>
+        <v>0.312362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214092</v>
+        <v>0.212563</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213617</v>
+        <v>0.211859</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206829</v>
+        <v>0.320745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21283</v>
+        <v>0.211228</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207171</v>
+        <v>0.206608</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205636</v>
+        <v>0.329874</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211568</v>
+        <v>0.209898</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201468</v>
+        <v>0.200968</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204689</v>
+        <v>0.345306</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210428</v>
+        <v>0.208836</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195085</v>
+        <v>0.195917</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203267</v>
+        <v>0.365885</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209425</v>
+        <v>0.207769</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189075</v>
+        <v>0.190729</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20209</v>
+        <v>0.384505</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208479</v>
+        <v>0.206797</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182862</v>
+        <v>0.184781</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201091</v>
+        <v>0.402222</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207573</v>
+        <v>0.206046</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176221</v>
+        <v>0.178238</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200231</v>
+        <v>0.433769</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206683</v>
+        <v>0.205211</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168222</v>
+        <v>0.170437</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19923</v>
+        <v>0.441562</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226514</v>
+        <v>0.225364</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244835</v>
+        <v>0.242967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222008</v>
+        <v>0.440122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223112</v>
+        <v>0.222253</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240418</v>
+        <v>0.238898</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217785</v>
+        <v>0.444593</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220921</v>
+        <v>0.219788</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235997</v>
+        <v>0.234511</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21489</v>
+        <v>0.460912</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219096</v>
+        <v>0.218047</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230897</v>
+        <v>0.22755</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212296</v>
+        <v>0.459088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217499</v>
+        <v>0.216872</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225577</v>
+        <v>0.222277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210226</v>
+        <v>0.474371</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216525</v>
+        <v>0.215129</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219562</v>
+        <v>0.216677</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208689</v>
+        <v>0.480674</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215214</v>
+        <v>0.213285</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214324</v>
+        <v>0.210977</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207072</v>
+        <v>0.494065</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213803</v>
+        <v>0.211982</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207702</v>
+        <v>0.205197</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205679</v>
+        <v>0.508837</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21207</v>
+        <v>0.210613</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205776</v>
+        <v>0.199627</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204492</v>
+        <v>0.517889</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210953</v>
+        <v>0.20944</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200174</v>
+        <v>0.193909</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203322</v>
+        <v>0.543644</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209792</v>
+        <v>0.208485</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194714</v>
+        <v>0.188018</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202296</v>
+        <v>0.572943</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208782</v>
+        <v>0.207837</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188947</v>
+        <v>0.181729</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201281</v>
+        <v>0.582406</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208249</v>
+        <v>0.206961</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183262</v>
+        <v>0.174951</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200221</v>
+        <v>0.613445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207253</v>
+        <v>0.205983</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176524</v>
+        <v>0.166727</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199291</v>
+        <v>0.596436</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226284</v>
+        <v>0.224779</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167418</v>
+        <v>0.156986</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198576</v>
+        <v>0.602833</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22349</v>
+        <v>0.221623</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242879</v>
+        <v>0.237942</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218723</v>
+        <v>0.610576</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221114</v>
+        <v>0.219385</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23865</v>
+        <v>0.233598</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21504</v>
+        <v>0.620787</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219322</v>
+        <v>0.217383</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233229</v>
+        <v>0.228863</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212491</v>
+        <v>0.633588</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217581</v>
+        <v>0.215779</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227853</v>
+        <v>0.22339</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210364</v>
+        <v>0.64388</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215874</v>
+        <v>0.214223</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222686</v>
+        <v>0.217949</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208724</v>
+        <v>0.658624</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214667</v>
+        <v>0.21278</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216607</v>
+        <v>0.212185</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207216</v>
+        <v>0.665574</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213235</v>
+        <v>0.211522</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211284</v>
+        <v>0.206404</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205897</v>
+        <v>0.685578</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212111</v>
+        <v>0.210385</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205629</v>
+        <v>0.200798</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2046</v>
+        <v>0.711714</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210899</v>
+        <v>0.209292</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200009</v>
+        <v>0.194941</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203916</v>
+        <v>0.744236</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210217</v>
+        <v>0.208307</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19553</v>
+        <v>0.19296</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202765</v>
+        <v>0.783009</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209228</v>
+        <v>0.207595</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189961</v>
+        <v>0.187566</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201726</v>
+        <v>0.828484</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208214</v>
+        <v>0.206733</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18394</v>
+        <v>0.181317</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200731</v>
+        <v>0.885643</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207295</v>
+        <v>0.205834</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176754</v>
+        <v>0.173592</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199845</v>
+        <v>0.681011</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206276</v>
+        <v>0.205081</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168212</v>
+        <v>0.164325</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199017</v>
+        <v>0.687847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223865</v>
+        <v>0.222071</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244443</v>
+        <v>0.240979</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219192</v>
+        <v>0.696511</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221584</v>
+        <v>0.219949</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238658</v>
+        <v>0.236758</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215494</v>
+        <v>0.722016</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219652</v>
+        <v>0.218059</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234085</v>
+        <v>0.231853</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212812</v>
+        <v>0.73168</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217755</v>
+        <v>0.216306</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229035</v>
+        <v>0.22666</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210719</v>
+        <v>0.743096</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216423</v>
+        <v>0.214701</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223678</v>
+        <v>0.221015</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209049</v>
+        <v>0.758807</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215008</v>
+        <v>0.213292</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218818</v>
+        <v>0.215693</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207584</v>
+        <v>0.776018</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213694</v>
+        <v>0.21202</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211166</v>
+        <v>0.210291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206194</v>
+        <v>0.791331</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212494</v>
+        <v>0.210757</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204666</v>
+        <v>0.204813</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204984</v>
+        <v>0.8257989999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211097</v>
+        <v>0.209618</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199028</v>
+        <v>0.199629</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203757</v>
+        <v>0.844502</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210268</v>
+        <v>0.208544</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197157</v>
+        <v>0.194191</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202626</v>
+        <v>0.9023099999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209026</v>
+        <v>0.207533</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186269</v>
+        <v>0.188672</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201643</v>
+        <v>0.9336140000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207922</v>
+        <v>0.20657</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179899</v>
+        <v>0.182648</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200625</v>
+        <v>1.01611</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207007</v>
+        <v>0.205702</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172599</v>
+        <v>0.175787</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199649</v>
+        <v>0.747519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206193</v>
+        <v>0.204877</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163696</v>
+        <v>0.167266</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198796</v>
+        <v>0.759997</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224979</v>
+        <v>0.223097</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245535</v>
+        <v>0.242023</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220832</v>
+        <v>0.767244</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222467</v>
+        <v>0.22064</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241803</v>
+        <v>0.237789</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217007</v>
+        <v>0.765087</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220429</v>
+        <v>0.218525</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237346</v>
+        <v>0.232959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213987</v>
+        <v>0.77535</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218577</v>
+        <v>0.216837</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232057</v>
+        <v>0.228006</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211737</v>
+        <v>0.795422</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216983</v>
+        <v>0.215189</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226599</v>
+        <v>0.222387</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209912</v>
+        <v>0.801372</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215542</v>
+        <v>0.213794</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220918</v>
+        <v>0.216846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208296</v>
+        <v>0.826707</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21411</v>
+        <v>0.212316</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,8 +3240,8 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204116</v>
+        <v>0.201656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193236</v>
+        <v>0.198188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.201794</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197267</v>
+        <v>0.196658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194528</v>
+        <v>0.197217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200388</v>
+        <v>0.201774</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194403</v>
+        <v>0.193379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194247</v>
+        <v>0.197403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200984</v>
+        <v>0.201888</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188644</v>
+        <v>0.189111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193012</v>
+        <v>0.197716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20038</v>
+        <v>0.201332</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183098</v>
+        <v>0.182881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193314</v>
+        <v>0.197507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200227</v>
+        <v>0.201619</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175483</v>
+        <v>0.175692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193316</v>
+        <v>0.196459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199258</v>
+        <v>0.201326</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16691</v>
+        <v>0.167331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192597</v>
+        <v>0.19631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199803</v>
+        <v>0.201579</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157309</v>
+        <v>0.157854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192521</v>
+        <v>0.196016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217894</v>
+        <v>0.218934</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23956</v>
+        <v>0.239471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.212719</v>
+        <v>0.220227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216795</v>
+        <v>0.217448</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234955</v>
+        <v>0.234965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209926</v>
+        <v>0.216372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215753</v>
+        <v>0.216648</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232275</v>
+        <v>0.231187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20818</v>
+        <v>0.214733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214733</v>
+        <v>0.215098</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227942</v>
+        <v>0.226754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206748</v>
+        <v>0.211852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212964</v>
+        <v>0.214024</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222204</v>
+        <v>0.221076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205898</v>
+        <v>0.211611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212276</v>
+        <v>0.212861</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214844</v>
+        <v>0.214053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20518</v>
+        <v>0.209573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211189</v>
+        <v>0.212132</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211212</v>
+        <v>0.210493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204028</v>
+        <v>0.208647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210377</v>
+        <v>0.211181</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207026</v>
+        <v>0.206187</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203056</v>
+        <v>0.206855</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209565</v>
+        <v>0.210164</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200978</v>
+        <v>0.200726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202077</v>
+        <v>0.205866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208545</v>
+        <v>0.209083</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1963</v>
+        <v>0.196029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20116</v>
+        <v>0.204309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207709</v>
+        <v>0.209067</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189846</v>
+        <v>0.190141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20044</v>
+        <v>0.203417</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207304</v>
+        <v>0.207955</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184397</v>
+        <v>0.184243</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199263</v>
+        <v>0.202566</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206154</v>
+        <v>0.207014</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176867</v>
+        <v>0.17721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198723</v>
+        <v>0.201728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205336</v>
+        <v>0.206093</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169307</v>
+        <v>0.169006</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197718</v>
+        <v>0.200501</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222295</v>
+        <v>0.223158</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243045</v>
+        <v>0.243254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217442</v>
+        <v>0.221872</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220561</v>
+        <v>0.221314</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240359</v>
+        <v>0.240319</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21391</v>
+        <v>0.218599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218851</v>
+        <v>0.219494</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234694</v>
+        <v>0.23398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211746</v>
+        <v>0.21591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217111</v>
+        <v>0.217918</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229337</v>
+        <v>0.229565</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209899</v>
+        <v>0.214059</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215524</v>
+        <v>0.216693</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225352</v>
+        <v>0.226064</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208449</v>
+        <v>0.21226</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214122</v>
+        <v>0.21527</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219814</v>
+        <v>0.219432</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207072</v>
+        <v>0.210813</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213059</v>
+        <v>0.214055</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213425</v>
+        <v>0.213463</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205617</v>
+        <v>0.209029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211744</v>
+        <v>0.213108</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208155</v>
+        <v>0.208139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204607</v>
+        <v>0.208125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210729</v>
+        <v>0.211709</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202105</v>
+        <v>0.20228</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203389</v>
+        <v>0.206768</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209689</v>
+        <v>0.210573</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197375</v>
+        <v>0.196604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202178</v>
+        <v>0.205512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208862</v>
+        <v>0.209344</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192631</v>
+        <v>0.192401</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201415</v>
+        <v>0.204576</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207967</v>
+        <v>0.208705</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186667</v>
+        <v>0.186962</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200277</v>
+        <v>0.203757</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206954</v>
+        <v>0.207478</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180335</v>
+        <v>0.180469</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199817</v>
+        <v>0.202741</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206339</v>
+        <v>0.206825</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17154</v>
+        <v>0.171608</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198939</v>
+        <v>0.201887</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222889</v>
+        <v>0.224083</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245863</v>
+        <v>0.245876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215063</v>
+        <v>0.219002</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220878</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241489</v>
+        <v>0.241076</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21319</v>
+        <v>0.216721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219202</v>
+        <v>0.219892</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235213</v>
+        <v>0.236077</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211684</v>
+        <v>0.215475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217815</v>
+        <v>0.218518</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230699</v>
+        <v>0.231734</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21031</v>
+        <v>0.213934</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216447</v>
+        <v>0.217041</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225686</v>
+        <v>0.226653</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20875</v>
+        <v>0.212261</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214935</v>
+        <v>0.215506</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221042</v>
+        <v>0.221049</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207272</v>
+        <v>0.210711</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213452</v>
+        <v>0.214216</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215437</v>
+        <v>0.215893</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206222</v>
+        <v>0.209545</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212332</v>
+        <v>0.213129</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210091</v>
+        <v>0.210688</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205153</v>
+        <v>0.208405</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211272</v>
+        <v>0.212075</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204968</v>
+        <v>0.206264</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203941</v>
+        <v>0.206957</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210086</v>
+        <v>0.21089</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199433</v>
+        <v>0.200085</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202964</v>
+        <v>0.205984</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209222</v>
+        <v>0.20986</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193753</v>
+        <v>0.193921</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201995</v>
+        <v>0.205118</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208293</v>
+        <v>0.208972</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188242</v>
+        <v>0.188012</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200992</v>
+        <v>0.204</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207226</v>
+        <v>0.208058</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182246</v>
+        <v>0.182819</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200034</v>
+        <v>0.202743</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206312</v>
+        <v>0.207197</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175665</v>
+        <v>0.175881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19894</v>
+        <v>0.202001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223964</v>
+        <v>0.225009</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16717</v>
+        <v>0.167216</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198192</v>
+        <v>0.201225</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221519</v>
+        <v>0.22254</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2405</v>
+        <v>0.240033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213783</v>
+        <v>0.217811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220015</v>
+        <v>0.220719</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237384</v>
+        <v>0.236186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212093</v>
+        <v>0.215972</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218375</v>
+        <v>0.219197</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233037</v>
+        <v>0.232891</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210666</v>
+        <v>0.214303</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217008</v>
+        <v>0.217654</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226839</v>
+        <v>0.226809</v>
       </c>
       <c r="C56" t="n">
-        <v>0.20931</v>
+        <v>0.212817</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215519</v>
+        <v>0.216346</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220528</v>
+        <v>0.221498</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20809</v>
+        <v>0.21142</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214318</v>
+        <v>0.215046</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21426</v>
+        <v>0.215559</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206745</v>
+        <v>0.210068</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213048</v>
+        <v>0.213677</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209208</v>
+        <v>0.209761</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205625</v>
+        <v>0.20879</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211675</v>
+        <v>0.21249</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203144</v>
+        <v>0.203737</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204489</v>
+        <v>0.20764</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21053</v>
+        <v>0.211342</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197893</v>
+        <v>0.197984</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203441</v>
+        <v>0.206611</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209387</v>
+        <v>0.210244</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192441</v>
+        <v>0.192221</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202363</v>
+        <v>0.205387</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208352</v>
+        <v>0.209305</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186135</v>
+        <v>0.186501</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201353</v>
+        <v>0.204328</v>
       </c>
       <c r="D63" t="n">
-        <v>0.20782</v>
+        <v>0.208351</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184449</v>
+        <v>0.184509</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200359</v>
+        <v>0.20344</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206529</v>
+        <v>0.207382</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177732</v>
+        <v>0.177083</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199315</v>
+        <v>0.202282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20567</v>
+        <v>0.206552</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168845</v>
+        <v>0.169312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198355</v>
+        <v>0.20114</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222423</v>
+        <v>0.226498</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241775</v>
+        <v>0.242416</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215772</v>
+        <v>0.241463</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220643</v>
+        <v>0.224205</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237628</v>
+        <v>0.239504</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2138</v>
+        <v>0.234372</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218967</v>
+        <v>0.222364</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233183</v>
+        <v>0.235023</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211883</v>
+        <v>0.226753</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21747</v>
+        <v>0.220431</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228346</v>
+        <v>0.229775</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210387</v>
+        <v>0.221013</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216118</v>
+        <v>0.218821</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222875</v>
+        <v>0.224843</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208887</v>
+        <v>0.216297</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214711</v>
+        <v>0.216948</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216711</v>
+        <v>0.218987</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207532</v>
+        <v>0.21269</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213469</v>
+        <v>0.214991</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211158</v>
+        <v>0.213964</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206185</v>
+        <v>0.210587</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21229</v>
+        <v>0.213266</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206401</v>
+        <v>0.209151</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204974</v>
+        <v>0.208885</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211104</v>
+        <v>0.211803</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199651</v>
+        <v>0.202835</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203848</v>
+        <v>0.20773</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210142</v>
+        <v>0.210661</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193739</v>
+        <v>0.197542</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202746</v>
+        <v>0.206283</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209118</v>
+        <v>0.209669</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187986</v>
+        <v>0.192392</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201636</v>
+        <v>0.204749</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208145</v>
+        <v>0.208667</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181564</v>
+        <v>0.186352</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200724</v>
+        <v>0.203619</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207177</v>
+        <v>0.207621</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179101</v>
+        <v>0.17968</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199701</v>
+        <v>0.202476</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20633</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172618</v>
+        <v>0.172958</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198766</v>
+        <v>0.201441</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224744</v>
+        <v>0.226624</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244594</v>
+        <v>0.24473</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224431</v>
+        <v>0.230722</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222497</v>
+        <v>0.223969</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240742</v>
+        <v>0.240834</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219239</v>
+        <v>0.224798</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220538</v>
+        <v>0.222082</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235679</v>
+        <v>0.236428</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214645</v>
+        <v>0.219275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218582</v>
+        <v>0.220326</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231062</v>
+        <v>0.230606</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211607</v>
+        <v>0.216071</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217136</v>
+        <v>0.218417</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225935</v>
+        <v>0.226096</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209528</v>
+        <v>0.213909</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215502</v>
+        <v>0.216948</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219749</v>
+        <v>0.219738</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208314</v>
+        <v>0.21206</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214092</v>
+        <v>0.215443</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213617</v>
+        <v>0.214317</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206829</v>
+        <v>0.2106</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21283</v>
+        <v>0.2137</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207171</v>
+        <v>0.20741</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205636</v>
+        <v>0.209066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211568</v>
+        <v>0.212447</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201468</v>
+        <v>0.200946</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204689</v>
+        <v>0.207496</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210428</v>
+        <v>0.211205</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195085</v>
+        <v>0.194926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203267</v>
+        <v>0.206329</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209425</v>
+        <v>0.210305</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189075</v>
+        <v>0.189041</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20209</v>
+        <v>0.205125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208479</v>
+        <v>0.209257</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182862</v>
+        <v>0.183014</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201091</v>
+        <v>0.203988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207573</v>
+        <v>0.208317</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176221</v>
+        <v>0.176495</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200231</v>
+        <v>0.202828</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206683</v>
+        <v>0.207451</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168222</v>
+        <v>0.168296</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19923</v>
+        <v>0.201881</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226514</v>
+        <v>0.227808</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244835</v>
+        <v>0.244505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222008</v>
+        <v>0.227977</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223112</v>
+        <v>0.22435</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240418</v>
+        <v>0.240762</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217785</v>
+        <v>0.223071</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220921</v>
+        <v>0.222078</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235997</v>
+        <v>0.235765</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21489</v>
+        <v>0.219267</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219096</v>
+        <v>0.220024</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230897</v>
+        <v>0.230753</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212296</v>
+        <v>0.216566</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217499</v>
+        <v>0.218905</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225577</v>
+        <v>0.225445</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210226</v>
+        <v>0.214348</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216525</v>
+        <v>0.217386</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219562</v>
+        <v>0.219816</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208689</v>
+        <v>0.212628</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215214</v>
+        <v>0.216089</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214324</v>
+        <v>0.214228</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207072</v>
+        <v>0.210997</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213803</v>
+        <v>0.214688</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207702</v>
+        <v>0.208089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205679</v>
+        <v>0.209345</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21207</v>
+        <v>0.213026</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205776</v>
+        <v>0.205484</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204492</v>
+        <v>0.208081</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210953</v>
+        <v>0.211858</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200174</v>
+        <v>0.200583</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203322</v>
+        <v>0.206627</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209792</v>
+        <v>0.210798</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194714</v>
+        <v>0.194601</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202296</v>
+        <v>0.205504</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208782</v>
+        <v>0.210227</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188947</v>
+        <v>0.189152</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201281</v>
+        <v>0.204412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208249</v>
+        <v>0.209176</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183262</v>
+        <v>0.183087</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200221</v>
+        <v>0.203274</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207253</v>
+        <v>0.208235</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176524</v>
+        <v>0.176185</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199291</v>
+        <v>0.202235</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226284</v>
+        <v>0.22717</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167418</v>
+        <v>0.167675</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198576</v>
+        <v>0.201386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22349</v>
+        <v>0.224467</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242879</v>
+        <v>0.243462</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218723</v>
+        <v>0.22339</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221114</v>
+        <v>0.222031</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23865</v>
+        <v>0.238853</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21504</v>
+        <v>0.21931</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219322</v>
+        <v>0.220149</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233229</v>
+        <v>0.233954</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212491</v>
+        <v>0.216383</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217581</v>
+        <v>0.218411</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227853</v>
+        <v>0.228802</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210364</v>
+        <v>0.2142</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215874</v>
+        <v>0.216825</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222686</v>
+        <v>0.223428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208724</v>
+        <v>0.212373</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214667</v>
+        <v>0.215402</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216607</v>
+        <v>0.217807</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207216</v>
+        <v>0.210783</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213235</v>
+        <v>0.214168</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211284</v>
+        <v>0.212747</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205897</v>
+        <v>0.209395</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212111</v>
+        <v>0.212918</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205629</v>
+        <v>0.206692</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2046</v>
+        <v>0.207999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210899</v>
+        <v>0.211736</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200009</v>
+        <v>0.200975</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203916</v>
+        <v>0.207208</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210217</v>
+        <v>0.211106</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19553</v>
+        <v>0.195841</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202765</v>
+        <v>0.206073</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209228</v>
+        <v>0.210093</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189961</v>
+        <v>0.189816</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201726</v>
+        <v>0.204941</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208214</v>
+        <v>0.209064</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18394</v>
+        <v>0.183488</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200731</v>
+        <v>0.2039</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207295</v>
+        <v>0.208236</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176754</v>
+        <v>0.176365</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199845</v>
+        <v>0.202832</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206276</v>
+        <v>0.207368</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168212</v>
+        <v>0.167812</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199017</v>
+        <v>0.201876</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223865</v>
+        <v>0.224594</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244443</v>
+        <v>0.243199</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219192</v>
+        <v>0.223813</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221584</v>
+        <v>0.222252</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238658</v>
+        <v>0.239045</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215494</v>
+        <v>0.219589</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219652</v>
+        <v>0.220251</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234085</v>
+        <v>0.234721</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212812</v>
+        <v>0.21678</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217755</v>
+        <v>0.218526</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229035</v>
+        <v>0.229866</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210719</v>
+        <v>0.214457</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216423</v>
+        <v>0.216933</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223678</v>
+        <v>0.224056</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209049</v>
+        <v>0.212635</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215008</v>
+        <v>0.215574</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218818</v>
+        <v>0.218537</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207584</v>
+        <v>0.211038</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213694</v>
+        <v>0.214305</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211166</v>
+        <v>0.21209</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206194</v>
+        <v>0.209686</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212494</v>
+        <v>0.213064</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204666</v>
+        <v>0.207585</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204984</v>
+        <v>0.208387</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211097</v>
+        <v>0.211957</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199028</v>
+        <v>0.202907</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203757</v>
+        <v>0.20712</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210268</v>
+        <v>0.210843</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197157</v>
+        <v>0.197821</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202626</v>
+        <v>0.205921</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209026</v>
+        <v>0.209815</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186269</v>
+        <v>0.187252</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201643</v>
+        <v>0.204798</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207922</v>
+        <v>0.208846</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179899</v>
+        <v>0.180404</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200625</v>
+        <v>0.203672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207007</v>
+        <v>0.20791</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172599</v>
+        <v>0.174687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199649</v>
+        <v>0.202736</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206193</v>
+        <v>0.207171</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163696</v>
+        <v>0.164066</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198796</v>
+        <v>0.201647</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224979</v>
+        <v>0.225997</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245535</v>
+        <v>0.24579</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220832</v>
+        <v>0.225508</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222467</v>
+        <v>0.223379</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241803</v>
+        <v>0.242136</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217007</v>
+        <v>0.221248</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220429</v>
+        <v>0.221253</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237346</v>
+        <v>0.237439</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213987</v>
+        <v>0.217889</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218577</v>
+        <v>0.219396</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232057</v>
+        <v>0.232362</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211737</v>
+        <v>0.215421</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216983</v>
+        <v>0.217772</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226599</v>
+        <v>0.226012</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209912</v>
+        <v>0.213533</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215542</v>
+        <v>0.216304</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220918</v>
+        <v>0.220352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208296</v>
+        <v>0.211843</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21411</v>
+        <v>0.214924</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201656</v>
+        <v>0.202707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.198188</v>
+        <v>0.193495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201794</v>
+        <v>0.200008</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196658</v>
+        <v>0.19634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197217</v>
+        <v>0.193976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201774</v>
+        <v>0.200281</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193379</v>
+        <v>0.192995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197403</v>
+        <v>0.193977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201888</v>
+        <v>0.200624</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189111</v>
+        <v>0.188959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197716</v>
+        <v>0.193513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201332</v>
+        <v>0.200236</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182881</v>
+        <v>0.182848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197507</v>
+        <v>0.192558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201619</v>
+        <v>0.200069</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175692</v>
+        <v>0.176207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.196459</v>
+        <v>0.193013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201326</v>
+        <v>0.199843</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167331</v>
+        <v>0.166622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19631</v>
+        <v>0.192995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201579</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157854</v>
+        <v>0.157073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.196016</v>
+        <v>0.192509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218934</v>
+        <v>0.218011</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239471</v>
+        <v>0.240249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220227</v>
+        <v>0.210931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217448</v>
+        <v>0.216546</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234965</v>
+        <v>0.234289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.216372</v>
+        <v>0.20989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216648</v>
+        <v>0.215543</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231187</v>
+        <v>0.231005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214733</v>
+        <v>0.207984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.215098</v>
+        <v>0.214571</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226754</v>
+        <v>0.22704</v>
       </c>
       <c r="C13" t="n">
-        <v>0.211852</v>
+        <v>0.206807</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214024</v>
+        <v>0.212983</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221076</v>
+        <v>0.221879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211611</v>
+        <v>0.205756</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212861</v>
+        <v>0.212185</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214053</v>
+        <v>0.214915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209573</v>
+        <v>0.204885</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212132</v>
+        <v>0.211394</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210493</v>
+        <v>0.210682</v>
       </c>
       <c r="C16" t="n">
-        <v>0.208647</v>
+        <v>0.20412</v>
       </c>
       <c r="D16" t="n">
-        <v>0.211181</v>
+        <v>0.210373</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206187</v>
+        <v>0.206201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.206855</v>
+        <v>0.203272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210164</v>
+        <v>0.209333</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200726</v>
+        <v>0.200458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205866</v>
+        <v>0.202101</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209083</v>
+        <v>0.208594</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196029</v>
+        <v>0.195294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204309</v>
+        <v>0.201609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209067</v>
+        <v>0.20778</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190141</v>
+        <v>0.189399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203417</v>
+        <v>0.200474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207955</v>
+        <v>0.207087</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184243</v>
+        <v>0.184078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.202566</v>
+        <v>0.199505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207014</v>
+        <v>0.206178</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17721</v>
+        <v>0.176493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.201728</v>
+        <v>0.198781</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206093</v>
+        <v>0.205274</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169006</v>
+        <v>0.169379</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200501</v>
+        <v>0.19776</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223158</v>
+        <v>0.222663</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243254</v>
+        <v>0.243285</v>
       </c>
       <c r="C24" t="n">
-        <v>0.221872</v>
+        <v>0.214217</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221314</v>
+        <v>0.219976</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240319</v>
+        <v>0.240375</v>
       </c>
       <c r="C25" t="n">
-        <v>0.218599</v>
+        <v>0.212469</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219494</v>
+        <v>0.218527</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23398</v>
+        <v>0.234115</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21591</v>
+        <v>0.211281</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217918</v>
+        <v>0.217131</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229565</v>
+        <v>0.230278</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214059</v>
+        <v>0.209665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216693</v>
+        <v>0.215543</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226064</v>
+        <v>0.225755</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21226</v>
+        <v>0.208356</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21527</v>
+        <v>0.214181</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219432</v>
+        <v>0.219887</v>
       </c>
       <c r="C29" t="n">
-        <v>0.210813</v>
+        <v>0.206959</v>
       </c>
       <c r="D29" t="n">
-        <v>0.214055</v>
+        <v>0.212973</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213463</v>
+        <v>0.213882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.209029</v>
+        <v>0.205528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.213108</v>
+        <v>0.211679</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208139</v>
+        <v>0.208372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.208125</v>
+        <v>0.204319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.211709</v>
+        <v>0.210658</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20228</v>
+        <v>0.202625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206768</v>
+        <v>0.203392</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210573</v>
+        <v>0.209705</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196604</v>
+        <v>0.197664</v>
       </c>
       <c r="C33" t="n">
-        <v>0.205512</v>
+        <v>0.202111</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209344</v>
+        <v>0.208793</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192401</v>
+        <v>0.193249</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204576</v>
+        <v>0.201388</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208705</v>
+        <v>0.208027</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186962</v>
+        <v>0.187386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203757</v>
+        <v>0.200078</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207478</v>
+        <v>0.206865</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180469</v>
+        <v>0.180849</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202741</v>
+        <v>0.199735</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206825</v>
+        <v>0.206289</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171608</v>
+        <v>0.171781</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201887</v>
+        <v>0.198815</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224083</v>
+        <v>0.222418</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245876</v>
+        <v>0.245376</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219002</v>
+        <v>0.215058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221718</v>
+        <v>0.220924</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241076</v>
+        <v>0.241808</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216721</v>
+        <v>0.213231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219892</v>
+        <v>0.219313</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236077</v>
+        <v>0.235981</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215475</v>
+        <v>0.211877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218518</v>
+        <v>0.217788</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231734</v>
+        <v>0.231397</v>
       </c>
       <c r="C41" t="n">
-        <v>0.213934</v>
+        <v>0.210426</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217041</v>
+        <v>0.216404</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226653</v>
+        <v>0.225909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212261</v>
+        <v>0.208796</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215506</v>
+        <v>0.21489</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221049</v>
+        <v>0.220703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.210711</v>
+        <v>0.207293</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214216</v>
+        <v>0.213468</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215893</v>
+        <v>0.21475</v>
       </c>
       <c r="C44" t="n">
-        <v>0.209545</v>
+        <v>0.206379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213129</v>
+        <v>0.212416</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210688</v>
+        <v>0.209992</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208405</v>
+        <v>0.205149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212075</v>
+        <v>0.211328</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206264</v>
+        <v>0.205603</v>
       </c>
       <c r="C46" t="n">
-        <v>0.206957</v>
+        <v>0.203977</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21089</v>
+        <v>0.210062</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200085</v>
+        <v>0.200218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.205984</v>
+        <v>0.203065</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20986</v>
+        <v>0.209234</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193921</v>
+        <v>0.194125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205118</v>
+        <v>0.202041</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208972</v>
+        <v>0.208289</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188012</v>
+        <v>0.188096</v>
       </c>
       <c r="C49" t="n">
-        <v>0.204</v>
+        <v>0.20113</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208058</v>
+        <v>0.207285</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182819</v>
+        <v>0.182327</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202743</v>
+        <v>0.200047</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207197</v>
+        <v>0.206251</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175881</v>
+        <v>0.175523</v>
       </c>
       <c r="C51" t="n">
-        <v>0.202001</v>
+        <v>0.198993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225009</v>
+        <v>0.223873</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167216</v>
+        <v>0.166804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.201225</v>
+        <v>0.198092</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22254</v>
+        <v>0.221607</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240033</v>
+        <v>0.243122</v>
       </c>
       <c r="C53" t="n">
-        <v>0.217811</v>
+        <v>0.213911</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220719</v>
+        <v>0.219813</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236186</v>
+        <v>0.2392</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215972</v>
+        <v>0.212246</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219197</v>
+        <v>0.218332</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232891</v>
+        <v>0.234798</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214303</v>
+        <v>0.210736</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217654</v>
+        <v>0.217025</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226809</v>
+        <v>0.228703</v>
       </c>
       <c r="C56" t="n">
-        <v>0.212817</v>
+        <v>0.209305</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216346</v>
+        <v>0.21543</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221498</v>
+        <v>0.223148</v>
       </c>
       <c r="C57" t="n">
-        <v>0.21142</v>
+        <v>0.20808</v>
       </c>
       <c r="D57" t="n">
-        <v>0.215046</v>
+        <v>0.214372</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215559</v>
+        <v>0.216806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210068</v>
+        <v>0.206842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213677</v>
+        <v>0.213101</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209761</v>
+        <v>0.211336</v>
       </c>
       <c r="C59" t="n">
-        <v>0.20879</v>
+        <v>0.205603</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21249</v>
+        <v>0.211573</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203737</v>
+        <v>0.206609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.20764</v>
+        <v>0.204463</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211342</v>
+        <v>0.210451</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197984</v>
+        <v>0.201597</v>
       </c>
       <c r="C61" t="n">
-        <v>0.206611</v>
+        <v>0.20343</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210244</v>
+        <v>0.209345</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192221</v>
+        <v>0.196643</v>
       </c>
       <c r="C62" t="n">
-        <v>0.205387</v>
+        <v>0.202367</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209305</v>
+        <v>0.208334</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186501</v>
+        <v>0.190459</v>
       </c>
       <c r="C63" t="n">
-        <v>0.204328</v>
+        <v>0.201481</v>
       </c>
       <c r="D63" t="n">
-        <v>0.208351</v>
+        <v>0.207804</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184509</v>
+        <v>0.184219</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20344</v>
+        <v>0.200405</v>
       </c>
       <c r="D64" t="n">
-        <v>0.207382</v>
+        <v>0.206475</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177083</v>
+        <v>0.177523</v>
       </c>
       <c r="C65" t="n">
-        <v>0.202282</v>
+        <v>0.199462</v>
       </c>
       <c r="D65" t="n">
-        <v>0.206552</v>
+        <v>0.205627</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169312</v>
+        <v>0.168746</v>
       </c>
       <c r="C66" t="n">
-        <v>0.20114</v>
+        <v>0.198401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.226498</v>
+        <v>0.222561</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242416</v>
+        <v>0.241711</v>
       </c>
       <c r="C67" t="n">
-        <v>0.241463</v>
+        <v>0.216125</v>
       </c>
       <c r="D67" t="n">
-        <v>0.224205</v>
+        <v>0.220747</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239504</v>
+        <v>0.237646</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234372</v>
+        <v>0.214443</v>
       </c>
       <c r="D68" t="n">
-        <v>0.222364</v>
+        <v>0.219041</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235023</v>
+        <v>0.233775</v>
       </c>
       <c r="C69" t="n">
-        <v>0.226753</v>
+        <v>0.212283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220431</v>
+        <v>0.217557</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229775</v>
+        <v>0.228614</v>
       </c>
       <c r="C70" t="n">
-        <v>0.221013</v>
+        <v>0.210873</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218821</v>
+        <v>0.216196</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224843</v>
+        <v>0.223488</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216297</v>
+        <v>0.209114</v>
       </c>
       <c r="D71" t="n">
-        <v>0.216948</v>
+        <v>0.214797</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218987</v>
+        <v>0.217388</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21269</v>
+        <v>0.207615</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214991</v>
+        <v>0.213539</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213964</v>
+        <v>0.211487</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210587</v>
+        <v>0.206257</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213266</v>
+        <v>0.212327</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209151</v>
+        <v>0.207688</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208885</v>
+        <v>0.20502</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211803</v>
+        <v>0.211205</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202835</v>
+        <v>0.203022</v>
       </c>
       <c r="C75" t="n">
-        <v>0.20773</v>
+        <v>0.203927</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210661</v>
+        <v>0.210184</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197542</v>
+        <v>0.197625</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206283</v>
+        <v>0.202851</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209669</v>
+        <v>0.209155</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192392</v>
+        <v>0.19232</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204749</v>
+        <v>0.201703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208667</v>
+        <v>0.208167</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186352</v>
+        <v>0.18635</v>
       </c>
       <c r="C78" t="n">
-        <v>0.203619</v>
+        <v>0.200843</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207621</v>
+        <v>0.207202</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17968</v>
+        <v>0.180114</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202476</v>
+        <v>0.199787</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2068</v>
+        <v>0.206353</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172958</v>
+        <v>0.173306</v>
       </c>
       <c r="C80" t="n">
-        <v>0.201441</v>
+        <v>0.198865</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226624</v>
+        <v>0.224792</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24473</v>
+        <v>0.244815</v>
       </c>
       <c r="C81" t="n">
-        <v>0.230722</v>
+        <v>0.224695</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223969</v>
+        <v>0.222549</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240834</v>
+        <v>0.240608</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224798</v>
+        <v>0.219081</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222082</v>
+        <v>0.220488</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236428</v>
+        <v>0.236658</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219275</v>
+        <v>0.21407</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220326</v>
+        <v>0.218626</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230606</v>
+        <v>0.231125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216071</v>
+        <v>0.211585</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218417</v>
+        <v>0.217072</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226096</v>
+        <v>0.226506</v>
       </c>
       <c r="C85" t="n">
-        <v>0.213909</v>
+        <v>0.20975</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216948</v>
+        <v>0.215528</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219738</v>
+        <v>0.220829</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21206</v>
+        <v>0.20839</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215443</v>
+        <v>0.214162</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214317</v>
+        <v>0.213302</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2106</v>
+        <v>0.206875</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2137</v>
+        <v>0.212831</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20741</v>
+        <v>0.207592</v>
       </c>
       <c r="C88" t="n">
-        <v>0.209066</v>
+        <v>0.205717</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212447</v>
+        <v>0.211555</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200946</v>
+        <v>0.201725</v>
       </c>
       <c r="C89" t="n">
-        <v>0.207496</v>
+        <v>0.204359</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211205</v>
+        <v>0.210391</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194926</v>
+        <v>0.195369</v>
       </c>
       <c r="C90" t="n">
-        <v>0.206329</v>
+        <v>0.203214</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210305</v>
+        <v>0.209372</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189041</v>
+        <v>0.189451</v>
       </c>
       <c r="C91" t="n">
-        <v>0.205125</v>
+        <v>0.202147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209257</v>
+        <v>0.20839</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183014</v>
+        <v>0.183157</v>
       </c>
       <c r="C92" t="n">
-        <v>0.203988</v>
+        <v>0.201064</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208317</v>
+        <v>0.20748</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176495</v>
+        <v>0.176272</v>
       </c>
       <c r="C93" t="n">
-        <v>0.202828</v>
+        <v>0.200106</v>
       </c>
       <c r="D93" t="n">
-        <v>0.207451</v>
+        <v>0.206551</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168296</v>
+        <v>0.168275</v>
       </c>
       <c r="C94" t="n">
-        <v>0.201881</v>
+        <v>0.199232</v>
       </c>
       <c r="D94" t="n">
-        <v>0.227808</v>
+        <v>0.226384</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244505</v>
+        <v>0.244838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227977</v>
+        <v>0.222309</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22435</v>
+        <v>0.22375</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240762</v>
+        <v>0.241096</v>
       </c>
       <c r="C96" t="n">
-        <v>0.223071</v>
+        <v>0.217925</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222078</v>
+        <v>0.22116</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235765</v>
+        <v>0.236957</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219267</v>
+        <v>0.214952</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220024</v>
+        <v>0.219345</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230753</v>
+        <v>0.230901</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216566</v>
+        <v>0.212315</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218905</v>
+        <v>0.217632</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225445</v>
+        <v>0.226374</v>
       </c>
       <c r="C99" t="n">
-        <v>0.214348</v>
+        <v>0.210365</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217386</v>
+        <v>0.216497</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219816</v>
+        <v>0.220203</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212628</v>
+        <v>0.208865</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216089</v>
+        <v>0.215311</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214228</v>
+        <v>0.214611</v>
       </c>
       <c r="C101" t="n">
-        <v>0.210997</v>
+        <v>0.207196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214688</v>
+        <v>0.213871</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208089</v>
+        <v>0.208281</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209345</v>
+        <v>0.205847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213026</v>
+        <v>0.21223</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205484</v>
+        <v>0.205772</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208081</v>
+        <v>0.204632</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211858</v>
+        <v>0.211067</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200583</v>
+        <v>0.20048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.206627</v>
+        <v>0.20342</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210798</v>
+        <v>0.209936</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194601</v>
+        <v>0.194654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.205504</v>
+        <v>0.202399</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210227</v>
+        <v>0.208957</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189152</v>
+        <v>0.189036</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204412</v>
+        <v>0.201347</v>
       </c>
       <c r="D106" t="n">
-        <v>0.209176</v>
+        <v>0.208311</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183087</v>
+        <v>0.183119</v>
       </c>
       <c r="C107" t="n">
-        <v>0.203274</v>
+        <v>0.200213</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208235</v>
+        <v>0.207329</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176185</v>
+        <v>0.176297</v>
       </c>
       <c r="C108" t="n">
-        <v>0.202235</v>
+        <v>0.199312</v>
       </c>
       <c r="D108" t="n">
-        <v>0.22717</v>
+        <v>0.226676</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167675</v>
+        <v>0.167812</v>
       </c>
       <c r="C109" t="n">
-        <v>0.201386</v>
+        <v>0.198534</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224467</v>
+        <v>0.223678</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243462</v>
+        <v>0.243856</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22339</v>
+        <v>0.218883</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222031</v>
+        <v>0.221333</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238853</v>
+        <v>0.239132</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21931</v>
+        <v>0.215143</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220149</v>
+        <v>0.219466</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233954</v>
+        <v>0.234057</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216383</v>
+        <v>0.212538</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218411</v>
+        <v>0.217748</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228802</v>
+        <v>0.228761</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2142</v>
+        <v>0.210463</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216825</v>
+        <v>0.216037</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223428</v>
+        <v>0.2229</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212373</v>
+        <v>0.208755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215402</v>
+        <v>0.214659</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217807</v>
+        <v>0.217088</v>
       </c>
       <c r="C115" t="n">
-        <v>0.210783</v>
+        <v>0.207243</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214168</v>
+        <v>0.213481</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212747</v>
+        <v>0.211705</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209395</v>
+        <v>0.205934</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212918</v>
+        <v>0.212185</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206692</v>
+        <v>0.206091</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207999</v>
+        <v>0.204595</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211736</v>
+        <v>0.210959</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200975</v>
+        <v>0.200614</v>
       </c>
       <c r="C118" t="n">
-        <v>0.207208</v>
+        <v>0.203896</v>
       </c>
       <c r="D118" t="n">
-        <v>0.211106</v>
+        <v>0.210196</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195841</v>
+        <v>0.195489</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206073</v>
+        <v>0.202824</v>
       </c>
       <c r="D119" t="n">
-        <v>0.210093</v>
+        <v>0.209189</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189816</v>
+        <v>0.18985</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204941</v>
+        <v>0.201762</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209064</v>
+        <v>0.208109</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183488</v>
+        <v>0.183687</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2039</v>
+        <v>0.20074</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208236</v>
+        <v>0.207326</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176365</v>
+        <v>0.176407</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202832</v>
+        <v>0.199775</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207368</v>
+        <v>0.20627</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167812</v>
+        <v>0.167843</v>
       </c>
       <c r="C123" t="n">
-        <v>0.201876</v>
+        <v>0.198905</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224594</v>
+        <v>0.223931</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243199</v>
+        <v>0.243242</v>
       </c>
       <c r="C124" t="n">
-        <v>0.223813</v>
+        <v>0.21917</v>
       </c>
       <c r="D124" t="n">
-        <v>0.222252</v>
+        <v>0.221631</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239045</v>
+        <v>0.238767</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219589</v>
+        <v>0.215448</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220251</v>
+        <v>0.219666</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234721</v>
+        <v>0.234614</v>
       </c>
       <c r="C126" t="n">
-        <v>0.21678</v>
+        <v>0.212829</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218526</v>
+        <v>0.217866</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229866</v>
+        <v>0.229208</v>
       </c>
       <c r="C127" t="n">
-        <v>0.214457</v>
+        <v>0.210759</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216933</v>
+        <v>0.2164</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224056</v>
+        <v>0.223282</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212635</v>
+        <v>0.209087</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215574</v>
+        <v>0.215073</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218537</v>
+        <v>0.217633</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211038</v>
+        <v>0.207591</v>
       </c>
       <c r="D129" t="n">
-        <v>0.214305</v>
+        <v>0.21372</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21209</v>
+        <v>0.2125</v>
       </c>
       <c r="C130" t="n">
-        <v>0.209686</v>
+        <v>0.206169</v>
       </c>
       <c r="D130" t="n">
-        <v>0.213064</v>
+        <v>0.212462</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.207585</v>
+        <v>0.205182</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208387</v>
+        <v>0.204926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211957</v>
+        <v>0.211196</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.202907</v>
+        <v>0.202915</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20712</v>
+        <v>0.20371</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210843</v>
+        <v>0.210192</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197821</v>
+        <v>0.196986</v>
       </c>
       <c r="C133" t="n">
-        <v>0.205921</v>
+        <v>0.202598</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209815</v>
+        <v>0.209002</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187252</v>
+        <v>0.187072</v>
       </c>
       <c r="C134" t="n">
-        <v>0.204798</v>
+        <v>0.201589</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208846</v>
+        <v>0.207912</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180404</v>
+        <v>0.180181</v>
       </c>
       <c r="C135" t="n">
-        <v>0.203672</v>
+        <v>0.200541</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20791</v>
+        <v>0.207046</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.174687</v>
+        <v>0.17261</v>
       </c>
       <c r="C136" t="n">
-        <v>0.202736</v>
+        <v>0.199709</v>
       </c>
       <c r="D136" t="n">
-        <v>0.207171</v>
+        <v>0.206283</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164066</v>
+        <v>0.166598</v>
       </c>
       <c r="C137" t="n">
-        <v>0.201647</v>
+        <v>0.198761</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225997</v>
+        <v>0.224926</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24579</v>
+        <v>0.245692</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225508</v>
+        <v>0.220878</v>
       </c>
       <c r="D138" t="n">
-        <v>0.223379</v>
+        <v>0.22246</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.242136</v>
+        <v>0.241713</v>
       </c>
       <c r="C139" t="n">
-        <v>0.221248</v>
+        <v>0.217014</v>
       </c>
       <c r="D139" t="n">
-        <v>0.221253</v>
+        <v>0.220406</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237439</v>
+        <v>0.23713</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217889</v>
+        <v>0.21386</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219396</v>
+        <v>0.218596</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232362</v>
+        <v>0.232051</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215421</v>
+        <v>0.211726</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217772</v>
+        <v>0.21694</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226012</v>
+        <v>0.22684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.213533</v>
+        <v>0.209851</v>
       </c>
       <c r="D142" t="n">
-        <v>0.216304</v>
+        <v>0.215514</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220352</v>
+        <v>0.220861</v>
       </c>
       <c r="C143" t="n">
-        <v>0.211843</v>
+        <v>0.208259</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214924</v>
+        <v>0.214067</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202707</v>
+        <v>0.201954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193495</v>
+        <v>0.194148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200008</v>
+        <v>0.200413</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19634</v>
+        <v>0.196417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193976</v>
+        <v>0.194312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200281</v>
+        <v>0.200668</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192995</v>
+        <v>0.191275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193977</v>
+        <v>0.194054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200624</v>
+        <v>0.201199</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188959</v>
+        <v>0.185031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193513</v>
+        <v>0.193938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200236</v>
+        <v>0.200633</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182848</v>
+        <v>0.177018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192558</v>
+        <v>0.192701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200069</v>
+        <v>0.199948</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176207</v>
+        <v>0.169361</v>
       </c>
       <c r="C7" t="n">
         <v>0.193013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199843</v>
+        <v>0.199949</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166622</v>
+        <v>0.161457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192995</v>
+        <v>0.192759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199834</v>
+        <v>0.199995</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157073</v>
+        <v>0.153581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192509</v>
+        <v>0.192422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218011</v>
+        <v>0.218081</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240249</v>
+        <v>0.243097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210931</v>
+        <v>0.211237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216546</v>
+        <v>0.216274</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234289</v>
+        <v>0.238069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20989</v>
+        <v>0.210204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215543</v>
+        <v>0.215082</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231005</v>
+        <v>0.23425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207984</v>
+        <v>0.208138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214571</v>
+        <v>0.214429</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22704</v>
+        <v>0.228156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206807</v>
+        <v>0.207006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212983</v>
+        <v>0.212631</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221879</v>
+        <v>0.221726</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205756</v>
+        <v>0.206105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212185</v>
+        <v>0.212101</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214915</v>
+        <v>0.216787</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204885</v>
+        <v>0.205191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211394</v>
+        <v>0.211036</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210682</v>
+        <v>0.211431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20412</v>
+        <v>0.204553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210373</v>
+        <v>0.210239</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206201</v>
+        <v>0.206062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203272</v>
+        <v>0.203516</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209333</v>
+        <v>0.20961</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200458</v>
+        <v>0.201748</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202101</v>
+        <v>0.202519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208594</v>
+        <v>0.208653</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195294</v>
+        <v>0.196401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201609</v>
+        <v>0.20141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20778</v>
+        <v>0.207515</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189399</v>
+        <v>0.190094</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200474</v>
+        <v>0.200872</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207087</v>
+        <v>0.207011</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184078</v>
+        <v>0.183707</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199505</v>
+        <v>0.199619</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206178</v>
+        <v>0.206203</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176493</v>
+        <v>0.177692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198781</v>
+        <v>0.198928</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205274</v>
+        <v>0.20526</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169379</v>
+        <v>0.169135</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19776</v>
+        <v>0.19791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222663</v>
+        <v>0.222761</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243285</v>
+        <v>0.240405</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214217</v>
+        <v>0.214326</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219976</v>
+        <v>0.220078</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240375</v>
+        <v>0.235972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212469</v>
+        <v>0.21272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218527</v>
+        <v>0.218787</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234115</v>
+        <v>0.233921</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211281</v>
+        <v>0.211491</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217131</v>
+        <v>0.217025</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230278</v>
+        <v>0.227054</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209665</v>
+        <v>0.209689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215543</v>
+        <v>0.21557</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225755</v>
+        <v>0.223346</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208356</v>
+        <v>0.208522</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214181</v>
+        <v>0.214314</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219887</v>
+        <v>0.21848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.206959</v>
+        <v>0.207238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212973</v>
+        <v>0.213097</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213882</v>
+        <v>0.213885</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205528</v>
+        <v>0.205587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211679</v>
+        <v>0.211855</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208372</v>
+        <v>0.207067</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204319</v>
+        <v>0.204638</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210658</v>
+        <v>0.210832</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202625</v>
+        <v>0.200482</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203392</v>
+        <v>0.203454</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209705</v>
+        <v>0.209892</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197664</v>
+        <v>0.194335</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202111</v>
+        <v>0.202267</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208793</v>
+        <v>0.209027</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193249</v>
+        <v>0.188489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201388</v>
+        <v>0.2014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208027</v>
+        <v>0.208213</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187386</v>
+        <v>0.18224</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200078</v>
+        <v>0.200142</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206865</v>
+        <v>0.206873</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180849</v>
+        <v>0.174917</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199735</v>
+        <v>0.199759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206289</v>
+        <v>0.206434</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171781</v>
+        <v>0.166872</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198815</v>
+        <v>0.199278</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222418</v>
+        <v>0.223028</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245376</v>
+        <v>0.246583</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215058</v>
+        <v>0.215226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220924</v>
+        <v>0.221018</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241808</v>
+        <v>0.243077</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213231</v>
+        <v>0.213511</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219313</v>
+        <v>0.219324</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235981</v>
+        <v>0.239032</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211877</v>
+        <v>0.211995</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217788</v>
+        <v>0.217875</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231397</v>
+        <v>0.234063</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210426</v>
+        <v>0.210673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216404</v>
+        <v>0.216487</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225909</v>
+        <v>0.227583</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208796</v>
+        <v>0.20894</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21489</v>
+        <v>0.215169</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220703</v>
+        <v>0.222759</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207293</v>
+        <v>0.207573</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213468</v>
+        <v>0.213709</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21475</v>
+        <v>0.214979</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206379</v>
+        <v>0.206446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212416</v>
+        <v>0.21252</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209992</v>
+        <v>0.2095</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205149</v>
+        <v>0.205451</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211328</v>
+        <v>0.211349</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205603</v>
+        <v>0.204185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203977</v>
+        <v>0.204073</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210062</v>
+        <v>0.210172</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200218</v>
+        <v>0.198774</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203065</v>
+        <v>0.203093</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209234</v>
+        <v>0.209342</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194125</v>
+        <v>0.19461</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202041</v>
+        <v>0.202267</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208289</v>
+        <v>0.208464</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188096</v>
+        <v>0.189161</v>
       </c>
       <c r="C49" t="n">
-        <v>0.20113</v>
+        <v>0.201173</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207285</v>
+        <v>0.207425</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182327</v>
+        <v>0.182758</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200047</v>
+        <v>0.200187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206251</v>
+        <v>0.206379</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175523</v>
+        <v>0.176063</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198993</v>
+        <v>0.199261</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223873</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166804</v>
+        <v>0.167805</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198092</v>
+        <v>0.198241</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221607</v>
+        <v>0.221874</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243122</v>
+        <v>0.244257</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213911</v>
+        <v>0.214089</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219813</v>
+        <v>0.220042</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2392</v>
+        <v>0.239934</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212246</v>
+        <v>0.212369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218332</v>
+        <v>0.218529</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234798</v>
+        <v>0.234364</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210736</v>
+        <v>0.210984</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217025</v>
+        <v>0.217201</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228703</v>
+        <v>0.228337</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209305</v>
+        <v>0.209463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21543</v>
+        <v>0.215782</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.223148</v>
+        <v>0.222615</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20808</v>
+        <v>0.208226</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214372</v>
+        <v>0.214618</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216806</v>
+        <v>0.217041</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206842</v>
+        <v>0.206935</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213101</v>
+        <v>0.213297</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211336</v>
+        <v>0.211244</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205603</v>
+        <v>0.205799</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211573</v>
+        <v>0.211843</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206609</v>
+        <v>0.206728</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204463</v>
+        <v>0.204659</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210451</v>
+        <v>0.210652</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201597</v>
+        <v>0.201344</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20343</v>
+        <v>0.203593</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209345</v>
+        <v>0.209569</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196643</v>
+        <v>0.19595</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202367</v>
+        <v>0.202536</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208334</v>
+        <v>0.208568</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190459</v>
+        <v>0.190802</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201481</v>
+        <v>0.201548</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207804</v>
+        <v>0.207975</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184219</v>
+        <v>0.184835</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200405</v>
+        <v>0.200587</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206475</v>
+        <v>0.206723</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177523</v>
+        <v>0.178342</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199462</v>
+        <v>0.199444</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205627</v>
+        <v>0.2058</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168746</v>
+        <v>0.170253</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198401</v>
+        <v>0.198637</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222561</v>
+        <v>0.22272</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241711</v>
+        <v>0.245723</v>
       </c>
       <c r="C67" t="n">
-        <v>0.216125</v>
+        <v>0.216505</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220747</v>
+        <v>0.220816</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237646</v>
+        <v>0.239957</v>
       </c>
       <c r="C68" t="n">
-        <v>0.214443</v>
+        <v>0.21442</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219041</v>
+        <v>0.219181</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233775</v>
+        <v>0.235449</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212283</v>
+        <v>0.212516</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217557</v>
+        <v>0.217713</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228614</v>
+        <v>0.229839</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210873</v>
+        <v>0.21078</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216196</v>
+        <v>0.216315</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223488</v>
+        <v>0.224229</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209114</v>
+        <v>0.209239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214797</v>
+        <v>0.214874</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217388</v>
+        <v>0.219076</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207615</v>
+        <v>0.207913</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213539</v>
+        <v>0.213708</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211487</v>
+        <v>0.214351</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206257</v>
+        <v>0.206549</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212327</v>
+        <v>0.212514</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207688</v>
+        <v>0.209128</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20502</v>
+        <v>0.205252</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211205</v>
+        <v>0.211323</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203022</v>
+        <v>0.202878</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203927</v>
+        <v>0.204071</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210184</v>
+        <v>0.210244</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197625</v>
+        <v>0.197884</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202851</v>
+        <v>0.202989</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209155</v>
+        <v>0.209317</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19232</v>
+        <v>0.187891</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201703</v>
+        <v>0.201858</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208167</v>
+        <v>0.208407</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.18635</v>
+        <v>0.181757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200843</v>
+        <v>0.200976</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207202</v>
+        <v>0.207325</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180114</v>
+        <v>0.174734</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199787</v>
+        <v>0.199998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206353</v>
+        <v>0.206534</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173306</v>
+        <v>0.166615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198865</v>
+        <v>0.198854</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224792</v>
+        <v>0.224313</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244815</v>
+        <v>0.24507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224695</v>
+        <v>0.226736</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222549</v>
+        <v>0.222844</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240608</v>
+        <v>0.240746</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219081</v>
+        <v>0.219562</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220488</v>
+        <v>0.22052</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236658</v>
+        <v>0.236117</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21407</v>
+        <v>0.214682</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218626</v>
+        <v>0.218695</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231125</v>
+        <v>0.230972</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211585</v>
+        <v>0.211755</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217072</v>
+        <v>0.21708</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.226506</v>
+        <v>0.225829</v>
       </c>
       <c r="C85" t="n">
-        <v>0.20975</v>
+        <v>0.209841</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215528</v>
+        <v>0.215623</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220829</v>
+        <v>0.219669</v>
       </c>
       <c r="C86" t="n">
-        <v>0.20839</v>
+        <v>0.208418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214162</v>
+        <v>0.214193</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213302</v>
+        <v>0.213305</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206875</v>
+        <v>0.207026</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212831</v>
+        <v>0.212888</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207592</v>
+        <v>0.207745</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205717</v>
+        <v>0.205708</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211555</v>
+        <v>0.211584</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201725</v>
+        <v>0.201083</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204359</v>
+        <v>0.204304</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210391</v>
+        <v>0.210508</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195369</v>
+        <v>0.195495</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203214</v>
+        <v>0.203247</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209372</v>
+        <v>0.209474</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189451</v>
+        <v>0.189435</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202147</v>
+        <v>0.202298</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20839</v>
+        <v>0.208482</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183157</v>
+        <v>0.183109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201064</v>
+        <v>0.201126</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20748</v>
+        <v>0.20755</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176272</v>
+        <v>0.176131</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200106</v>
+        <v>0.200243</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206551</v>
+        <v>0.20672</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168275</v>
+        <v>0.168099</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199232</v>
+        <v>0.199347</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226384</v>
+        <v>0.226358</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244838</v>
+        <v>0.244628</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222309</v>
+        <v>0.222084</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22375</v>
+        <v>0.223397</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241096</v>
+        <v>0.240701</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217925</v>
+        <v>0.218057</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22116</v>
+        <v>0.221132</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236957</v>
+        <v>0.236209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214952</v>
+        <v>0.214815</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219345</v>
+        <v>0.21925</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230901</v>
+        <v>0.231381</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212315</v>
+        <v>0.212285</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217632</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226374</v>
+        <v>0.225341</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210365</v>
+        <v>0.210218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216497</v>
+        <v>0.216574</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220203</v>
+        <v>0.219971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208865</v>
+        <v>0.208848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215311</v>
+        <v>0.215282</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214611</v>
+        <v>0.21416</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207196</v>
+        <v>0.207118</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213871</v>
+        <v>0.213836</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208281</v>
+        <v>0.207799</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205847</v>
+        <v>0.205741</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21223</v>
+        <v>0.212073</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205772</v>
+        <v>0.202548</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204632</v>
+        <v>0.204514</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211067</v>
+        <v>0.211107</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20048</v>
+        <v>0.196856</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20342</v>
+        <v>0.20335</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209936</v>
+        <v>0.209846</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194654</v>
+        <v>0.190606</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202399</v>
+        <v>0.202257</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208957</v>
+        <v>0.209172</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189036</v>
+        <v>0.184484</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201347</v>
+        <v>0.201189</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208311</v>
+        <v>0.208194</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183119</v>
+        <v>0.17775</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200213</v>
+        <v>0.200193</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207329</v>
+        <v>0.207303</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176297</v>
+        <v>0.170056</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199312</v>
+        <v>0.199305</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226676</v>
+        <v>0.226578</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167812</v>
+        <v>0.161</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198534</v>
+        <v>0.198446</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223678</v>
+        <v>0.223569</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243856</v>
+        <v>0.241549</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218883</v>
+        <v>0.21873</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221333</v>
+        <v>0.221378</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239132</v>
+        <v>0.236991</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215143</v>
+        <v>0.215146</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219466</v>
+        <v>0.219402</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234057</v>
+        <v>0.232001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212538</v>
+        <v>0.21253</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217748</v>
+        <v>0.217557</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228761</v>
+        <v>0.226857</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210463</v>
+        <v>0.210451</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216037</v>
+        <v>0.216117</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2229</v>
+        <v>0.221407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208755</v>
+        <v>0.208759</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214659</v>
+        <v>0.214676</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217088</v>
+        <v>0.21526</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207243</v>
+        <v>0.207255</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213481</v>
+        <v>0.213421</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211705</v>
+        <v>0.208401</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205934</v>
+        <v>0.205919</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212185</v>
+        <v>0.212129</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206091</v>
+        <v>0.202499</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204595</v>
+        <v>0.204664</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210959</v>
+        <v>0.21095</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200614</v>
+        <v>0.196506</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203896</v>
+        <v>0.203926</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210196</v>
+        <v>0.210127</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195489</v>
+        <v>0.190935</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202824</v>
+        <v>0.202749</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209189</v>
+        <v>0.209217</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.18985</v>
+        <v>0.184687</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201762</v>
+        <v>0.201816</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208109</v>
+        <v>0.208202</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183687</v>
+        <v>0.17821</v>
       </c>
       <c r="C121" t="n">
-        <v>0.20074</v>
+        <v>0.200736</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207326</v>
+        <v>0.207132</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176407</v>
+        <v>0.170289</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199775</v>
+        <v>0.199712</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20627</v>
+        <v>0.20623</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167843</v>
+        <v>0.161374</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198905</v>
+        <v>0.198888</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223931</v>
+        <v>0.223912</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243242</v>
+        <v>0.242465</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21917</v>
+        <v>0.219311</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221631</v>
+        <v>0.221539</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238767</v>
+        <v>0.239023</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215448</v>
+        <v>0.215571</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219666</v>
+        <v>0.219639</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234614</v>
+        <v>0.233925</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212829</v>
+        <v>0.212858</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217866</v>
+        <v>0.217924</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229208</v>
+        <v>0.228938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210759</v>
+        <v>0.210764</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2164</v>
+        <v>0.216419</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223282</v>
+        <v>0.22422</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209087</v>
+        <v>0.209089</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215073</v>
+        <v>0.215045</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217633</v>
+        <v>0.217907</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207591</v>
+        <v>0.207594</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21372</v>
+        <v>0.213713</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2125</v>
+        <v>0.211637</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206169</v>
+        <v>0.2062</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212462</v>
+        <v>0.212512</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205182</v>
+        <v>0.206337</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204926</v>
+        <v>0.204985</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211196</v>
+        <v>0.211216</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.202915</v>
+        <v>0.200124</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20371</v>
+        <v>0.203816</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210192</v>
+        <v>0.210254</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196986</v>
+        <v>0.19323</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202598</v>
+        <v>0.202678</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209002</v>
+        <v>0.209025</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187072</v>
+        <v>0.187871</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201589</v>
+        <v>0.201642</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207912</v>
+        <v>0.207977</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180181</v>
+        <v>0.180452</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200541</v>
+        <v>0.200638</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207046</v>
+        <v>0.207038</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17261</v>
+        <v>0.172648</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199709</v>
+        <v>0.199737</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206283</v>
+        <v>0.206121</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.166598</v>
+        <v>0.163805</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198761</v>
+        <v>0.198783</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224926</v>
+        <v>0.224896</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245692</v>
+        <v>0.244195</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220878</v>
+        <v>0.220857</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22246</v>
+        <v>0.222432</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241713</v>
+        <v>0.239716</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217014</v>
+        <v>0.217053</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220406</v>
+        <v>0.220326</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23713</v>
+        <v>0.235628</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21386</v>
+        <v>0.213987</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218596</v>
+        <v>0.218534</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232051</v>
+        <v>0.230785</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211726</v>
+        <v>0.211694</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21694</v>
+        <v>0.216887</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22684</v>
+        <v>0.224684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209851</v>
+        <v>0.209892</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215514</v>
+        <v>0.215454</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220861</v>
+        <v>0.218938</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208259</v>
+        <v>0.208257</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214067</v>
+        <v>0.214023</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201954</v>
+        <v>0.2022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194148</v>
+        <v>0.193466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200413</v>
+        <v>0.199581</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196417</v>
+        <v>0.196679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194312</v>
+        <v>0.194386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200668</v>
+        <v>0.200168</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.191275</v>
+        <v>0.194006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194054</v>
+        <v>0.193962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201199</v>
+        <v>0.200907</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185031</v>
+        <v>0.188785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193938</v>
+        <v>0.193136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200633</v>
+        <v>0.200668</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177018</v>
+        <v>0.181866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192701</v>
+        <v>0.193444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199948</v>
+        <v>0.200341</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169361</v>
+        <v>0.175847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193013</v>
+        <v>0.192831</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199949</v>
+        <v>0.199533</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161457</v>
+        <v>0.167845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192759</v>
+        <v>0.192473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199995</v>
+        <v>0.200055</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153581</v>
+        <v>0.156884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192422</v>
+        <v>0.192417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218081</v>
+        <v>0.217348</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.243097</v>
+        <v>0.241819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211237</v>
+        <v>0.211338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216274</v>
+        <v>0.216305</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.238069</v>
+        <v>0.237098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210204</v>
+        <v>0.2097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215082</v>
+        <v>0.215037</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23425</v>
+        <v>0.232577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208138</v>
+        <v>0.207979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214429</v>
+        <v>0.214527</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228156</v>
+        <v>0.228589</v>
       </c>
       <c r="C13" t="n">
-        <v>0.207006</v>
+        <v>0.206728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212631</v>
+        <v>0.212441</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221726</v>
+        <v>0.222911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206105</v>
+        <v>0.205859</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212101</v>
+        <v>0.212131</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216787</v>
+        <v>0.216261</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205191</v>
+        <v>0.205399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211036</v>
+        <v>0.211156</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211431</v>
+        <v>0.210651</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204553</v>
+        <v>0.204352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210239</v>
+        <v>0.209894</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206062</v>
+        <v>0.205612</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203516</v>
+        <v>0.203472</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20961</v>
+        <v>0.209248</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201748</v>
+        <v>0.200497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202519</v>
+        <v>0.202093</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208653</v>
+        <v>0.20845</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196401</v>
+        <v>0.196027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20141</v>
+        <v>0.201539</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207515</v>
+        <v>0.207564</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190094</v>
+        <v>0.189699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200872</v>
+        <v>0.200388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207011</v>
+        <v>0.207035</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183707</v>
+        <v>0.184685</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199619</v>
+        <v>0.199669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206203</v>
+        <v>0.206089</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177692</v>
+        <v>0.177588</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198928</v>
+        <v>0.198526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20526</v>
+        <v>0.205318</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169135</v>
+        <v>0.169634</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19791</v>
+        <v>0.197526</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222761</v>
+        <v>0.222523</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240405</v>
+        <v>0.24281</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214326</v>
+        <v>0.215466</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220078</v>
+        <v>0.219833</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235972</v>
+        <v>0.23997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21272</v>
+        <v>0.212647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218787</v>
+        <v>0.218637</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233921</v>
+        <v>0.2342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211491</v>
+        <v>0.211039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217025</v>
+        <v>0.217088</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227054</v>
+        <v>0.22986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209689</v>
+        <v>0.20951</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21557</v>
+        <v>0.215429</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223346</v>
+        <v>0.22598</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208522</v>
+        <v>0.208313</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214314</v>
+        <v>0.214232</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21848</v>
+        <v>0.219958</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207238</v>
+        <v>0.20697</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213097</v>
+        <v>0.212956</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213885</v>
+        <v>0.21428</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205587</v>
+        <v>0.205556</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211855</v>
+        <v>0.211885</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207067</v>
+        <v>0.208383</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204638</v>
+        <v>0.204519</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210832</v>
+        <v>0.210534</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200482</v>
+        <v>0.201684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203454</v>
+        <v>0.203199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209892</v>
+        <v>0.209659</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.194335</v>
+        <v>0.196549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202267</v>
+        <v>0.202174</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209027</v>
+        <v>0.20886</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.188489</v>
+        <v>0.192183</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2014</v>
+        <v>0.201253</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208213</v>
+        <v>0.208028</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18224</v>
+        <v>0.186869</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200142</v>
+        <v>0.199992</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206873</v>
+        <v>0.20684</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.174917</v>
+        <v>0.180684</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199759</v>
+        <v>0.199596</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206434</v>
+        <v>0.206286</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166872</v>
+        <v>0.171785</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199278</v>
+        <v>0.19895</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223028</v>
+        <v>0.22263</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246583</v>
+        <v>0.245742</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215226</v>
+        <v>0.214753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221018</v>
+        <v>0.22075</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.243077</v>
+        <v>0.241631</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213511</v>
+        <v>0.213014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219324</v>
+        <v>0.219127</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239032</v>
+        <v>0.235908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211995</v>
+        <v>0.211586</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217875</v>
+        <v>0.217796</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234063</v>
+        <v>0.231478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210673</v>
+        <v>0.21024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216487</v>
+        <v>0.216474</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.227583</v>
+        <v>0.226355</v>
       </c>
       <c r="C42" t="n">
-        <v>0.20894</v>
+        <v>0.208653</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215169</v>
+        <v>0.214912</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.222759</v>
+        <v>0.220806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207573</v>
+        <v>0.207158</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213709</v>
+        <v>0.213442</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214979</v>
+        <v>0.214603</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206446</v>
+        <v>0.206163</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21252</v>
+        <v>0.212278</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2095</v>
+        <v>0.210087</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205451</v>
+        <v>0.205002</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211349</v>
+        <v>0.21123</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204185</v>
+        <v>0.205274</v>
       </c>
       <c r="C46" t="n">
-        <v>0.204073</v>
+        <v>0.203827</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210172</v>
+        <v>0.210062</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198774</v>
+        <v>0.200297</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203093</v>
+        <v>0.202948</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209342</v>
+        <v>0.20931</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19461</v>
+        <v>0.194313</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202267</v>
+        <v>0.201993</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208464</v>
+        <v>0.208267</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189161</v>
+        <v>0.188581</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201173</v>
+        <v>0.200916</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207425</v>
+        <v>0.207245</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182758</v>
+        <v>0.182781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200187</v>
+        <v>0.199923</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206379</v>
+        <v>0.20626</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176063</v>
+        <v>0.175798</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199261</v>
+        <v>0.198958</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2246</v>
+        <v>0.223517</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167805</v>
+        <v>0.167043</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198241</v>
+        <v>0.19812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221874</v>
+        <v>0.22152</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244257</v>
+        <v>0.243178</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214089</v>
+        <v>0.213896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220042</v>
+        <v>0.220009</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239934</v>
+        <v>0.239741</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212369</v>
+        <v>0.212316</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218529</v>
+        <v>0.218383</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234364</v>
+        <v>0.234799</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210984</v>
+        <v>0.210785</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217201</v>
+        <v>0.216994</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228337</v>
+        <v>0.229113</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209463</v>
+        <v>0.209401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215782</v>
+        <v>0.215556</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222615</v>
+        <v>0.22286</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208226</v>
+        <v>0.208126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214618</v>
+        <v>0.214489</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217041</v>
+        <v>0.216532</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206935</v>
+        <v>0.206816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213297</v>
+        <v>0.213109</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211244</v>
+        <v>0.211235</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205799</v>
+        <v>0.205707</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211843</v>
+        <v>0.211644</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206728</v>
+        <v>0.205939</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204659</v>
+        <v>0.204479</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210652</v>
+        <v>0.21053</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201344</v>
+        <v>0.201188</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203593</v>
+        <v>0.2034</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209569</v>
+        <v>0.209432</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19595</v>
+        <v>0.195945</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202536</v>
+        <v>0.202321</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208568</v>
+        <v>0.208453</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190802</v>
+        <v>0.190789</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201548</v>
+        <v>0.201372</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207975</v>
+        <v>0.207846</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184835</v>
+        <v>0.184065</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200587</v>
+        <v>0.200423</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206723</v>
+        <v>0.206518</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178342</v>
+        <v>0.17764</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199444</v>
+        <v>0.199323</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2058</v>
+        <v>0.20573</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.170253</v>
+        <v>0.169744</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198637</v>
+        <v>0.198376</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22272</v>
+        <v>0.222223</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.245723</v>
+        <v>0.24226</v>
       </c>
       <c r="C67" t="n">
-        <v>0.216505</v>
+        <v>0.215791</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220816</v>
+        <v>0.220553</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239957</v>
+        <v>0.238168</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21442</v>
+        <v>0.214137</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219181</v>
+        <v>0.219019</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235449</v>
+        <v>0.236089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212516</v>
+        <v>0.212247</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217713</v>
+        <v>0.217482</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229839</v>
+        <v>0.231245</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21078</v>
+        <v>0.210643</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216315</v>
+        <v>0.216184</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224229</v>
+        <v>0.225413</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209239</v>
+        <v>0.208923</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214874</v>
+        <v>0.214689</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219076</v>
+        <v>0.219793</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207913</v>
+        <v>0.207578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213708</v>
+        <v>0.213504</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.214351</v>
+        <v>0.213515</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206549</v>
+        <v>0.206232</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212514</v>
+        <v>0.21228</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209128</v>
+        <v>0.208401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205252</v>
+        <v>0.204928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211323</v>
+        <v>0.211163</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202878</v>
+        <v>0.202793</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204071</v>
+        <v>0.203844</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210244</v>
+        <v>0.210093</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197884</v>
+        <v>0.197781</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202989</v>
+        <v>0.202733</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209317</v>
+        <v>0.209095</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187891</v>
+        <v>0.192208</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201858</v>
+        <v>0.201706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208407</v>
+        <v>0.208131</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181757</v>
+        <v>0.186296</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200976</v>
+        <v>0.200654</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207325</v>
+        <v>0.207115</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174734</v>
+        <v>0.179922</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199998</v>
+        <v>0.199703</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206534</v>
+        <v>0.206297</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.166615</v>
+        <v>0.172794</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198854</v>
+        <v>0.198691</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224313</v>
+        <v>0.224741</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24507</v>
+        <v>0.244663</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226736</v>
+        <v>0.223418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222844</v>
+        <v>0.222413</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240746</v>
+        <v>0.240816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219562</v>
+        <v>0.218553</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22052</v>
+        <v>0.22025</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236117</v>
+        <v>0.236524</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214682</v>
+        <v>0.213842</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218695</v>
+        <v>0.218514</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230972</v>
+        <v>0.231716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211755</v>
+        <v>0.211597</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21708</v>
+        <v>0.217102</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225829</v>
+        <v>0.225486</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209841</v>
+        <v>0.209748</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215623</v>
+        <v>0.215496</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219669</v>
+        <v>0.219856</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208418</v>
+        <v>0.208232</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214193</v>
+        <v>0.214086</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213305</v>
+        <v>0.212767</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207026</v>
+        <v>0.206797</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212888</v>
+        <v>0.212813</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207745</v>
+        <v>0.206908</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205708</v>
+        <v>0.205638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211584</v>
+        <v>0.211532</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201083</v>
+        <v>0.201253</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204304</v>
+        <v>0.20436</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210508</v>
+        <v>0.210424</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195495</v>
+        <v>0.19435</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203247</v>
+        <v>0.203203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209474</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189435</v>
+        <v>0.18891</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202298</v>
+        <v>0.202104</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208482</v>
+        <v>0.208392</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183109</v>
+        <v>0.182501</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201126</v>
+        <v>0.201075</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20755</v>
+        <v>0.207421</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176131</v>
+        <v>0.175821</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200243</v>
+        <v>0.2001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.20672</v>
+        <v>0.20653</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168099</v>
+        <v>0.17068</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199347</v>
+        <v>0.199178</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226358</v>
+        <v>0.226448</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244628</v>
+        <v>0.244442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222084</v>
+        <v>0.222249</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223397</v>
+        <v>0.223699</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240701</v>
+        <v>0.240624</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218057</v>
+        <v>0.21791</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221132</v>
+        <v>0.221057</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236209</v>
+        <v>0.235979</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214815</v>
+        <v>0.215028</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21925</v>
+        <v>0.218967</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231381</v>
+        <v>0.230522</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212285</v>
+        <v>0.21243</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2178</v>
+        <v>0.217612</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225341</v>
+        <v>0.22583</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210218</v>
+        <v>0.210455</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216574</v>
+        <v>0.216608</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219971</v>
+        <v>0.220116</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208848</v>
+        <v>0.208969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215282</v>
+        <v>0.215252</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.21416</v>
+        <v>0.214718</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207118</v>
+        <v>0.207166</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213836</v>
+        <v>0.213712</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207799</v>
+        <v>0.208307</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205741</v>
+        <v>0.205789</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212073</v>
+        <v>0.212275</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202548</v>
+        <v>0.205538</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204514</v>
+        <v>0.204566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211107</v>
+        <v>0.210985</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196856</v>
+        <v>0.200431</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20335</v>
+        <v>0.203325</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209846</v>
+        <v>0.20982</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190606</v>
+        <v>0.194569</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202257</v>
+        <v>0.202352</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209172</v>
+        <v>0.208956</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184484</v>
+        <v>0.189144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201189</v>
+        <v>0.201337</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208194</v>
+        <v>0.20826</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.17775</v>
+        <v>0.182898</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200193</v>
+        <v>0.200251</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207303</v>
+        <v>0.207282</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.170056</v>
+        <v>0.176211</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199305</v>
+        <v>0.19935</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226578</v>
+        <v>0.226394</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.161</v>
+        <v>0.167749</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198446</v>
+        <v>0.19861</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223569</v>
+        <v>0.223532</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241549</v>
+        <v>0.243629</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21873</v>
+        <v>0.218917</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221378</v>
+        <v>0.221384</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.236991</v>
+        <v>0.238797</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215146</v>
+        <v>0.215168</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219402</v>
+        <v>0.219304</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232001</v>
+        <v>0.234316</v>
       </c>
       <c r="C112" t="n">
-        <v>0.21253</v>
+        <v>0.212593</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217557</v>
+        <v>0.217586</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226857</v>
+        <v>0.228842</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210451</v>
+        <v>0.210543</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216117</v>
+        <v>0.216086</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221407</v>
+        <v>0.223312</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208759</v>
+        <v>0.208807</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214676</v>
+        <v>0.214658</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21526</v>
+        <v>0.21754</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207255</v>
+        <v>0.207287</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213421</v>
+        <v>0.213358</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208401</v>
+        <v>0.211859</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205919</v>
+        <v>0.205944</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212129</v>
+        <v>0.212206</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.202499</v>
+        <v>0.206213</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204664</v>
+        <v>0.204646</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21095</v>
+        <v>0.210986</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.196506</v>
+        <v>0.200615</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203926</v>
+        <v>0.203955</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210127</v>
+        <v>0.210282</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.190935</v>
+        <v>0.1956</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202749</v>
+        <v>0.202828</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209217</v>
+        <v>0.209254</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.184687</v>
+        <v>0.189915</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201816</v>
+        <v>0.201787</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208202</v>
+        <v>0.208305</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.17821</v>
+        <v>0.18386</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200736</v>
+        <v>0.200733</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207132</v>
+        <v>0.207325</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.170289</v>
+        <v>0.176287</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199712</v>
+        <v>0.199812</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20623</v>
+        <v>0.206422</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.161374</v>
+        <v>0.168415</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198888</v>
+        <v>0.198881</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223912</v>
+        <v>0.224003</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242465</v>
+        <v>0.242897</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219311</v>
+        <v>0.219237</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221539</v>
+        <v>0.221687</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239023</v>
+        <v>0.23871</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215571</v>
+        <v>0.215547</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219639</v>
+        <v>0.21973</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233925</v>
+        <v>0.234116</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212858</v>
+        <v>0.212939</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217924</v>
+        <v>0.217886</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228938</v>
+        <v>0.229257</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210764</v>
+        <v>0.210715</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216419</v>
+        <v>0.216511</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.22422</v>
+        <v>0.223773</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209089</v>
+        <v>0.209086</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215045</v>
+        <v>0.215046</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217907</v>
+        <v>0.217578</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207594</v>
+        <v>0.207602</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213713</v>
+        <v>0.213701</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211637</v>
+        <v>0.21313</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2062</v>
+        <v>0.206203</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212512</v>
+        <v>0.21254</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206337</v>
+        <v>0.20477</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204985</v>
+        <v>0.204994</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211216</v>
+        <v>0.211247</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200124</v>
+        <v>0.198776</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203816</v>
+        <v>0.20379</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210254</v>
+        <v>0.210288</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19323</v>
+        <v>0.196942</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202678</v>
+        <v>0.202638</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209025</v>
+        <v>0.209041</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187871</v>
+        <v>0.191253</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201642</v>
+        <v>0.201624</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207977</v>
+        <v>0.20809</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180452</v>
+        <v>0.179994</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200638</v>
+        <v>0.200543</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207038</v>
+        <v>0.207033</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172648</v>
+        <v>0.17881</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199737</v>
+        <v>0.199727</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206121</v>
+        <v>0.206236</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163805</v>
+        <v>0.170661</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198783</v>
+        <v>0.198803</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224896</v>
+        <v>0.225071</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.244195</v>
+        <v>0.245872</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220857</v>
+        <v>0.220875</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222432</v>
+        <v>0.222523</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.239716</v>
+        <v>0.241853</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217053</v>
+        <v>0.217011</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220326</v>
+        <v>0.220463</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235628</v>
+        <v>0.237303</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213987</v>
+        <v>0.214046</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218534</v>
+        <v>0.218701</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230785</v>
+        <v>0.23188</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211694</v>
+        <v>0.211766</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216887</v>
+        <v>0.217036</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.224684</v>
+        <v>0.22694</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209892</v>
+        <v>0.209905</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215454</v>
+        <v>0.215571</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218938</v>
+        <v>0.221091</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208257</v>
+        <v>0.208344</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214023</v>
+        <v>0.214152</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2022</v>
+        <v>0.204438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193466</v>
+        <v>0.192916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199581</v>
+        <v>0.199697</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196679</v>
+        <v>0.196718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194386</v>
+        <v>0.194002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200168</v>
+        <v>0.199847</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194006</v>
+        <v>0.193852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193962</v>
+        <v>0.193779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200907</v>
+        <v>0.20124</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188785</v>
+        <v>0.189085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193136</v>
+        <v>0.193401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200668</v>
+        <v>0.200678</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181866</v>
+        <v>0.184161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193444</v>
+        <v>0.192707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200341</v>
+        <v>0.200133</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175847</v>
+        <v>0.176482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192831</v>
+        <v>0.192776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199533</v>
+        <v>0.199787</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167845</v>
+        <v>0.167664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192473</v>
+        <v>0.192517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200055</v>
+        <v>0.199829</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156884</v>
+        <v>0.15704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192417</v>
+        <v>0.192795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217348</v>
+        <v>0.199253</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241819</v>
+        <v>0.240939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211338</v>
+        <v>0.211149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216305</v>
+        <v>0.220185</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.237098</v>
+        <v>0.236612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2097</v>
+        <v>0.210345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215037</v>
+        <v>0.217769</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232577</v>
+        <v>0.232983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207979</v>
+        <v>0.209984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214527</v>
+        <v>0.21593</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228589</v>
+        <v>0.229417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206728</v>
+        <v>0.206822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212441</v>
+        <v>0.21372</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222911</v>
+        <v>0.222816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205859</v>
+        <v>0.206096</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212131</v>
+        <v>0.213389</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216261</v>
+        <v>0.216961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205399</v>
+        <v>0.205304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211156</v>
+        <v>0.212176</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210651</v>
+        <v>0.210186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204352</v>
+        <v>0.204253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209894</v>
+        <v>0.210684</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205612</v>
+        <v>0.206066</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203472</v>
+        <v>0.20314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209248</v>
+        <v>0.20982</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200497</v>
+        <v>0.200253</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202093</v>
+        <v>0.202455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20845</v>
+        <v>0.208923</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196027</v>
+        <v>0.195859</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201539</v>
+        <v>0.201157</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207564</v>
+        <v>0.20768</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189699</v>
+        <v>0.190177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200388</v>
+        <v>0.200406</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207035</v>
+        <v>0.206831</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184685</v>
+        <v>0.185281</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199669</v>
+        <v>0.199144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206089</v>
+        <v>0.206127</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177588</v>
+        <v>0.177526</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198526</v>
+        <v>0.198658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205318</v>
+        <v>0.205255</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169634</v>
+        <v>0.170188</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197526</v>
+        <v>0.197678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222523</v>
+        <v>0.20433</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24281</v>
+        <v>0.242823</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215466</v>
+        <v>0.215827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219833</v>
+        <v>0.221805</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23997</v>
+        <v>0.240341</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212647</v>
+        <v>0.214629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218637</v>
+        <v>0.220493</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2342</v>
+        <v>0.233876</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211039</v>
+        <v>0.211787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217088</v>
+        <v>0.218341</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22986</v>
+        <v>0.230095</v>
       </c>
       <c r="C27" t="n">
-        <v>0.20951</v>
+        <v>0.210305</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215429</v>
+        <v>0.216093</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22598</v>
+        <v>0.22529</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208313</v>
+        <v>0.208509</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214232</v>
+        <v>0.214645</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219958</v>
+        <v>0.21996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.20697</v>
+        <v>0.207172</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212956</v>
+        <v>0.213227</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21428</v>
+        <v>0.213845</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205556</v>
+        <v>0.205858</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211885</v>
+        <v>0.211788</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208383</v>
+        <v>0.208705</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204519</v>
+        <v>0.204544</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210534</v>
+        <v>0.210651</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201684</v>
+        <v>0.202196</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203199</v>
+        <v>0.203436</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209659</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196549</v>
+        <v>0.197324</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202174</v>
+        <v>0.20214</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20886</v>
+        <v>0.209022</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192183</v>
+        <v>0.19273</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201253</v>
+        <v>0.201313</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208028</v>
+        <v>0.208055</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186869</v>
+        <v>0.187217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199992</v>
+        <v>0.200112</v>
       </c>
       <c r="D35" t="n">
-        <v>0.20684</v>
+        <v>0.206971</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180684</v>
+        <v>0.180533</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199596</v>
+        <v>0.19998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206286</v>
+        <v>0.206478</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.171785</v>
+        <v>0.172515</v>
       </c>
       <c r="C37" t="n">
-        <v>0.19895</v>
+        <v>0.199116</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22263</v>
+        <v>0.205583</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245742</v>
+        <v>0.244162</v>
       </c>
       <c r="C38" t="n">
-        <v>0.214753</v>
+        <v>0.215055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22075</v>
+        <v>0.221187</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241631</v>
+        <v>0.241148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213014</v>
+        <v>0.213247</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219127</v>
+        <v>0.219195</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235908</v>
+        <v>0.235551</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211586</v>
+        <v>0.211822</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217796</v>
+        <v>0.217792</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231478</v>
+        <v>0.232116</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21024</v>
+        <v>0.210424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216474</v>
+        <v>0.21634</v>
       </c>
     </row>
     <row r="42">
@@ -3809,10 +3809,10 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226355</v>
+        <v>0.226509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208653</v>
+        <v>0.209003</v>
       </c>
       <c r="D42" t="n">
         <v>0.214912</v>
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220806</v>
+        <v>0.22108</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207158</v>
+        <v>0.207503</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213442</v>
+        <v>0.213391</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214603</v>
+        <v>0.21505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206163</v>
+        <v>0.206207</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212278</v>
+        <v>0.212234</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210087</v>
+        <v>0.210211</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205002</v>
+        <v>0.205089</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21123</v>
+        <v>0.211353</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205274</v>
+        <v>0.205737</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203827</v>
+        <v>0.203929</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210062</v>
+        <v>0.210105</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200297</v>
+        <v>0.199858</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202948</v>
+        <v>0.203032</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20931</v>
+        <v>0.209329</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194313</v>
+        <v>0.193646</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201993</v>
+        <v>0.202075</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208267</v>
+        <v>0.208297</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188581</v>
+        <v>0.188225</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200916</v>
+        <v>0.200997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207245</v>
+        <v>0.207239</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182781</v>
+        <v>0.182115</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199923</v>
+        <v>0.200083</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20626</v>
+        <v>0.206204</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175798</v>
+        <v>0.175499</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198958</v>
+        <v>0.199038</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223517</v>
+        <v>0.20547</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167043</v>
+        <v>0.166938</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19812</v>
+        <v>0.198227</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22152</v>
+        <v>0.205117</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243178</v>
+        <v>0.240715</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213896</v>
+        <v>0.213809</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220009</v>
+        <v>0.220045</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239741</v>
+        <v>0.237283</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212316</v>
+        <v>0.212226</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218383</v>
+        <v>0.218395</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234799</v>
+        <v>0.233257</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210785</v>
+        <v>0.210793</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216994</v>
+        <v>0.217041</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229113</v>
+        <v>0.227136</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209401</v>
+        <v>0.209359</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215556</v>
+        <v>0.215437</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22286</v>
+        <v>0.220712</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208126</v>
+        <v>0.208043</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214489</v>
+        <v>0.214307</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216532</v>
+        <v>0.215204</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206816</v>
+        <v>0.206712</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213109</v>
+        <v>0.213074</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211235</v>
+        <v>0.208756</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205707</v>
+        <v>0.205597</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211644</v>
+        <v>0.211565</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205939</v>
+        <v>0.203267</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204479</v>
+        <v>0.204483</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21053</v>
+        <v>0.210515</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201188</v>
+        <v>0.197526</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2034</v>
+        <v>0.203453</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209432</v>
+        <v>0.209417</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195945</v>
+        <v>0.192021</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202321</v>
+        <v>0.202318</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208453</v>
+        <v>0.208364</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190789</v>
+        <v>0.185819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201372</v>
+        <v>0.201386</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207846</v>
+        <v>0.207848</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184065</v>
+        <v>0.184294</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200423</v>
+        <v>0.200373</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206518</v>
+        <v>0.206457</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17764</v>
+        <v>0.17791</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199323</v>
+        <v>0.199261</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20573</v>
+        <v>0.205676</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169744</v>
+        <v>0.169344</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198376</v>
+        <v>0.198307</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222223</v>
+        <v>0.204829</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24226</v>
+        <v>0.241234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215791</v>
+        <v>0.215457</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220553</v>
+        <v>0.221426</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238168</v>
+        <v>0.238156</v>
       </c>
       <c r="C68" t="n">
-        <v>0.214137</v>
+        <v>0.213597</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219019</v>
+        <v>0.219505</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.236089</v>
+        <v>0.233848</v>
       </c>
       <c r="C69" t="n">
-        <v>0.212247</v>
+        <v>0.211989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217482</v>
+        <v>0.218053</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.231245</v>
+        <v>0.228075</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210643</v>
+        <v>0.210384</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216184</v>
+        <v>0.216511</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225413</v>
+        <v>0.22519</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208923</v>
+        <v>0.208916</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214689</v>
+        <v>0.214912</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219793</v>
+        <v>0.219159</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207578</v>
+        <v>0.207567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213504</v>
+        <v>0.213695</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213515</v>
+        <v>0.213365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206232</v>
+        <v>0.206199</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21228</v>
+        <v>0.212358</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208401</v>
+        <v>0.20854</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204928</v>
+        <v>0.205015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211163</v>
+        <v>0.211271</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202793</v>
+        <v>0.202908</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203844</v>
+        <v>0.203883</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210093</v>
+        <v>0.210134</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197781</v>
+        <v>0.197461</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202733</v>
+        <v>0.202773</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209095</v>
+        <v>0.209079</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192208</v>
+        <v>0.192236</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201706</v>
+        <v>0.201701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208131</v>
+        <v>0.208116</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186296</v>
+        <v>0.186318</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200654</v>
+        <v>0.200773</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207115</v>
+        <v>0.207142</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179922</v>
+        <v>0.180018</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199703</v>
+        <v>0.199779</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206297</v>
+        <v>0.206307</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172794</v>
+        <v>0.173016</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198691</v>
+        <v>0.198758</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224741</v>
+        <v>0.205417</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244663</v>
+        <v>0.24481</v>
       </c>
       <c r="C81" t="n">
-        <v>0.223418</v>
+        <v>0.224499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222413</v>
+        <v>0.227962</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240816</v>
+        <v>0.240333</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218553</v>
+        <v>0.219436</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22025</v>
+        <v>0.223748</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236524</v>
+        <v>0.236655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.213842</v>
+        <v>0.214744</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218514</v>
+        <v>0.220447</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231716</v>
+        <v>0.231468</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211597</v>
+        <v>0.211748</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217102</v>
+        <v>0.217602</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225486</v>
+        <v>0.225972</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209748</v>
+        <v>0.20983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215496</v>
+        <v>0.215834</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219856</v>
+        <v>0.219891</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208232</v>
+        <v>0.208411</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214086</v>
+        <v>0.214495</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212767</v>
+        <v>0.213772</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206797</v>
+        <v>0.206825</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212813</v>
+        <v>0.213048</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206908</v>
+        <v>0.206805</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205638</v>
+        <v>0.205724</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211532</v>
+        <v>0.211897</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201253</v>
+        <v>0.201379</v>
       </c>
       <c r="C89" t="n">
-        <v>0.20436</v>
+        <v>0.204383</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210424</v>
+        <v>0.210601</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19435</v>
+        <v>0.19545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203203</v>
+        <v>0.203538</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209352</v>
+        <v>0.209584</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18891</v>
+        <v>0.189376</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202104</v>
+        <v>0.202222</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208392</v>
+        <v>0.208536</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182501</v>
+        <v>0.18318</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201075</v>
+        <v>0.20113</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207421</v>
+        <v>0.207577</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.175821</v>
+        <v>0.176309</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2001</v>
+        <v>0.200121</v>
       </c>
       <c r="D93" t="n">
-        <v>0.20653</v>
+        <v>0.206781</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17068</v>
+        <v>0.168252</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199178</v>
+        <v>0.199173</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226448</v>
+        <v>0.205956</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244442</v>
+        <v>0.245893</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222249</v>
+        <v>0.222082</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223699</v>
+        <v>0.227394</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240624</v>
+        <v>0.242384</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21791</v>
+        <v>0.218002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221057</v>
+        <v>0.223754</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235979</v>
+        <v>0.238085</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215028</v>
+        <v>0.214932</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218967</v>
+        <v>0.220593</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230522</v>
+        <v>0.232549</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21243</v>
+        <v>0.212275</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217612</v>
+        <v>0.218429</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22583</v>
+        <v>0.227151</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210455</v>
+        <v>0.210293</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216608</v>
+        <v>0.21672</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220116</v>
+        <v>0.221597</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208969</v>
+        <v>0.208828</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215252</v>
+        <v>0.21503</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214718</v>
+        <v>0.216101</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207166</v>
+        <v>0.207268</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213712</v>
+        <v>0.21344</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208307</v>
+        <v>0.21077</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205789</v>
+        <v>0.205887</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212275</v>
+        <v>0.211945</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205538</v>
+        <v>0.205423</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204566</v>
+        <v>0.204686</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210985</v>
+        <v>0.210748</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200431</v>
+        <v>0.200042</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203325</v>
+        <v>0.203466</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20982</v>
+        <v>0.209631</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194569</v>
+        <v>0.194391</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202352</v>
+        <v>0.20247</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208956</v>
+        <v>0.20859</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189144</v>
+        <v>0.188763</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201337</v>
+        <v>0.201394</v>
       </c>
       <c r="D106" t="n">
-        <v>0.20826</v>
+        <v>0.207609</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182898</v>
+        <v>0.182773</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200251</v>
+        <v>0.200364</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207282</v>
+        <v>0.206638</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176211</v>
+        <v>0.175932</v>
       </c>
       <c r="C108" t="n">
-        <v>0.19935</v>
+        <v>0.199382</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226394</v>
+        <v>0.205875</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167749</v>
+        <v>0.167235</v>
       </c>
       <c r="C109" t="n">
-        <v>0.19861</v>
+        <v>0.198641</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223532</v>
+        <v>0.205292</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243629</v>
+        <v>0.243133</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218917</v>
+        <v>0.219022</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221384</v>
+        <v>0.224045</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238797</v>
+        <v>0.238431</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215168</v>
+        <v>0.215221</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219304</v>
+        <v>0.220864</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234316</v>
+        <v>0.233936</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212593</v>
+        <v>0.212604</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217586</v>
+        <v>0.218524</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228842</v>
+        <v>0.227854</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210543</v>
+        <v>0.210472</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216086</v>
+        <v>0.216411</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223312</v>
+        <v>0.222776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208807</v>
+        <v>0.208744</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214658</v>
+        <v>0.214877</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21754</v>
+        <v>0.216992</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207287</v>
+        <v>0.207248</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213358</v>
+        <v>0.213517</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211859</v>
+        <v>0.211822</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205944</v>
+        <v>0.205955</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212206</v>
+        <v>0.212177</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206213</v>
+        <v>0.205916</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204646</v>
+        <v>0.204638</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210986</v>
+        <v>0.211324</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200615</v>
+        <v>0.200981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203955</v>
+        <v>0.203903</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210282</v>
+        <v>0.210193</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1956</v>
+        <v>0.195331</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202828</v>
+        <v>0.202816</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209254</v>
+        <v>0.209173</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189915</v>
+        <v>0.189863</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201787</v>
+        <v>0.201777</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208305</v>
+        <v>0.208187</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18386</v>
+        <v>0.18374</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200733</v>
+        <v>0.200753</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207325</v>
+        <v>0.207281</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176287</v>
+        <v>0.176422</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199812</v>
+        <v>0.199855</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206422</v>
+        <v>0.206277</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168415</v>
+        <v>0.167798</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198881</v>
+        <v>0.199053</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224003</v>
+        <v>0.205539</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242897</v>
+        <v>0.243836</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219237</v>
+        <v>0.219214</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221687</v>
+        <v>0.224339</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23871</v>
+        <v>0.238408</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215547</v>
+        <v>0.215536</v>
       </c>
       <c r="D125" t="n">
-        <v>0.21973</v>
+        <v>0.221002</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234116</v>
+        <v>0.234337</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212939</v>
+        <v>0.212862</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217886</v>
+        <v>0.218653</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229257</v>
+        <v>0.228978</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210715</v>
+        <v>0.210759</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216511</v>
+        <v>0.216769</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223773</v>
+        <v>0.223333</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209086</v>
+        <v>0.209056</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215046</v>
+        <v>0.215083</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217578</v>
+        <v>0.217587</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207602</v>
+        <v>0.207554</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213701</v>
+        <v>0.213803</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21313</v>
+        <v>0.211812</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206203</v>
+        <v>0.206189</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21254</v>
+        <v>0.212486</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20477</v>
+        <v>0.20466</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204994</v>
+        <v>0.205018</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211247</v>
+        <v>0.211148</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198776</v>
+        <v>0.201735</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20379</v>
+        <v>0.203782</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210288</v>
+        <v>0.210178</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196942</v>
+        <v>0.197007</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202638</v>
+        <v>0.202617</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209041</v>
+        <v>0.20898</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191253</v>
+        <v>0.186397</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201624</v>
+        <v>0.201583</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20809</v>
+        <v>0.20792</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179994</v>
+        <v>0.179746</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200543</v>
+        <v>0.200622</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207033</v>
+        <v>0.206914</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17881</v>
+        <v>0.172486</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199727</v>
+        <v>0.199708</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206236</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170661</v>
+        <v>0.163785</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198803</v>
+        <v>0.19884</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225071</v>
+        <v>0.205732</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245872</v>
+        <v>0.245733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220875</v>
+        <v>0.220856</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222523</v>
+        <v>0.225496</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241853</v>
+        <v>0.241593</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217011</v>
+        <v>0.217005</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220463</v>
+        <v>0.222158</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237303</v>
+        <v>0.2369</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214046</v>
+        <v>0.214018</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218701</v>
+        <v>0.219638</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23188</v>
+        <v>0.232196</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211766</v>
+        <v>0.21174</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217036</v>
+        <v>0.217538</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22694</v>
+        <v>0.225942</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209905</v>
+        <v>0.209845</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215571</v>
+        <v>0.215791</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221091</v>
+        <v>0.220826</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208344</v>
+        <v>0.20827</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214152</v>
+        <v>0.214218</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.204438</v>
+        <v>0.20207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.192916</v>
+        <v>0.193592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199697</v>
+        <v>0.198916</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196718</v>
+        <v>0.196872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194002</v>
+        <v>0.194456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199847</v>
+        <v>0.200106</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193852</v>
+        <v>0.193245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193779</v>
+        <v>0.193634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20124</v>
+        <v>0.200933</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189085</v>
+        <v>0.19031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193401</v>
+        <v>0.193428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200678</v>
+        <v>0.200477</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.184161</v>
+        <v>0.182912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192707</v>
+        <v>0.19314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200133</v>
+        <v>0.199971</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176482</v>
+        <v>0.176613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192776</v>
+        <v>0.192911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199787</v>
+        <v>0.200034</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167664</v>
+        <v>0.168021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192517</v>
+        <v>0.192653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199829</v>
+        <v>0.19959</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15704</v>
+        <v>0.158163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192795</v>
+        <v>0.192501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199253</v>
+        <v>0.199501</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240939</v>
+        <v>0.240585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211149</v>
+        <v>0.211091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220185</v>
+        <v>0.220322</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.236612</v>
+        <v>0.235345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210345</v>
+        <v>0.209894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217769</v>
+        <v>0.217642</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232983</v>
+        <v>0.231812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.209984</v>
+        <v>0.209041</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21593</v>
+        <v>0.216142</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229417</v>
+        <v>0.227206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206822</v>
+        <v>0.206883</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21372</v>
+        <v>0.214484</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222816</v>
+        <v>0.221535</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206096</v>
+        <v>0.205851</v>
       </c>
       <c r="D14" t="n">
-        <v>0.213389</v>
+        <v>0.213252</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.216961</v>
+        <v>0.214348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205304</v>
+        <v>0.205046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212176</v>
+        <v>0.212238</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210186</v>
+        <v>0.212357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204253</v>
+        <v>0.204133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210684</v>
+        <v>0.210861</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206066</v>
+        <v>0.207422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20314</v>
+        <v>0.203184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20982</v>
+        <v>0.20993</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200253</v>
+        <v>0.201806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202455</v>
+        <v>0.202157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208923</v>
+        <v>0.208846</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195859</v>
+        <v>0.197034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201157</v>
+        <v>0.201249</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20768</v>
+        <v>0.207723</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190177</v>
+        <v>0.191175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200406</v>
+        <v>0.200641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206831</v>
+        <v>0.207062</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185281</v>
+        <v>0.185408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199144</v>
+        <v>0.199189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206127</v>
+        <v>0.206135</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177526</v>
+        <v>0.177891</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198658</v>
+        <v>0.198625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205255</v>
+        <v>0.205256</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170188</v>
+        <v>0.169993</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197678</v>
+        <v>0.197902</v>
       </c>
       <c r="D23" t="n">
-        <v>0.20433</v>
+        <v>0.204293</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242823</v>
+        <v>0.242972</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215827</v>
+        <v>0.216488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221805</v>
+        <v>0.220287</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240341</v>
+        <v>0.240195</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214629</v>
+        <v>0.213435</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220493</v>
+        <v>0.22089</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233876</v>
+        <v>0.233593</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211787</v>
+        <v>0.211683</v>
       </c>
       <c r="D26" t="n">
-        <v>0.218341</v>
+        <v>0.217814</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230095</v>
+        <v>0.22811</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210305</v>
+        <v>0.210283</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216093</v>
+        <v>0.216173</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22529</v>
+        <v>0.22582</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208509</v>
+        <v>0.20863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214645</v>
+        <v>0.214854</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21996</v>
+        <v>0.220203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207172</v>
+        <v>0.207142</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213227</v>
+        <v>0.213286</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213845</v>
+        <v>0.214296</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205858</v>
+        <v>0.20571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211788</v>
+        <v>0.211758</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208705</v>
+        <v>0.20891</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204544</v>
+        <v>0.204581</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210651</v>
+        <v>0.210639</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202196</v>
+        <v>0.202778</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203436</v>
+        <v>0.203251</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2097</v>
+        <v>0.209706</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197324</v>
+        <v>0.197834</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20214</v>
+        <v>0.202227</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209022</v>
+        <v>0.208939</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19273</v>
+        <v>0.193274</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201313</v>
+        <v>0.201343</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208055</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187217</v>
+        <v>0.18716</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200112</v>
+        <v>0.20026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206971</v>
+        <v>0.206945</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180533</v>
+        <v>0.180925</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19998</v>
+        <v>0.200055</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206478</v>
+        <v>0.206496</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172515</v>
+        <v>0.172468</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199116</v>
+        <v>0.198718</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205583</v>
+        <v>0.205407</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244162</v>
+        <v>0.245653</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215055</v>
+        <v>0.215374</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221187</v>
+        <v>0.220906</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241148</v>
+        <v>0.240912</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213247</v>
+        <v>0.213394</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219195</v>
+        <v>0.219247</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235551</v>
+        <v>0.235974</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211822</v>
+        <v>0.211947</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217792</v>
+        <v>0.217838</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232116</v>
+        <v>0.231248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210424</v>
+        <v>0.210454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21634</v>
+        <v>0.216477</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226509</v>
+        <v>0.226924</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209003</v>
+        <v>0.208886</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214912</v>
+        <v>0.215009</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22108</v>
+        <v>0.221699</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207503</v>
+        <v>0.207404</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213391</v>
+        <v>0.213564</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21505</v>
+        <v>0.215242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206207</v>
+        <v>0.206234</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212234</v>
+        <v>0.212368</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210211</v>
+        <v>0.209737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205089</v>
+        <v>0.205213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211353</v>
+        <v>0.21132</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205737</v>
+        <v>0.205756</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203929</v>
+        <v>0.203987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210105</v>
+        <v>0.210062</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199858</v>
+        <v>0.199743</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203032</v>
+        <v>0.203027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209329</v>
+        <v>0.20933</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193646</v>
+        <v>0.194312</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202075</v>
+        <v>0.202014</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208297</v>
+        <v>0.208298</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188225</v>
+        <v>0.18823</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200997</v>
+        <v>0.200843</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207239</v>
+        <v>0.207226</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182115</v>
+        <v>0.182362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.200083</v>
+        <v>0.199909</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206204</v>
+        <v>0.206265</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175499</v>
+        <v>0.175502</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199038</v>
+        <v>0.198952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.20547</v>
+        <v>0.205429</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166938</v>
+        <v>0.16726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198227</v>
+        <v>0.198296</v>
       </c>
       <c r="D52" t="n">
-        <v>0.205117</v>
+        <v>0.205009</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240715</v>
+        <v>0.240971</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213809</v>
+        <v>0.213932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220045</v>
+        <v>0.220174</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237283</v>
+        <v>0.237474</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212226</v>
+        <v>0.212169</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218395</v>
+        <v>0.218563</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233257</v>
+        <v>0.233336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210793</v>
+        <v>0.21087</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217041</v>
+        <v>0.21717</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227136</v>
+        <v>0.227158</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209359</v>
+        <v>0.209455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215437</v>
+        <v>0.215715</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220712</v>
+        <v>0.221443</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208043</v>
+        <v>0.208129</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214307</v>
+        <v>0.214455</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215204</v>
+        <v>0.215334</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206712</v>
+        <v>0.206837</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213074</v>
+        <v>0.213199</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208756</v>
+        <v>0.209127</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205597</v>
+        <v>0.205705</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211565</v>
+        <v>0.211725</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203267</v>
+        <v>0.203797</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204483</v>
+        <v>0.204521</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210515</v>
+        <v>0.210529</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197526</v>
+        <v>0.197816</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203453</v>
+        <v>0.203447</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209417</v>
+        <v>0.209455</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192021</v>
+        <v>0.192456</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202318</v>
+        <v>0.202373</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208364</v>
+        <v>0.208471</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185819</v>
+        <v>0.186263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201386</v>
+        <v>0.201441</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207848</v>
+        <v>0.207949</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184294</v>
+        <v>0.184348</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200373</v>
+        <v>0.200479</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206457</v>
+        <v>0.206615</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17791</v>
+        <v>0.177915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199261</v>
+        <v>0.199354</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205676</v>
+        <v>0.20577</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169344</v>
+        <v>0.169675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198307</v>
+        <v>0.19842</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204829</v>
+        <v>0.204954</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241234</v>
+        <v>0.24223</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215457</v>
+        <v>0.218805</v>
       </c>
       <c r="D67" t="n">
-        <v>0.221426</v>
+        <v>0.226031</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238156</v>
+        <v>0.238088</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213597</v>
+        <v>0.216186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219505</v>
+        <v>0.222097</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233848</v>
+        <v>0.233775</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211989</v>
+        <v>0.213419</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218053</v>
+        <v>0.219414</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228075</v>
+        <v>0.228056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210384</v>
+        <v>0.211385</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216511</v>
+        <v>0.217494</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22519</v>
+        <v>0.225511</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208916</v>
+        <v>0.209553</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214912</v>
+        <v>0.215427</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219159</v>
+        <v>0.219014</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207567</v>
+        <v>0.20778</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213695</v>
+        <v>0.213821</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213365</v>
+        <v>0.213713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206199</v>
+        <v>0.206341</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212358</v>
+        <v>0.212421</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20854</v>
+        <v>0.208346</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205015</v>
+        <v>0.204981</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211271</v>
+        <v>0.211257</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202908</v>
+        <v>0.203022</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203883</v>
+        <v>0.20393</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210134</v>
+        <v>0.210139</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197461</v>
+        <v>0.197686</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202773</v>
+        <v>0.202867</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209079</v>
+        <v>0.209125</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192236</v>
+        <v>0.192238</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201701</v>
+        <v>0.201773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208116</v>
+        <v>0.208134</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186318</v>
+        <v>0.181261</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200773</v>
+        <v>0.200766</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207142</v>
+        <v>0.207179</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180018</v>
+        <v>0.180042</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199779</v>
+        <v>0.199781</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206307</v>
+        <v>0.206317</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173016</v>
+        <v>0.173057</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198758</v>
+        <v>0.198789</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205417</v>
+        <v>0.20543</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24481</v>
+        <v>0.244443</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224499</v>
+        <v>0.225431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227962</v>
+        <v>0.228139</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240333</v>
+        <v>0.240547</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219436</v>
+        <v>0.219028</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223748</v>
+        <v>0.224785</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236655</v>
+        <v>0.235895</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214744</v>
+        <v>0.214479</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220447</v>
+        <v>0.219603</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231468</v>
+        <v>0.23193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211748</v>
+        <v>0.211525</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217602</v>
+        <v>0.217491</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225972</v>
+        <v>0.225025</v>
       </c>
       <c r="C85" t="n">
-        <v>0.20983</v>
+        <v>0.209724</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215834</v>
+        <v>0.21577</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219891</v>
+        <v>0.220255</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208411</v>
+        <v>0.208235</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214495</v>
+        <v>0.214312</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213772</v>
+        <v>0.213165</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206825</v>
+        <v>0.206776</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213048</v>
+        <v>0.213043</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206805</v>
+        <v>0.206727</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205724</v>
+        <v>0.205588</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211897</v>
+        <v>0.211756</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201379</v>
+        <v>0.20077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204383</v>
+        <v>0.204264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210601</v>
+        <v>0.210573</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19545</v>
+        <v>0.194811</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203538</v>
+        <v>0.203291</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209584</v>
+        <v>0.209573</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189376</v>
+        <v>0.189336</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202222</v>
+        <v>0.20202</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208536</v>
+        <v>0.208494</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18318</v>
+        <v>0.183008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20113</v>
+        <v>0.201035</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207577</v>
+        <v>0.207552</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176309</v>
+        <v>0.176025</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200121</v>
+        <v>0.200123</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206781</v>
+        <v>0.20666</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168252</v>
+        <v>0.168298</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199173</v>
+        <v>0.199109</v>
       </c>
       <c r="D94" t="n">
-        <v>0.205956</v>
+        <v>0.205883</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245893</v>
+        <v>0.245815</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222082</v>
+        <v>0.221786</v>
       </c>
       <c r="D95" t="n">
-        <v>0.227394</v>
+        <v>0.227175</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242384</v>
+        <v>0.241791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218002</v>
+        <v>0.217944</v>
       </c>
       <c r="D96" t="n">
-        <v>0.223754</v>
+        <v>0.223441</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.238085</v>
+        <v>0.237449</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214932</v>
+        <v>0.214979</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220593</v>
+        <v>0.220567</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232549</v>
+        <v>0.232499</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212275</v>
+        <v>0.212412</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218429</v>
+        <v>0.218401</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.227151</v>
+        <v>0.226943</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210293</v>
+        <v>0.210501</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21672</v>
+        <v>0.216453</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.221597</v>
+        <v>0.221758</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208828</v>
+        <v>0.209149</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21503</v>
+        <v>0.215135</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.216101</v>
+        <v>0.216759</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207268</v>
+        <v>0.207301</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21344</v>
+        <v>0.213215</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21077</v>
+        <v>0.210863</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205887</v>
+        <v>0.205869</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211945</v>
+        <v>0.211844</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205423</v>
+        <v>0.205388</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204686</v>
+        <v>0.204618</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210748</v>
+        <v>0.210619</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200042</v>
+        <v>0.199751</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203466</v>
+        <v>0.203395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209631</v>
+        <v>0.209494</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194391</v>
+        <v>0.194464</v>
       </c>
       <c r="C105" t="n">
-        <v>0.20247</v>
+        <v>0.20242</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20859</v>
+        <v>0.20845</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188763</v>
+        <v>0.188397</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201394</v>
+        <v>0.201346</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207609</v>
+        <v>0.207567</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182773</v>
+        <v>0.182298</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200364</v>
+        <v>0.200255</v>
       </c>
       <c r="D107" t="n">
-        <v>0.206638</v>
+        <v>0.206569</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175932</v>
+        <v>0.174869</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199382</v>
+        <v>0.199328</v>
       </c>
       <c r="D108" t="n">
-        <v>0.205875</v>
+        <v>0.205806</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167235</v>
+        <v>0.16628</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198641</v>
+        <v>0.198591</v>
       </c>
       <c r="D109" t="n">
-        <v>0.205292</v>
+        <v>0.205242</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243133</v>
+        <v>0.243144</v>
       </c>
       <c r="C110" t="n">
-        <v>0.219022</v>
+        <v>0.218857</v>
       </c>
       <c r="D110" t="n">
-        <v>0.224045</v>
+        <v>0.223907</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238431</v>
+        <v>0.238712</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215221</v>
+        <v>0.215241</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220864</v>
+        <v>0.220839</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233936</v>
+        <v>0.233882</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212604</v>
+        <v>0.212619</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218524</v>
+        <v>0.218516</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227854</v>
+        <v>0.228537</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210472</v>
+        <v>0.210572</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216411</v>
+        <v>0.21663</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222776</v>
+        <v>0.222719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208744</v>
+        <v>0.208852</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214877</v>
+        <v>0.215041</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216992</v>
+        <v>0.217241</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207248</v>
+        <v>0.207353</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213517</v>
+        <v>0.213647</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211822</v>
+        <v>0.211695</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205955</v>
+        <v>0.206038</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212177</v>
+        <v>0.212315</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205916</v>
+        <v>0.206231</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204638</v>
+        <v>0.20474</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211324</v>
+        <v>0.211448</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200981</v>
+        <v>0.200787</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203903</v>
+        <v>0.204007</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210193</v>
+        <v>0.210281</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195331</v>
+        <v>0.195365</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202816</v>
+        <v>0.20289</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209173</v>
+        <v>0.209301</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189863</v>
+        <v>0.189838</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201777</v>
+        <v>0.201826</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208187</v>
+        <v>0.208304</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18374</v>
+        <v>0.183708</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200753</v>
+        <v>0.200804</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207281</v>
+        <v>0.207376</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176422</v>
+        <v>0.17636</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199855</v>
+        <v>0.199831</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206277</v>
+        <v>0.206382</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167798</v>
+        <v>0.168058</v>
       </c>
       <c r="C123" t="n">
-        <v>0.199053</v>
+        <v>0.198976</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205539</v>
+        <v>0.205607</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243836</v>
+        <v>0.243232</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219214</v>
+        <v>0.219361</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224339</v>
+        <v>0.224421</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238408</v>
+        <v>0.238896</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215536</v>
+        <v>0.215575</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221002</v>
+        <v>0.221221</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234337</v>
+        <v>0.234519</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212862</v>
+        <v>0.212938</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218653</v>
+        <v>0.218857</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228978</v>
+        <v>0.22944</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210759</v>
+        <v>0.210798</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216769</v>
+        <v>0.216883</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223333</v>
+        <v>0.223637</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209056</v>
+        <v>0.2091</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215083</v>
+        <v>0.215249</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217587</v>
+        <v>0.21953</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207554</v>
+        <v>0.207588</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213803</v>
+        <v>0.213852</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211812</v>
+        <v>0.211158</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206189</v>
+        <v>0.206252</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212486</v>
+        <v>0.212581</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20466</v>
+        <v>0.205035</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205018</v>
+        <v>0.20504</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211148</v>
+        <v>0.211266</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201735</v>
+        <v>0.198813</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203782</v>
+        <v>0.20379</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210178</v>
+        <v>0.210239</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197007</v>
+        <v>0.196181</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202617</v>
+        <v>0.202689</v>
       </c>
       <c r="D133" t="n">
-        <v>0.20898</v>
+        <v>0.209087</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186397</v>
+        <v>0.186444</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201583</v>
+        <v>0.201638</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20792</v>
+        <v>0.208077</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179746</v>
+        <v>0.17989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200622</v>
+        <v>0.200642</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206914</v>
+        <v>0.20714</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172486</v>
+        <v>0.172511</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199708</v>
+        <v>0.19973</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20614</v>
+        <v>0.20621</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163785</v>
+        <v>0.163862</v>
       </c>
       <c r="C137" t="n">
-        <v>0.19884</v>
+        <v>0.198773</v>
       </c>
       <c r="D137" t="n">
-        <v>0.205732</v>
+        <v>0.205576</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245733</v>
+        <v>0.24529</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220856</v>
+        <v>0.220848</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225496</v>
+        <v>0.225609</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241593</v>
+        <v>0.241682</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217005</v>
+        <v>0.21714</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222158</v>
+        <v>0.222241</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2369</v>
+        <v>0.237193</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214018</v>
+        <v>0.214081</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219638</v>
+        <v>0.219698</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232196</v>
+        <v>0.231867</v>
       </c>
       <c r="C141" t="n">
-        <v>0.21174</v>
+        <v>0.211785</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217538</v>
+        <v>0.21767</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.225942</v>
+        <v>0.226478</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209845</v>
+        <v>0.21</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215791</v>
+        <v>0.215977</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220826</v>
+        <v>0.220891</v>
       </c>
       <c r="C143" t="n">
-        <v>0.20827</v>
+        <v>0.208352</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214218</v>
+        <v>0.214351</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20207</v>
+        <v>0.202132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193592</v>
+        <v>0.193435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198916</v>
+        <v>0.199939</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196872</v>
+        <v>0.196173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194456</v>
+        <v>0.193694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200106</v>
+        <v>0.200589</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193245</v>
+        <v>0.193232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193634</v>
+        <v>0.194228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200933</v>
+        <v>0.201339</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.19031</v>
+        <v>0.188522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193428</v>
+        <v>0.19366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200477</v>
+        <v>0.200862</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182912</v>
+        <v>0.182162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19314</v>
+        <v>0.193378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199971</v>
+        <v>0.200183</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176613</v>
+        <v>0.176021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192911</v>
+        <v>0.192954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200034</v>
+        <v>0.200039</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168021</v>
+        <v>0.166537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192653</v>
+        <v>0.192587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19959</v>
+        <v>0.199722</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158163</v>
+        <v>0.156853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192501</v>
+        <v>0.193027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199501</v>
+        <v>0.199183</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240585</v>
+        <v>0.238294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211091</v>
+        <v>0.211401</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220322</v>
+        <v>0.216314</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235345</v>
+        <v>0.234133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209894</v>
+        <v>0.21019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.217642</v>
+        <v>0.215105</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231812</v>
+        <v>0.230858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.209041</v>
+        <v>0.208158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216142</v>
+        <v>0.214349</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227206</v>
+        <v>0.228325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206883</v>
+        <v>0.206826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214484</v>
+        <v>0.213012</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221535</v>
+        <v>0.222685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205851</v>
+        <v>0.206065</v>
       </c>
       <c r="D14" t="n">
-        <v>0.213252</v>
+        <v>0.212404</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214348</v>
+        <v>0.215328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205046</v>
+        <v>0.205201</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212238</v>
+        <v>0.21115</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.212357</v>
+        <v>0.211479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204133</v>
+        <v>0.204241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210861</v>
+        <v>0.210058</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207422</v>
+        <v>0.207019</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203184</v>
+        <v>0.203453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20993</v>
+        <v>0.209281</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201806</v>
+        <v>0.201052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202157</v>
+        <v>0.202342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208846</v>
+        <v>0.208546</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.197034</v>
+        <v>0.196515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201249</v>
+        <v>0.201499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207723</v>
+        <v>0.207472</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.191175</v>
+        <v>0.190261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200641</v>
+        <v>0.200544</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207062</v>
+        <v>0.207103</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185408</v>
+        <v>0.184754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199189</v>
+        <v>0.199517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206135</v>
+        <v>0.206099</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177891</v>
+        <v>0.177579</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198625</v>
+        <v>0.198794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205256</v>
+        <v>0.205366</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169993</v>
+        <v>0.169743</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197902</v>
+        <v>0.197819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204293</v>
+        <v>0.204298</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242972</v>
+        <v>0.242539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216488</v>
+        <v>0.214456</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220287</v>
+        <v>0.22017</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240195</v>
+        <v>0.240268</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213435</v>
+        <v>0.212608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22089</v>
+        <v>0.218772</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233593</v>
+        <v>0.233887</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211683</v>
+        <v>0.211138</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217814</v>
+        <v>0.217028</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22811</v>
+        <v>0.229147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210283</v>
+        <v>0.209598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216173</v>
+        <v>0.215532</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22582</v>
+        <v>0.225527</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20863</v>
+        <v>0.208403</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214854</v>
+        <v>0.214331</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220203</v>
+        <v>0.219463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207142</v>
+        <v>0.206983</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213286</v>
+        <v>0.213172</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214296</v>
+        <v>0.213401</v>
       </c>
       <c r="C30" t="n">
-        <v>0.20571</v>
+        <v>0.205661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211758</v>
+        <v>0.211685</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.20891</v>
+        <v>0.208221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204581</v>
+        <v>0.204466</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210639</v>
+        <v>0.210619</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202778</v>
+        <v>0.202141</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203251</v>
+        <v>0.203285</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209706</v>
+        <v>0.209702</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197834</v>
+        <v>0.197267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202227</v>
+        <v>0.202234</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208939</v>
+        <v>0.20882</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193274</v>
+        <v>0.192646</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201343</v>
+        <v>0.201208</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20807</v>
+        <v>0.20804</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18716</v>
+        <v>0.187072</v>
       </c>
       <c r="C35" t="n">
-        <v>0.20026</v>
+        <v>0.200051</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206945</v>
+        <v>0.206981</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180925</v>
+        <v>0.180538</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200055</v>
+        <v>0.19973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206496</v>
+        <v>0.206319</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172468</v>
+        <v>0.172382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198718</v>
+        <v>0.198753</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205407</v>
+        <v>0.205507</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245653</v>
+        <v>0.246202</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215374</v>
+        <v>0.214854</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220906</v>
+        <v>0.220903</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240912</v>
+        <v>0.240941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213394</v>
+        <v>0.213136</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219247</v>
+        <v>0.219182</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235974</v>
+        <v>0.235075</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211947</v>
+        <v>0.211692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217838</v>
+        <v>0.217804</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231248</v>
+        <v>0.231204</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210454</v>
+        <v>0.210388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216477</v>
+        <v>0.216517</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226924</v>
+        <v>0.225882</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208886</v>
+        <v>0.208849</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215009</v>
+        <v>0.215109</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221699</v>
+        <v>0.220956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207404</v>
+        <v>0.207272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213564</v>
+        <v>0.213465</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215242</v>
+        <v>0.215656</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206234</v>
+        <v>0.206167</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212368</v>
+        <v>0.21229</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209737</v>
+        <v>0.210813</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205213</v>
+        <v>0.205146</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21132</v>
+        <v>0.211285</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205756</v>
+        <v>0.205917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203987</v>
+        <v>0.203868</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210062</v>
+        <v>0.210129</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199743</v>
+        <v>0.200232</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203027</v>
+        <v>0.202983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20933</v>
+        <v>0.209229</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194312</v>
+        <v>0.194011</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202014</v>
+        <v>0.201907</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208298</v>
+        <v>0.208411</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18823</v>
+        <v>0.188803</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200843</v>
+        <v>0.200944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207226</v>
+        <v>0.207254</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182362</v>
+        <v>0.182541</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199909</v>
+        <v>0.199921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206265</v>
+        <v>0.206274</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175502</v>
+        <v>0.17621</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198952</v>
+        <v>0.198951</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205429</v>
+        <v>0.205468</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16726</v>
+        <v>0.166742</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198296</v>
+        <v>0.198174</v>
       </c>
       <c r="D52" t="n">
-        <v>0.205009</v>
+        <v>0.205006</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240971</v>
+        <v>0.239892</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213932</v>
+        <v>0.214275</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220174</v>
+        <v>0.220046</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237474</v>
+        <v>0.237266</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212169</v>
+        <v>0.212211</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218563</v>
+        <v>0.218471</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.233336</v>
+        <v>0.232951</v>
       </c>
       <c r="C55" t="n">
-        <v>0.21087</v>
+        <v>0.210722</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21717</v>
+        <v>0.216999</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227158</v>
+        <v>0.227697</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209455</v>
+        <v>0.209327</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215715</v>
+        <v>0.215529</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221443</v>
+        <v>0.221379</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208129</v>
+        <v>0.208033</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214455</v>
+        <v>0.214424</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215334</v>
+        <v>0.215616</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206837</v>
+        <v>0.206676</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213199</v>
+        <v>0.213063</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209127</v>
+        <v>0.208339</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205705</v>
+        <v>0.205514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211725</v>
+        <v>0.211622</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203797</v>
+        <v>0.203232</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204521</v>
+        <v>0.204389</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210529</v>
+        <v>0.210428</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197816</v>
+        <v>0.197559</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203447</v>
+        <v>0.203382</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209455</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192456</v>
+        <v>0.192124</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202373</v>
+        <v>0.202281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208471</v>
+        <v>0.20835</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186263</v>
+        <v>0.185508</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201441</v>
+        <v>0.201344</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207949</v>
+        <v>0.207812</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184348</v>
+        <v>0.184237</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200479</v>
+        <v>0.200391</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206615</v>
+        <v>0.206532</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177915</v>
+        <v>0.177721</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199354</v>
+        <v>0.199199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20577</v>
+        <v>0.205699</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169675</v>
+        <v>0.169949</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19842</v>
+        <v>0.198252</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204954</v>
+        <v>0.204897</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.24223</v>
+        <v>0.241734</v>
       </c>
       <c r="C67" t="n">
-        <v>0.218805</v>
+        <v>0.223623</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226031</v>
+        <v>0.229296</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238088</v>
+        <v>0.237806</v>
       </c>
       <c r="C68" t="n">
-        <v>0.216186</v>
+        <v>0.219058</v>
       </c>
       <c r="D68" t="n">
-        <v>0.222097</v>
+        <v>0.225764</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233775</v>
+        <v>0.233079</v>
       </c>
       <c r="C69" t="n">
-        <v>0.213419</v>
+        <v>0.215819</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219414</v>
+        <v>0.222074</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228056</v>
+        <v>0.227901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211385</v>
+        <v>0.21291</v>
       </c>
       <c r="D70" t="n">
-        <v>0.217494</v>
+        <v>0.218885</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.225511</v>
+        <v>0.224233</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209553</v>
+        <v>0.21034</v>
       </c>
       <c r="D71" t="n">
-        <v>0.215427</v>
+        <v>0.216186</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219014</v>
+        <v>0.219522</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20778</v>
+        <v>0.208067</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213821</v>
+        <v>0.214142</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213713</v>
+        <v>0.213646</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206341</v>
+        <v>0.206397</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212421</v>
+        <v>0.212467</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208346</v>
+        <v>0.208805</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204981</v>
+        <v>0.205074</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211257</v>
+        <v>0.211274</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203022</v>
+        <v>0.202655</v>
       </c>
       <c r="C75" t="n">
-        <v>0.20393</v>
+        <v>0.203976</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210139</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197686</v>
+        <v>0.197602</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202867</v>
+        <v>0.202817</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209125</v>
+        <v>0.209161</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192238</v>
+        <v>0.192242</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201773</v>
+        <v>0.201726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208134</v>
+        <v>0.208151</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181261</v>
+        <v>0.186654</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200766</v>
+        <v>0.200761</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207179</v>
+        <v>0.207171</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180042</v>
+        <v>0.180155</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199781</v>
+        <v>0.199766</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206317</v>
+        <v>0.206302</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173057</v>
+        <v>0.172916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198789</v>
+        <v>0.198682</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20543</v>
+        <v>0.205438</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244443</v>
+        <v>0.244752</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225431</v>
+        <v>0.225594</v>
       </c>
       <c r="D81" t="n">
-        <v>0.228139</v>
+        <v>0.228294</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240547</v>
+        <v>0.239983</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219028</v>
+        <v>0.219881</v>
       </c>
       <c r="D82" t="n">
-        <v>0.224785</v>
+        <v>0.224812</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235895</v>
+        <v>0.23627</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214479</v>
+        <v>0.214266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219603</v>
+        <v>0.220296</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23193</v>
+        <v>0.231175</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211525</v>
+        <v>0.211787</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217491</v>
+        <v>0.217709</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225025</v>
+        <v>0.225911</v>
       </c>
       <c r="C85" t="n">
         <v>0.209724</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21577</v>
+        <v>0.215935</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220255</v>
+        <v>0.220875</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208235</v>
+        <v>0.208295</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214312</v>
+        <v>0.214295</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213165</v>
+        <v>0.213896</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206776</v>
+        <v>0.206892</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213043</v>
+        <v>0.212975</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206727</v>
+        <v>0.20712</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205588</v>
+        <v>0.205684</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211756</v>
+        <v>0.211791</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20077</v>
+        <v>0.201037</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204264</v>
+        <v>0.204344</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210573</v>
+        <v>0.210621</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194811</v>
+        <v>0.195374</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203291</v>
+        <v>0.203155</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209573</v>
+        <v>0.209554</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189336</v>
+        <v>0.189365</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20202</v>
+        <v>0.202131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208494</v>
+        <v>0.208462</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183008</v>
+        <v>0.183238</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201035</v>
+        <v>0.201094</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207552</v>
+        <v>0.207525</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176025</v>
+        <v>0.176169</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200123</v>
+        <v>0.200062</v>
       </c>
       <c r="D93" t="n">
-        <v>0.20666</v>
+        <v>0.206641</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168298</v>
+        <v>0.168337</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199109</v>
+        <v>0.199307</v>
       </c>
       <c r="D94" t="n">
-        <v>0.205883</v>
+        <v>0.20587</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245815</v>
+        <v>0.245606</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221786</v>
+        <v>0.221919</v>
       </c>
       <c r="D95" t="n">
-        <v>0.227175</v>
+        <v>0.227101</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241791</v>
+        <v>0.241967</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217944</v>
+        <v>0.217932</v>
       </c>
       <c r="D96" t="n">
-        <v>0.223441</v>
+        <v>0.223361</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237449</v>
+        <v>0.237562</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214979</v>
+        <v>0.214902</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220567</v>
+        <v>0.220519</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232499</v>
+        <v>0.232408</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212412</v>
+        <v>0.212355</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218401</v>
+        <v>0.218222</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226943</v>
+        <v>0.227126</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210501</v>
+        <v>0.210185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216453</v>
+        <v>0.216372</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.221758</v>
+        <v>0.221422</v>
       </c>
       <c r="C100" t="n">
-        <v>0.209149</v>
+        <v>0.20874</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215135</v>
+        <v>0.214856</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.216759</v>
+        <v>0.215304</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207301</v>
+        <v>0.20712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213215</v>
+        <v>0.213322</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210863</v>
+        <v>0.210005</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205869</v>
+        <v>0.205762</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211844</v>
+        <v>0.211861</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205388</v>
+        <v>0.204522</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204618</v>
+        <v>0.204568</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210619</v>
+        <v>0.210553</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199751</v>
+        <v>0.199194</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203395</v>
+        <v>0.203302</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209494</v>
+        <v>0.209453</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194464</v>
+        <v>0.193917</v>
       </c>
       <c r="C105" t="n">
-        <v>0.20242</v>
+        <v>0.202348</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20845</v>
+        <v>0.208435</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188397</v>
+        <v>0.188416</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201346</v>
+        <v>0.201302</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207567</v>
+        <v>0.207482</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182298</v>
+        <v>0.182331</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200255</v>
+        <v>0.200205</v>
       </c>
       <c r="D107" t="n">
-        <v>0.206569</v>
+        <v>0.206587</v>
       </c>
     </row>
     <row r="108">
@@ -4733,10 +4733,10 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174869</v>
+        <v>0.175279</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199328</v>
+        <v>0.199269</v>
       </c>
       <c r="D108" t="n">
         <v>0.205806</v>
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16628</v>
+        <v>0.166528</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198591</v>
+        <v>0.198542</v>
       </c>
       <c r="D109" t="n">
-        <v>0.205242</v>
+        <v>0.205245</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243144</v>
+        <v>0.24338</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218857</v>
+        <v>0.218894</v>
       </c>
       <c r="D110" t="n">
-        <v>0.223907</v>
+        <v>0.223764</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238712</v>
+        <v>0.238723</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215241</v>
+        <v>0.215239</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220839</v>
+        <v>0.220622</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233882</v>
+        <v>0.23378</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212619</v>
+        <v>0.21267</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218516</v>
+        <v>0.218468</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228537</v>
+        <v>0.22871</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210572</v>
+        <v>0.210641</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21663</v>
+        <v>0.216724</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222719</v>
+        <v>0.222988</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208852</v>
+        <v>0.2089</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215041</v>
+        <v>0.215063</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217241</v>
+        <v>0.21785</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207353</v>
+        <v>0.207436</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213647</v>
+        <v>0.213671</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211695</v>
+        <v>0.211994</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206038</v>
+        <v>0.206076</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212315</v>
+        <v>0.212307</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206231</v>
+        <v>0.206</v>
       </c>
       <c r="C117" t="n">
-        <v>0.20474</v>
+        <v>0.204798</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211448</v>
+        <v>0.211504</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200787</v>
+        <v>0.200326</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204007</v>
+        <v>0.204056</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210281</v>
+        <v>0.21036</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195365</v>
+        <v>0.195071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20289</v>
+        <v>0.20295</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209301</v>
+        <v>0.209327</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189838</v>
+        <v>0.189623</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201826</v>
+        <v>0.201917</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208304</v>
+        <v>0.208312</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183708</v>
+        <v>0.183263</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200804</v>
+        <v>0.200913</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207376</v>
+        <v>0.207298</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17636</v>
+        <v>0.17575</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199831</v>
+        <v>0.199961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206382</v>
+        <v>0.20642</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168058</v>
+        <v>0.167883</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198976</v>
+        <v>0.19918</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205607</v>
+        <v>0.205727</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243232</v>
+        <v>0.242234</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219361</v>
+        <v>0.219462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224421</v>
+        <v>0.224338</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238896</v>
+        <v>0.238446</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215575</v>
+        <v>0.215713</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221221</v>
+        <v>0.221076</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234519</v>
+        <v>0.234098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212938</v>
+        <v>0.213012</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218857</v>
+        <v>0.218804</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.22944</v>
+        <v>0.229353</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210798</v>
+        <v>0.210884</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216883</v>
+        <v>0.216794</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223637</v>
+        <v>0.22337</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2091</v>
+        <v>0.209184</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215249</v>
+        <v>0.21524</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21953</v>
+        <v>0.218821</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207588</v>
+        <v>0.207658</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213852</v>
+        <v>0.21381</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211158</v>
+        <v>0.21131</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206252</v>
+        <v>0.206284</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212581</v>
+        <v>0.212547</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205035</v>
+        <v>0.2077</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20504</v>
+        <v>0.205075</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211266</v>
+        <v>0.211245</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198813</v>
+        <v>0.199654</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20379</v>
+        <v>0.203872</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210239</v>
+        <v>0.210309</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196181</v>
+        <v>0.197188</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202689</v>
+        <v>0.202793</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209087</v>
+        <v>0.209097</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186444</v>
+        <v>0.186509</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201638</v>
+        <v>0.201725</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208077</v>
+        <v>0.208095</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17989</v>
+        <v>0.179941</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200642</v>
+        <v>0.200707</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20714</v>
+        <v>0.207146</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172511</v>
+        <v>0.172369</v>
       </c>
       <c r="C136" t="n">
-        <v>0.19973</v>
+        <v>0.199806</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20621</v>
+        <v>0.206342</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163862</v>
+        <v>0.163501</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198773</v>
+        <v>0.198776</v>
       </c>
       <c r="D137" t="n">
-        <v>0.205576</v>
+        <v>0.205752</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24529</v>
+        <v>0.245228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220848</v>
+        <v>0.221072</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225609</v>
+        <v>0.225745</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241682</v>
+        <v>0.241585</v>
       </c>
       <c r="C139" t="n">
-        <v>0.21714</v>
+        <v>0.217179</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222241</v>
+        <v>0.222282</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237193</v>
+        <v>0.237199</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214081</v>
+        <v>0.21411</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219698</v>
+        <v>0.219734</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231867</v>
+        <v>0.231241</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211785</v>
+        <v>0.211857</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21767</v>
+        <v>0.217673</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226478</v>
+        <v>0.226752</v>
       </c>
       <c r="C142" t="n">
-        <v>0.21</v>
+        <v>0.209979</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215977</v>
+        <v>0.215964</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220891</v>
+        <v>0.220889</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208352</v>
+        <v>0.208402</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214351</v>
+        <v>0.214403</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202132</v>
+        <v>0.202027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193435</v>
+        <v>0.193219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199939</v>
+        <v>0.199383</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196173</v>
+        <v>0.196982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193694</v>
+        <v>0.193713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200589</v>
+        <v>0.200085</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193232</v>
+        <v>0.193744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194228</v>
+        <v>0.193835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201339</v>
+        <v>0.201057</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188522</v>
+        <v>0.188764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19366</v>
+        <v>0.19385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200862</v>
+        <v>0.201104</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182162</v>
+        <v>0.182826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193378</v>
+        <v>0.193158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200183</v>
+        <v>0.199948</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176021</v>
+        <v>0.176448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192954</v>
+        <v>0.192863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200039</v>
+        <v>0.199847</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166537</v>
+        <v>0.167324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192587</v>
+        <v>0.192694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199722</v>
+        <v>0.199674</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156853</v>
+        <v>0.157161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193027</v>
+        <v>0.192989</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199183</v>
+        <v>0.199076</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238294</v>
+        <v>0.240568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211401</v>
+        <v>0.210997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216314</v>
+        <v>0.220585</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234133</v>
+        <v>0.234925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21019</v>
+        <v>0.209874</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215105</v>
+        <v>0.218661</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.230858</v>
+        <v>0.231785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208158</v>
+        <v>0.208021</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214349</v>
+        <v>0.214751</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228325</v>
+        <v>0.228687</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206826</v>
+        <v>0.207182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213012</v>
+        <v>0.213918</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222685</v>
+        <v>0.22325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206065</v>
+        <v>0.206207</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212404</v>
+        <v>0.213631</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215328</v>
+        <v>0.215962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205201</v>
+        <v>0.205513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21115</v>
+        <v>0.211713</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211479</v>
+        <v>0.211068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204241</v>
+        <v>0.20431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210058</v>
+        <v>0.21041</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.207019</v>
+        <v>0.206229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203453</v>
+        <v>0.203244</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209281</v>
+        <v>0.20963</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.201052</v>
+        <v>0.20139</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202342</v>
+        <v>0.202299</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208546</v>
+        <v>0.208966</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196515</v>
+        <v>0.196031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201499</v>
+        <v>0.201291</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207472</v>
+        <v>0.2077</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190261</v>
+        <v>0.189613</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200544</v>
+        <v>0.200337</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207103</v>
+        <v>0.206954</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184754</v>
+        <v>0.184442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199517</v>
+        <v>0.199084</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206099</v>
+        <v>0.206207</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177579</v>
+        <v>0.177121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198794</v>
+        <v>0.198711</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205366</v>
+        <v>0.205185</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169743</v>
+        <v>0.169314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197819</v>
+        <v>0.197831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204298</v>
+        <v>0.204313</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242539</v>
+        <v>0.243653</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214456</v>
+        <v>0.217117</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22017</v>
+        <v>0.22306</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240268</v>
+        <v>0.239293</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212608</v>
+        <v>0.214277</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218772</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233887</v>
+        <v>0.234845</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211138</v>
+        <v>0.212403</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217028</v>
+        <v>0.217209</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229147</v>
+        <v>0.228186</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209598</v>
+        <v>0.210446</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215532</v>
+        <v>0.216043</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225527</v>
+        <v>0.226251</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208403</v>
+        <v>0.208651</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214331</v>
+        <v>0.214247</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.219463</v>
+        <v>0.220443</v>
       </c>
       <c r="C29" t="n">
-        <v>0.206983</v>
+        <v>0.206961</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213172</v>
+        <v>0.213157</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213401</v>
+        <v>0.214048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205661</v>
+        <v>0.205583</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211685</v>
+        <v>0.211638</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208221</v>
+        <v>0.209264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204466</v>
+        <v>0.204344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210619</v>
+        <v>0.210522</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202141</v>
+        <v>0.201404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203285</v>
+        <v>0.203203</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209702</v>
+        <v>0.209512</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197267</v>
+        <v>0.195882</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202234</v>
+        <v>0.202186</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20882</v>
+        <v>0.208863</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192646</v>
+        <v>0.191796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201208</v>
+        <v>0.201258</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20804</v>
+        <v>0.207997</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187072</v>
+        <v>0.186453</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200051</v>
+        <v>0.200201</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206981</v>
+        <v>0.206909</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180538</v>
+        <v>0.180248</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19973</v>
+        <v>0.199713</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206319</v>
+        <v>0.20645</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172382</v>
+        <v>0.172236</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198753</v>
+        <v>0.199222</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205507</v>
+        <v>0.205424</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246202</v>
+        <v>0.245391</v>
       </c>
       <c r="C38" t="n">
-        <v>0.214854</v>
+        <v>0.21482</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220903</v>
+        <v>0.22112</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.240941</v>
+        <v>0.241302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213136</v>
+        <v>0.213163</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219182</v>
+        <v>0.219108</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235075</v>
+        <v>0.235511</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211692</v>
+        <v>0.211826</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217804</v>
+        <v>0.217828</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231204</v>
+        <v>0.230828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210388</v>
+        <v>0.21049</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216517</v>
+        <v>0.216412</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225882</v>
+        <v>0.226206</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208849</v>
+        <v>0.208819</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215109</v>
+        <v>0.214974</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220956</v>
+        <v>0.22081</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207272</v>
+        <v>0.20739</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213465</v>
+        <v>0.213378</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215656</v>
+        <v>0.21553</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206167</v>
+        <v>0.206246</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21229</v>
+        <v>0.212276</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210813</v>
+        <v>0.21083</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205146</v>
+        <v>0.205118</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211285</v>
+        <v>0.21131</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205917</v>
+        <v>0.204725</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203868</v>
+        <v>0.203971</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210129</v>
+        <v>0.210006</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200232</v>
+        <v>0.198953</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202983</v>
+        <v>0.202952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209229</v>
+        <v>0.209197</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194011</v>
+        <v>0.193506</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201907</v>
+        <v>0.201849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208411</v>
+        <v>0.208221</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188803</v>
+        <v>0.188171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200944</v>
+        <v>0.200868</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207254</v>
+        <v>0.207174</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182541</v>
+        <v>0.181997</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199921</v>
+        <v>0.19986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206274</v>
+        <v>0.206254</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17621</v>
+        <v>0.175136</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198951</v>
+        <v>0.19896</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205468</v>
+        <v>0.205341</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166742</v>
+        <v>0.166591</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198174</v>
+        <v>0.198338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.205006</v>
+        <v>0.20502</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239892</v>
+        <v>0.241254</v>
       </c>
       <c r="C53" t="n">
-        <v>0.214275</v>
+        <v>0.213836</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220046</v>
+        <v>0.220078</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237266</v>
+        <v>0.236939</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212211</v>
+        <v>0.212146</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218471</v>
+        <v>0.218503</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232951</v>
+        <v>0.232925</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210722</v>
+        <v>0.210723</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216999</v>
+        <v>0.216993</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227697</v>
+        <v>0.227224</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209327</v>
+        <v>0.209315</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215529</v>
+        <v>0.215436</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221379</v>
+        <v>0.221426</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208033</v>
+        <v>0.208034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214424</v>
+        <v>0.214379</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215616</v>
+        <v>0.214899</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206676</v>
+        <v>0.206694</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213063</v>
+        <v>0.213048</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208339</v>
+        <v>0.209415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205514</v>
+        <v>0.205591</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211622</v>
+        <v>0.211584</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203232</v>
+        <v>0.203527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204389</v>
+        <v>0.204407</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210428</v>
+        <v>0.210451</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197559</v>
+        <v>0.197754</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203382</v>
+        <v>0.203392</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209352</v>
+        <v>0.209386</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192124</v>
+        <v>0.192326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202281</v>
+        <v>0.202243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.20835</v>
+        <v>0.208317</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185508</v>
+        <v>0.185953</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201344</v>
+        <v>0.201383</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207812</v>
+        <v>0.207772</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184237</v>
+        <v>0.18462</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200391</v>
+        <v>0.20047</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206532</v>
+        <v>0.206513</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177721</v>
+        <v>0.178026</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199199</v>
+        <v>0.199408</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205699</v>
+        <v>0.20566</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169949</v>
+        <v>0.169614</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198252</v>
+        <v>0.198364</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204897</v>
+        <v>0.204839</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241734</v>
+        <v>0.243353</v>
       </c>
       <c r="C67" t="n">
-        <v>0.223623</v>
+        <v>0.226931</v>
       </c>
       <c r="D67" t="n">
-        <v>0.229296</v>
+        <v>0.232222</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237806</v>
+        <v>0.238555</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219058</v>
+        <v>0.222522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.225764</v>
+        <v>0.228128</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233079</v>
+        <v>0.23439</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215819</v>
+        <v>0.218286</v>
       </c>
       <c r="D69" t="n">
-        <v>0.222074</v>
+        <v>0.223933</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227901</v>
+        <v>0.229853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21291</v>
+        <v>0.214408</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218885</v>
+        <v>0.220308</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224233</v>
+        <v>0.22468</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21034</v>
+        <v>0.211109</v>
       </c>
       <c r="D71" t="n">
-        <v>0.216186</v>
+        <v>0.217028</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219522</v>
+        <v>0.219044</v>
       </c>
       <c r="C72" t="n">
-        <v>0.208067</v>
+        <v>0.208353</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214142</v>
+        <v>0.214399</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213646</v>
+        <v>0.212869</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206397</v>
+        <v>0.206381</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212467</v>
+        <v>0.212672</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208805</v>
+        <v>0.206002</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205074</v>
+        <v>0.205061</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211274</v>
+        <v>0.211413</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202655</v>
+        <v>0.199354</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203976</v>
+        <v>0.203998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2102</v>
+        <v>0.210346</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197602</v>
+        <v>0.193226</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202817</v>
+        <v>0.202845</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209161</v>
+        <v>0.209228</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192242</v>
+        <v>0.187442</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201726</v>
+        <v>0.20173</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208151</v>
+        <v>0.208194</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186654</v>
+        <v>0.180968</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200761</v>
+        <v>0.200719</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207171</v>
+        <v>0.207184</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180155</v>
+        <v>0.175288</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199766</v>
+        <v>0.199694</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206302</v>
+        <v>0.206293</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172916</v>
+        <v>0.172424</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198682</v>
+        <v>0.198602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205438</v>
+        <v>0.205428</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244752</v>
+        <v>0.244356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225594</v>
+        <v>0.227121</v>
       </c>
       <c r="D81" t="n">
-        <v>0.228294</v>
+        <v>0.230124</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239983</v>
+        <v>0.240658</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219881</v>
+        <v>0.22015</v>
       </c>
       <c r="D82" t="n">
-        <v>0.224812</v>
+        <v>0.225656</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23627</v>
+        <v>0.236238</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214266</v>
+        <v>0.215365</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220296</v>
+        <v>0.221082</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231175</v>
+        <v>0.231069</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211787</v>
+        <v>0.212217</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217709</v>
+        <v>0.218288</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225911</v>
+        <v>0.225317</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209724</v>
+        <v>0.209936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215935</v>
+        <v>0.216424</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220875</v>
+        <v>0.219306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208295</v>
+        <v>0.208496</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214295</v>
+        <v>0.214822</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213896</v>
+        <v>0.213174</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206892</v>
+        <v>0.207269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212975</v>
+        <v>0.213345</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20712</v>
+        <v>0.20686</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205684</v>
+        <v>0.205856</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211791</v>
+        <v>0.212107</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201037</v>
+        <v>0.201052</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204344</v>
+        <v>0.204449</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210621</v>
+        <v>0.210783</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195374</v>
+        <v>0.194884</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203155</v>
+        <v>0.203221</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209554</v>
+        <v>0.20964</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189365</v>
+        <v>0.18935</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202131</v>
+        <v>0.2021</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208462</v>
+        <v>0.208568</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183238</v>
+        <v>0.183087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201094</v>
+        <v>0.201</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207525</v>
+        <v>0.207651</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176169</v>
+        <v>0.176062</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200062</v>
+        <v>0.200021</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206641</v>
+        <v>0.206675</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168337</v>
+        <v>0.168036</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199307</v>
+        <v>0.199228</v>
       </c>
       <c r="D94" t="n">
-        <v>0.20587</v>
+        <v>0.20591</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245606</v>
+        <v>0.246256</v>
       </c>
       <c r="C95" t="n">
-        <v>0.221919</v>
+        <v>0.222377</v>
       </c>
       <c r="D95" t="n">
-        <v>0.227101</v>
+        <v>0.227966</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241967</v>
+        <v>0.242179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217932</v>
+        <v>0.217965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.223361</v>
+        <v>0.223632</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237562</v>
+        <v>0.237726</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214902</v>
+        <v>0.214883</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220519</v>
+        <v>0.220819</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232408</v>
+        <v>0.232263</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212355</v>
+        <v>0.212283</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218222</v>
+        <v>0.21833</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.227126</v>
+        <v>0.227136</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210185</v>
+        <v>0.210466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216372</v>
+        <v>0.216695</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.221422</v>
+        <v>0.22193</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20874</v>
+        <v>0.208964</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214856</v>
+        <v>0.215148</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215304</v>
+        <v>0.216645</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20712</v>
+        <v>0.207419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213322</v>
+        <v>0.21356</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210005</v>
+        <v>0.210926</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205762</v>
+        <v>0.205973</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211861</v>
+        <v>0.211989</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204522</v>
+        <v>0.205383</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204568</v>
+        <v>0.204719</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210553</v>
+        <v>0.210772</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199194</v>
+        <v>0.199676</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203302</v>
+        <v>0.203479</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209453</v>
+        <v>0.209615</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.193917</v>
+        <v>0.194477</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202348</v>
+        <v>0.202492</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208435</v>
+        <v>0.208586</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188416</v>
+        <v>0.188423</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201302</v>
+        <v>0.20144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207482</v>
+        <v>0.207671</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182331</v>
+        <v>0.182467</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200205</v>
+        <v>0.200357</v>
       </c>
       <c r="D107" t="n">
-        <v>0.206587</v>
+        <v>0.206624</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175279</v>
+        <v>0.175313</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199269</v>
+        <v>0.19942</v>
       </c>
       <c r="D108" t="n">
-        <v>0.205806</v>
+        <v>0.20588</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166528</v>
+        <v>0.166784</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198542</v>
+        <v>0.198677</v>
       </c>
       <c r="D109" t="n">
-        <v>0.205245</v>
+        <v>0.20513</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24338</v>
+        <v>0.243956</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218894</v>
+        <v>0.219051</v>
       </c>
       <c r="D110" t="n">
-        <v>0.223764</v>
+        <v>0.224035</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238723</v>
+        <v>0.239517</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215239</v>
+        <v>0.215319</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220622</v>
+        <v>0.220863</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23378</v>
+        <v>0.234456</v>
       </c>
       <c r="C112" t="n">
-        <v>0.21267</v>
+        <v>0.212633</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218468</v>
+        <v>0.218515</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22871</v>
+        <v>0.228548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210641</v>
+        <v>0.210566</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216724</v>
+        <v>0.216596</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.222988</v>
+        <v>0.223227</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2089</v>
+        <v>0.208867</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215063</v>
+        <v>0.214896</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21785</v>
+        <v>0.217191</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207436</v>
+        <v>0.207283</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213671</v>
+        <v>0.213531</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211994</v>
+        <v>0.211828</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206076</v>
+        <v>0.20596</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212307</v>
+        <v>0.212208</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206</v>
+        <v>0.20609</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204798</v>
+        <v>0.204667</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211504</v>
+        <v>0.211309</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200326</v>
+        <v>0.200856</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204056</v>
+        <v>0.203908</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21036</v>
+        <v>0.210224</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195071</v>
+        <v>0.195542</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20295</v>
+        <v>0.20288</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209327</v>
+        <v>0.209201</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189623</v>
+        <v>0.189709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201917</v>
+        <v>0.201818</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208312</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="121">
@@ -4915,10 +4915,10 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183263</v>
+        <v>0.183536</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200913</v>
+        <v>0.200782</v>
       </c>
       <c r="D121" t="n">
         <v>0.207298</v>
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17575</v>
+        <v>0.176262</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199961</v>
+        <v>0.199822</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20642</v>
+        <v>0.206249</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167883</v>
+        <v>0.168187</v>
       </c>
       <c r="C123" t="n">
-        <v>0.19918</v>
+        <v>0.198984</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205727</v>
+        <v>0.205568</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242234</v>
+        <v>0.243219</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219462</v>
+        <v>0.21933</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224338</v>
+        <v>0.224249</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238446</v>
+        <v>0.239131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215713</v>
+        <v>0.215611</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221076</v>
+        <v>0.221101</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234098</v>
+        <v>0.234508</v>
       </c>
       <c r="C126" t="n">
-        <v>0.213012</v>
+        <v>0.212926</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218804</v>
+        <v>0.218709</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229353</v>
+        <v>0.23085</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210884</v>
+        <v>0.210763</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216794</v>
+        <v>0.216788</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.22337</v>
+        <v>0.225055</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209184</v>
+        <v>0.209092</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21524</v>
+        <v>0.215177</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218821</v>
+        <v>0.218063</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207658</v>
+        <v>0.207589</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21381</v>
+        <v>0.213834</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21131</v>
+        <v>0.211233</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206284</v>
+        <v>0.206194</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212547</v>
+        <v>0.212545</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2077</v>
+        <v>0.205407</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205075</v>
+        <v>0.204994</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211245</v>
+        <v>0.211184</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199654</v>
+        <v>0.199699</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203872</v>
+        <v>0.203786</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210309</v>
+        <v>0.21031</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197188</v>
+        <v>0.19776</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202793</v>
+        <v>0.202682</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209097</v>
+        <v>0.209063</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186509</v>
+        <v>0.187003</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201725</v>
+        <v>0.201692</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208095</v>
+        <v>0.207905</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179941</v>
+        <v>0.180401</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200707</v>
+        <v>0.200656</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207146</v>
+        <v>0.207091</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172369</v>
+        <v>0.172939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199806</v>
+        <v>0.199756</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206342</v>
+        <v>0.206057</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163501</v>
+        <v>0.164104</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198776</v>
+        <v>0.198677</v>
       </c>
       <c r="D137" t="n">
-        <v>0.205752</v>
+        <v>0.205229</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245228</v>
+        <v>0.245241</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221072</v>
+        <v>0.220935</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225745</v>
+        <v>0.225516</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241585</v>
+        <v>0.241467</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217179</v>
+        <v>0.217038</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222282</v>
+        <v>0.222099</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237199</v>
+        <v>0.236495</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21411</v>
+        <v>0.213985</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219734</v>
+        <v>0.219523</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231241</v>
+        <v>0.23139</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211857</v>
+        <v>0.211791</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217673</v>
+        <v>0.217552</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226752</v>
+        <v>0.226299</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209979</v>
+        <v>0.209873</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215964</v>
+        <v>0.215833</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220889</v>
+        <v>0.221035</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208402</v>
+        <v>0.208297</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214403</v>
+        <v>0.214254</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202027</v>
+        <v>0.202101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193219</v>
+        <v>0.193127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199383</v>
+        <v>0.199819</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196982</v>
+        <v>0.197184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193713</v>
+        <v>0.194402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200085</v>
+        <v>0.199924</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193744</v>
+        <v>0.194631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193835</v>
+        <v>0.194122</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201057</v>
+        <v>0.200561</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188764</v>
+        <v>0.189379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19385</v>
+        <v>0.192755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201104</v>
+        <v>0.200448</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182826</v>
+        <v>0.182659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193158</v>
+        <v>0.192984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199948</v>
+        <v>0.20037</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176448</v>
+        <v>0.175753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.192863</v>
+        <v>0.1932</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199847</v>
+        <v>0.199694</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167324</v>
+        <v>0.167859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192694</v>
+        <v>0.192551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199674</v>
+        <v>0.199939</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157161</v>
+        <v>0.157729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192989</v>
+        <v>0.192647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199076</v>
+        <v>0.218365</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240568</v>
+        <v>0.240231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210997</v>
+        <v>0.215091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220585</v>
+        <v>0.216358</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234925</v>
+        <v>0.234637</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209874</v>
+        <v>0.210033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218661</v>
+        <v>0.216122</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231785</v>
+        <v>0.230831</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208021</v>
+        <v>0.208111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214751</v>
+        <v>0.21507</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228687</v>
+        <v>0.226757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.207182</v>
+        <v>0.206935</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213918</v>
+        <v>0.212795</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22325</v>
+        <v>0.220672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206207</v>
+        <v>0.205983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.213631</v>
+        <v>0.212602</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215962</v>
+        <v>0.214523</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205513</v>
+        <v>0.204939</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211713</v>
+        <v>0.211652</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211068</v>
+        <v>0.209611</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20431</v>
+        <v>0.204325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21041</v>
+        <v>0.210457</v>
       </c>
     </row>
     <row r="17">
@@ -3459,10 +3459,10 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206229</v>
+        <v>0.204813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203244</v>
+        <v>0.20323</v>
       </c>
       <c r="D17" t="n">
         <v>0.20963</v>
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.20139</v>
+        <v>0.199745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202299</v>
+        <v>0.202321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208966</v>
+        <v>0.20866</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196031</v>
+        <v>0.194867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201291</v>
+        <v>0.201196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2077</v>
+        <v>0.207814</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189613</v>
+        <v>0.189668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200337</v>
+        <v>0.200416</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206954</v>
+        <v>0.207296</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184442</v>
+        <v>0.184367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199084</v>
+        <v>0.199392</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206207</v>
+        <v>0.206167</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177121</v>
+        <v>0.177162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198711</v>
+        <v>0.198733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205185</v>
+        <v>0.205382</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169314</v>
+        <v>0.169344</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197831</v>
+        <v>0.197682</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204313</v>
+        <v>0.222432</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243653</v>
+        <v>0.243046</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217117</v>
+        <v>0.215448</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22306</v>
+        <v>0.220226</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239293</v>
+        <v>0.240489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214277</v>
+        <v>0.21428</v>
       </c>
       <c r="D25" t="n">
-        <v>0.219517</v>
+        <v>0.218596</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234845</v>
+        <v>0.233719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.212403</v>
+        <v>0.21151</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217209</v>
+        <v>0.217016</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.228186</v>
+        <v>0.230347</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210446</v>
+        <v>0.209942</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216043</v>
+        <v>0.215393</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226251</v>
+        <v>0.225156</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208651</v>
+        <v>0.208508</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214247</v>
+        <v>0.214098</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220443</v>
+        <v>0.220063</v>
       </c>
       <c r="C29" t="n">
-        <v>0.206961</v>
+        <v>0.207087</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213157</v>
+        <v>0.213028</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214048</v>
+        <v>0.214541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205583</v>
+        <v>0.205738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211638</v>
+        <v>0.211721</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.209264</v>
+        <v>0.210317</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204344</v>
+        <v>0.204586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210522</v>
+        <v>0.210591</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201404</v>
+        <v>0.202944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203203</v>
+        <v>0.203462</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209512</v>
+        <v>0.209574</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195882</v>
+        <v>0.197369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202186</v>
+        <v>0.202179</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208863</v>
+        <v>0.208739</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191796</v>
+        <v>0.192732</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201258</v>
+        <v>0.201387</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207997</v>
+        <v>0.207964</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186453</v>
+        <v>0.187058</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200201</v>
+        <v>0.200068</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206909</v>
+        <v>0.206795</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180248</v>
+        <v>0.180635</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199713</v>
+        <v>0.199936</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20645</v>
+        <v>0.206263</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172236</v>
+        <v>0.172276</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199222</v>
+        <v>0.198973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205424</v>
+        <v>0.222943</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.245391</v>
+        <v>0.246285</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21482</v>
+        <v>0.215083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22112</v>
+        <v>0.220972</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241302</v>
+        <v>0.241392</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213163</v>
+        <v>0.213131</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219108</v>
+        <v>0.219226</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235511</v>
+        <v>0.236002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211826</v>
+        <v>0.211717</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217828</v>
+        <v>0.21785</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230828</v>
+        <v>0.231165</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21049</v>
+        <v>0.210362</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216412</v>
+        <v>0.216489</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226206</v>
+        <v>0.225904</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208819</v>
+        <v>0.208867</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214974</v>
+        <v>0.214985</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.22081</v>
+        <v>0.220478</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20739</v>
+        <v>0.207312</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213378</v>
+        <v>0.213444</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21553</v>
+        <v>0.214582</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206246</v>
+        <v>0.206268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212276</v>
+        <v>0.212266</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21083</v>
+        <v>0.210136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205118</v>
+        <v>0.20533</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21131</v>
+        <v>0.211201</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204725</v>
+        <v>0.204923</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203971</v>
+        <v>0.203929</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210006</v>
+        <v>0.210111</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198953</v>
+        <v>0.199477</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202952</v>
+        <v>0.202966</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209197</v>
+        <v>0.209166</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193506</v>
+        <v>0.1938</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201849</v>
+        <v>0.201953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208221</v>
+        <v>0.208344</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188171</v>
+        <v>0.18871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200868</v>
+        <v>0.200985</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207174</v>
+        <v>0.207201</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181997</v>
+        <v>0.181578</v>
       </c>
       <c r="C50" t="n">
-        <v>0.19986</v>
+        <v>0.199888</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206254</v>
+        <v>0.206237</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175136</v>
+        <v>0.175552</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19896</v>
+        <v>0.199037</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205341</v>
+        <v>0.223618</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166591</v>
+        <v>0.167326</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198338</v>
+        <v>0.19831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.20502</v>
+        <v>0.221427</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241254</v>
+        <v>0.24342</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213836</v>
+        <v>0.213869</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220078</v>
+        <v>0.219865</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236939</v>
+        <v>0.238521</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212146</v>
+        <v>0.212245</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218503</v>
+        <v>0.218319</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232925</v>
+        <v>0.234314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210723</v>
+        <v>0.210827</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216993</v>
+        <v>0.216929</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227224</v>
+        <v>0.228626</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209315</v>
+        <v>0.209388</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215436</v>
+        <v>0.215518</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221426</v>
+        <v>0.222996</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208034</v>
+        <v>0.208138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214379</v>
+        <v>0.214332</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214899</v>
+        <v>0.216989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206694</v>
+        <v>0.206759</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213048</v>
+        <v>0.213031</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209415</v>
+        <v>0.211419</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205591</v>
+        <v>0.205654</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211584</v>
+        <v>0.211574</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203527</v>
+        <v>0.205951</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204407</v>
+        <v>0.204489</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210451</v>
+        <v>0.210411</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197754</v>
+        <v>0.200927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203392</v>
+        <v>0.20347</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209386</v>
+        <v>0.209397</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192326</v>
+        <v>0.196117</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202243</v>
+        <v>0.20238</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208317</v>
+        <v>0.208366</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185953</v>
+        <v>0.19071</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201383</v>
+        <v>0.201461</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207772</v>
+        <v>0.207794</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18462</v>
+        <v>0.184324</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20047</v>
+        <v>0.200402</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206513</v>
+        <v>0.206509</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178026</v>
+        <v>0.17772</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199408</v>
+        <v>0.199357</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20566</v>
+        <v>0.205582</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169614</v>
+        <v>0.169221</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198364</v>
+        <v>0.198396</v>
       </c>
       <c r="D66" t="n">
-        <v>0.204839</v>
+        <v>0.222211</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243353</v>
+        <v>0.241982</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226931</v>
+        <v>0.215499</v>
       </c>
       <c r="D67" t="n">
-        <v>0.232222</v>
+        <v>0.220479</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238555</v>
+        <v>0.237773</v>
       </c>
       <c r="C68" t="n">
-        <v>0.222522</v>
+        <v>0.213917</v>
       </c>
       <c r="D68" t="n">
-        <v>0.228128</v>
+        <v>0.218875</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23439</v>
+        <v>0.233637</v>
       </c>
       <c r="C69" t="n">
-        <v>0.218286</v>
+        <v>0.211965</v>
       </c>
       <c r="D69" t="n">
-        <v>0.223933</v>
+        <v>0.217383</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.229853</v>
+        <v>0.227875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.214408</v>
+        <v>0.210372</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220308</v>
+        <v>0.216026</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22468</v>
+        <v>0.223057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.211109</v>
+        <v>0.208905</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217028</v>
+        <v>0.214599</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219044</v>
+        <v>0.217256</v>
       </c>
       <c r="C72" t="n">
-        <v>0.208353</v>
+        <v>0.207575</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214399</v>
+        <v>0.213423</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212869</v>
+        <v>0.211029</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206381</v>
+        <v>0.206237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212672</v>
+        <v>0.212205</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206002</v>
+        <v>0.209076</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205061</v>
+        <v>0.204957</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211413</v>
+        <v>0.211052</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199354</v>
+        <v>0.203153</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203998</v>
+        <v>0.203798</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210346</v>
+        <v>0.210037</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193226</v>
+        <v>0.197582</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202845</v>
+        <v>0.202726</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209228</v>
+        <v>0.209037</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187442</v>
+        <v>0.192228</v>
       </c>
       <c r="C77" t="n">
-        <v>0.20173</v>
+        <v>0.20164</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208194</v>
+        <v>0.208081</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180968</v>
+        <v>0.186383</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200719</v>
+        <v>0.200717</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207184</v>
+        <v>0.207113</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175288</v>
+        <v>0.180122</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199694</v>
+        <v>0.199709</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206293</v>
+        <v>0.206271</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172424</v>
+        <v>0.172798</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198602</v>
+        <v>0.198712</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205428</v>
+        <v>0.225052</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244356</v>
+        <v>0.244724</v>
       </c>
       <c r="C81" t="n">
-        <v>0.227121</v>
+        <v>0.226508</v>
       </c>
       <c r="D81" t="n">
-        <v>0.230124</v>
+        <v>0.222512</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240658</v>
+        <v>0.240213</v>
       </c>
       <c r="C82" t="n">
-        <v>0.22015</v>
+        <v>0.219776</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225656</v>
+        <v>0.220626</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236238</v>
+        <v>0.235776</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215365</v>
+        <v>0.214545</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221082</v>
+        <v>0.21889</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231069</v>
+        <v>0.231756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212217</v>
+        <v>0.211601</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218288</v>
+        <v>0.216944</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225317</v>
+        <v>0.22507</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209936</v>
+        <v>0.209908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216424</v>
+        <v>0.215582</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219306</v>
+        <v>0.219467</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208496</v>
+        <v>0.208395</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214822</v>
+        <v>0.21403</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213174</v>
+        <v>0.213047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207269</v>
+        <v>0.206922</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213345</v>
+        <v>0.212736</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20686</v>
+        <v>0.206535</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205856</v>
+        <v>0.205541</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212107</v>
+        <v>0.211525</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201052</v>
+        <v>0.20079</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204449</v>
+        <v>0.204341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210783</v>
+        <v>0.210334</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194884</v>
+        <v>0.195087</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203221</v>
+        <v>0.203187</v>
       </c>
       <c r="D90" t="n">
-        <v>0.20964</v>
+        <v>0.209291</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18935</v>
+        <v>0.188752</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2021</v>
+        <v>0.202089</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208568</v>
+        <v>0.208349</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183087</v>
+        <v>0.182543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201</v>
+        <v>0.200995</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207651</v>
+        <v>0.207338</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176062</v>
+        <v>0.176145</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200021</v>
+        <v>0.200051</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206675</v>
+        <v>0.206499</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168036</v>
+        <v>0.168206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199228</v>
+        <v>0.199176</v>
       </c>
       <c r="D94" t="n">
-        <v>0.20591</v>
+        <v>0.226734</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.246256</v>
+        <v>0.245053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222377</v>
+        <v>0.222505</v>
       </c>
       <c r="D95" t="n">
-        <v>0.227966</v>
+        <v>0.223423</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.242179</v>
+        <v>0.241094</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217965</v>
+        <v>0.218114</v>
       </c>
       <c r="D96" t="n">
-        <v>0.223632</v>
+        <v>0.221091</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.237726</v>
+        <v>0.236053</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214883</v>
+        <v>0.215033</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220819</v>
+        <v>0.2193</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.232263</v>
+        <v>0.231288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212283</v>
+        <v>0.212384</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21833</v>
+        <v>0.218282</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.227136</v>
+        <v>0.225429</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210466</v>
+        <v>0.210392</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216695</v>
+        <v>0.216765</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22193</v>
+        <v>0.219775</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208964</v>
+        <v>0.208921</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215148</v>
+        <v>0.215352</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.216645</v>
+        <v>0.214547</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207419</v>
+        <v>0.207384</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21356</v>
+        <v>0.213824</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210926</v>
+        <v>0.208352</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205973</v>
+        <v>0.205888</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211989</v>
+        <v>0.212147</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205383</v>
+        <v>0.20571</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204719</v>
+        <v>0.204651</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210772</v>
+        <v>0.210966</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199676</v>
+        <v>0.200322</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203479</v>
+        <v>0.203401</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209615</v>
+        <v>0.20979</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194477</v>
+        <v>0.194632</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202492</v>
+        <v>0.202353</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208586</v>
+        <v>0.209108</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188423</v>
+        <v>0.18877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20144</v>
+        <v>0.201332</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207671</v>
+        <v>0.207839</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182467</v>
+        <v>0.182838</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200357</v>
+        <v>0.200264</v>
       </c>
       <c r="D107" t="n">
-        <v>0.206624</v>
+        <v>0.207234</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175313</v>
+        <v>0.175896</v>
       </c>
       <c r="C108" t="n">
-        <v>0.19942</v>
+        <v>0.199213</v>
       </c>
       <c r="D108" t="n">
-        <v>0.20588</v>
+        <v>0.226462</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166784</v>
+        <v>0.167274</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198677</v>
+        <v>0.198327</v>
       </c>
       <c r="D109" t="n">
-        <v>0.20513</v>
+        <v>0.223441</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243956</v>
+        <v>0.24367</v>
       </c>
       <c r="C110" t="n">
-        <v>0.219051</v>
+        <v>0.218766</v>
       </c>
       <c r="D110" t="n">
-        <v>0.224035</v>
+        <v>0.22128</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239517</v>
+        <v>0.239289</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215319</v>
+        <v>0.215197</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220863</v>
+        <v>0.219396</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234456</v>
+        <v>0.2345</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212633</v>
+        <v>0.21258</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218515</v>
+        <v>0.21756</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228548</v>
+        <v>0.228908</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210566</v>
+        <v>0.21047</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216596</v>
+        <v>0.216036</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223227</v>
+        <v>0.223249</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208867</v>
+        <v>0.208776</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214896</v>
+        <v>0.214613</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217191</v>
+        <v>0.217627</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207283</v>
+        <v>0.207255</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213531</v>
+        <v>0.213465</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211828</v>
+        <v>0.212169</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20596</v>
+        <v>0.20593</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212208</v>
+        <v>0.212251</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20609</v>
+        <v>0.206301</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204667</v>
+        <v>0.204639</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211309</v>
+        <v>0.210998</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200856</v>
+        <v>0.200785</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203908</v>
+        <v>0.203602</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210224</v>
+        <v>0.20978</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195542</v>
+        <v>0.195758</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20288</v>
+        <v>0.202838</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209201</v>
+        <v>0.209263</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189709</v>
+        <v>0.189907</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201818</v>
+        <v>0.201777</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2081</v>
+        <v>0.208208</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183536</v>
+        <v>0.183315</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200782</v>
+        <v>0.200734</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207298</v>
+        <v>0.207257</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176262</v>
+        <v>0.175959</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199822</v>
+        <v>0.199739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206249</v>
+        <v>0.206406</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168187</v>
+        <v>0.167548</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198984</v>
+        <v>0.198863</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205568</v>
+        <v>0.223943</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243219</v>
+        <v>0.243239</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21933</v>
+        <v>0.219032</v>
       </c>
       <c r="D124" t="n">
-        <v>0.224249</v>
+        <v>0.221636</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239131</v>
+        <v>0.238603</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215611</v>
+        <v>0.215521</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221101</v>
+        <v>0.219689</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234508</v>
+        <v>0.234244</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212926</v>
+        <v>0.212895</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218709</v>
+        <v>0.217828</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.23085</v>
+        <v>0.228875</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210763</v>
+        <v>0.210807</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216788</v>
+        <v>0.216369</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225055</v>
+        <v>0.224004</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209092</v>
+        <v>0.209141</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215177</v>
+        <v>0.215091</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218063</v>
+        <v>0.219816</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207589</v>
+        <v>0.207621</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213834</v>
+        <v>0.213725</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211233</v>
+        <v>0.213959</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206194</v>
+        <v>0.206175</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212545</v>
+        <v>0.212474</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205407</v>
+        <v>0.207877</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204994</v>
+        <v>0.205004</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211184</v>
+        <v>0.211171</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199699</v>
+        <v>0.202636</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203786</v>
+        <v>0.203799</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21031</v>
+        <v>0.210149</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19776</v>
+        <v>0.197879</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202682</v>
+        <v>0.202692</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209063</v>
+        <v>0.208946</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187003</v>
+        <v>0.187265</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201692</v>
+        <v>0.201651</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207905</v>
+        <v>0.207986</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180401</v>
+        <v>0.180547</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200656</v>
+        <v>0.200605</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207091</v>
+        <v>0.207104</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172939</v>
+        <v>0.172825</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199756</v>
+        <v>0.199598</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206057</v>
+        <v>0.206195</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164104</v>
+        <v>0.163751</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198677</v>
+        <v>0.198701</v>
       </c>
       <c r="D137" t="n">
-        <v>0.205229</v>
+        <v>0.225083</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245241</v>
+        <v>0.245335</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220935</v>
+        <v>0.220931</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225516</v>
+        <v>0.22248</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241467</v>
+        <v>0.241281</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217038</v>
+        <v>0.217074</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222099</v>
+        <v>0.220482</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236495</v>
+        <v>0.236063</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213985</v>
+        <v>0.214029</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219523</v>
+        <v>0.218654</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23139</v>
+        <v>0.23129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211791</v>
+        <v>0.211772</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217552</v>
+        <v>0.21704</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226299</v>
+        <v>0.226688</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209873</v>
+        <v>0.209935</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215833</v>
+        <v>0.21553</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221035</v>
+        <v>0.221321</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208297</v>
+        <v>0.208316</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214254</v>
+        <v>0.214161</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202101</v>
+        <v>0.201242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193127</v>
+        <v>0.193792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199819</v>
+        <v>0.200125</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197184</v>
+        <v>0.196158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194402</v>
+        <v>0.193785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199924</v>
+        <v>0.200374</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194631</v>
+        <v>0.193792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194122</v>
+        <v>0.194164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200561</v>
+        <v>0.20102</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189379</v>
+        <v>0.188888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.192755</v>
+        <v>0.193481</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200448</v>
+        <v>0.200744</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182659</v>
+        <v>0.182691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192984</v>
+        <v>0.193053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20037</v>
+        <v>0.200123</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175753</v>
+        <v>0.176142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1932</v>
+        <v>0.193216</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199694</v>
+        <v>0.199555</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167859</v>
+        <v>0.167219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192551</v>
+        <v>0.192939</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199939</v>
+        <v>0.199705</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157729</v>
+        <v>0.157568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192647</v>
+        <v>0.192655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218365</v>
+        <v>0.218056</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240231</v>
+        <v>0.241342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215091</v>
+        <v>0.214105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216358</v>
+        <v>0.216612</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234637</v>
+        <v>0.236258</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210033</v>
+        <v>0.209811</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216122</v>
+        <v>0.214822</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.230831</v>
+        <v>0.232639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208111</v>
+        <v>0.208053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21507</v>
+        <v>0.214639</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226757</v>
+        <v>0.230365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206935</v>
+        <v>0.206814</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212795</v>
+        <v>0.212591</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220672</v>
+        <v>0.224221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205983</v>
+        <v>0.206083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212602</v>
+        <v>0.2119</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214523</v>
+        <v>0.215975</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204939</v>
+        <v>0.205372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211652</v>
+        <v>0.211197</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209611</v>
+        <v>0.211136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204325</v>
+        <v>0.204271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210457</v>
+        <v>0.210144</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204813</v>
+        <v>0.206831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20323</v>
+        <v>0.203199</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20963</v>
+        <v>0.209386</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199745</v>
+        <v>0.200747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202321</v>
+        <v>0.202106</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20866</v>
+        <v>0.208553</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194867</v>
+        <v>0.195745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201196</v>
+        <v>0.201233</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207814</v>
+        <v>0.207597</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189668</v>
+        <v>0.190032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200416</v>
+        <v>0.200274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207296</v>
+        <v>0.207035</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184367</v>
+        <v>0.185157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199392</v>
+        <v>0.199316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206167</v>
+        <v>0.206184</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177162</v>
+        <v>0.177535</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198733</v>
+        <v>0.198696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205382</v>
+        <v>0.205305</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169344</v>
+        <v>0.170504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197682</v>
+        <v>0.197641</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222432</v>
+        <v>0.222069</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243046</v>
+        <v>0.243537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215448</v>
+        <v>0.215338</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220226</v>
+        <v>0.220112</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240489</v>
+        <v>0.240471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21428</v>
+        <v>0.213167</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218596</v>
+        <v>0.218478</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233719</v>
+        <v>0.234518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21151</v>
+        <v>0.211539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217016</v>
+        <v>0.217094</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230347</v>
+        <v>0.229769</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209942</v>
+        <v>0.210241</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215393</v>
+        <v>0.215375</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225156</v>
+        <v>0.225548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208508</v>
+        <v>0.208585</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214098</v>
+        <v>0.214198</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220063</v>
+        <v>0.220401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207087</v>
+        <v>0.207243</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213028</v>
+        <v>0.212958</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214541</v>
+        <v>0.214158</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205738</v>
+        <v>0.205668</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211721</v>
+        <v>0.211656</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.210317</v>
+        <v>0.208519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204586</v>
+        <v>0.204668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210591</v>
+        <v>0.210609</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202944</v>
+        <v>0.202525</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203462</v>
+        <v>0.203424</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209574</v>
+        <v>0.209582</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197369</v>
+        <v>0.197562</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202179</v>
+        <v>0.20223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208739</v>
+        <v>0.208872</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192732</v>
+        <v>0.193097</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201387</v>
+        <v>0.201295</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207964</v>
+        <v>0.208052</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187058</v>
+        <v>0.187646</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200068</v>
+        <v>0.200054</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206795</v>
+        <v>0.20686</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180635</v>
+        <v>0.181254</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199936</v>
+        <v>0.200096</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206263</v>
+        <v>0.20623</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172276</v>
+        <v>0.172181</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198973</v>
+        <v>0.199121</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222943</v>
+        <v>0.222838</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246285</v>
+        <v>0.244683</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215083</v>
+        <v>0.215077</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220972</v>
+        <v>0.220837</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241392</v>
+        <v>0.241166</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213131</v>
+        <v>0.21332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219226</v>
+        <v>0.219155</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236002</v>
+        <v>0.23584</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211717</v>
+        <v>0.211872</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21785</v>
+        <v>0.217827</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231165</v>
+        <v>0.230832</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210362</v>
+        <v>0.210541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216489</v>
+        <v>0.216499</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225904</v>
+        <v>0.226011</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208867</v>
+        <v>0.208775</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214985</v>
+        <v>0.215031</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220478</v>
+        <v>0.221147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207312</v>
+        <v>0.207279</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213444</v>
+        <v>0.213585</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214582</v>
+        <v>0.215181</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206268</v>
+        <v>0.20616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212266</v>
+        <v>0.212302</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.210136</v>
+        <v>0.21045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.20533</v>
+        <v>0.205164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211201</v>
+        <v>0.211307</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204923</v>
+        <v>0.205329</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203929</v>
+        <v>0.203983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210111</v>
+        <v>0.210081</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199477</v>
+        <v>0.200141</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202966</v>
+        <v>0.202992</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209166</v>
+        <v>0.209266</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1938</v>
+        <v>0.194193</v>
       </c>
       <c r="C48" t="n">
-        <v>0.201953</v>
+        <v>0.202014</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208344</v>
+        <v>0.208397</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18871</v>
+        <v>0.18885</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200985</v>
+        <v>0.200989</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207201</v>
+        <v>0.207239</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181578</v>
+        <v>0.182489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199888</v>
+        <v>0.199995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206237</v>
+        <v>0.206267</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175552</v>
+        <v>0.176084</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199037</v>
+        <v>0.199005</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223618</v>
+        <v>0.223312</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167326</v>
+        <v>0.167537</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19831</v>
+        <v>0.198282</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221427</v>
+        <v>0.221469</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24342</v>
+        <v>0.242644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213869</v>
+        <v>0.213953</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219865</v>
+        <v>0.220041</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.238521</v>
+        <v>0.239829</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212245</v>
+        <v>0.212166</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218319</v>
+        <v>0.218466</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234314</v>
+        <v>0.23499</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210827</v>
+        <v>0.210812</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216929</v>
+        <v>0.217005</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.228626</v>
+        <v>0.229391</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209388</v>
+        <v>0.209283</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215518</v>
+        <v>0.21556</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222996</v>
+        <v>0.22348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208138</v>
+        <v>0.20814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214332</v>
+        <v>0.214486</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216989</v>
+        <v>0.217732</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206759</v>
+        <v>0.206868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213031</v>
+        <v>0.213171</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211419</v>
+        <v>0.211787</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205654</v>
+        <v>0.205581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211574</v>
+        <v>0.21169</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205951</v>
+        <v>0.206585</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204489</v>
+        <v>0.204458</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210411</v>
+        <v>0.210549</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200927</v>
+        <v>0.201661</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20347</v>
+        <v>0.203389</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209397</v>
+        <v>0.209453</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196117</v>
+        <v>0.196658</v>
       </c>
       <c r="C62" t="n">
-        <v>0.20238</v>
+        <v>0.202227</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208366</v>
+        <v>0.208416</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19071</v>
+        <v>0.191262</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201461</v>
+        <v>0.201326</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207794</v>
+        <v>0.207871</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184324</v>
+        <v>0.184776</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200402</v>
+        <v>0.200371</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206509</v>
+        <v>0.206522</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17772</v>
+        <v>0.177405</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199357</v>
+        <v>0.199286</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205582</v>
+        <v>0.205737</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169221</v>
+        <v>0.169721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198396</v>
+        <v>0.198345</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222211</v>
+        <v>0.222504</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241982</v>
+        <v>0.242298</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215499</v>
+        <v>0.219222</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220479</v>
+        <v>0.220667</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237773</v>
+        <v>0.237865</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213917</v>
+        <v>0.216824</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218875</v>
+        <v>0.219048</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233637</v>
+        <v>0.233694</v>
       </c>
       <c r="C69" t="n">
-        <v>0.211965</v>
+        <v>0.214065</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217383</v>
+        <v>0.217508</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227875</v>
+        <v>0.228094</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210372</v>
+        <v>0.21167</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216026</v>
+        <v>0.216177</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223057</v>
+        <v>0.223049</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208905</v>
+        <v>0.20958</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214599</v>
+        <v>0.214761</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217256</v>
+        <v>0.216753</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207575</v>
+        <v>0.207733</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213423</v>
+        <v>0.213594</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211029</v>
+        <v>0.213138</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206237</v>
+        <v>0.206203</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212205</v>
+        <v>0.212354</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.209076</v>
+        <v>0.208922</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204957</v>
+        <v>0.20505</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211052</v>
+        <v>0.211207</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203153</v>
+        <v>0.202796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203798</v>
+        <v>0.203979</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210037</v>
+        <v>0.210135</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197582</v>
+        <v>0.19773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202726</v>
+        <v>0.202803</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209037</v>
+        <v>0.209177</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192228</v>
+        <v>0.192198</v>
       </c>
       <c r="C77" t="n">
-        <v>0.20164</v>
+        <v>0.201768</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208081</v>
+        <v>0.208221</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186383</v>
+        <v>0.186578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200717</v>
+        <v>0.200737</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207113</v>
+        <v>0.207206</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180122</v>
+        <v>0.180249</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199709</v>
+        <v>0.199735</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206271</v>
+        <v>0.206356</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172798</v>
+        <v>0.173029</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198712</v>
+        <v>0.198737</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225052</v>
+        <v>0.22523</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.244724</v>
+        <v>0.24467</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226508</v>
+        <v>0.226775</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222512</v>
+        <v>0.22329</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240213</v>
+        <v>0.240838</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219776</v>
+        <v>0.218481</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220626</v>
+        <v>0.22098</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235776</v>
+        <v>0.235636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214545</v>
+        <v>0.214982</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21889</v>
+        <v>0.219024</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231756</v>
+        <v>0.231153</v>
       </c>
       <c r="C84" t="n">
-        <v>0.211601</v>
+        <v>0.212405</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216944</v>
+        <v>0.217151</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.22507</v>
+        <v>0.225742</v>
       </c>
       <c r="C85" t="n">
-        <v>0.209908</v>
+        <v>0.210094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215582</v>
+        <v>0.215677</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219467</v>
+        <v>0.220089</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208395</v>
+        <v>0.208601</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21403</v>
+        <v>0.214293</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213047</v>
+        <v>0.213621</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206922</v>
+        <v>0.20715</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212736</v>
+        <v>0.212889</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206535</v>
+        <v>0.207291</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205541</v>
+        <v>0.205744</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211525</v>
+        <v>0.211536</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20079</v>
+        <v>0.201252</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204341</v>
+        <v>0.204415</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210334</v>
+        <v>0.210434</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195087</v>
+        <v>0.195355</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203187</v>
+        <v>0.203281</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209291</v>
+        <v>0.209376</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188752</v>
+        <v>0.1896</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202089</v>
+        <v>0.202224</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208349</v>
+        <v>0.20839</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182543</v>
+        <v>0.183001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200995</v>
+        <v>0.201072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207338</v>
+        <v>0.207362</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176145</v>
+        <v>0.17666</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200051</v>
+        <v>0.200065</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206499</v>
+        <v>0.206601</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168206</v>
+        <v>0.168261</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199176</v>
+        <v>0.19927</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226734</v>
+        <v>0.226626</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.245053</v>
+        <v>0.244718</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222505</v>
+        <v>0.222359</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223423</v>
+        <v>0.223456</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241094</v>
+        <v>0.241658</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218114</v>
+        <v>0.217986</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221091</v>
+        <v>0.221203</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236053</v>
+        <v>0.236429</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215033</v>
+        <v>0.214867</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2193</v>
+        <v>0.219454</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231288</v>
+        <v>0.230847</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212384</v>
+        <v>0.212377</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218282</v>
+        <v>0.218066</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225429</v>
+        <v>0.225246</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210392</v>
+        <v>0.210376</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216765</v>
+        <v>0.216846</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219775</v>
+        <v>0.220276</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208921</v>
+        <v>0.208953</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215352</v>
+        <v>0.215252</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214547</v>
+        <v>0.21451</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207384</v>
+        <v>0.207418</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213824</v>
+        <v>0.214039</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208352</v>
+        <v>0.208167</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205888</v>
+        <v>0.20592</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212147</v>
+        <v>0.212283</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20571</v>
+        <v>0.2059</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204651</v>
+        <v>0.204659</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210966</v>
+        <v>0.211239</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200322</v>
+        <v>0.200486</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203401</v>
+        <v>0.203393</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20979</v>
+        <v>0.210104</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194632</v>
+        <v>0.194628</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202353</v>
+        <v>0.202442</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209108</v>
+        <v>0.209185</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18877</v>
+        <v>0.189146</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201332</v>
+        <v>0.201427</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207839</v>
+        <v>0.20834</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182838</v>
+        <v>0.183244</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200264</v>
+        <v>0.200288</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207234</v>
+        <v>0.207432</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175896</v>
+        <v>0.176635</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199213</v>
+        <v>0.199442</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226462</v>
+        <v>0.226598</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167274</v>
+        <v>0.167852</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198327</v>
+        <v>0.198562</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223441</v>
+        <v>0.223482</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24367</v>
+        <v>0.243749</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218766</v>
+        <v>0.218709</v>
       </c>
       <c r="D110" t="n">
-        <v>0.22128</v>
+        <v>0.221375</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239289</v>
+        <v>0.238973</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215197</v>
+        <v>0.215138</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219396</v>
+        <v>0.21942</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2345</v>
+        <v>0.234336</v>
       </c>
       <c r="C112" t="n">
-        <v>0.21258</v>
+        <v>0.212547</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21756</v>
+        <v>0.217615</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228908</v>
+        <v>0.22886</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21047</v>
+        <v>0.21045</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216036</v>
+        <v>0.216121</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223249</v>
+        <v>0.223103</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208776</v>
+        <v>0.208793</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214613</v>
+        <v>0.214772</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217627</v>
+        <v>0.217446</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207255</v>
+        <v>0.207263</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213465</v>
+        <v>0.213459</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212169</v>
+        <v>0.211865</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20593</v>
+        <v>0.205926</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212251</v>
+        <v>0.212208</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206301</v>
+        <v>0.206206</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204639</v>
+        <v>0.204636</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210998</v>
+        <v>0.210975</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200785</v>
+        <v>0.200642</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203602</v>
+        <v>0.203472</v>
       </c>
       <c r="D118" t="n">
-        <v>0.20978</v>
+        <v>0.209889</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195758</v>
+        <v>0.195637</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202838</v>
+        <v>0.202786</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209263</v>
+        <v>0.209256</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189907</v>
+        <v>0.189858</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201777</v>
+        <v>0.201806</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208208</v>
+        <v>0.208205</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183315</v>
+        <v>0.183653</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200734</v>
+        <v>0.200766</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207257</v>
+        <v>0.207218</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175959</v>
+        <v>0.176212</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199739</v>
+        <v>0.199726</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206406</v>
+        <v>0.20635</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167548</v>
+        <v>0.167968</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198863</v>
+        <v>0.198866</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223943</v>
+        <v>0.223945</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243239</v>
+        <v>0.242956</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219032</v>
+        <v>0.219152</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221636</v>
+        <v>0.221717</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238603</v>
+        <v>0.238761</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215521</v>
+        <v>0.215441</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219689</v>
+        <v>0.219739</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234244</v>
+        <v>0.234208</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212895</v>
+        <v>0.212902</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217828</v>
+        <v>0.217958</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228875</v>
+        <v>0.231015</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210807</v>
+        <v>0.21074</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216369</v>
+        <v>0.216461</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224004</v>
+        <v>0.225029</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209141</v>
+        <v>0.209108</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215091</v>
+        <v>0.215079</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219816</v>
+        <v>0.218229</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207621</v>
+        <v>0.207613</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213725</v>
+        <v>0.213762</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213959</v>
+        <v>0.21158</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206175</v>
+        <v>0.206179</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212474</v>
+        <v>0.212526</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.207877</v>
+        <v>0.205251</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205004</v>
+        <v>0.204943</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211171</v>
+        <v>0.21112</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.202636</v>
+        <v>0.2029</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203799</v>
+        <v>0.203784</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210149</v>
+        <v>0.210257</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197879</v>
+        <v>0.197906</v>
       </c>
       <c r="C133" t="n">
         <v>0.202692</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208946</v>
+        <v>0.20905</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187265</v>
+        <v>0.186881</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201651</v>
+        <v>0.201668</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207986</v>
+        <v>0.207954</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180547</v>
+        <v>0.180246</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200605</v>
+        <v>0.200568</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207104</v>
+        <v>0.20696</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172825</v>
+        <v>0.172817</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199598</v>
+        <v>0.199648</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206195</v>
+        <v>0.206143</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163751</v>
+        <v>0.163926</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198701</v>
+        <v>0.198787</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225083</v>
+        <v>0.224933</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245335</v>
+        <v>0.245072</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220931</v>
+        <v>0.220934</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22248</v>
+        <v>0.222493</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241281</v>
+        <v>0.24126</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217074</v>
+        <v>0.216957</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220482</v>
+        <v>0.220376</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236063</v>
+        <v>0.236453</v>
       </c>
       <c r="C140" t="n">
-        <v>0.214029</v>
+        <v>0.213999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218654</v>
+        <v>0.218582</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.23129</v>
+        <v>0.231383</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211772</v>
+        <v>0.211757</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21704</v>
+        <v>0.216932</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226688</v>
+        <v>0.225978</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209935</v>
+        <v>0.209856</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21553</v>
+        <v>0.215488</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221321</v>
+        <v>0.220848</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208316</v>
+        <v>0.208299</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214161</v>
+        <v>0.214029</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201242</v>
+        <v>0.20454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193792</v>
+        <v>0.193423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200125</v>
+        <v>0.200224</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196158</v>
+        <v>0.196943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193785</v>
+        <v>0.193751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200374</v>
+        <v>0.200551</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193792</v>
+        <v>0.193535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194164</v>
+        <v>0.194312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20102</v>
+        <v>0.200856</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188888</v>
+        <v>0.18872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193481</v>
+        <v>0.193219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200744</v>
+        <v>0.200779</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182691</v>
+        <v>0.183163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193053</v>
+        <v>0.193568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200123</v>
+        <v>0.200132</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176142</v>
+        <v>0.175915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193216</v>
+        <v>0.193367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199555</v>
+        <v>0.19949</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.167219</v>
+        <v>0.168369</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192939</v>
+        <v>0.192694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199705</v>
+        <v>0.19985</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157568</v>
+        <v>0.158287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192655</v>
+        <v>0.192656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218056</v>
+        <v>0.218204</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241342</v>
+        <v>0.23957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214105</v>
+        <v>0.21438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216612</v>
+        <v>0.216629</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.236258</v>
+        <v>0.234317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209811</v>
+        <v>0.211289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214822</v>
+        <v>0.21517</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232639</v>
+        <v>0.231585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208053</v>
+        <v>0.208121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214639</v>
+        <v>0.214691</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.230365</v>
+        <v>0.228115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206814</v>
+        <v>0.2074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212591</v>
+        <v>0.212794</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.224221</v>
+        <v>0.2217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206083</v>
+        <v>0.205999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2119</v>
+        <v>0.212049</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215975</v>
+        <v>0.214722</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205372</v>
+        <v>0.204922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211197</v>
+        <v>0.211423</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211136</v>
+        <v>0.211123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204271</v>
+        <v>0.204012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210144</v>
+        <v>0.210429</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206831</v>
+        <v>0.206791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.203199</v>
+        <v>0.20342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209386</v>
+        <v>0.209609</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200747</v>
+        <v>0.200965</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202106</v>
+        <v>0.202248</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208553</v>
+        <v>0.208719</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195745</v>
+        <v>0.196691</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201233</v>
+        <v>0.201138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207597</v>
+        <v>0.207761</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190032</v>
+        <v>0.190085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200274</v>
+        <v>0.200702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207035</v>
+        <v>0.207017</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185157</v>
+        <v>0.184875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199316</v>
+        <v>0.199334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206184</v>
+        <v>0.206146</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177535</v>
+        <v>0.177515</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198696</v>
+        <v>0.198509</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205305</v>
+        <v>0.205315</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170504</v>
+        <v>0.170241</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197641</v>
+        <v>0.197727</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222069</v>
+        <v>0.222618</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243537</v>
+        <v>0.243275</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215338</v>
+        <v>0.215516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220112</v>
+        <v>0.220152</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240471</v>
+        <v>0.23985</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213167</v>
+        <v>0.213215</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218478</v>
+        <v>0.218636</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234518</v>
+        <v>0.233719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211539</v>
+        <v>0.211331</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217094</v>
+        <v>0.217078</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229769</v>
+        <v>0.229835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210241</v>
+        <v>0.209945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215375</v>
+        <v>0.215618</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225548</v>
+        <v>0.226327</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208585</v>
+        <v>0.208474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214198</v>
+        <v>0.214455</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220401</v>
+        <v>0.220264</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207243</v>
+        <v>0.207263</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212958</v>
+        <v>0.213175</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214158</v>
+        <v>0.214323</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205668</v>
+        <v>0.205669</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211656</v>
+        <v>0.211872</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208519</v>
+        <v>0.208145</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204668</v>
+        <v>0.20458</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210609</v>
+        <v>0.2108</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202525</v>
+        <v>0.201873</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203424</v>
+        <v>0.203301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209582</v>
+        <v>0.209921</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197562</v>
+        <v>0.197016</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20223</v>
+        <v>0.202174</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208872</v>
+        <v>0.208977</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.193097</v>
+        <v>0.192199</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201295</v>
+        <v>0.201302</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208052</v>
+        <v>0.208144</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187646</v>
+        <v>0.186975</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200054</v>
+        <v>0.200114</v>
       </c>
       <c r="D35" t="n">
-        <v>0.20686</v>
+        <v>0.207034</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181254</v>
+        <v>0.180395</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200096</v>
+        <v>0.199824</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20623</v>
+        <v>0.206422</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172181</v>
+        <v>0.172106</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199121</v>
+        <v>0.199118</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222838</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244683</v>
+        <v>0.246065</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215077</v>
+        <v>0.215032</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220837</v>
+        <v>0.220887</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241166</v>
+        <v>0.241224</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21332</v>
+        <v>0.213213</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219155</v>
+        <v>0.219271</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23584</v>
+        <v>0.23578</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211872</v>
+        <v>0.211706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217827</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230832</v>
+        <v>0.231637</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210541</v>
+        <v>0.210497</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216499</v>
+        <v>0.216533</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226011</v>
+        <v>0.226907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208775</v>
+        <v>0.208837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215031</v>
+        <v>0.215045</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221147</v>
+        <v>0.220627</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207279</v>
+        <v>0.207259</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213585</v>
+        <v>0.213611</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215181</v>
+        <v>0.215785</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20616</v>
+        <v>0.206288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212302</v>
+        <v>0.212467</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.21045</v>
+        <v>0.209815</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205164</v>
+        <v>0.205093</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211307</v>
+        <v>0.211425</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205329</v>
+        <v>0.205666</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203983</v>
+        <v>0.203884</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210081</v>
+        <v>0.210216</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200141</v>
+        <v>0.200165</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202992</v>
+        <v>0.203063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209266</v>
+        <v>0.209422</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194193</v>
+        <v>0.193995</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202014</v>
+        <v>0.202018</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208397</v>
+        <v>0.208462</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18885</v>
+        <v>0.188938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.200989</v>
+        <v>0.201073</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207239</v>
+        <v>0.207356</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182489</v>
+        <v>0.182651</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199995</v>
+        <v>0.199985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206267</v>
+        <v>0.20638</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176084</v>
+        <v>0.176193</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199005</v>
+        <v>0.198904</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223312</v>
+        <v>0.223698</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167537</v>
+        <v>0.166829</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198282</v>
+        <v>0.198237</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221469</v>
+        <v>0.221607</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242644</v>
+        <v>0.240993</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213953</v>
+        <v>0.213846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220041</v>
+        <v>0.220073</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239829</v>
+        <v>0.237066</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212166</v>
+        <v>0.212086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218466</v>
+        <v>0.218518</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23499</v>
+        <v>0.23234</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210812</v>
+        <v>0.210774</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217005</v>
+        <v>0.217039</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229391</v>
+        <v>0.226776</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209283</v>
+        <v>0.209431</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21556</v>
+        <v>0.215672</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22348</v>
+        <v>0.221251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20814</v>
+        <v>0.208027</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214486</v>
+        <v>0.214484</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217732</v>
+        <v>0.214981</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206868</v>
+        <v>0.206787</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213171</v>
+        <v>0.213193</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211787</v>
+        <v>0.208955</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205581</v>
+        <v>0.205618</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21169</v>
+        <v>0.211812</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206585</v>
+        <v>0.205293</v>
       </c>
       <c r="C60" t="n">
-        <v>0.204458</v>
+        <v>0.20449</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210549</v>
+        <v>0.210633</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201661</v>
+        <v>0.200968</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203389</v>
+        <v>0.203372</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209453</v>
+        <v>0.209558</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196658</v>
+        <v>0.196266</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202227</v>
+        <v>0.202272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208416</v>
+        <v>0.208525</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191262</v>
+        <v>0.190945</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201326</v>
+        <v>0.201443</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207871</v>
+        <v>0.208003</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184776</v>
+        <v>0.184372</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200371</v>
+        <v>0.200471</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206522</v>
+        <v>0.206722</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177405</v>
+        <v>0.177645</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199286</v>
+        <v>0.199362</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205737</v>
+        <v>0.205768</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169721</v>
+        <v>0.169534</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198345</v>
+        <v>0.198518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222504</v>
+        <v>0.22276</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242298</v>
+        <v>0.242247</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219222</v>
+        <v>0.219941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220667</v>
+        <v>0.220747</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237865</v>
+        <v>0.237538</v>
       </c>
       <c r="C68" t="n">
-        <v>0.216824</v>
+        <v>0.217292</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219048</v>
+        <v>0.219238</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233694</v>
+        <v>0.234022</v>
       </c>
       <c r="C69" t="n">
-        <v>0.214065</v>
+        <v>0.214698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217508</v>
+        <v>0.217675</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228094</v>
+        <v>0.227837</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21167</v>
+        <v>0.211945</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216177</v>
+        <v>0.216417</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223049</v>
+        <v>0.222768</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20958</v>
+        <v>0.209859</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214761</v>
+        <v>0.214864</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216753</v>
+        <v>0.21674</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207733</v>
+        <v>0.207842</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213594</v>
+        <v>0.213715</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213138</v>
+        <v>0.210812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206203</v>
+        <v>0.206424</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212354</v>
+        <v>0.212471</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208922</v>
+        <v>0.205924</v>
       </c>
       <c r="C74" t="n">
-        <v>0.20505</v>
+        <v>0.205066</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211207</v>
+        <v>0.211345</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202796</v>
+        <v>0.200265</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203979</v>
+        <v>0.203993</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210135</v>
+        <v>0.210292</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19773</v>
+        <v>0.193583</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202803</v>
+        <v>0.202808</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209177</v>
+        <v>0.209288</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192198</v>
+        <v>0.187707</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201768</v>
+        <v>0.201799</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208221</v>
+        <v>0.208281</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186578</v>
+        <v>0.181359</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200737</v>
+        <v>0.200841</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207206</v>
+        <v>0.207315</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180249</v>
+        <v>0.179633</v>
       </c>
       <c r="C79" t="n">
-        <v>0.199735</v>
+        <v>0.19982</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206356</v>
+        <v>0.206467</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173029</v>
+        <v>0.17319</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198737</v>
+        <v>0.198809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.22523</v>
+        <v>0.225471</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24467</v>
+        <v>0.243514</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226775</v>
+        <v>0.225919</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22329</v>
+        <v>0.223036</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240838</v>
+        <v>0.240079</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218481</v>
+        <v>0.220252</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22098</v>
+        <v>0.221077</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.235636</v>
+        <v>0.236323</v>
       </c>
       <c r="C83" t="n">
-        <v>0.214982</v>
+        <v>0.215289</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219024</v>
+        <v>0.219231</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231153</v>
+        <v>0.23137</v>
       </c>
       <c r="C84" t="n">
-        <v>0.212405</v>
+        <v>0.21224</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217151</v>
+        <v>0.217511</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225742</v>
+        <v>0.224968</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210094</v>
+        <v>0.210157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215677</v>
+        <v>0.21592</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220089</v>
+        <v>0.219729</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208601</v>
+        <v>0.208899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214293</v>
+        <v>0.214451</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213621</v>
+        <v>0.214219</v>
       </c>
       <c r="C87" t="n">
-        <v>0.20715</v>
+        <v>0.207289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212889</v>
+        <v>0.21309</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207291</v>
+        <v>0.20705</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205744</v>
+        <v>0.206058</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211536</v>
+        <v>0.211673</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201252</v>
+        <v>0.201171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204415</v>
+        <v>0.204502</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210434</v>
+        <v>0.210549</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195355</v>
+        <v>0.195545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203281</v>
+        <v>0.203286</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209376</v>
+        <v>0.209506</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1896</v>
+        <v>0.189289</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202224</v>
+        <v>0.202181</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20839</v>
+        <v>0.208496</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183001</v>
+        <v>0.182937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201072</v>
+        <v>0.201223</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207362</v>
+        <v>0.207499</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.17666</v>
+        <v>0.176207</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200065</v>
+        <v>0.200031</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206601</v>
+        <v>0.206677</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168261</v>
+        <v>0.16829</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19927</v>
+        <v>0.199185</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226626</v>
+        <v>0.226718</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244718</v>
+        <v>0.244861</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222359</v>
+        <v>0.222048</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223456</v>
+        <v>0.223518</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.241658</v>
+        <v>0.240355</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217986</v>
+        <v>0.217716</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221203</v>
+        <v>0.220975</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236429</v>
+        <v>0.236683</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214867</v>
+        <v>0.214855</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219454</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230847</v>
+        <v>0.231009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212377</v>
+        <v>0.212198</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218066</v>
+        <v>0.218025</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225246</v>
+        <v>0.225278</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210376</v>
+        <v>0.210185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216846</v>
+        <v>0.216684</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220276</v>
+        <v>0.219805</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208953</v>
+        <v>0.208667</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215252</v>
+        <v>0.215275</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.21451</v>
+        <v>0.214202</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207418</v>
+        <v>0.207074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214039</v>
+        <v>0.213802</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208167</v>
+        <v>0.20808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.20592</v>
+        <v>0.205715</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212283</v>
+        <v>0.212121</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2059</v>
+        <v>0.205652</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204659</v>
+        <v>0.204491</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211239</v>
+        <v>0.211032</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200486</v>
+        <v>0.200145</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203393</v>
+        <v>0.203253</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210104</v>
+        <v>0.209917</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194628</v>
+        <v>0.19462</v>
       </c>
       <c r="C105" t="n">
-        <v>0.202442</v>
+        <v>0.2023</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209185</v>
+        <v>0.209161</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189146</v>
+        <v>0.189085</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201427</v>
+        <v>0.201221</v>
       </c>
       <c r="D106" t="n">
-        <v>0.20834</v>
+        <v>0.208307</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183244</v>
+        <v>0.183234</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200288</v>
+        <v>0.200116</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207432</v>
+        <v>0.207327</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176635</v>
+        <v>0.176154</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199442</v>
+        <v>0.199267</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226598</v>
+        <v>0.226465</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167852</v>
+        <v>0.167426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198562</v>
+        <v>0.198427</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223482</v>
+        <v>0.223522</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243749</v>
+        <v>0.243548</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218709</v>
+        <v>0.218782</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221375</v>
+        <v>0.221288</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238973</v>
+        <v>0.239193</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215138</v>
+        <v>0.215016</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21942</v>
+        <v>0.219386</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234336</v>
+        <v>0.234262</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212547</v>
+        <v>0.212491</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217615</v>
+        <v>0.217645</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22886</v>
+        <v>0.228696</v>
       </c>
       <c r="C113" t="n">
-        <v>0.21045</v>
+        <v>0.210459</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216121</v>
+        <v>0.215967</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223103</v>
+        <v>0.223243</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208793</v>
+        <v>0.208773</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214772</v>
+        <v>0.214743</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217446</v>
+        <v>0.217372</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207263</v>
+        <v>0.207298</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213459</v>
+        <v>0.213448</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211865</v>
+        <v>0.211924</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205926</v>
+        <v>0.205966</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212208</v>
+        <v>0.212158</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206206</v>
+        <v>0.206103</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204636</v>
+        <v>0.204644</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210975</v>
+        <v>0.210952</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200642</v>
+        <v>0.200679</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203472</v>
+        <v>0.203849</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209889</v>
+        <v>0.210155</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195637</v>
+        <v>0.195556</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202786</v>
+        <v>0.202894</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209256</v>
+        <v>0.20932</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189858</v>
+        <v>0.189683</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201806</v>
+        <v>0.201848</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208205</v>
+        <v>0.208233</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183653</v>
+        <v>0.1833</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200766</v>
+        <v>0.200717</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207218</v>
+        <v>0.207327</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176212</v>
+        <v>0.17599</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199726</v>
+        <v>0.199758</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20635</v>
+        <v>0.206437</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167968</v>
+        <v>0.167551</v>
       </c>
       <c r="C123" t="n">
-        <v>0.198866</v>
+        <v>0.1989</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223945</v>
+        <v>0.223894</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242956</v>
+        <v>0.243284</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219152</v>
+        <v>0.21928</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221717</v>
+        <v>0.221706</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238761</v>
+        <v>0.239138</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215441</v>
+        <v>0.215622</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219739</v>
+        <v>0.219634</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234208</v>
+        <v>0.234714</v>
       </c>
       <c r="C126" t="n">
-        <v>0.212902</v>
+        <v>0.213025</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217958</v>
+        <v>0.217942</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.231015</v>
+        <v>0.229344</v>
       </c>
       <c r="C127" t="n">
-        <v>0.21074</v>
+        <v>0.210821</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216461</v>
+        <v>0.216411</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225029</v>
+        <v>0.224203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209108</v>
+        <v>0.209158</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215079</v>
+        <v>0.215104</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218229</v>
+        <v>0.217933</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207613</v>
+        <v>0.207688</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213762</v>
+        <v>0.213728</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21158</v>
+        <v>0.211505</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206179</v>
+        <v>0.206314</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212526</v>
+        <v>0.212524</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205251</v>
+        <v>0.205328</v>
       </c>
       <c r="C131" t="n">
-        <v>0.204943</v>
+        <v>0.205099</v>
       </c>
       <c r="D131" t="n">
-        <v>0.21112</v>
+        <v>0.211294</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2029</v>
+        <v>0.202055</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203784</v>
+        <v>0.203886</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210257</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197906</v>
+        <v>0.19787</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202692</v>
+        <v>0.202796</v>
       </c>
       <c r="D133" t="n">
-        <v>0.20905</v>
+        <v>0.209013</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186881</v>
+        <v>0.186964</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201668</v>
+        <v>0.201713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207954</v>
+        <v>0.207964</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180246</v>
+        <v>0.180379</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200568</v>
+        <v>0.200742</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20696</v>
+        <v>0.206968</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172817</v>
+        <v>0.172742</v>
       </c>
       <c r="C136" t="n">
-        <v>0.199648</v>
+        <v>0.199736</v>
       </c>
       <c r="D136" t="n">
         <v>0.206143</v>
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163926</v>
+        <v>0.163788</v>
       </c>
       <c r="C137" t="n">
-        <v>0.198787</v>
+        <v>0.198681</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224933</v>
+        <v>0.224902</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245072</v>
+        <v>0.244956</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220934</v>
+        <v>0.221088</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222493</v>
+        <v>0.222505</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.24126</v>
+        <v>0.241267</v>
       </c>
       <c r="C139" t="n">
-        <v>0.216957</v>
+        <v>0.216974</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220376</v>
+        <v>0.220396</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.236453</v>
+        <v>0.236273</v>
       </c>
       <c r="C140" t="n">
-        <v>0.213999</v>
+        <v>0.214081</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218582</v>
+        <v>0.218577</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231383</v>
+        <v>0.230978</v>
       </c>
       <c r="C141" t="n">
-        <v>0.211757</v>
+        <v>0.211807</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216932</v>
+        <v>0.216938</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.225978</v>
+        <v>0.226078</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209856</v>
+        <v>0.20991</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215488</v>
+        <v>0.215481</v>
       </c>
     </row>
     <row r="143">
@@ -5223,10 +5223,10 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220848</v>
+        <v>0.220893</v>
       </c>
       <c r="C143" t="n">
-        <v>0.208299</v>
+        <v>0.208322</v>
       </c>
       <c r="D143" t="n">
         <v>0.214029</v>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191619</v>
+        <v>0.190882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189763</v>
+        <v>0.192277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198156</v>
+        <v>0.198763</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187534</v>
+        <v>0.188351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207518</v>
+        <v>0.207514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198746</v>
+        <v>0.198618</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18262</v>
+        <v>0.18337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226691</v>
+        <v>0.226831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199043</v>
+        <v>0.198865</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180195</v>
+        <v>0.180267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248088</v>
+        <v>0.247517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19798</v>
+        <v>0.198334</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.175457</v>
+        <v>0.174775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.271539</v>
+        <v>0.270616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197895</v>
+        <v>0.197694</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168352</v>
+        <v>0.167998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.295672</v>
+        <v>0.296011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.197035</v>
+        <v>0.197183</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16194</v>
+        <v>0.161351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.138473</v>
+        <v>0.136741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198684</v>
+        <v>0.198709</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15182</v>
+        <v>0.152004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147373</v>
+        <v>0.146088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215003</v>
+        <v>0.216211</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235771</v>
+        <v>0.235761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.157906</v>
+        <v>0.154669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215107</v>
+        <v>0.214965</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231906</v>
+        <v>0.232472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165994</v>
+        <v>0.163488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212641</v>
+        <v>0.213656</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22802</v>
+        <v>0.228599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176273</v>
+        <v>0.175208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212609</v>
+        <v>0.212442</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223274</v>
+        <v>0.222898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.186048</v>
+        <v>0.183754</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2114</v>
+        <v>0.211302</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218124</v>
+        <v>0.218164</v>
       </c>
       <c r="C14" t="n">
-        <v>0.197205</v>
+        <v>0.194768</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210758</v>
+        <v>0.21051</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212125</v>
+        <v>0.213101</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209363</v>
+        <v>0.206389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.209663</v>
+        <v>0.209346</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208229</v>
+        <v>0.208029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221765</v>
+        <v>0.219449</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208601</v>
+        <v>0.208288</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203023</v>
+        <v>0.203037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2339</v>
+        <v>0.232667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207527</v>
+        <v>0.207578</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197475</v>
+        <v>0.197164</v>
       </c>
       <c r="C18" t="n">
-        <v>0.250645</v>
+        <v>0.250567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.206733</v>
+        <v>0.206752</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191972</v>
+        <v>0.192009</v>
       </c>
       <c r="C19" t="n">
-        <v>0.26822</v>
+        <v>0.265577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206094</v>
+        <v>0.206202</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186123</v>
+        <v>0.186585</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284471</v>
+        <v>0.283718</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204992</v>
+        <v>0.205068</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.180939</v>
+        <v>0.180902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.307915</v>
+        <v>0.304487</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204258</v>
+        <v>0.204263</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174002</v>
+        <v>0.174236</v>
       </c>
       <c r="C22" t="n">
-        <v>0.174274</v>
+        <v>0.174798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.203608</v>
+        <v>0.204123</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166241</v>
+        <v>0.166618</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179574</v>
+        <v>0.179488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219759</v>
+        <v>0.219309</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239751</v>
+        <v>0.240245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.18566</v>
+        <v>0.187006</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217892</v>
+        <v>0.217657</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236166</v>
+        <v>0.236508</v>
       </c>
       <c r="C25" t="n">
-        <v>0.19162</v>
+        <v>0.193549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21623</v>
+        <v>0.216322</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232523</v>
+        <v>0.232796</v>
       </c>
       <c r="C26" t="n">
-        <v>0.199556</v>
+        <v>0.199829</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214834</v>
+        <v>0.215049</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227033</v>
+        <v>0.227449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.20752</v>
+        <v>0.207654</v>
       </c>
       <c r="D27" t="n">
-        <v>0.213947</v>
+        <v>0.21407</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221923</v>
+        <v>0.22285</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217258</v>
+        <v>0.216167</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212755</v>
+        <v>0.212906</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217572</v>
+        <v>0.217542</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227658</v>
+        <v>0.227271</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211509</v>
+        <v>0.211573</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211354</v>
+        <v>0.211651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239996</v>
+        <v>0.237244</v>
       </c>
       <c r="D30" t="n">
-        <v>0.210286</v>
+        <v>0.210275</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204681</v>
+        <v>0.205518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253998</v>
+        <v>0.250539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.209312</v>
+        <v>0.209346</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200267</v>
+        <v>0.200837</v>
       </c>
       <c r="C32" t="n">
-        <v>0.267401</v>
+        <v>0.266306</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208171</v>
+        <v>0.208256</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195286</v>
+        <v>0.195276</v>
       </c>
       <c r="C33" t="n">
-        <v>0.288108</v>
+        <v>0.283783</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207244</v>
+        <v>0.207434</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189717</v>
+        <v>0.189958</v>
       </c>
       <c r="C34" t="n">
-        <v>0.307724</v>
+        <v>0.304205</v>
       </c>
       <c r="D34" t="n">
-        <v>0.206066</v>
+        <v>0.206227</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184277</v>
+        <v>0.184688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.328001</v>
+        <v>0.326665</v>
       </c>
       <c r="D35" t="n">
-        <v>0.205745</v>
+        <v>0.205633</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178736</v>
+        <v>0.178353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.354377</v>
+        <v>0.351215</v>
       </c>
       <c r="D36" t="n">
-        <v>0.204572</v>
+        <v>0.204583</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170462</v>
+        <v>0.170157</v>
       </c>
       <c r="C37" t="n">
-        <v>0.197308</v>
+        <v>0.197069</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221006</v>
+        <v>0.220728</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242589</v>
+        <v>0.242275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.202456</v>
+        <v>0.20145</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218805</v>
+        <v>0.218303</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238509</v>
+        <v>0.238197</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208758</v>
+        <v>0.208371</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216952</v>
+        <v>0.216944</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233935</v>
+        <v>0.234192</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21569</v>
+        <v>0.214867</v>
       </c>
       <c r="D40" t="n">
-        <v>0.215648</v>
+        <v>0.215637</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228832</v>
+        <v>0.228899</v>
       </c>
       <c r="C41" t="n">
-        <v>0.224104</v>
+        <v>0.224153</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21433</v>
+        <v>0.214606</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223753</v>
+        <v>0.224272</v>
       </c>
       <c r="C42" t="n">
-        <v>0.232145</v>
+        <v>0.232279</v>
       </c>
       <c r="D42" t="n">
-        <v>0.212941</v>
+        <v>0.213077</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218585</v>
+        <v>0.218739</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241781</v>
+        <v>0.241551</v>
       </c>
       <c r="D43" t="n">
-        <v>0.211762</v>
+        <v>0.211686</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213655</v>
+        <v>0.213415</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252413</v>
+        <v>0.25443</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2106</v>
+        <v>0.210555</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208337</v>
+        <v>0.208193</v>
       </c>
       <c r="C45" t="n">
-        <v>0.264807</v>
+        <v>0.264277</v>
       </c>
       <c r="D45" t="n">
-        <v>0.209567</v>
+        <v>0.209477</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203174</v>
+        <v>0.202917</v>
       </c>
       <c r="C46" t="n">
-        <v>0.279581</v>
+        <v>0.281684</v>
       </c>
       <c r="D46" t="n">
-        <v>0.208481</v>
+        <v>0.208523</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197839</v>
+        <v>0.197809</v>
       </c>
       <c r="C47" t="n">
-        <v>0.29749</v>
+        <v>0.294819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.207572</v>
+        <v>0.207907</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19219</v>
+        <v>0.192301</v>
       </c>
       <c r="C48" t="n">
-        <v>0.316772</v>
+        <v>0.31601</v>
       </c>
       <c r="D48" t="n">
-        <v>0.207162</v>
+        <v>0.20725</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186332</v>
+        <v>0.186622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.341023</v>
+        <v>0.339893</v>
       </c>
       <c r="D49" t="n">
-        <v>0.205699</v>
+        <v>0.206315</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.180134</v>
+        <v>0.180476</v>
       </c>
       <c r="C50" t="n">
-        <v>0.364894</v>
+        <v>0.365297</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204899</v>
+        <v>0.204686</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172331</v>
+        <v>0.172534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205449</v>
+        <v>0.205172</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221299</v>
+        <v>0.221201</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.163766</v>
+        <v>0.163193</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210879</v>
+        <v>0.210631</v>
       </c>
       <c r="D52" t="n">
-        <v>0.219585</v>
+        <v>0.219544</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239974</v>
+        <v>0.23987</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21709</v>
+        <v>0.21686</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21794</v>
+        <v>0.217924</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.235416</v>
+        <v>0.235196</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223353</v>
+        <v>0.223942</v>
       </c>
       <c r="D54" t="n">
-        <v>0.216607</v>
+        <v>0.216332</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230581</v>
+        <v>0.230502</v>
       </c>
       <c r="C55" t="n">
-        <v>0.231482</v>
+        <v>0.231435</v>
       </c>
       <c r="D55" t="n">
-        <v>0.214901</v>
+        <v>0.214922</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.225445</v>
+        <v>0.225235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239363</v>
+        <v>0.23964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21363</v>
+        <v>0.213617</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.220253</v>
+        <v>0.220131</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249249</v>
+        <v>0.249516</v>
       </c>
       <c r="D57" t="n">
-        <v>0.212255</v>
+        <v>0.21237</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21409</v>
+        <v>0.214365</v>
       </c>
       <c r="C58" t="n">
-        <v>0.260061</v>
+        <v>0.260478</v>
       </c>
       <c r="D58" t="n">
-        <v>0.211283</v>
+        <v>0.211185</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.209148</v>
+        <v>0.209398</v>
       </c>
       <c r="C59" t="n">
-        <v>0.273401</v>
+        <v>0.272585</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209931</v>
+        <v>0.209951</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203877</v>
+        <v>0.203808</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287577</v>
+        <v>0.287181</v>
       </c>
       <c r="D60" t="n">
-        <v>0.208865</v>
+        <v>0.20893</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198869</v>
+        <v>0.198956</v>
       </c>
       <c r="C61" t="n">
-        <v>0.30462</v>
+        <v>0.303716</v>
       </c>
       <c r="D61" t="n">
-        <v>0.207884</v>
+        <v>0.207864</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193742</v>
+        <v>0.193784</v>
       </c>
       <c r="C62" t="n">
-        <v>0.322611</v>
+        <v>0.32222</v>
       </c>
       <c r="D62" t="n">
-        <v>0.20695</v>
+        <v>0.206881</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188138</v>
+        <v>0.188062</v>
       </c>
       <c r="C63" t="n">
-        <v>0.345047</v>
+        <v>0.344147</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205957</v>
+        <v>0.205931</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181676</v>
+        <v>0.181932</v>
       </c>
       <c r="C64" t="n">
-        <v>0.369651</v>
+        <v>0.369309</v>
       </c>
       <c r="D64" t="n">
-        <v>0.205076</v>
+        <v>0.205015</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.174486</v>
+        <v>0.174635</v>
       </c>
       <c r="C65" t="n">
-        <v>0.210835</v>
+        <v>0.211683</v>
       </c>
       <c r="D65" t="n">
-        <v>0.204121</v>
+        <v>0.204052</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.165686</v>
+        <v>0.165884</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215513</v>
+        <v>0.21649</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220458</v>
+        <v>0.220256</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241141</v>
+        <v>0.241231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.221686</v>
+        <v>0.222422</v>
       </c>
       <c r="D67" t="n">
-        <v>0.218724</v>
+        <v>0.218657</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236823</v>
+        <v>0.23686</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22768</v>
+        <v>0.228291</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217084</v>
+        <v>0.217078</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232325</v>
+        <v>0.232312</v>
       </c>
       <c r="C69" t="n">
-        <v>0.23484</v>
+        <v>0.235613</v>
       </c>
       <c r="D69" t="n">
-        <v>0.215672</v>
+        <v>0.215538</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227143</v>
+        <v>0.227341</v>
       </c>
       <c r="C70" t="n">
-        <v>0.244263</v>
+        <v>0.244256</v>
       </c>
       <c r="D70" t="n">
-        <v>0.214218</v>
+        <v>0.21412</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221773</v>
+        <v>0.221954</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253672</v>
+        <v>0.253368</v>
       </c>
       <c r="D71" t="n">
-        <v>0.212901</v>
+        <v>0.212784</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216407</v>
+        <v>0.216391</v>
       </c>
       <c r="C72" t="n">
-        <v>0.264387</v>
+        <v>0.263674</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211709</v>
+        <v>0.211621</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211198</v>
+        <v>0.211088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.278184</v>
+        <v>0.276692</v>
       </c>
       <c r="D73" t="n">
-        <v>0.210563</v>
+        <v>0.210474</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20553</v>
+        <v>0.205993</v>
       </c>
       <c r="C74" t="n">
-        <v>0.292643</v>
+        <v>0.291516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.209336</v>
+        <v>0.209282</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200528</v>
+        <v>0.200969</v>
       </c>
       <c r="C75" t="n">
-        <v>0.309809</v>
+        <v>0.308229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.208313</v>
+        <v>0.208244</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195449</v>
+        <v>0.195008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.329334</v>
+        <v>0.328184</v>
       </c>
       <c r="D76" t="n">
-        <v>0.207369</v>
+        <v>0.207311</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189872</v>
+        <v>0.189798</v>
       </c>
       <c r="C77" t="n">
-        <v>0.350873</v>
+        <v>0.350672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.206389</v>
+        <v>0.206338</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183858</v>
+        <v>0.18387</v>
       </c>
       <c r="C78" t="n">
-        <v>0.378191</v>
+        <v>0.377634</v>
       </c>
       <c r="D78" t="n">
-        <v>0.205406</v>
+        <v>0.205416</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177129</v>
+        <v>0.176986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.273205</v>
+        <v>0.268187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204577</v>
+        <v>0.204536</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169104</v>
+        <v>0.169247</v>
       </c>
       <c r="C80" t="n">
-        <v>0.274868</v>
+        <v>0.271289</v>
       </c>
       <c r="D80" t="n">
-        <v>0.224257</v>
+        <v>0.224639</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241856</v>
+        <v>0.242027</v>
       </c>
       <c r="C81" t="n">
-        <v>0.274914</v>
+        <v>0.276371</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222746</v>
+        <v>0.222043</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.23611</v>
+        <v>0.237973</v>
       </c>
       <c r="C82" t="n">
-        <v>0.281514</v>
+        <v>0.283488</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220016</v>
+        <v>0.219789</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23124</v>
+        <v>0.233234</v>
       </c>
       <c r="C83" t="n">
-        <v>0.283832</v>
+        <v>0.287015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218087</v>
+        <v>0.217806</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.226354</v>
+        <v>0.228321</v>
       </c>
       <c r="C84" t="n">
-        <v>0.294555</v>
+        <v>0.289418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216228</v>
+        <v>0.215707</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.221121</v>
+        <v>0.22293</v>
       </c>
       <c r="C85" t="n">
-        <v>0.305195</v>
+        <v>0.305862</v>
       </c>
       <c r="D85" t="n">
-        <v>0.214495</v>
+        <v>0.214328</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215635</v>
+        <v>0.217604</v>
       </c>
       <c r="C86" t="n">
-        <v>0.312362</v>
+        <v>0.30837</v>
       </c>
       <c r="D86" t="n">
-        <v>0.212563</v>
+        <v>0.212666</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211859</v>
+        <v>0.212016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.320745</v>
+        <v>0.319543</v>
       </c>
       <c r="D87" t="n">
-        <v>0.211228</v>
+        <v>0.211084</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206608</v>
+        <v>0.206644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.329874</v>
+        <v>0.329068</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209898</v>
+        <v>0.209861</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200968</v>
+        <v>0.201552</v>
       </c>
       <c r="C89" t="n">
-        <v>0.345306</v>
+        <v>0.346837</v>
       </c>
       <c r="D89" t="n">
-        <v>0.208836</v>
+        <v>0.208911</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195917</v>
+        <v>0.196238</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365885</v>
+        <v>0.367782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.207769</v>
+        <v>0.207783</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190729</v>
+        <v>0.191145</v>
       </c>
       <c r="C91" t="n">
-        <v>0.384505</v>
+        <v>0.384785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.206797</v>
+        <v>0.206881</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.184781</v>
+        <v>0.184968</v>
       </c>
       <c r="C92" t="n">
-        <v>0.402222</v>
+        <v>0.402936</v>
       </c>
       <c r="D92" t="n">
-        <v>0.206046</v>
+        <v>0.205978</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.178238</v>
+        <v>0.178363</v>
       </c>
       <c r="C93" t="n">
-        <v>0.433769</v>
+        <v>0.43105</v>
       </c>
       <c r="D93" t="n">
-        <v>0.205211</v>
+        <v>0.205233</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.170437</v>
+        <v>0.171033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441562</v>
+        <v>0.43694</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225364</v>
+        <v>0.225262</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242967</v>
+        <v>0.24313</v>
       </c>
       <c r="C95" t="n">
-        <v>0.440122</v>
+        <v>0.437345</v>
       </c>
       <c r="D95" t="n">
-        <v>0.222253</v>
+        <v>0.221787</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238898</v>
+        <v>0.239131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.444593</v>
+        <v>0.444667</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219788</v>
+        <v>0.219441</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234511</v>
+        <v>0.234717</v>
       </c>
       <c r="C97" t="n">
-        <v>0.460912</v>
+        <v>0.448701</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218047</v>
+        <v>0.217858</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.22755</v>
+        <v>0.229637</v>
       </c>
       <c r="C98" t="n">
-        <v>0.459088</v>
+        <v>0.458258</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216872</v>
+        <v>0.216854</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.222277</v>
+        <v>0.224398</v>
       </c>
       <c r="C99" t="n">
-        <v>0.474371</v>
+        <v>0.46417</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215129</v>
+        <v>0.215087</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.216677</v>
+        <v>0.218817</v>
       </c>
       <c r="C100" t="n">
-        <v>0.480674</v>
+        <v>0.47422</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213285</v>
+        <v>0.213545</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.210977</v>
+        <v>0.213397</v>
       </c>
       <c r="C101" t="n">
-        <v>0.494065</v>
+        <v>0.483493</v>
       </c>
       <c r="D101" t="n">
-        <v>0.211982</v>
+        <v>0.212155</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.205197</v>
+        <v>0.207955</v>
       </c>
       <c r="C102" t="n">
-        <v>0.508837</v>
+        <v>0.5040210000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.210613</v>
+        <v>0.210765</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.199627</v>
+        <v>0.202699</v>
       </c>
       <c r="C103" t="n">
-        <v>0.517889</v>
+        <v>0.518482</v>
       </c>
       <c r="D103" t="n">
-        <v>0.20944</v>
+        <v>0.209536</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.193909</v>
+        <v>0.197451</v>
       </c>
       <c r="C104" t="n">
-        <v>0.543644</v>
+        <v>0.544239</v>
       </c>
       <c r="D104" t="n">
-        <v>0.208485</v>
+        <v>0.208611</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188018</v>
+        <v>0.192062</v>
       </c>
       <c r="C105" t="n">
-        <v>0.572943</v>
+        <v>0.5630579999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.207837</v>
+        <v>0.207982</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.181729</v>
+        <v>0.186339</v>
       </c>
       <c r="C106" t="n">
-        <v>0.582406</v>
+        <v>0.589301</v>
       </c>
       <c r="D106" t="n">
-        <v>0.206961</v>
+        <v>0.206986</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.174951</v>
+        <v>0.180212</v>
       </c>
       <c r="C107" t="n">
-        <v>0.613445</v>
+        <v>0.620993</v>
       </c>
       <c r="D107" t="n">
-        <v>0.205983</v>
+        <v>0.206081</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.166727</v>
+        <v>0.172433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.596436</v>
+        <v>0.590598</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224779</v>
+        <v>0.224572</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.156986</v>
+        <v>0.163412</v>
       </c>
       <c r="C109" t="n">
-        <v>0.602833</v>
+        <v>0.598666</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221623</v>
+        <v>0.221567</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.237942</v>
+        <v>0.24009</v>
       </c>
       <c r="C110" t="n">
-        <v>0.610576</v>
+        <v>0.604962</v>
       </c>
       <c r="D110" t="n">
-        <v>0.219385</v>
+        <v>0.219243</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233598</v>
+        <v>0.235581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.620787</v>
+        <v>0.614127</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217383</v>
+        <v>0.217381</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228863</v>
+        <v>0.230416</v>
       </c>
       <c r="C112" t="n">
-        <v>0.633588</v>
+        <v>0.626869</v>
       </c>
       <c r="D112" t="n">
-        <v>0.215779</v>
+        <v>0.21566</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22339</v>
+        <v>0.225294</v>
       </c>
       <c r="C113" t="n">
-        <v>0.64388</v>
+        <v>0.636913</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214223</v>
+        <v>0.214145</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.217949</v>
+        <v>0.219678</v>
       </c>
       <c r="C114" t="n">
-        <v>0.658624</v>
+        <v>0.650132</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21278</v>
+        <v>0.212747</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212185</v>
+        <v>0.214361</v>
       </c>
       <c r="C115" t="n">
-        <v>0.665574</v>
+        <v>0.65854</v>
       </c>
       <c r="D115" t="n">
-        <v>0.211522</v>
+        <v>0.211464</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206404</v>
+        <v>0.208798</v>
       </c>
       <c r="C116" t="n">
-        <v>0.685578</v>
+        <v>0.678148</v>
       </c>
       <c r="D116" t="n">
-        <v>0.210385</v>
+        <v>0.210333</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200798</v>
+        <v>0.203649</v>
       </c>
       <c r="C117" t="n">
-        <v>0.711714</v>
+        <v>0.702669</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209292</v>
+        <v>0.209226</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.194941</v>
+        <v>0.198309</v>
       </c>
       <c r="C118" t="n">
-        <v>0.744236</v>
+        <v>0.735255</v>
       </c>
       <c r="D118" t="n">
-        <v>0.208307</v>
+        <v>0.208429</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19296</v>
+        <v>0.192875</v>
       </c>
       <c r="C119" t="n">
-        <v>0.783009</v>
+        <v>0.771477</v>
       </c>
       <c r="D119" t="n">
-        <v>0.207595</v>
+        <v>0.207538</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.187566</v>
+        <v>0.187175</v>
       </c>
       <c r="C120" t="n">
-        <v>0.828484</v>
+        <v>0.818098</v>
       </c>
       <c r="D120" t="n">
-        <v>0.206733</v>
+        <v>0.206666</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.181317</v>
+        <v>0.180933</v>
       </c>
       <c r="C121" t="n">
-        <v>0.885643</v>
+        <v>0.872412</v>
       </c>
       <c r="D121" t="n">
-        <v>0.205834</v>
+        <v>0.205774</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.173592</v>
+        <v>0.173444</v>
       </c>
       <c r="C122" t="n">
-        <v>0.681011</v>
+        <v>0.683765</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205081</v>
+        <v>0.205068</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164325</v>
+        <v>0.164367</v>
       </c>
       <c r="C123" t="n">
-        <v>0.687847</v>
+        <v>0.691984</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222071</v>
+        <v>0.221987</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240979</v>
+        <v>0.240728</v>
       </c>
       <c r="C124" t="n">
-        <v>0.696511</v>
+        <v>0.699445</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219949</v>
+        <v>0.219755</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236758</v>
+        <v>0.236542</v>
       </c>
       <c r="C125" t="n">
-        <v>0.722016</v>
+        <v>0.710737</v>
       </c>
       <c r="D125" t="n">
-        <v>0.218059</v>
+        <v>0.217827</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231853</v>
+        <v>0.231704</v>
       </c>
       <c r="C126" t="n">
-        <v>0.73168</v>
+        <v>0.719747</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216306</v>
+        <v>0.216171</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.22666</v>
+        <v>0.226383</v>
       </c>
       <c r="C127" t="n">
-        <v>0.743096</v>
+        <v>0.7349599999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.214701</v>
+        <v>0.214576</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221015</v>
+        <v>0.220943</v>
       </c>
       <c r="C128" t="n">
-        <v>0.758807</v>
+        <v>0.740352</v>
       </c>
       <c r="D128" t="n">
-        <v>0.213292</v>
+        <v>0.213146</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215693</v>
+        <v>0.215553</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776018</v>
+        <v>0.769835</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21202</v>
+        <v>0.211872</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210291</v>
+        <v>0.209994</v>
       </c>
       <c r="C130" t="n">
-        <v>0.791331</v>
+        <v>0.792646</v>
       </c>
       <c r="D130" t="n">
-        <v>0.210757</v>
+        <v>0.210628</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204813</v>
+        <v>0.204729</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8257989999999999</v>
+        <v>0.819816</v>
       </c>
       <c r="D131" t="n">
-        <v>0.209618</v>
+        <v>0.209481</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199629</v>
+        <v>0.199543</v>
       </c>
       <c r="C132" t="n">
-        <v>0.844502</v>
+        <v>0.852181</v>
       </c>
       <c r="D132" t="n">
-        <v>0.208544</v>
+        <v>0.208392</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.194191</v>
+        <v>0.194211</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9023099999999999</v>
+        <v>0.888277</v>
       </c>
       <c r="D133" t="n">
-        <v>0.207533</v>
+        <v>0.207345</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.188672</v>
+        <v>0.188549</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9336140000000001</v>
+        <v>0.946618</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20657</v>
+        <v>0.206497</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.182648</v>
+        <v>0.182513</v>
       </c>
       <c r="C135" t="n">
-        <v>1.01611</v>
+        <v>1.00155</v>
       </c>
       <c r="D135" t="n">
-        <v>0.205702</v>
+        <v>0.205634</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.175787</v>
+        <v>0.175523</v>
       </c>
       <c r="C136" t="n">
-        <v>0.747519</v>
+        <v>0.76603</v>
       </c>
       <c r="D136" t="n">
-        <v>0.204877</v>
+        <v>0.204861</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167266</v>
+        <v>0.167487</v>
       </c>
       <c r="C137" t="n">
-        <v>0.759997</v>
+        <v>0.768818</v>
       </c>
       <c r="D137" t="n">
-        <v>0.223097</v>
+        <v>0.223045</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242023</v>
+        <v>0.241839</v>
       </c>
       <c r="C138" t="n">
-        <v>0.767244</v>
+        <v>0.779809</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22064</v>
+        <v>0.220561</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.237789</v>
+        <v>0.237619</v>
       </c>
       <c r="C139" t="n">
-        <v>0.765087</v>
+        <v>0.778707</v>
       </c>
       <c r="D139" t="n">
-        <v>0.218525</v>
+        <v>0.218555</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232959</v>
+        <v>0.232932</v>
       </c>
       <c r="C140" t="n">
-        <v>0.77535</v>
+        <v>0.796969</v>
       </c>
       <c r="D140" t="n">
-        <v>0.216837</v>
+        <v>0.216821</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.228006</v>
+        <v>0.227789</v>
       </c>
       <c r="C141" t="n">
-        <v>0.795422</v>
+        <v>0.802033</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215189</v>
+        <v>0.215164</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222387</v>
+        <v>0.222334</v>
       </c>
       <c r="C142" t="n">
-        <v>0.801372</v>
+        <v>0.820917</v>
       </c>
       <c r="D142" t="n">
-        <v>0.213794</v>
+        <v>0.213725</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216846</v>
+        <v>0.216873</v>
       </c>
       <c r="C143" t="n">
-        <v>0.826707</v>
+        <v>0.831619</v>
       </c>
       <c r="D143" t="n">
-        <v>0.212316</v>
+        <v>0.212354</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20454</v>
+        <v>0.201775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193423</v>
+        <v>0.193681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200224</v>
+        <v>0.200641</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196943</v>
+        <v>0.197199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193751</v>
+        <v>0.194049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200551</v>
+        <v>0.200826</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193535</v>
+        <v>0.193625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194312</v>
+        <v>0.194172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200856</v>
+        <v>0.200906</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18872</v>
+        <v>0.18875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.193219</v>
+        <v>0.193583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200779</v>
+        <v>0.200435</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183163</v>
+        <v>0.183171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.193568</v>
+        <v>0.192839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200132</v>
+        <v>0.200354</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175915</v>
+        <v>0.17618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193367</v>
+        <v>0.193722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19949</v>
+        <v>0.199869</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168369</v>
+        <v>0.168233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192694</v>
+        <v>0.192503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19985</v>
+        <v>0.199534</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158287</v>
+        <v>0.157805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192656</v>
+        <v>0.19266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218204</v>
+        <v>0.218109</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23957</v>
+        <v>0.240408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21438</v>
+        <v>0.213837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216629</v>
+        <v>0.216355</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234317</v>
+        <v>0.235173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211289</v>
+        <v>0.209771</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21517</v>
+        <v>0.215745</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231585</v>
+        <v>0.231713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208121</v>
+        <v>0.20802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214691</v>
+        <v>0.214791</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228115</v>
+        <v>0.227519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2074</v>
+        <v>0.206862</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212794</v>
+        <v>0.212802</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2217</v>
+        <v>0.221487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.205999</v>
+        <v>0.205963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212049</v>
+        <v>0.212332</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214722</v>
+        <v>0.214608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204922</v>
+        <v>0.204896</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211423</v>
+        <v>0.211424</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211123</v>
+        <v>0.209668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204012</v>
+        <v>0.204132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210429</v>
+        <v>0.210354</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206791</v>
+        <v>0.205378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20342</v>
+        <v>0.203317</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209609</v>
+        <v>0.209709</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200965</v>
+        <v>0.199805</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202248</v>
+        <v>0.202345</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208719</v>
+        <v>0.208588</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.196691</v>
+        <v>0.194958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201138</v>
+        <v>0.201515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207761</v>
+        <v>0.207702</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190085</v>
+        <v>0.1895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200702</v>
+        <v>0.200384</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207017</v>
+        <v>0.207072</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184875</v>
+        <v>0.183859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199334</v>
+        <v>0.199397</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206146</v>
+        <v>0.206133</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177515</v>
+        <v>0.177284</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198509</v>
+        <v>0.19902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205315</v>
+        <v>0.205225</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170241</v>
+        <v>0.169523</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197727</v>
+        <v>0.197904</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222618</v>
+        <v>0.222429</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.243275</v>
+        <v>0.242792</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215516</v>
+        <v>0.215403</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220152</v>
+        <v>0.220238</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23985</v>
+        <v>0.240046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.213215</v>
+        <v>0.213233</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218636</v>
+        <v>0.218692</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233719</v>
+        <v>0.234116</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211331</v>
+        <v>0.212195</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217078</v>
+        <v>0.21691</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229835</v>
+        <v>0.230397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.209945</v>
+        <v>0.210453</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215618</v>
+        <v>0.215345</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.226327</v>
+        <v>0.22555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208474</v>
+        <v>0.208576</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214455</v>
+        <v>0.214152</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220264</v>
+        <v>0.219725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207263</v>
+        <v>0.207055</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213175</v>
+        <v>0.212995</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214323</v>
+        <v>0.214541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.205669</v>
+        <v>0.205571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211872</v>
+        <v>0.211655</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208145</v>
+        <v>0.209648</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20458</v>
+        <v>0.20444</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2108</v>
+        <v>0.210602</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201873</v>
+        <v>0.202248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.203301</v>
+        <v>0.20314</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209921</v>
+        <v>0.209666</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197016</v>
+        <v>0.197389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.202174</v>
+        <v>0.202033</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208977</v>
+        <v>0.208857</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192199</v>
+        <v>0.192711</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201302</v>
+        <v>0.201217</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208144</v>
+        <v>0.207906</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186975</v>
+        <v>0.187303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200114</v>
+        <v>0.199997</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207034</v>
+        <v>0.206777</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180395</v>
+        <v>0.180846</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199824</v>
+        <v>0.199789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206422</v>
+        <v>0.20622</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172106</v>
+        <v>0.172253</v>
       </c>
       <c r="C37" t="n">
-        <v>0.199118</v>
+        <v>0.198981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223001</v>
+        <v>0.222668</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246065</v>
+        <v>0.244763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215032</v>
+        <v>0.215014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220887</v>
+        <v>0.220852</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241224</v>
+        <v>0.241497</v>
       </c>
       <c r="C39" t="n">
-        <v>0.213213</v>
+        <v>0.213296</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219271</v>
+        <v>0.219258</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23578</v>
+        <v>0.235998</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211706</v>
+        <v>0.211892</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217959</v>
+        <v>0.217915</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231637</v>
+        <v>0.231774</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210497</v>
+        <v>0.210339</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216533</v>
+        <v>0.216508</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226907</v>
+        <v>0.226792</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208837</v>
+        <v>0.208858</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215045</v>
+        <v>0.215055</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220627</v>
+        <v>0.2217</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207259</v>
+        <v>0.207396</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213611</v>
+        <v>0.213499</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215785</v>
+        <v>0.215476</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206288</v>
+        <v>0.20629</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212467</v>
+        <v>0.212391</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209815</v>
+        <v>0.210492</v>
       </c>
       <c r="C45" t="n">
-        <v>0.205093</v>
+        <v>0.205116</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211425</v>
+        <v>0.211304</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205666</v>
+        <v>0.205479</v>
       </c>
       <c r="C46" t="n">
-        <v>0.203884</v>
+        <v>0.203888</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210216</v>
+        <v>0.210074</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200165</v>
+        <v>0.200298</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203063</v>
+        <v>0.203013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209422</v>
+        <v>0.209283</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193995</v>
+        <v>0.194315</v>
       </c>
       <c r="C48" t="n">
-        <v>0.202018</v>
+        <v>0.202016</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208462</v>
+        <v>0.20835</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188938</v>
+        <v>0.189076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201073</v>
+        <v>0.200946</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207356</v>
+        <v>0.207265</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182651</v>
+        <v>0.182512</v>
       </c>
       <c r="C50" t="n">
-        <v>0.199985</v>
+        <v>0.200014</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20638</v>
+        <v>0.206319</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176193</v>
+        <v>0.17611</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198904</v>
+        <v>0.199085</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223698</v>
+        <v>0.224021</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166829</v>
+        <v>0.167378</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198237</v>
+        <v>0.198264</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221607</v>
+        <v>0.221584</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240993</v>
+        <v>0.244065</v>
       </c>
       <c r="C53" t="n">
-        <v>0.213846</v>
+        <v>0.213861</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220073</v>
+        <v>0.219918</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237066</v>
+        <v>0.239926</v>
       </c>
       <c r="C54" t="n">
-        <v>0.212086</v>
+        <v>0.212289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218518</v>
+        <v>0.218403</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23234</v>
+        <v>0.235218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.210774</v>
+        <v>0.210818</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217039</v>
+        <v>0.216997</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226776</v>
+        <v>0.22823</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209431</v>
+        <v>0.209377</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215672</v>
+        <v>0.215509</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221251</v>
+        <v>0.223223</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208027</v>
+        <v>0.208108</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214484</v>
+        <v>0.214375</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214981</v>
+        <v>0.217289</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206787</v>
+        <v>0.206887</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213193</v>
+        <v>0.213077</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208955</v>
+        <v>0.211511</v>
       </c>
       <c r="C59" t="n">
-        <v>0.205618</v>
+        <v>0.205605</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211812</v>
+        <v>0.211645</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205293</v>
+        <v>0.206505</v>
       </c>
       <c r="C60" t="n">
         <v>0.20449</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210633</v>
+        <v>0.210488</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200968</v>
+        <v>0.201161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203372</v>
+        <v>0.203393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209558</v>
+        <v>0.209414</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196266</v>
+        <v>0.19664</v>
       </c>
       <c r="C62" t="n">
-        <v>0.202272</v>
+        <v>0.202337</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208525</v>
+        <v>0.208363</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190945</v>
+        <v>0.191057</v>
       </c>
       <c r="C63" t="n">
-        <v>0.201443</v>
+        <v>0.201439</v>
       </c>
       <c r="D63" t="n">
-        <v>0.208003</v>
+        <v>0.207833</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184372</v>
+        <v>0.184109</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200471</v>
+        <v>0.200458</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206722</v>
+        <v>0.206494</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177645</v>
+        <v>0.177351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.199362</v>
+        <v>0.19929</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205768</v>
+        <v>0.205677</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169534</v>
+        <v>0.169353</v>
       </c>
       <c r="C66" t="n">
-        <v>0.198518</v>
+        <v>0.198346</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22276</v>
+        <v>0.222306</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242247</v>
+        <v>0.241184</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219941</v>
+        <v>0.215208</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220747</v>
+        <v>0.220685</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237538</v>
+        <v>0.237378</v>
       </c>
       <c r="C68" t="n">
-        <v>0.217292</v>
+        <v>0.213596</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219238</v>
+        <v>0.218976</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.234022</v>
+        <v>0.233345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.214698</v>
+        <v>0.21179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217675</v>
+        <v>0.217496</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227837</v>
+        <v>0.23003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.211945</v>
+        <v>0.210354</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216417</v>
+        <v>0.216197</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222768</v>
+        <v>0.22419</v>
       </c>
       <c r="C71" t="n">
-        <v>0.209859</v>
+        <v>0.208918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214864</v>
+        <v>0.214711</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21674</v>
+        <v>0.219063</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207842</v>
+        <v>0.207535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213715</v>
+        <v>0.213604</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210812</v>
+        <v>0.213669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206424</v>
+        <v>0.206211</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212471</v>
+        <v>0.212359</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205924</v>
+        <v>0.208472</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205066</v>
+        <v>0.204997</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211345</v>
+        <v>0.211208</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200265</v>
+        <v>0.198682</v>
       </c>
       <c r="C75" t="n">
-        <v>0.203993</v>
+        <v>0.203888</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210292</v>
+        <v>0.210099</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193583</v>
+        <v>0.193471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.202808</v>
+        <v>0.202854</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209288</v>
+        <v>0.209132</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187707</v>
+        <v>0.187571</v>
       </c>
       <c r="C77" t="n">
-        <v>0.201799</v>
+        <v>0.201831</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208281</v>
+        <v>0.208149</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.181359</v>
+        <v>0.180937</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200841</v>
+        <v>0.200838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207315</v>
+        <v>0.207227</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179633</v>
+        <v>0.179994</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19982</v>
+        <v>0.199848</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206467</v>
+        <v>0.206353</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.17319</v>
+        <v>0.172691</v>
       </c>
       <c r="C80" t="n">
-        <v>0.198809</v>
+        <v>0.198779</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225471</v>
+        <v>0.225561</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243514</v>
+        <v>0.243945</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225919</v>
+        <v>0.226613</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223036</v>
+        <v>0.222822</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240079</v>
+        <v>0.24106</v>
       </c>
       <c r="C82" t="n">
-        <v>0.220252</v>
+        <v>0.219865</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221077</v>
+        <v>0.220465</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236323</v>
+        <v>0.236754</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215289</v>
+        <v>0.214881</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219231</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23137</v>
+        <v>0.231132</v>
       </c>
       <c r="C84" t="n">
-        <v>0.21224</v>
+        <v>0.211746</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217511</v>
+        <v>0.217155</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224968</v>
+        <v>0.2255</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210157</v>
+        <v>0.209778</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21592</v>
+        <v>0.21558</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219729</v>
+        <v>0.220098</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208899</v>
+        <v>0.208342</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214451</v>
+        <v>0.214276</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214219</v>
+        <v>0.213679</v>
       </c>
       <c r="C87" t="n">
-        <v>0.207289</v>
+        <v>0.207117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21309</v>
+        <v>0.212895</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20705</v>
+        <v>0.20748</v>
       </c>
       <c r="C88" t="n">
-        <v>0.206058</v>
+        <v>0.205633</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211673</v>
+        <v>0.211542</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201171</v>
+        <v>0.201473</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204502</v>
+        <v>0.20432</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210549</v>
+        <v>0.210421</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195545</v>
+        <v>0.195598</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203286</v>
+        <v>0.203202</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209506</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189289</v>
+        <v>0.189672</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202181</v>
+        <v>0.202125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208496</v>
+        <v>0.208455</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182937</v>
+        <v>0.183539</v>
       </c>
       <c r="C92" t="n">
-        <v>0.201223</v>
+        <v>0.201035</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207499</v>
+        <v>0.207426</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176207</v>
+        <v>0.176637</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200031</v>
+        <v>0.200093</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206677</v>
+        <v>0.206607</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16829</v>
+        <v>0.168577</v>
       </c>
       <c r="C94" t="n">
-        <v>0.199185</v>
+        <v>0.199298</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226718</v>
+        <v>0.22665</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244861</v>
+        <v>0.244831</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222048</v>
+        <v>0.222437</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223518</v>
+        <v>0.223526</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240355</v>
+        <v>0.240123</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217716</v>
+        <v>0.218019</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220975</v>
+        <v>0.220977</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236683</v>
+        <v>0.236788</v>
       </c>
       <c r="C97" t="n">
-        <v>0.214855</v>
+        <v>0.21493</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2192</v>
+        <v>0.219247</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231009</v>
+        <v>0.231224</v>
       </c>
       <c r="C98" t="n">
-        <v>0.212198</v>
+        <v>0.212345</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218025</v>
+        <v>0.21819</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225278</v>
+        <v>0.226383</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210185</v>
+        <v>0.210458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216684</v>
+        <v>0.216657</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219805</v>
+        <v>0.220129</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208667</v>
+        <v>0.208839</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215275</v>
+        <v>0.215399</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214202</v>
+        <v>0.214577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.207074</v>
+        <v>0.20726</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213802</v>
+        <v>0.213857</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20808</v>
+        <v>0.208109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.205715</v>
+        <v>0.205868</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212121</v>
+        <v>0.212199</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205652</v>
+        <v>0.20593</v>
       </c>
       <c r="C103" t="n">
-        <v>0.204491</v>
+        <v>0.204699</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211032</v>
+        <v>0.211061</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200145</v>
+        <v>0.2003</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203253</v>
+        <v>0.203451</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209917</v>
+        <v>0.210001</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19462</v>
+        <v>0.194934</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2023</v>
+        <v>0.202398</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209161</v>
+        <v>0.209341</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.189085</v>
+        <v>0.188971</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201221</v>
+        <v>0.201349</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208307</v>
+        <v>0.208326</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183234</v>
+        <v>0.183097</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200116</v>
+        <v>0.200282</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207327</v>
+        <v>0.207085</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176154</v>
+        <v>0.176258</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199267</v>
+        <v>0.199392</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226465</v>
+        <v>0.226533</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167426</v>
+        <v>0.167525</v>
       </c>
       <c r="C109" t="n">
-        <v>0.198427</v>
+        <v>0.198332</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223522</v>
+        <v>0.223431</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243548</v>
+        <v>0.243246</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218782</v>
+        <v>0.21883</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221288</v>
+        <v>0.221203</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239193</v>
+        <v>0.239117</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215016</v>
+        <v>0.215163</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219386</v>
+        <v>0.219262</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234262</v>
+        <v>0.234125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212491</v>
+        <v>0.212599</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217645</v>
+        <v>0.21753</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.228696</v>
+        <v>0.2288</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210459</v>
+        <v>0.210487</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215967</v>
+        <v>0.215991</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223243</v>
+        <v>0.223188</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208773</v>
+        <v>0.208751</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214743</v>
+        <v>0.214651</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217372</v>
+        <v>0.217262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207298</v>
+        <v>0.207235</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213448</v>
+        <v>0.213305</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211924</v>
+        <v>0.211782</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205966</v>
+        <v>0.205906</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212158</v>
+        <v>0.212163</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206103</v>
+        <v>0.20621</v>
       </c>
       <c r="C117" t="n">
-        <v>0.204644</v>
+        <v>0.204699</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210952</v>
+        <v>0.210828</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200679</v>
+        <v>0.200804</v>
       </c>
       <c r="C118" t="n">
-        <v>0.203849</v>
+        <v>0.20384</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210155</v>
+        <v>0.210156</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195556</v>
+        <v>0.195528</v>
       </c>
       <c r="C119" t="n">
-        <v>0.202894</v>
+        <v>0.202805</v>
       </c>
       <c r="D119" t="n">
-        <v>0.20932</v>
+        <v>0.209231</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189683</v>
+        <v>0.190002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.201848</v>
+        <v>0.201745</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208233</v>
+        <v>0.20821</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1833</v>
+        <v>0.18379</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200717</v>
+        <v>0.200699</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207327</v>
+        <v>0.207149</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17599</v>
+        <v>0.176493</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199758</v>
+        <v>0.199717</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206437</v>
+        <v>0.20634</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167551</v>
+        <v>0.16801</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1989</v>
+        <v>0.198722</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223894</v>
+        <v>0.223911</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243284</v>
+        <v>0.242717</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21928</v>
+        <v>0.219056</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221706</v>
+        <v>0.221462</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239138</v>
+        <v>0.23852</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215622</v>
+        <v>0.215471</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219634</v>
+        <v>0.219653</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234714</v>
+        <v>0.234532</v>
       </c>
       <c r="C126" t="n">
-        <v>0.213025</v>
+        <v>0.212837</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217942</v>
+        <v>0.217743</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229344</v>
+        <v>0.229374</v>
       </c>
       <c r="C127" t="n">
-        <v>0.210821</v>
+        <v>0.210758</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216411</v>
+        <v>0.216398</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224203</v>
+        <v>0.225031</v>
       </c>
       <c r="C128" t="n">
-        <v>0.209158</v>
+        <v>0.209014</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215104</v>
+        <v>0.215007</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217933</v>
+        <v>0.219567</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207688</v>
+        <v>0.207538</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213728</v>
+        <v>0.213538</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211505</v>
+        <v>0.211333</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206314</v>
+        <v>0.20619</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212524</v>
+        <v>0.212437</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205328</v>
+        <v>0.204934</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205099</v>
+        <v>0.204947</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211294</v>
+        <v>0.211226</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.202055</v>
+        <v>0.198859</v>
       </c>
       <c r="C132" t="n">
-        <v>0.203886</v>
+        <v>0.203759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2103</v>
+        <v>0.210283</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19787</v>
+        <v>0.197279</v>
       </c>
       <c r="C133" t="n">
-        <v>0.202796</v>
+        <v>0.202627</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209013</v>
+        <v>0.209009</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186964</v>
+        <v>0.186551</v>
       </c>
       <c r="C134" t="n">
-        <v>0.201713</v>
+        <v>0.201632</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2079